--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennagreene/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B66A94-5497-FD44-A432-93CD71E0D467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F81504-B0E2-4C4E-90DC-6B8B0E5B9506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1000" windowWidth="28420" windowHeight="15760" activeTab="1" xr2:uid="{27AF86FA-D4C6-8648-9C3F-13CEB56E391C}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="14280" windowHeight="15760" activeTab="1" xr2:uid="{27AF86FA-D4C6-8648-9C3F-13CEB56E391C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="208">
   <si>
     <t>Refineries</t>
   </si>
@@ -637,6 +637,30 @@
   </si>
   <si>
     <t>Data Source</t>
+  </si>
+  <si>
+    <t>Ideas JG</t>
+  </si>
+  <si>
+    <t>CHAT database (radio)</t>
+  </si>
+  <si>
+    <t>CHAT database, from Mitchell (railline)</t>
+  </si>
+  <si>
+    <t>CHAT database, from Mitchell (ship_steam)</t>
+  </si>
+  <si>
+    <t>CHAT database, from Mitchell and World Bank (telephone)</t>
+  </si>
+  <si>
+    <t>CHAT database, from Banks and World Bank (tv)</t>
+  </si>
+  <si>
+    <t>CHAT database, from Mitchell and World Bank (vehicle_car, might also include vehicle_com?)</t>
+  </si>
+  <si>
+    <t>Might be mostly US focused</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CB4A72-1B50-8C4D-B6E7-06C4748F18B9}">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A69" sqref="A1:A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2185,177 +2209,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436B7163-F664-2046-84C9-DED64B10C419}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>198</v>
       </c>
       <c r="B1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -2440,114 +2476,138 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <f>COUNTA(B2:B70)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <f>B71/69</f>
+        <v>8.6956521739130432E-2</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAD0E4A-A81F-6C4F-8B36-77CA9166E8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64CDD3-DBCD-BC4B-A7B6-591E134D3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25540" windowHeight="16120" xr2:uid="{27AF86FA-D4C6-8648-9C3F-13CEB56E391C}"/>
   </bookViews>
@@ -39,15 +39,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7FBA2FBD-E202-0044-ADA1-C3F11724B558}</author>
+    <author>tc={190078CD-E382-FD44-B578-5AF009ECB335}</author>
+    <author>tc={EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}</author>
   </authors>
   <commentList>
-    <comment ref="A113" authorId="0" shapeId="0" xr:uid="{7FBA2FBD-E202-0044-ADA1-C3F11724B558}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{190078CD-E382-FD44-B578-5AF009ECB335}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Unsure yet on these, need to load data in</t>
+    Does this work for color tv, as this is tv in general?</t>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="1" shapeId="0" xr:uid="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    We do have multi-country data on coal production, is that okay?</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Coal Power</t>
   </si>
@@ -267,27 +276,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Synthetic Filaments</t>
-  </si>
-  <si>
-    <t>Sulphuric Acid</t>
-  </si>
-  <si>
-    <t>Hydrochloric Acid</t>
-  </si>
-  <si>
-    <t>Nitric Acid</t>
-  </si>
-  <si>
-    <t>Caustic Soda</t>
-  </si>
-  <si>
-    <t>Postal and Telegraph Traffic</t>
-  </si>
-  <si>
     <t>Lithium Mine Production</t>
   </si>
   <si>
@@ -363,9 +351,6 @@
     <t>Dishwasher</t>
   </si>
   <si>
-    <t>Dryer</t>
-  </si>
-  <si>
     <t>Ethyl Alcohol</t>
   </si>
   <si>
@@ -396,9 +381,6 @@
     <t>Motorcycles</t>
   </si>
   <si>
-    <t>Nuclear Power</t>
-  </si>
-  <si>
     <t>Oil pipeline</t>
   </si>
   <si>
@@ -426,9 +408,6 @@
     <t>Steamships</t>
   </si>
   <si>
-    <t>Television</t>
-  </si>
-  <si>
     <t>Vacuum</t>
   </si>
   <si>
@@ -480,9 +459,6 @@
     <t>High-speed rail</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>FCC-Refineries</t>
   </si>
   <si>
@@ -565,6 +541,27 @@
   </si>
   <si>
     <t>List of technologies that we have only world or one country data on (meta-analysis version 1.5 only)</t>
+  </si>
+  <si>
+    <t>CHAT (cellphone)</t>
+  </si>
+  <si>
+    <t>CHAT (vehicle_car)</t>
+  </si>
+  <si>
+    <t>CHAT (mail)</t>
+  </si>
+  <si>
+    <t>CHAT (telegram)</t>
+  </si>
+  <si>
+    <t>Telegraph Traffic</t>
+  </si>
+  <si>
+    <t>Postal traffic</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
   </si>
 </sst>
 </file>
@@ -627,11 +624,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -640,7 +636,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -693,6 +689,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -703,6 +769,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -808,6 +884,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1127,18 +1213,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A113" dT="2023-04-25T05:40:47.51" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{7FBA2FBD-E202-0044-ADA1-C3F11724B558}">
-    <text>Unsure yet on these, need to load data in</text>
+  <threadedComment ref="B6" dT="2023-05-02T00:58:03.60" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{190078CD-E382-FD44-B578-5AF009ECB335}">
+    <text>Does this work for color tv, as this is tv in general?</text>
+  </threadedComment>
+  <threadedComment ref="A26" dT="2023-05-02T00:47:39.53" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
+    <text>We do have multi-country data on coal production, is that okay?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436B7163-F664-2046-84C9-DED64B10C419}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,701 +1237,599 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>128</v>
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>56</v>
+      <c r="A14" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>59</v>
+      <c r="A69" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
+      <c r="A70" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>7</v>
+      <c r="A72" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>19</v>
+      <c r="A73" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>8</v>
+      <c r="A75" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>17</v>
+      <c r="A76" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>25</v>
+      <c r="A78" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>167</v>
+      <c r="A79" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G1:G101">
-    <sortCondition ref="G1:G101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C105">
+    <sortCondition descending="1" ref="B2:B105"/>
+    <sortCondition ref="A2:A105"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="F5:I9"/>
   </mergeCells>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G93">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G101">
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G92">
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G86:G87">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G100 G98">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A107 A2:A68">
-    <cfRule type="duplicateValues" dxfId="5" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115:A117">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A1048576 B118:XFD1048576 A1:F5 H1:XFD4 A35:XFD79 B80:XFD110 A80:A112 H10:XFD34 J5:XFD9 A10:F34 A6:E9 D111:XFD117">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1852,147 +1839,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E301DD5-B9F7-8B41-93B1-97833642F2DB}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>166</v>
+      <c r="A1" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -2002,12 +1989,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -2017,32 +2004,32 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -2052,7 +2039,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
@@ -2062,42 +2049,42 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -2107,17 +2094,17 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64CDD3-DBCD-BC4B-A7B6-591E134D3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C06CC-FECE-6840-88F6-C1004C798B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25540" windowHeight="16120" xr2:uid="{27AF86FA-D4C6-8648-9C3F-13CEB56E391C}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="166">
   <si>
     <t>Coal Power</t>
   </si>
@@ -568,7 +568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -596,12 +596,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -636,268 +630,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1227,7 +960,7 @@
   <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1837,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E301DD5-B9F7-8B41-93B1-97833642F2DB}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2105,6 +1838,51 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5C06CC-FECE-6840-88F6-C1004C798B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64071C2-952A-7546-8D25-83EB87A1C06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25540" windowHeight="16120" xr2:uid="{27AF86FA-D4C6-8648-9C3F-13CEB56E391C}"/>
   </bookViews>
@@ -39,19 +39,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={190078CD-E382-FD44-B578-5AF009ECB335}</author>
     <author>tc={EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{190078CD-E382-FD44-B578-5AF009ECB335}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Does this work for color tv, as this is tv in general?</t>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="1" shapeId="0" xr:uid="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Coal Power</t>
   </si>
@@ -345,9 +336,6 @@
     <t>Cellphones</t>
   </si>
   <si>
-    <t>Colour TV</t>
-  </si>
-  <si>
     <t>Dishwasher</t>
   </si>
   <si>
@@ -423,21 +411,6 @@
     <t>Ideas JG</t>
   </si>
   <si>
-    <t>CHAT database (radio)</t>
-  </si>
-  <si>
-    <t>CHAT database, from Mitchell (railline)</t>
-  </si>
-  <si>
-    <t>CHAT database, from Mitchell (ship_steam)</t>
-  </si>
-  <si>
-    <t>CHAT database, from Mitchell and World Bank (telephone)</t>
-  </si>
-  <si>
-    <t>CHAT database, from Banks and World Bank (tv)</t>
-  </si>
-  <si>
     <t>Might be mostly US focused</t>
   </si>
   <si>
@@ -543,18 +516,6 @@
     <t>List of technologies that we have only world or one country data on (meta-analysis version 1.5 only)</t>
   </si>
   <si>
-    <t>CHAT (cellphone)</t>
-  </si>
-  <si>
-    <t>CHAT (vehicle_car)</t>
-  </si>
-  <si>
-    <t>CHAT (mail)</t>
-  </si>
-  <si>
-    <t>CHAT (telegram)</t>
-  </si>
-  <si>
     <t>Telegraph Traffic</t>
   </si>
   <si>
@@ -562,6 +523,9 @@
   </si>
   <si>
     <t>Mitchell</t>
+  </si>
+  <si>
+    <t>TV</t>
   </si>
 </sst>
 </file>
@@ -946,10 +910,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B6" dT="2023-05-02T00:58:03.60" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{190078CD-E382-FD44-B578-5AF009ECB335}">
-    <text>Does this work for color tv, as this is tv in general?</text>
-  </threadedComment>
-  <threadedComment ref="A26" dT="2023-05-02T00:47:39.53" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
+  <threadedComment ref="A17" dT="2023-05-02T00:47:39.53" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
     <text>We do have multi-country data on coal production, is that okay?</text>
   </threadedComment>
 </ThreadedComments>
@@ -957,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436B7163-F664-2046-84C9-DED64B10C419}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,48 +932,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
+      <c r="A5" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1020,10 +972,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1031,11 +980,8 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
+      <c r="A7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1044,10 +990,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1056,10 +999,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1068,497 +1008,446 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>46</v>
+      <c r="A12" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
+      <c r="A14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
+      <c r="A15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
+      <c r="A16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
+      <c r="A19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>90</v>
+      <c r="A20" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
+      <c r="A21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
+      <c r="A23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
+      <c r="A24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>91</v>
+      <c r="A25" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>0</v>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
+      <c r="A28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
+      <c r="A29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>156</v>
+      <c r="A34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>95</v>
+      <c r="A37" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>54</v>
+      <c r="A38" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>45</v>
+      <c r="A39" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>126</v>
+      <c r="A45" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>63</v>
+      <c r="A46" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>64</v>
+      <c r="A47" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>60</v>
+      <c r="A48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
+      <c r="A53" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>62</v>
+      <c r="A54" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>15</v>
+      <c r="A62" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>115</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C105">
-    <sortCondition descending="1" ref="B2:B105"/>
-    <sortCondition ref="A2:A105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
+    <sortCondition descending="1" ref="B2:B96"/>
+    <sortCondition ref="A2:A96"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="F5:I9"/>
@@ -1572,20 +1461,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E301DD5-B9F7-8B41-93B1-97833642F2DB}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1595,7 +1484,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1615,10 +1504,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1627,7 +1516,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1647,7 +1536,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1687,12 +1576,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -1702,7 +1591,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -1722,12 +1611,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -1737,12 +1626,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -1752,12 +1641,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -1782,7 +1671,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -1797,7 +1686,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -1807,17 +1696,17 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -1827,12 +1716,12 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -1842,22 +1731,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -1867,17 +1756,17 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64071C2-952A-7546-8D25-83EB87A1C06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E6775-B4DE-A246-A88D-DFA24C0FCF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25540" windowHeight="16120" xr2:uid="{27AF86FA-D4C6-8648-9C3F-13CEB56E391C}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>tc={EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}</author>
   </authors>
   <commentList>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Coal Power</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Home air conditioning</t>
   </si>
   <si>
-    <t>Iron</t>
-  </si>
-  <si>
     <t>Landline</t>
   </si>
   <si>
@@ -522,10 +519,10 @@
     <t>Postal traffic</t>
   </si>
   <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
     <t>TV</t>
+  </si>
+  <si>
+    <t>Iron ore</t>
   </si>
 </sst>
 </file>
@@ -910,7 +907,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A17" dT="2023-05-02T00:47:39.53" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
+  <threadedComment ref="A16" dT="2023-05-02T00:47:39.53" personId="{08D75CEF-02AB-0447-B4F8-5924F76B9652}" id="{EAF15861-FAE9-6C4B-BEC7-DE5CB6781EAD}">
     <text>We do have multi-country data on coal production, is that okay?</text>
   </threadedComment>
 </ThreadedComments>
@@ -918,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436B7163-F664-2046-84C9-DED64B10C419}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,47 +929,48 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>51</v>
+      <c r="A6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -980,8 +978,8 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
+      <c r="A7" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -990,7 +988,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -999,211 +997,207 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>90</v>
+      <c r="A11" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
+      <c r="A12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>50</v>
+      <c r="A13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
+      <c r="A15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
+      <c r="A18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
+      <c r="A20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>93</v>
+      <c r="A24" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>95</v>
+      <c r="A34" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
+      <c r="A35" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>120</v>
+      <c r="A36" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>60</v>
+      <c r="A39" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>43</v>
+      <c r="A43" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>62</v>
+      <c r="A45" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -1213,32 +1207,32 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -1248,52 +1242,52 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1308,37 +1302,37 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,110 +1341,105 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>110</v>
+      <c r="A78" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s">
-        <v>118</v>
+      <c r="A80" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>111</v>
+      <c r="A82" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>57</v>
+      <c r="A83" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>33</v>
+      <c r="A88" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>67</v>
+      <c r="A89" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
-    <sortCondition descending="1" ref="B2:B96"/>
-    <sortCondition ref="A2:A96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C95">
+    <sortCondition descending="1" ref="B2:B95"/>
+    <sortCondition ref="A2:A95"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="F5:I9"/>
+    <mergeCell ref="F4:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1459,22 +1448,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E301DD5-B9F7-8B41-93B1-97833642F2DB}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1484,7 +1473,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1504,10 +1493,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1516,7 +1505,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1536,7 +1525,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1576,12 +1565,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -1591,7 +1580,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -1611,12 +1600,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -1626,12 +1615,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
@@ -1641,12 +1630,12 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -1671,7 +1660,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -1686,7 +1675,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -1696,17 +1685,17 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -1716,12 +1705,12 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -1731,22 +1720,22 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -1756,22 +1745,27 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545305B-42B5-D644-9DDF-1EC88F8B9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854B35A-2235-7D48-B940-717C6717D2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="4" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId5"/>
+    <sheet name="matrix" sheetId="4" r:id="rId4"/>
+    <sheet name="pivot" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$G$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$214</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$G$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId6"/>
-    <pivotCache cacheId="27" r:id="rId7"/>
+    <pivotCache cacheId="28" r:id="rId6"/>
+    <pivotCache cacheId="29" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,8 +48,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={43711568-4542-9A49-8250-2374BB1C1B35}</author>
+  </authors>
+  <commentList>
+    <comment ref="A87" authorId="0" shapeId="0" xr:uid="{43711568-4542-9A49-8250-2374BB1C1B35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is this different than low-density polyethylene?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}</author>
+  </authors>
+  <commentList>
+    <comment ref="A140" authorId="0" shapeId="0" xr:uid="{59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dup of low-density polyethylene?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="359">
   <si>
     <t>Technology</t>
   </si>
@@ -1111,13 +1147,28 @@
   </si>
   <si>
     <t>Mitchell, Output of Gold and Silver (in metric tons)</t>
+  </si>
+  <si>
+    <t>Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet</t>
+  </si>
+  <si>
+    <t>Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6</t>
+  </si>
+  <si>
+    <t>Mitchell, D6 Output of Main Non-Ferrous Metal Ores</t>
+  </si>
+  <si>
+    <t>Mitchell, D3 Output of Crude Petroleum (in millions of metric tons)</t>
+  </si>
+  <si>
+    <t>Mitchell, Output of Beer (in thousand hectolitres)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1142,6 +1193,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1170,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1180,7 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,10 +1305,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="ARIANA LUCILLE HAMMERSMITH" id="{9205D114-041E-5046-B2A5-86E302B2B0FB}" userId="S::ahammersmith@wisc.edu::025745d9-d622-4a49-b6c4-60a802a56fda" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45054.84014039352" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E205" sheet="Sheet4"/>
+    <worksheetSource ref="A1:E205" sheet="matrix"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Technology Name" numFmtId="0">
@@ -1291,7 +1353,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45054.856260532404" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F205" sheet="Sheet4"/>
+    <worksheetSource ref="A1:F205" sheet="matrix"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Technology Name" numFmtId="0">
@@ -4398,7 +4460,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4469,7 +4531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4831,6 +4893,22 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A87" dT="2023-05-09T15:20:22.38" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{43711568-4542-9A49-8250-2374BB1C1B35}">
+    <text>Is this different than low-density polyethylene?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A140" dT="2023-05-09T15:40:56.63" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}">
+    <text>Dup of low-density polyethylene?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
   <dimension ref="A1:A166"/>
@@ -5680,11 +5758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670A17DD-9AA6-1F49-9391-E946B7A2F272}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670A17DD-9AA6-1F49-9391-E946B7A2F272}">
   <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7965,6 +8043,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7972,7 +8051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0558591-E2BF-0048-9321-2B8C368616CF}">
   <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
@@ -9588,22 +9667,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
   <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
+      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="6" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
@@ -9670,7 +9749,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -9684,7 +9763,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -9715,7 +9794,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -9732,7 +9811,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -9746,7 +9825,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -9757,7 +9836,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -9784,6 +9863,9 @@
       <c r="F11" t="s">
         <v>309</v>
       </c>
+      <c r="G11" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9833,7 +9915,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -9844,7 +9926,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -9861,7 +9943,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -9892,7 +9974,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -9909,7 +9991,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -9923,7 +10005,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -9934,7 +10016,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -9968,7 +10050,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -9996,7 +10078,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -10013,7 +10095,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -10030,7 +10112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -10041,7 +10123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -10072,7 +10154,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -10086,7 +10168,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -10103,7 +10185,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -10120,7 +10202,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -10150,6 +10232,9 @@
       <c r="F35" t="s">
         <v>309</v>
       </c>
+      <c r="G35" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -10196,7 +10281,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -10207,7 +10292,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -10224,7 +10309,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -10241,7 +10326,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -10266,7 +10351,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -10280,7 +10365,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -10294,7 +10379,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -10311,7 +10396,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -10325,7 +10410,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -10342,7 +10427,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -10359,7 +10444,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -10376,7 +10461,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -10393,7 +10478,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -10410,7 +10495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -10424,7 +10509,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -10441,7 +10526,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -10452,7 +10537,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -10469,7 +10554,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -10486,7 +10571,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -10500,7 +10585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -10516,8 +10601,11 @@
       <c r="F59" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -10534,7 +10622,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -10548,7 +10636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -10565,7 +10653,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -10582,7 +10670,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -10599,7 +10687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -10613,7 +10701,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -10627,7 +10715,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -10641,7 +10729,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -10686,7 +10774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -10697,7 +10785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>320</v>
       </c>
@@ -10708,7 +10796,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -10722,7 +10810,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -10750,7 +10838,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -10764,7 +10852,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -10778,7 +10866,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -10820,7 +10908,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -10837,7 +10925,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -10868,7 +10956,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>295</v>
       </c>
@@ -10899,7 +10987,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>261</v>
       </c>
@@ -10916,7 +11004,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -10947,7 +11035,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -10964,7 +11052,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -11046,7 +11134,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>157</v>
       </c>
@@ -11063,7 +11151,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>158</v>
       </c>
@@ -11097,7 +11185,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -11152,6 +11240,9 @@
       <c r="F101" t="s">
         <v>309</v>
       </c>
+      <c r="G101" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -11198,7 +11289,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -11248,8 +11339,11 @@
       <c r="F107" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -11266,7 +11360,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -11277,7 +11371,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -11294,7 +11388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -11305,7 +11399,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -11322,7 +11416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>235</v>
       </c>
@@ -11339,7 +11433,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -11364,7 +11458,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -11381,7 +11475,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -11395,7 +11489,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>238</v>
       </c>
@@ -11412,7 +11506,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>181</v>
       </c>
@@ -11426,7 +11520,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>241</v>
       </c>
@@ -11443,7 +11537,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -11460,7 +11554,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>221</v>
       </c>
@@ -11474,7 +11568,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>211</v>
       </c>
@@ -11491,7 +11585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>189</v>
       </c>
@@ -11508,7 +11602,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -11525,7 +11619,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>218</v>
       </c>
@@ -11542,7 +11636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>186</v>
       </c>
@@ -11556,7 +11650,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>191</v>
       </c>
@@ -11590,7 +11684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -11607,7 +11701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>159</v>
       </c>
@@ -11658,7 +11752,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -11692,7 +11786,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>269</v>
       </c>
@@ -11703,7 +11797,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -11805,7 +11899,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -11822,7 +11916,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>71</v>
       </c>
@@ -11839,7 +11933,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -11850,7 +11944,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>257</v>
       </c>
@@ -11867,7 +11961,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -11884,7 +11978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>219</v>
       </c>
@@ -11900,8 +11994,11 @@
       <c r="F148" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -11918,7 +12015,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -11932,7 +12029,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>228</v>
       </c>
@@ -11946,7 +12043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>256</v>
       </c>
@@ -11963,7 +12060,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>214</v>
       </c>
@@ -11974,7 +12071,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>130</v>
       </c>
@@ -11991,7 +12088,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>250</v>
       </c>
@@ -12008,7 +12105,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>38</v>
       </c>
@@ -12022,7 +12119,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -12039,7 +12136,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>267</v>
       </c>
@@ -12056,7 +12153,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -12073,7 +12170,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>282</v>
       </c>
@@ -12088,6 +12185,9 @@
       </c>
       <c r="F160" t="s">
         <v>309</v>
+      </c>
+      <c r="G160" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -12104,7 +12204,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -12118,7 +12218,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -12135,7 +12235,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -12146,7 +12246,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -12160,7 +12260,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -12225,7 +12325,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>297</v>
       </c>
@@ -12256,7 +12356,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>242</v>
       </c>
@@ -12284,7 +12384,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>138</v>
       </c>
@@ -12295,7 +12395,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -12309,7 +12409,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -12354,7 +12454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>292</v>
       </c>
@@ -12399,7 +12499,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -12413,7 +12513,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -12441,7 +12541,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>131</v>
       </c>
@@ -12455,7 +12555,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>140</v>
       </c>
@@ -12466,7 +12566,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>139</v>
       </c>
@@ -12477,7 +12577,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>263</v>
       </c>
@@ -12491,7 +12591,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>308</v>
       </c>
@@ -12508,7 +12608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -12525,7 +12625,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12542,7 +12642,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>135</v>
       </c>
@@ -12615,7 +12715,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -12677,7 +12777,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>265</v>
       </c>
@@ -12691,7 +12791,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>253</v>
       </c>
@@ -12708,7 +12808,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>163</v>
       </c>
@@ -12722,7 +12822,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>136</v>
       </c>
@@ -12733,7 +12833,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>264</v>
       </c>
@@ -12751,19 +12851,7 @@
       <c r="A256" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G205" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G205" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C205">
     <sortCondition ref="A2:A205"/>
   </sortState>
@@ -12771,6 +12859,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12778,8 +12867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB3E67-E1D7-514F-8EDB-F090E7886BBC}">
   <dimension ref="A3:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12836,13 +12925,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>152</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <v>65</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <v>47</v>
       </c>
     </row>
@@ -12862,13 +12951,12 @@
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -12883,13 +12971,13 @@
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>190</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <v>78</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>47</v>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854B35A-2235-7D48-B940-717C6717D2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45360429-E74A-2C4B-B0BB-A7B7D3F1E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="pivot" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$G$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$H$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$214</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId6"/>
-    <pivotCache cacheId="29" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,6 +52,26 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={2E6592CF-B01D-0F43-BE62-675B5600746A}</author>
+  </authors>
+  <commentList>
+    <comment ref="D87" authorId="0" shapeId="0" xr:uid="{2E6592CF-B01D-0F43-BE62-675B5600746A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is this different than low-density polyethylene?
+Reply:
+    Overlaps merge!</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={43711568-4542-9A49-8250-2374BB1C1B35}</author>
   </authors>
   <commentList>
@@ -66,7 +87,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}</author>
@@ -85,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="370">
   <si>
     <t>Technology</t>
   </si>
@@ -1162,13 +1183,46 @@
   </si>
   <si>
     <t>Mitchell, Output of Beer (in thousand hectolitres)</t>
+  </si>
+  <si>
+    <t>not sure what the difference is from above; both PCDB - overlap MERGE</t>
+  </si>
+  <si>
+    <t>keep just the MW metric, drop the rest - rename</t>
+  </si>
+  <si>
+    <t>keep but rename as general biofuels</t>
+  </si>
+  <si>
+    <t>do the same deal for cars</t>
+  </si>
+  <si>
+    <t>keep, rename</t>
+  </si>
+  <si>
+    <t>maybe not?? Bc it goes back to 1882</t>
+  </si>
+  <si>
+    <t>maybe not bc it goes back to 1965 - how does it differ from renewable hydro, mixed hydro?</t>
+  </si>
+  <si>
+    <t>keep, rename as natural gas power</t>
+  </si>
+  <si>
+    <t>drop; BP has better data - maybe not? Ask greg?</t>
+  </si>
+  <si>
+    <t>drop; BP has better data - ask greg if we want to keep both?</t>
+  </si>
+  <si>
+    <t>Span of years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1193,12 +1247,6 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1241,7 +1289,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1249,6 +1297,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4460,7 +4548,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4531,7 +4619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4895,13 +4983,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D87" dT="2023-05-09T15:20:22.38" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{2E6592CF-B01D-0F43-BE62-675B5600746A}">
+    <text>Is this different than low-density polyethylene?</text>
+  </threadedComment>
+  <threadedComment ref="D87" dT="2023-05-11T15:56:19.44" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{D33CB65E-EA06-2D40-90F7-17A8B9F94990}" parentId="{2E6592CF-B01D-0F43-BE62-675B5600746A}">
+    <text>Overlaps merge!</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A87" dT="2023-05-09T15:20:22.38" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{43711568-4542-9A49-8250-2374BB1C1B35}">
     <text>Is this different than low-density polyethylene?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A140" dT="2023-05-09T15:40:56.63" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}">
     <text>Dup of low-density polyethylene?</text>
@@ -4910,859 +5009,1364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
-  <dimension ref="A1:A166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D34" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D87" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D88" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D89" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D106" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D108" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D118" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D124" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D127" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D128" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D135" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D136" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D137" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D138" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D145" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D146" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D151" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D152" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D153" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D154" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D155" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D156" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D157" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D158" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D159" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D160" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D161" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D162" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D163" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D164" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D165" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670A17DD-9AA6-1F49-9391-E946B7A2F272}">
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="K217" sqref="K217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5919,7 +6523,7 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -5990,6 +6594,9 @@
       <c r="I19" t="s">
         <v>309</v>
       </c>
+      <c r="J19" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -6363,7 +6970,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -6495,7 +7102,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -6507,7 +7114,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>283</v>
       </c>
@@ -6519,7 +7126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -6531,7 +7138,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>303</v>
       </c>
@@ -6543,7 +7150,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>236</v>
       </c>
@@ -6555,7 +7162,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -6567,7 +7174,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -6579,7 +7186,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -6588,7 +7195,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -6599,8 +7206,11 @@
       <c r="J73" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -6611,8 +7221,11 @@
       <c r="J74" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>282</v>
       </c>
@@ -6624,7 +7237,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -6633,7 +7246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -6642,7 +7255,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -6654,7 +7267,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -6666,7 +7279,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -7152,7 +7765,7 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
@@ -7206,7 +7819,7 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -7218,7 +7831,7 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -7242,7 +7855,7 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
@@ -7326,7 +7939,7 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -9668,11 +10281,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-  <dimension ref="A1:G256"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9683,16 +10296,17 @@
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>324</v>
       </c>
@@ -9712,10 +10326,13 @@
         <v>345</v>
       </c>
       <c r="G1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -9732,7 +10349,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -9749,7 +10366,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -9759,11 +10376,11 @@
       <c r="D4" t="s">
         <v>309</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -9773,11 +10390,11 @@
       <c r="D5" t="s">
         <v>309</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -9794,7 +10411,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -9811,7 +10428,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -9821,11 +10438,11 @@
       <c r="D8" t="s">
         <v>309</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -9836,7 +10453,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -9850,7 +10467,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -9863,11 +10480,11 @@
       <c r="F11" t="s">
         <v>309</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -9884,7 +10501,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -9898,7 +10515,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -9915,7 +10532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -9926,7 +10543,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -9943,7 +10560,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -9953,11 +10570,11 @@
       <c r="D17" t="s">
         <v>309</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -9974,7 +10591,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -9991,7 +10608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10001,22 +10618,22 @@
       <c r="D20" t="s">
         <v>309</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>309</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -10033,7 +10650,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -10050,7 +10667,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -10060,11 +10677,11 @@
       <c r="D24" t="s">
         <v>309</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -10078,7 +10695,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -10095,7 +10712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -10112,7 +10729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -10123,7 +10740,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -10136,11 +10753,11 @@
       <c r="E29" t="s">
         <v>309</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -10154,7 +10771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -10164,11 +10781,11 @@
       <c r="D31" t="s">
         <v>309</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -10185,7 +10802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -10202,7 +10819,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -10216,7 +10833,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -10232,11 +10849,11 @@
       <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -10253,7 +10870,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -10267,7 +10884,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -10281,7 +10898,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -10292,7 +10909,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -10309,7 +10926,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -10326,7 +10943,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -10337,7 +10954,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -10351,7 +10968,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -10361,11 +10978,11 @@
       <c r="D44" t="s">
         <v>309</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -10379,7 +10996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -10392,11 +11009,11 @@
       <c r="E46" t="s">
         <v>309</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -10406,11 +11023,11 @@
       <c r="D47" t="s">
         <v>309</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -10423,11 +11040,11 @@
       <c r="E48" t="s">
         <v>309</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -10444,7 +11061,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -10461,7 +11078,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -10478,7 +11095,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -10495,7 +11112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -10509,7 +11126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -10526,7 +11143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -10537,7 +11154,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -10554,7 +11171,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -10571,7 +11188,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -10585,7 +11202,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -10601,11 +11218,11 @@
       <c r="F59" t="s">
         <v>309</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -10622,7 +11239,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -10636,7 +11253,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -10653,7 +11270,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -10670,7 +11287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -10687,7 +11304,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -10697,11 +11314,11 @@
       <c r="D65" t="s">
         <v>309</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -10711,11 +11328,11 @@
       <c r="D66" t="s">
         <v>309</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -10725,11 +11342,11 @@
       <c r="D67" t="s">
         <v>309</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -10746,7 +11363,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -10760,7 +11377,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -10774,7 +11391,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -10785,7 +11402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>320</v>
       </c>
@@ -10796,7 +11413,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -10806,22 +11423,22 @@
       <c r="D73" t="s">
         <v>309</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
       <c r="B74" t="s">
         <v>309</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -10838,7 +11455,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -10848,11 +11465,11 @@
       <c r="E76" t="s">
         <v>309</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -10862,11 +11479,11 @@
       <c r="D77" t="s">
         <v>309</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -10876,11 +11493,11 @@
       <c r="D78" t="s">
         <v>309</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -10894,7 +11511,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>266</v>
       </c>
@@ -11168,7 +11785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -11185,7 +11802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -11196,7 +11813,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -11210,7 +11827,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -11224,7 +11841,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -11240,11 +11857,11 @@
       <c r="F101" t="s">
         <v>309</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -11261,7 +11878,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -11275,7 +11892,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -11289,7 +11906,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -11306,7 +11923,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -11323,7 +11940,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -11339,11 +11956,11 @@
       <c r="F107" t="s">
         <v>309</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -11356,22 +11973,22 @@
       <c r="E108" t="s">
         <v>309</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>142</v>
       </c>
       <c r="B109" t="s">
         <v>309</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -11388,7 +12005,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -11399,7 +12016,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -11933,7 +12550,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -11944,7 +12561,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>257</v>
       </c>
@@ -11961,7 +12578,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -11978,7 +12595,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>219</v>
       </c>
@@ -11994,11 +12611,11 @@
       <c r="F148" t="s">
         <v>309</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -12015,7 +12632,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -12029,7 +12646,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>228</v>
       </c>
@@ -12043,7 +12660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>256</v>
       </c>
@@ -12060,7 +12677,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>214</v>
       </c>
@@ -12071,7 +12688,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>130</v>
       </c>
@@ -12088,7 +12705,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>250</v>
       </c>
@@ -12105,7 +12722,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>38</v>
       </c>
@@ -12119,7 +12736,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -12136,7 +12753,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>267</v>
       </c>
@@ -12153,7 +12770,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -12170,7 +12787,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>282</v>
       </c>
@@ -12186,11 +12803,11 @@
       <c r="F160" t="s">
         <v>309</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -12204,7 +12821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -12218,7 +12835,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -12235,7 +12852,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -12246,7 +12863,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -12256,11 +12873,11 @@
       <c r="D165" t="s">
         <v>309</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -12277,7 +12894,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -12294,7 +12911,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>236</v>
       </c>
@@ -12311,7 +12928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -12325,7 +12942,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>297</v>
       </c>
@@ -12342,7 +12959,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -12356,7 +12973,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>242</v>
       </c>
@@ -12367,7 +12984,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>113</v>
       </c>
@@ -12384,18 +13001,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>138</v>
       </c>
       <c r="B174" t="s">
         <v>309</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -12405,11 +13022,11 @@
       <c r="D175" t="s">
         <v>309</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -12420,7 +13037,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -12437,7 +13054,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>84</v>
       </c>
@@ -12454,7 +13071,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>292</v>
       </c>
@@ -12471,7 +13088,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -12485,7 +13102,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -12499,7 +13116,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -12513,7 +13130,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -12524,7 +13141,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>83</v>
       </c>
@@ -12541,7 +13158,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>131</v>
       </c>
@@ -12551,33 +13168,33 @@
       <c r="D185" t="s">
         <v>309</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>140</v>
       </c>
       <c r="B186" t="s">
         <v>309</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>139</v>
       </c>
       <c r="B187" t="s">
         <v>309</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>263</v>
       </c>
@@ -12587,11 +13204,11 @@
       <c r="D188" t="s">
         <v>309</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>308</v>
       </c>
@@ -12608,7 +13225,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -12625,7 +13242,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12642,18 +13259,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>135</v>
       </c>
       <c r="B192" t="s">
         <v>309</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>76</v>
       </c>
@@ -12670,7 +13287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>35</v>
       </c>
@@ -12684,7 +13301,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>82</v>
       </c>
@@ -12701,7 +13318,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>125</v>
       </c>
@@ -12715,7 +13332,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -12725,11 +13342,11 @@
       <c r="D197" t="s">
         <v>309</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>81</v>
       </c>
@@ -12746,7 +13363,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>80</v>
       </c>
@@ -12763,7 +13380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -12777,7 +13394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>265</v>
       </c>
@@ -12787,11 +13404,11 @@
       <c r="D201" t="s">
         <v>309</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>253</v>
       </c>
@@ -12808,7 +13425,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>163</v>
       </c>
@@ -12822,18 +13439,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>136</v>
       </c>
       <c r="B204" t="s">
         <v>309</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>264</v>
       </c>
@@ -12851,7 +13468,7 @@
       <c r="A256" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G205" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
+  <autoFilter ref="A1:H205" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C205">
     <sortCondition ref="A2:A205"/>
   </sortState>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45360429-E74A-2C4B-B0BB-A7B7D3F1E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED586326-956C-C344-A351-B0FDBB17001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="28740" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,53 +52,168 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2E6592CF-B01D-0F43-BE62-675B5600746A}</author>
+    <author>tc={5E6233A5-463E-2742-B542-E6CE94AD76D6}</author>
+    <author>tc={E5BD1964-981C-F640-AE19-8E04B76173C2}</author>
+    <author>tc={022D28A5-C668-AA46-BD2B-C648063EF5B6}</author>
+    <author>tc={50B8E796-C419-6849-BAF0-939F592D9A87}</author>
+    <author>tc={14D22BD7-4898-BD4C-8943-EBB9CDDC9368}</author>
+    <author>tc={18FB2530-F9F5-BA46-B3CC-6850F6DCCD35}</author>
+    <author>tc={860873BF-2826-8E49-9306-49F75C18740A}</author>
+    <author>tc={DECA13F4-49BB-504C-B597-AF54CA005960}</author>
+    <author>tc={F266A775-B3D0-0A41-B5EB-29ABAED1FA3D}</author>
+    <author>tc={87184B9F-3D50-EB42-9B47-DA4AA3936C3F}</author>
+    <author>tc={FDADCA51-0E1C-FC44-8C03-443001F60400}</author>
+    <author>tc={CC299B05-B5D1-3A40-8868-CB337F133C0D}</author>
+    <author>tc={287908FC-2F48-AE48-8BDE-6D437125295A}</author>
+    <author>tc={5EE1E82A-7DF0-5847-989B-FF4E7D288EEB}</author>
+    <author>tc={C0D61A5B-298C-B340-A69F-6D086F18627A}</author>
+    <author>tc={C2D96083-F121-6A47-B8D4-CDEF9A63F7D4}</author>
+    <author>tc={F39A1BB5-38A0-7948-829C-F30EC141AB56}</author>
+    <author>tc={59FFEE9A-BE1E-3E4E-8A93-DC0A3E497054}</author>
   </authors>
   <commentList>
-    <comment ref="D87" authorId="0" shapeId="0" xr:uid="{2E6592CF-B01D-0F43-BE62-675B5600746A}">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{5E6233A5-463E-2742-B542-E6CE94AD76D6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Is this different than low-density polyethylene?
-Reply:
-    Overlaps merge!</t>
+    Done</t>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={43711568-4542-9A49-8250-2374BB1C1B35}</author>
-  </authors>
-  <commentList>
-    <comment ref="A87" authorId="0" shapeId="0" xr:uid="{43711568-4542-9A49-8250-2374BB1C1B35}">
+    <comment ref="J20" authorId="1" shapeId="0" xr:uid="{E5BD1964-981C-F640-AE19-8E04B76173C2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Is this different than low-density polyethylene?</t>
+    Done</t>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}</author>
-  </authors>
-  <commentList>
-    <comment ref="A140" authorId="0" shapeId="0" xr:uid="{59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}">
+    <comment ref="J39" authorId="2" shapeId="0" xr:uid="{022D28A5-C668-AA46-BD2B-C648063EF5B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Dup of low-density polyethylene?</t>
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J44" authorId="3" shapeId="0" xr:uid="{50B8E796-C419-6849-BAF0-939F592D9A87}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="4" shapeId="0" xr:uid="{14D22BD7-4898-BD4C-8943-EBB9CDDC9368}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J53" authorId="5" shapeId="0" xr:uid="{18FB2530-F9F5-BA46-B3CC-6850F6DCCD35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J71" authorId="6" shapeId="0" xr:uid="{860873BF-2826-8E49-9306-49F75C18740A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J81" authorId="7" shapeId="0" xr:uid="{DECA13F4-49BB-504C-B597-AF54CA005960}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J84" authorId="8" shapeId="0" xr:uid="{F266A775-B3D0-0A41-B5EB-29ABAED1FA3D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J92" authorId="9" shapeId="0" xr:uid="{87184B9F-3D50-EB42-9B47-DA4AA3936C3F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J153" authorId="10" shapeId="0" xr:uid="{FDADCA51-0E1C-FC44-8C03-443001F60400}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J169" authorId="11" shapeId="0" xr:uid="{CC299B05-B5D1-3A40-8868-CB337F133C0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J187" authorId="12" shapeId="0" xr:uid="{287908FC-2F48-AE48-8BDE-6D437125295A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J188" authorId="13" shapeId="0" xr:uid="{5EE1E82A-7DF0-5847-989B-FF4E7D288EEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J206" authorId="14" shapeId="0" xr:uid="{C0D61A5B-298C-B340-A69F-6D086F18627A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J207" authorId="15" shapeId="0" xr:uid="{C2D96083-F121-6A47-B8D4-CDEF9A63F7D4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J211" authorId="16" shapeId="0" xr:uid="{F39A1BB5-38A0-7948-829C-F30EC141AB56}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J212" authorId="17" shapeId="0" xr:uid="{59FFEE9A-BE1E-3E4E-8A93-DC0A3E497054}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
       </text>
     </comment>
   </commentList>
@@ -106,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="385">
   <si>
     <t>Technology</t>
   </si>
@@ -1185,9 +1300,6 @@
     <t>Mitchell, Output of Beer (in thousand hectolitres)</t>
   </si>
   <si>
-    <t>not sure what the difference is from above; both PCDB - overlap MERGE</t>
-  </si>
-  <si>
     <t>keep just the MW metric, drop the rest - rename</t>
   </si>
   <si>
@@ -1216,6 +1328,54 @@
   </si>
   <si>
     <t>Span of years</t>
+  </si>
+  <si>
+    <t>drop - dup of polyethyleneLD</t>
+  </si>
+  <si>
+    <t>not sure what the difference is from above; both PCDB - drop dup of ethylene</t>
+  </si>
+  <si>
+    <t>OWD, share of household adoption in US from 1915-2005</t>
+  </si>
+  <si>
+    <t>Wilson, world and US CTC in MW and no of units, 1900-2005</t>
+  </si>
+  <si>
+    <t>OWD, share of household adoption in US, 1994-2019</t>
+  </si>
+  <si>
+    <t>Wilson, World, CTC in MW and no of units, 1978-2010</t>
+  </si>
+  <si>
+    <t>CHAT, 150+ countries, no of units, 1975-2002</t>
+  </si>
+  <si>
+    <t>OWD, share of household adoption in US, 1950-2011</t>
+  </si>
+  <si>
+    <t>Wilson, 1920-2006, CTC in no of units and MW</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>BP, 24 countries, annual production for all biofuels, 1990-2021 (captures data from after 2000, whereas IRENA only goes to 2000)</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>IRENA</t>
+  </si>
+  <si>
+    <t>PCDB</t>
+  </si>
+  <si>
+    <t>BP and Wilson</t>
+  </si>
+  <si>
+    <t>rename as space objects, loading new OWD data set</t>
   </si>
 </sst>
 </file>
@@ -4983,37 +5143,69 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D87" dT="2023-05-09T15:20:22.38" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{2E6592CF-B01D-0F43-BE62-675B5600746A}">
-    <text>Is this different than low-density polyethylene?</text>
+  <threadedComment ref="J8" dT="2023-05-16T21:23:43.06" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{5E6233A5-463E-2742-B542-E6CE94AD76D6}">
+    <text>Done</text>
   </threadedComment>
-  <threadedComment ref="D87" dT="2023-05-11T15:56:19.44" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{D33CB65E-EA06-2D40-90F7-17A8B9F94990}" parentId="{2E6592CF-B01D-0F43-BE62-675B5600746A}">
-    <text>Overlaps merge!</text>
+  <threadedComment ref="J20" dT="2023-05-16T21:23:35.84" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{E5BD1964-981C-F640-AE19-8E04B76173C2}">
+    <text>Done</text>
   </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A87" dT="2023-05-09T15:20:22.38" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{43711568-4542-9A49-8250-2374BB1C1B35}">
-    <text>Is this different than low-density polyethylene?</text>
+  <threadedComment ref="J39" dT="2023-05-16T21:27:28.27" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{022D28A5-C668-AA46-BD2B-C648063EF5B6}">
+    <text>Done</text>
   </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A140" dT="2023-05-09T15:40:56.63" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{59E20F84-BF0C-4848-AFE8-0F46E5B2D7DA}">
-    <text>Dup of low-density polyethylene?</text>
+  <threadedComment ref="J44" dT="2023-05-16T21:23:29.01" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{50B8E796-C419-6849-BAF0-939F592D9A87}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J47" dT="2023-05-16T21:23:24.84" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{14D22BD7-4898-BD4C-8943-EBB9CDDC9368}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J53" dT="2023-05-16T20:55:02.19" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{18FB2530-F9F5-BA46-B3CC-6850F6DCCD35}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J71" dT="2023-05-16T21:23:18.54" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{860873BF-2826-8E49-9306-49F75C18740A}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J81" dT="2023-05-16T20:58:35.11" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{DECA13F4-49BB-504C-B597-AF54CA005960}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J84" dT="2023-05-16T21:22:19.31" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{F266A775-B3D0-0A41-B5EB-29ABAED1FA3D}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J92" dT="2023-05-16T20:54:41.43" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{87184B9F-3D50-EB42-9B47-DA4AA3936C3F}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J153" dT="2023-05-16T21:41:31.70" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{FDADCA51-0E1C-FC44-8C03-443001F60400}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J169" dT="2023-05-16T21:22:39.27" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{CC299B05-B5D1-3A40-8868-CB337F133C0D}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J187" dT="2023-05-16T21:46:52.37" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{287908FC-2F48-AE48-8BDE-6D437125295A}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J188" dT="2023-05-16T21:46:55.20" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{5EE1E82A-7DF0-5847-989B-FF4E7D288EEB}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J206" dT="2023-05-16T21:22:48.37" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{C0D61A5B-298C-B340-A69F-6D086F18627A}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J207" dT="2023-05-16T21:22:53.57" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{C2D96083-F121-6A47-B8D4-CDEF9A63F7D4}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J211" dT="2023-05-16T21:46:44.61" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{F39A1BB5-38A0-7948-829C-F30EC141AB56}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J212" dT="2023-05-16T21:46:47.75" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{59FFEE9A-BE1E-3E4E-8A93-DC0A3E497054}">
+    <text>Done</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6357,16 +6549,15 @@
     <cfRule type="uniqueValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670A17DD-9AA6-1F49-9391-E946B7A2F272}">
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="K217" sqref="K217"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6374,7 +6565,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -6388,7 +6579,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -6400,7 +6591,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
@@ -6412,7 +6603,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>255</v>
       </c>
@@ -6421,7 +6612,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>318</v>
       </c>
@@ -6433,7 +6624,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6445,7 +6636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>248</v>
       </c>
@@ -6454,7 +6645,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
@@ -6465,8 +6656,11 @@
       <c r="J8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6478,7 +6672,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>286</v>
       </c>
@@ -6490,7 +6684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>173</v>
       </c>
@@ -6502,7 +6696,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -6514,7 +6708,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -6523,10 +6717,16 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="M13" t="s">
+        <v>378</v>
+      </c>
+      <c r="N13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
@@ -6538,7 +6738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
@@ -6547,7 +6747,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -6559,7 +6759,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -6571,7 +6771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -6583,7 +6783,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>302</v>
       </c>
@@ -6595,10 +6795,19 @@
         <v>309</v>
       </c>
       <c r="J19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="M19" t="s">
+        <v>380</v>
+      </c>
+      <c r="N19" t="s">
+        <v>374</v>
+      </c>
+      <c r="O19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
@@ -6609,8 +6818,11 @@
       <c r="J20" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>322</v>
       </c>
@@ -6622,7 +6834,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -6631,7 +6843,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -6643,7 +6855,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>211</v>
       </c>
@@ -6654,8 +6866,14 @@
       <c r="J24" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>380</v>
+      </c>
+      <c r="N24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6667,7 +6885,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -6679,7 +6897,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>238</v>
       </c>
@@ -6688,7 +6906,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -6697,7 +6915,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>287</v>
       </c>
@@ -6706,7 +6924,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6718,7 +6936,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6730,7 +6948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>250</v>
       </c>
@@ -6742,7 +6960,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>289</v>
       </c>
@@ -6751,7 +6969,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>290</v>
       </c>
@@ -6763,7 +6981,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6775,7 +6993,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -6787,7 +7005,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6799,7 +7017,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -6808,7 +7026,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -6819,8 +7037,11 @@
       <c r="J39" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -6832,7 +7053,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>291</v>
       </c>
@@ -6844,7 +7065,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -6853,7 +7074,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -6865,7 +7086,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -6877,7 +7098,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -6886,7 +7107,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -6895,7 +7116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -6907,7 +7128,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -6970,7 +7191,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7102,7 +7323,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -7114,7 +7335,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>283</v>
       </c>
@@ -7126,7 +7347,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -7138,7 +7359,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>303</v>
       </c>
@@ -7150,7 +7371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>236</v>
       </c>
@@ -7162,7 +7383,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -7174,7 +7395,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -7186,7 +7407,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -7195,7 +7416,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -7207,10 +7428,13 @@
         <v>313</v>
       </c>
       <c r="M73" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="N73" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -7222,10 +7446,13 @@
         <v>313</v>
       </c>
       <c r="M74" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="N74" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>282</v>
       </c>
@@ -7237,7 +7464,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -7246,7 +7473,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -7255,7 +7482,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -7267,7 +7494,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -7279,7 +7506,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -7291,7 +7518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -7303,7 +7530,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -7315,7 +7542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -7327,7 +7554,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -7339,7 +7566,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -7351,7 +7578,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -7362,8 +7589,11 @@
       <c r="I86" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N86" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>237</v>
       </c>
@@ -7375,7 +7605,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>201</v>
       </c>
@@ -7387,7 +7617,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>304</v>
       </c>
@@ -7399,7 +7629,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -7411,7 +7641,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -7423,7 +7653,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -7434,8 +7664,11 @@
       <c r="I92" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -7447,7 +7680,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -7459,7 +7692,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -7471,7 +7704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -7483,7 +7716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -7495,7 +7728,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -7507,7 +7740,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -7519,7 +7752,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
@@ -7528,7 +7761,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -7540,7 +7773,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -7552,7 +7785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -7564,7 +7797,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -7576,7 +7809,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -7588,7 +7821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>185</v>
       </c>
@@ -7599,8 +7832,11 @@
       <c r="J106" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M106" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -7612,7 +7848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>234</v>
       </c>
@@ -7624,7 +7860,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -7636,7 +7872,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -7645,7 +7881,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -7657,7 +7893,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -7666,7 +7902,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -7678,7 +7914,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -7689,8 +7925,11 @@
       <c r="J114" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M114" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -7702,7 +7941,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -7711,7 +7950,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -7723,7 +7962,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>306</v>
       </c>
@@ -7735,7 +7974,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -7744,7 +7983,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -7756,7 +7995,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -7765,10 +8004,13 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+      <c r="M121" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -7777,7 +8019,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -7789,7 +8031,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>190</v>
       </c>
@@ -7801,7 +8043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -7810,7 +8052,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -7819,10 +8061,13 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="M126" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>199</v>
       </c>
@@ -7831,10 +8076,13 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="M127" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>276</v>
       </c>
@@ -7845,8 +8093,11 @@
       <c r="I128" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -7855,10 +8106,13 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="M129" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -7869,8 +8123,11 @@
       <c r="I130" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M130" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -7881,8 +8138,11 @@
       <c r="I131" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M131" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -7893,8 +8153,11 @@
       <c r="I132" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M132" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -7902,8 +8165,11 @@
       <c r="G133" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M133" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -7914,8 +8180,11 @@
       <c r="I134" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M134" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>247</v>
       </c>
@@ -7926,8 +8195,11 @@
       <c r="I135" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M135" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -7939,10 +8211,16 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="M136" t="s">
+        <v>380</v>
+      </c>
+      <c r="O136" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -7954,7 +8232,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>207</v>
       </c>
@@ -7966,7 +8244,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -7978,7 +8256,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -7990,7 +8268,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -8002,7 +8280,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -8014,7 +8292,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -8023,7 +8301,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -8035,7 +8313,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>310</v>
       </c>
@@ -8047,7 +8325,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>308</v>
       </c>
@@ -8059,7 +8337,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -8071,7 +8349,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -8083,7 +8361,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -8095,7 +8373,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -8107,7 +8385,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -8116,7 +8394,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -8128,7 +8406,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -8139,8 +8417,11 @@
       <c r="J153" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M153" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -8152,7 +8433,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -8164,7 +8445,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -8176,7 +8457,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -8188,7 +8469,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -8200,7 +8481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -8212,7 +8493,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -8361,7 +8642,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G177" t="s">
         <v>182</v>
       </c>
@@ -8369,7 +8650,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G178" t="s">
         <v>297</v>
       </c>
@@ -8377,7 +8658,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G179" t="s">
         <v>175</v>
       </c>
@@ -8385,12 +8666,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G180" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="181" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G181" t="s">
         <v>113</v>
       </c>
@@ -8398,17 +8679,17 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G182" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="183" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G183" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="184" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G184" t="s">
         <v>85</v>
       </c>
@@ -8416,7 +8697,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G185" t="s">
         <v>84</v>
       </c>
@@ -8424,7 +8705,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G186" t="s">
         <v>292</v>
       </c>
@@ -8432,23 +8713,29 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G187" t="s">
         <v>229</v>
       </c>
       <c r="J187" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="188" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="M187" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="188" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G188" t="s">
         <v>178</v>
       </c>
       <c r="J188" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="189" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="M188" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="189" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G189" t="s">
         <v>12</v>
       </c>
@@ -8456,7 +8743,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G190" t="s">
         <v>11</v>
       </c>
@@ -8464,7 +8751,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G191" s="4" t="s">
         <v>173</v>
       </c>
@@ -8472,12 +8759,15 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G192" t="s">
         <v>225</v>
       </c>
       <c r="J192" t="s">
         <v>312</v>
+      </c>
+      <c r="M192" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8599,12 +8889,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="209" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G209" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="210" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G210" t="s">
         <v>253</v>
       </c>
@@ -8612,23 +8902,29 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G211" t="s">
         <v>223</v>
       </c>
       <c r="J211" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="212" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="M211" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="212" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G212" t="s">
         <v>179</v>
       </c>
       <c r="J212" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="213" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="M212" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="213" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G213" t="s">
         <v>163</v>
       </c>
@@ -8636,23 +8932,22 @@
         <v>309</v>
       </c>
     </row>
-    <row r="214" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G214" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A165" xr:uid="{670A17DD-9AA6-1F49-9391-E946B7A2F272}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G214">
     <sortCondition ref="G2:G214"/>
   </sortState>
-  <conditionalFormatting sqref="K1:XFD1048576 A1:H1048576">
+  <conditionalFormatting sqref="A1:H1048576 Q1:XFD1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 H224:H1048576 G223:G1048576 K1:XFD1048576 A2:F1048576">
+  <conditionalFormatting sqref="A1:H1 H224:H1048576 G223:G1048576 A2:F1048576 Q1:XFD1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H1 H216:H1048576 G215:G1048576 K1:XFD1048576 A2:F1048576">
+  <conditionalFormatting sqref="A1:H1 H216:H1048576 G215:G1048576 A2:F1048576 Q1:XFD1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10280,12 +10575,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10326,13 +10622,13 @@
         <v>345</v>
       </c>
       <c r="G1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10349,7 +10645,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10366,7 +10662,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10394,7 +10690,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10411,7 +10707,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10442,7 +10738,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -10453,7 +10749,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10467,7 +10763,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -10484,7 +10780,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10501,7 +10797,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10515,7 +10811,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10532,7 +10828,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10543,7 +10839,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10560,21 +10856,21 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
       <c r="B17" t="s">
         <v>309</v>
       </c>
+      <c r="C17" t="s">
+        <v>309</v>
+      </c>
       <c r="D17" t="s">
         <v>309</v>
       </c>
-      <c r="H17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10591,7 +10887,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10622,7 +10918,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10633,7 +10929,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -10650,7 +10946,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -10667,7 +10963,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -10681,7 +10977,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -10695,7 +10991,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -10712,7 +11008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -10729,7 +11025,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -10740,7 +11036,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -10757,7 +11053,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -10785,7 +11081,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -10802,7 +11098,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -10819,7 +11115,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -10833,7 +11129,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -10853,7 +11149,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -10870,7 +11166,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -10884,7 +11180,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -10898,7 +11194,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -10909,7 +11205,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -10926,7 +11222,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -10943,7 +11239,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -10954,7 +11250,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -10968,7 +11264,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -10982,7 +11278,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -10996,7 +11292,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -11013,7 +11309,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -11044,7 +11340,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -11061,7 +11357,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -11078,7 +11374,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -11095,7 +11391,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -11112,7 +11408,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -11126,7 +11422,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -11143,7 +11439,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -11154,7 +11450,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -11171,7 +11467,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -11188,7 +11484,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -11202,7 +11498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -11222,7 +11518,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -11239,7 +11535,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -11253,7 +11549,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -11270,7 +11566,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -11287,7 +11583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -11346,7 +11642,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -11363,7 +11659,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -11377,7 +11673,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -11391,7 +11687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -11402,7 +11698,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>320</v>
       </c>
@@ -11413,7 +11709,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -11427,7 +11723,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -11438,7 +11734,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -11455,7 +11751,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -11497,7 +11793,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -11511,7 +11807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>266</v>
       </c>
@@ -11525,7 +11821,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -11542,7 +11838,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -11559,7 +11855,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -11573,7 +11869,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>295</v>
       </c>
@@ -11590,7 +11886,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -11604,7 +11900,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>261</v>
       </c>
@@ -11621,7 +11917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -11638,7 +11934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -11652,7 +11948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -11669,7 +11965,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -11686,7 +11982,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -11703,7 +11999,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -11720,7 +12016,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -11734,7 +12030,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -11751,7 +12047,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>157</v>
       </c>
@@ -11768,7 +12064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>158</v>
       </c>
@@ -11785,7 +12081,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -11802,7 +12098,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -11813,7 +12109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -11827,7 +12123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -11841,7 +12137,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -11861,7 +12157,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -11878,7 +12174,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -11892,7 +12188,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -11906,7 +12202,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -11923,7 +12219,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -11940,7 +12236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -11960,7 +12256,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -11977,7 +12273,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -11988,7 +12284,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -12005,7 +12301,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -12016,7 +12312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -12033,7 +12329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>235</v>
       </c>
@@ -12050,7 +12346,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -12061,7 +12357,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>215</v>
       </c>
@@ -12075,7 +12371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -12092,7 +12388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -12106,7 +12402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>238</v>
       </c>
@@ -12123,7 +12419,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>181</v>
       </c>
@@ -12137,7 +12433,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>241</v>
       </c>
@@ -12154,7 +12450,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -12171,7 +12467,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>221</v>
       </c>
@@ -12185,7 +12481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>211</v>
       </c>
@@ -12202,7 +12498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>189</v>
       </c>
@@ -12219,7 +12515,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -12236,7 +12532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>218</v>
       </c>
@@ -12253,7 +12549,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>186</v>
       </c>
@@ -12267,7 +12563,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>191</v>
       </c>
@@ -12284,7 +12580,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>108</v>
       </c>
@@ -12301,7 +12597,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>248</v>
       </c>
@@ -12318,7 +12614,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>159</v>
       </c>
@@ -12335,7 +12631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>91</v>
       </c>
@@ -12352,7 +12648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>90</v>
       </c>
@@ -12369,7 +12665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -12386,7 +12682,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>89</v>
       </c>
@@ -12403,7 +12699,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>269</v>
       </c>
@@ -12414,7 +12710,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -12431,7 +12727,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>304</v>
       </c>
@@ -12448,7 +12744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>201</v>
       </c>
@@ -12465,7 +12761,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>237</v>
       </c>
@@ -12482,7 +12778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>79</v>
       </c>
@@ -12499,7 +12795,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>78</v>
       </c>
@@ -12516,7 +12812,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -12533,7 +12829,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>71</v>
       </c>
@@ -12550,7 +12846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -12561,7 +12857,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>257</v>
       </c>
@@ -12578,7 +12874,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -12595,7 +12891,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>219</v>
       </c>
@@ -12615,7 +12911,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -12632,7 +12928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -12646,7 +12942,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>228</v>
       </c>
@@ -12660,7 +12956,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>256</v>
       </c>
@@ -12677,7 +12973,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>214</v>
       </c>
@@ -12688,7 +12984,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>130</v>
       </c>
@@ -12705,7 +13001,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>250</v>
       </c>
@@ -12722,7 +13018,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>38</v>
       </c>
@@ -12736,7 +13032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>147</v>
       </c>
@@ -12753,7 +13049,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>267</v>
       </c>
@@ -12770,7 +13066,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -12787,7 +13083,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>282</v>
       </c>
@@ -12807,7 +13103,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -12821,7 +13117,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -12835,7 +13131,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -12852,7 +13148,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -12863,7 +13159,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -12877,7 +13173,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>262</v>
       </c>
@@ -12894,7 +13190,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -12911,7 +13207,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>236</v>
       </c>
@@ -12928,21 +13224,24 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>182</v>
       </c>
       <c r="B169" t="s">
         <v>309</v>
       </c>
-      <c r="C169" t="s">
-        <v>309</v>
-      </c>
       <c r="D169" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
+        <v>309</v>
+      </c>
+      <c r="H169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>297</v>
       </c>
@@ -12959,7 +13258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -12973,7 +13272,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>242</v>
       </c>
@@ -12984,7 +13283,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>113</v>
       </c>
@@ -13001,7 +13300,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>138</v>
       </c>
@@ -13012,7 +13311,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -13026,7 +13325,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -13037,7 +13336,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>85</v>
       </c>
@@ -13054,7 +13353,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>84</v>
       </c>
@@ -13071,7 +13370,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>292</v>
       </c>
@@ -13088,7 +13387,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -13102,7 +13401,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -13116,7 +13415,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>173</v>
       </c>
@@ -13130,7 +13429,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>227</v>
       </c>
@@ -13141,7 +13440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>83</v>
       </c>
@@ -13158,21 +13457,21 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>131</v>
       </c>
       <c r="B185" t="s">
         <v>309</v>
       </c>
+      <c r="C185" t="s">
+        <v>309</v>
+      </c>
       <c r="D185" t="s">
         <v>309</v>
       </c>
-      <c r="H185" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>140</v>
       </c>
@@ -13183,7 +13482,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>139</v>
       </c>
@@ -13194,7 +13493,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>263</v>
       </c>
@@ -13208,7 +13507,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>308</v>
       </c>
@@ -13225,7 +13524,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -13242,7 +13541,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -13259,7 +13558,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>135</v>
       </c>
@@ -13270,7 +13569,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>76</v>
       </c>
@@ -13287,7 +13586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>35</v>
       </c>
@@ -13301,7 +13600,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>82</v>
       </c>
@@ -13318,7 +13617,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>125</v>
       </c>
@@ -13332,7 +13631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>192</v>
       </c>
@@ -13346,7 +13645,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>81</v>
       </c>
@@ -13363,7 +13662,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>80</v>
       </c>
@@ -13380,7 +13679,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -13394,7 +13693,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>265</v>
       </c>
@@ -13408,7 +13707,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>253</v>
       </c>
@@ -13425,7 +13724,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>163</v>
       </c>
@@ -13439,7 +13738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>136</v>
       </c>
@@ -13450,7 +13749,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>264</v>
       </c>
@@ -13468,7 +13767,16 @@
       <c r="A256" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H205" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
+  <autoFilter ref="A1:H205" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="have the data, just have some q's for JG"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C205">
     <sortCondition ref="A2:A205"/>
   </sortState>
@@ -13476,7 +13784,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED586326-956C-C344-A351-B0FDBB17001C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA7A01-F2F4-D244-84A2-012FEFD8E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="28740" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
@@ -20,15 +20,15 @@
     <sheet name="pivot" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$H$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$H$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$214</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="16" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="385">
   <si>
     <t>Technology</t>
   </si>
@@ -1237,42 +1237,21 @@
     <t>Count of Global and/or US data?</t>
   </si>
   <si>
-    <t>204 total unique technologies</t>
-  </si>
-  <si>
-    <t>164 with meta-characteristics</t>
-  </si>
-  <si>
     <t>184 in the database</t>
   </si>
   <si>
-    <t>20 technologies with meta-characteristics not in the database</t>
-  </si>
-  <si>
     <t>40 technologies in the database without meta-characteristics</t>
   </si>
   <si>
     <t>Count of Country-level data?</t>
   </si>
   <si>
-    <t>190 technologies with global and/or US data</t>
-  </si>
-  <si>
     <t>Cost data?</t>
   </si>
   <si>
     <t>Count of Cost data?</t>
   </si>
   <si>
-    <t>47 technologies with cost data</t>
-  </si>
-  <si>
-    <t>78 technologies with country-level data (at least 2 countries)</t>
-  </si>
-  <si>
-    <t>65 technologies with meta data and country-level data</t>
-  </si>
-  <si>
     <t>Mitchell, D18 Output of Synthetic Filaments (in thousand metric tons)</t>
   </si>
   <si>
@@ -1376,6 +1355,27 @@
   </si>
   <si>
     <t>rename as space objects, loading new OWD data set</t>
+  </si>
+  <si>
+    <t>203 total unique technologies</t>
+  </si>
+  <si>
+    <t>163 with meta-characteristics</t>
+  </si>
+  <si>
+    <t>19 technologies with meta-characteristics not in the database</t>
+  </si>
+  <si>
+    <t>189 technologies with global and/or US data</t>
+  </si>
+  <si>
+    <t>79 technologies with country-level data (at least 2 countries)</t>
+  </si>
+  <si>
+    <t>46 technologies with cost data</t>
+  </si>
+  <si>
+    <t>66 technologies with meta data and country-level data</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1445,6 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,50 +1561,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45054.84014039352" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45063.486960648152" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E205" sheet="matrix"/>
+    <worksheetSource ref="A1:E204" sheet="matrix"/>
   </cacheSource>
   <cacheFields count="5">
-    <cacheField name="Technology Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Has meta characteristics?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="In the database?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Global and/or US data?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Country-level data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45054.856260532404" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="204" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F205" sheet="matrix"/>
-  </cacheSource>
-  <cacheFields count="6">
     <cacheField name="Technology Name" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -1625,6 +1587,39 @@
     <cacheField name="Country-level data?" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45063.486960648152" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F204" sheet="matrix"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Technology Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Has meta characteristics?" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="x"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="In the database?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Global and/or US data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Country-level data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="Cost data?" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
@@ -1638,1444 +1633,1437 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="204">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="203">
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Caprolactam"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Capture fisheries production"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
+  </r>
+  <r>
+    <s v="Carbon Capture &amp; Sequestration"/>
+    <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Caprolactam"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Capture fisheries production"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-  </r>
-  <r>
-    <s v="Carbon Capture &amp; Sequestration"/>
+    <s v="x"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Caustic Soda"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Caustic Soda"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethanol"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
     <x v="0"/>
+    <m/>
+    <s v="x"/>
+  </r>
+  <r>
+    <s v="Insect-resistant corn"/>
+    <x v="0"/>
     <x v="1"/>
     <s v="x"/>
-  </r>
-  <r>
-    <s v="Insect-resistant corn"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Insect-resistant cotton"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Insect-resistant cotton"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-  </r>
-  <r>
-    <s v="Low-Density Polyethylene"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Satellite launches"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Sulphuric Acid"/>
+    <x v="0"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Sulphuric Acid"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Synthetic Filaments"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Synthetic Filaments"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <s v="x"/>
+  </r>
+  <r>
+    <s v="Zinc"/>
+    <x v="0"/>
     <x v="1"/>
-    <s v="x"/>
-  </r>
-  <r>
-    <s v="Zinc"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="204">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="203">
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3083,7 +3071,7 @@
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3091,7 +3079,7 @@
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3099,7 +3087,7 @@
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3107,7 +3095,7 @@
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3115,7 +3103,7 @@
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3123,7 +3111,7 @@
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3131,7 +3119,7 @@
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3139,7 +3127,7 @@
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
     <s v="x"/>
     <m/>
@@ -3147,7 +3135,7 @@
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
     <m/>
     <s v="x"/>
@@ -3155,7 +3143,7 @@
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3163,7 +3151,7 @@
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3171,7 +3159,7 @@
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3179,7 +3167,7 @@
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3187,7 +3175,7 @@
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3195,7 +3183,7 @@
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3203,7 +3191,7 @@
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3211,7 +3199,7 @@
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3219,7 +3207,7 @@
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3227,7 +3215,7 @@
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3235,7 +3223,7 @@
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3243,7 +3231,7 @@
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3251,7 +3239,7 @@
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3259,7 +3247,7 @@
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3267,7 +3255,7 @@
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3275,7 +3263,7 @@
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3283,7 +3271,7 @@
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3291,7 +3279,7 @@
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3299,7 +3287,7 @@
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3307,7 +3295,7 @@
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3315,7 +3303,7 @@
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3323,7 +3311,7 @@
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3331,7 +3319,7 @@
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3339,7 +3327,7 @@
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3347,7 +3335,7 @@
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3355,7 +3343,7 @@
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3363,7 +3351,7 @@
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3371,7 +3359,7 @@
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3379,7 +3367,7 @@
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3387,7 +3375,7 @@
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3395,7 +3383,7 @@
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3403,7 +3391,7 @@
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3411,7 +3399,7 @@
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3419,7 +3407,7 @@
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3427,7 +3415,7 @@
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3435,7 +3423,7 @@
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3443,7 +3431,7 @@
   <r>
     <s v="Ethanol"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3451,7 +3439,7 @@
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3459,7 +3447,7 @@
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3467,7 +3455,7 @@
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3475,7 +3463,7 @@
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3483,7 +3471,7 @@
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3491,7 +3479,7 @@
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3499,7 +3487,7 @@
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3507,7 +3495,7 @@
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3515,7 +3503,7 @@
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3523,7 +3511,7 @@
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3531,7 +3519,7 @@
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3539,7 +3527,7 @@
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3547,7 +3535,7 @@
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3555,7 +3543,7 @@
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3563,7 +3551,7 @@
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3571,7 +3559,7 @@
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3579,7 +3567,7 @@
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3587,7 +3575,7 @@
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3595,7 +3583,7 @@
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3603,7 +3591,7 @@
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3611,7 +3599,7 @@
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3619,7 +3607,7 @@
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3627,7 +3615,7 @@
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3635,7 +3623,7 @@
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3643,7 +3631,7 @@
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3651,7 +3639,7 @@
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3659,7 +3647,7 @@
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3667,7 +3655,7 @@
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
     <s v="x"/>
     <m/>
@@ -3675,7 +3663,7 @@
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3683,7 +3671,7 @@
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3691,7 +3679,7 @@
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3699,7 +3687,7 @@
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3707,7 +3695,7 @@
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3715,7 +3703,7 @@
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3723,7 +3711,7 @@
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3731,7 +3719,7 @@
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3739,7 +3727,7 @@
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3747,7 +3735,7 @@
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3755,7 +3743,7 @@
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3763,7 +3751,7 @@
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3771,7 +3759,7 @@
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3779,23 +3767,15 @@
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Low-Density Polyethylene"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3803,7 +3783,7 @@
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3811,7 +3791,7 @@
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3819,7 +3799,7 @@
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3827,7 +3807,7 @@
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3835,7 +3815,7 @@
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3843,7 +3823,7 @@
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3851,7 +3831,7 @@
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3859,7 +3839,7 @@
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3867,7 +3847,7 @@
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3875,7 +3855,7 @@
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3883,7 +3863,7 @@
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3891,7 +3871,7 @@
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3899,7 +3879,7 @@
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3907,7 +3887,7 @@
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3915,7 +3895,7 @@
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -3923,7 +3903,7 @@
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3931,7 +3911,7 @@
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3939,7 +3919,7 @@
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3947,7 +3927,7 @@
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3955,7 +3935,7 @@
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3963,7 +3943,7 @@
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3971,7 +3951,7 @@
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
     <s v="x"/>
     <m/>
@@ -3979,7 +3959,7 @@
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -3987,7 +3967,7 @@
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -3995,7 +3975,7 @@
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4003,7 +3983,7 @@
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4011,7 +3991,7 @@
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4019,7 +3999,7 @@
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4027,7 +4007,7 @@
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4035,7 +4015,7 @@
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4043,7 +4023,7 @@
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4051,7 +4031,7 @@
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4059,7 +4039,7 @@
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4067,7 +4047,7 @@
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4075,7 +4055,7 @@
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4083,7 +4063,7 @@
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4091,7 +4071,7 @@
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4099,7 +4079,7 @@
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4107,7 +4087,7 @@
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4115,7 +4095,7 @@
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4123,7 +4103,7 @@
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4131,7 +4111,7 @@
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4139,7 +4119,7 @@
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4147,7 +4127,7 @@
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4155,7 +4135,7 @@
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4163,7 +4143,7 @@
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4171,7 +4151,7 @@
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4179,7 +4159,7 @@
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4187,7 +4167,7 @@
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4195,7 +4175,7 @@
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4203,7 +4183,7 @@
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4211,7 +4191,7 @@
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4219,7 +4199,7 @@
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4227,7 +4207,7 @@
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4235,7 +4215,7 @@
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4243,7 +4223,7 @@
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4251,7 +4231,7 @@
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4259,7 +4239,7 @@
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4267,7 +4247,7 @@
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4275,7 +4255,7 @@
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4283,7 +4263,7 @@
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4291,7 +4271,7 @@
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4299,7 +4279,7 @@
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4307,7 +4287,7 @@
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4315,7 +4295,7 @@
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4323,7 +4303,7 @@
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4331,7 +4311,7 @@
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4339,7 +4319,7 @@
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4347,7 +4327,7 @@
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4355,7 +4335,7 @@
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4363,7 +4343,7 @@
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4371,7 +4351,7 @@
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4379,7 +4359,7 @@
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4387,7 +4367,7 @@
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4395,7 +4375,7 @@
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4403,7 +4383,7 @@
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4411,15 +4391,15 @@
   <r>
     <s v="Satellite launches"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <m/>
+    <s v="x"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4427,7 +4407,7 @@
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4435,7 +4415,7 @@
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4443,7 +4423,7 @@
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4451,7 +4431,7 @@
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4459,7 +4439,7 @@
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4467,7 +4447,7 @@
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4475,7 +4455,7 @@
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4483,7 +4463,7 @@
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4491,7 +4471,7 @@
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4499,7 +4479,7 @@
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4507,7 +4487,7 @@
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4515,7 +4495,7 @@
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
     <s v="x"/>
     <m/>
@@ -4523,7 +4503,7 @@
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4531,7 +4511,7 @@
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4539,7 +4519,7 @@
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4547,7 +4527,7 @@
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4555,7 +4535,7 @@
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4563,7 +4543,7 @@
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4571,7 +4551,7 @@
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4579,7 +4559,7 @@
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4587,7 +4567,7 @@
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4595,7 +4575,7 @@
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4603,7 +4583,7 @@
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4611,7 +4591,7 @@
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4619,7 +4599,7 @@
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4627,7 +4607,7 @@
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4635,7 +4615,7 @@
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4643,7 +4623,7 @@
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4651,7 +4631,7 @@
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <s v="x"/>
@@ -4659,7 +4639,7 @@
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4667,7 +4647,7 @@
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <m/>
     <m/>
@@ -4675,7 +4655,7 @@
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4683,7 +4663,7 @@
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
     <m/>
     <s v="x"/>
     <m/>
@@ -4691,7 +4671,7 @@
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <x v="1"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4699,7 +4679,7 @@
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4708,7 +4688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4726,13 +4706,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -4779,7 +4753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4790,13 +4764,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -6657,7 +6625,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6717,13 +6685,13 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M13" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="N13" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6795,16 +6763,16 @@
         <v>309</v>
       </c>
       <c r="J19" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="N19" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="O19" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6819,7 +6787,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6867,10 +6835,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="N24" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7038,7 +7006,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7191,7 +7159,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7428,10 +7396,10 @@
         <v>313</v>
       </c>
       <c r="M73" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="N73" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -7446,10 +7414,10 @@
         <v>313</v>
       </c>
       <c r="M74" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="N74" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -7590,7 +7558,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7665,7 +7633,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7833,7 +7801,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7926,7 +7894,7 @@
         <v>314</v>
       </c>
       <c r="M114" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8004,10 +7972,10 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M121" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8061,10 +8029,10 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M126" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8076,10 +8044,10 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M127" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8094,7 +8062,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8106,10 +8074,10 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M129" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8124,7 +8092,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8139,7 +8107,7 @@
         <v>309</v>
       </c>
       <c r="M131" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8154,7 +8122,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8166,7 +8134,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8181,7 +8149,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8196,7 +8164,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8211,13 +8179,13 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M136" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="O136" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8418,7 +8386,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8721,7 +8689,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8732,7 +8700,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8767,7 +8735,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8910,7 +8878,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -8921,7 +8889,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -10576,12 +10544,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F211" sqref="F211"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10619,16 +10586,16 @@
         <v>336</v>
       </c>
       <c r="F1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10645,7 +10612,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10662,7 +10629,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10690,7 +10657,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10707,7 +10674,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10738,7 +10705,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -10749,7 +10716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10763,7 +10730,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -10777,10 +10744,10 @@
         <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10797,7 +10764,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10811,7 +10778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10828,7 +10795,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10839,7 +10806,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10856,7 +10823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10870,7 +10837,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10887,7 +10854,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10918,7 +10885,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10926,10 +10893,10 @@
         <v>309</v>
       </c>
       <c r="H21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -10946,7 +10913,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -10963,7 +10930,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -10977,7 +10944,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -10991,7 +10958,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -11008,7 +10975,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -11025,7 +10992,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -11036,7 +11003,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -11053,7 +11020,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11081,7 +11048,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -11098,7 +11065,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -11115,7 +11082,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -11129,7 +11096,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -11146,10 +11113,10 @@
         <v>309</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11166,7 +11133,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11180,7 +11147,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11194,7 +11161,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -11205,7 +11172,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11222,7 +11189,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11239,7 +11206,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -11250,7 +11217,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11264,7 +11231,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -11278,7 +11245,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -11292,7 +11259,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -11309,7 +11276,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -11340,7 +11307,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -11357,7 +11324,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -11374,7 +11341,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -11391,7 +11358,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -11408,7 +11375,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -11422,7 +11389,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -11439,7 +11406,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -11450,7 +11417,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -11467,7 +11434,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -11484,7 +11451,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -11498,7 +11465,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -11515,10 +11482,10 @@
         <v>309</v>
       </c>
       <c r="H59" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -11535,7 +11502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -11549,7 +11516,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -11566,7 +11533,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -11583,7 +11550,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -11642,7 +11609,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -11659,7 +11626,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -11673,7 +11640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -11687,7 +11654,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -11698,7 +11665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>320</v>
       </c>
@@ -11709,7 +11676,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -11723,7 +11690,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -11731,10 +11698,10 @@
         <v>309</v>
       </c>
       <c r="H74" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -11751,7 +11718,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -11793,7 +11760,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -11807,7 +11774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>266</v>
       </c>
@@ -11821,7 +11788,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -11838,7 +11805,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -11855,7 +11822,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -11869,7 +11836,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>295</v>
       </c>
@@ -11886,7 +11853,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -11900,7 +11867,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>261</v>
       </c>
@@ -11917,7 +11884,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -11934,7 +11901,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -11948,7 +11915,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -11965,7 +11932,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -11982,9 +11949,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
         <v>309</v>
@@ -11999,9 +11966,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
         <v>309</v>
@@ -12012,13 +11979,10 @@
       <c r="D92" t="s">
         <v>309</v>
       </c>
-      <c r="F92" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>309</v>
@@ -12029,10 +11993,13 @@
       <c r="D93" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
         <v>309</v>
@@ -12043,13 +12010,13 @@
       <c r="D94" t="s">
         <v>309</v>
       </c>
-      <c r="F94" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
         <v>309</v>
@@ -12064,9 +12031,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
         <v>309</v>
@@ -12077,16 +12044,13 @@
       <c r="D96" t="s">
         <v>309</v>
       </c>
-      <c r="E96" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
         <v>309</v>
@@ -12094,13 +12058,13 @@
       <c r="D97" t="s">
         <v>309</v>
       </c>
-      <c r="F97" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>309</v>
       </c>
       <c r="C98" t="s">
         <v>309</v>
@@ -12109,9 +12073,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B99" t="s">
         <v>309</v>
@@ -12123,9 +12087,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="B100" t="s">
         <v>309</v>
@@ -12136,10 +12100,16 @@
       <c r="D100" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>309</v>
+      </c>
+      <c r="H100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>305</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
         <v>309</v>
@@ -12153,13 +12123,10 @@
       <c r="F101" t="s">
         <v>309</v>
       </c>
-      <c r="H101" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
         <v>309</v>
@@ -12170,13 +12137,10 @@
       <c r="D102" t="s">
         <v>309</v>
       </c>
-      <c r="F102" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="B103" t="s">
         <v>309</v>
@@ -12188,9 +12152,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="B104" t="s">
         <v>309</v>
@@ -12201,10 +12165,13 @@
       <c r="D104" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
         <v>309</v>
@@ -12215,13 +12182,13 @@
       <c r="D105" t="s">
         <v>309</v>
       </c>
-      <c r="E105" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
         <v>309</v>
@@ -12235,13 +12202,13 @@
       <c r="F106" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>212</v>
-      </c>
-      <c r="B107" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
         <v>309</v>
@@ -12249,919 +12216,919 @@
       <c r="D107" t="s">
         <v>309</v>
       </c>
-      <c r="F107" t="s">
+      <c r="E107" t="s">
         <v>309</v>
       </c>
       <c r="H107" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>240</v>
-      </c>
-      <c r="C108" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" t="s">
-        <v>309</v>
-      </c>
-      <c r="E108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s">
         <v>309</v>
       </c>
       <c r="H108" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" t="s">
+        <v>309</v>
+      </c>
+      <c r="E109" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" t="s">
+        <v>309</v>
+      </c>
+      <c r="C111" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" t="s">
+        <v>309</v>
+      </c>
+      <c r="E111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" t="s">
+        <v>309</v>
+      </c>
+      <c r="D112" t="s">
+        <v>309</v>
+      </c>
+      <c r="E112" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113" t="s">
+        <v>309</v>
+      </c>
+      <c r="E113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" t="s">
+        <v>309</v>
+      </c>
+      <c r="D114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" t="s">
+        <v>309</v>
+      </c>
+      <c r="E115" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>309</v>
+      </c>
+      <c r="D116" t="s">
+        <v>309</v>
+      </c>
+      <c r="E116" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" t="s">
+        <v>309</v>
+      </c>
+      <c r="C117" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" t="s">
+        <v>309</v>
+      </c>
+      <c r="E117" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" t="s">
+        <v>309</v>
+      </c>
+      <c r="E118" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" t="s">
+        <v>309</v>
+      </c>
+      <c r="D119" t="s">
+        <v>309</v>
+      </c>
+      <c r="E119" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B120" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" t="s">
+        <v>309</v>
+      </c>
+      <c r="E120" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" t="s">
+        <v>309</v>
+      </c>
+      <c r="E121" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" t="s">
+        <v>309</v>
+      </c>
+      <c r="C122" t="s">
+        <v>309</v>
+      </c>
+      <c r="D122" t="s">
+        <v>309</v>
+      </c>
+      <c r="E122" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" t="s">
+        <v>309</v>
+      </c>
+      <c r="C123" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" t="s">
+        <v>309</v>
+      </c>
+      <c r="E123" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" t="s">
+        <v>309</v>
+      </c>
+      <c r="C124" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" t="s">
+        <v>309</v>
+      </c>
+      <c r="E124" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" t="s">
+        <v>309</v>
+      </c>
+      <c r="D125" t="s">
+        <v>309</v>
+      </c>
+      <c r="E125" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" t="s">
+        <v>309</v>
+      </c>
+      <c r="E126" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" t="s">
+        <v>309</v>
+      </c>
+      <c r="D127" t="s">
+        <v>309</v>
+      </c>
+      <c r="E127" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" t="s">
+        <v>309</v>
+      </c>
+      <c r="C128" t="s">
+        <v>309</v>
+      </c>
+      <c r="D128" t="s">
+        <v>309</v>
+      </c>
+      <c r="F128" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" t="s">
+        <v>309</v>
+      </c>
+      <c r="D129" t="s">
+        <v>309</v>
+      </c>
+      <c r="E129" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" t="s">
+        <v>309</v>
+      </c>
+      <c r="E130" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" t="s">
+        <v>309</v>
+      </c>
+      <c r="D131" t="s">
+        <v>309</v>
+      </c>
+      <c r="F131" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>90</v>
+      </c>
+      <c r="B132" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" t="s">
+        <v>309</v>
+      </c>
+      <c r="F132" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" t="s">
+        <v>309</v>
+      </c>
+      <c r="C133" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" t="s">
+        <v>309</v>
+      </c>
+      <c r="E133" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>89</v>
+      </c>
+      <c r="B134" t="s">
+        <v>309</v>
+      </c>
+      <c r="C134" t="s">
+        <v>309</v>
+      </c>
+      <c r="D134" t="s">
+        <v>309</v>
+      </c>
+      <c r="F134" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>309</v>
+      </c>
+      <c r="D135" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" t="s">
+        <v>309</v>
+      </c>
+      <c r="C136" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" t="s">
+        <v>309</v>
+      </c>
+      <c r="E136" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>304</v>
+      </c>
+      <c r="B137" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" t="s">
+        <v>309</v>
+      </c>
+      <c r="D137" t="s">
+        <v>309</v>
+      </c>
+      <c r="F137" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" t="s">
+        <v>309</v>
+      </c>
+      <c r="C138" t="s">
+        <v>309</v>
+      </c>
+      <c r="D138" t="s">
+        <v>309</v>
+      </c>
+      <c r="F138" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" t="s">
+        <v>309</v>
+      </c>
+      <c r="C139" t="s">
+        <v>309</v>
+      </c>
+      <c r="D139" t="s">
+        <v>309</v>
+      </c>
+      <c r="F139" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>79</v>
+      </c>
+      <c r="B140" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" t="s">
+        <v>309</v>
+      </c>
+      <c r="F140" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>78</v>
+      </c>
+      <c r="B141" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" t="s">
+        <v>309</v>
+      </c>
+      <c r="D141" t="s">
+        <v>309</v>
+      </c>
+      <c r="F141" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>307</v>
+      </c>
+      <c r="B142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" t="s">
+        <v>309</v>
+      </c>
+      <c r="D142" t="s">
+        <v>309</v>
+      </c>
+      <c r="E142" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>71</v>
+      </c>
+      <c r="B143" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" t="s">
+        <v>309</v>
+      </c>
+      <c r="D143" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>258</v>
+      </c>
+      <c r="C144" t="s">
+        <v>309</v>
+      </c>
+      <c r="D144" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" t="s">
+        <v>309</v>
+      </c>
+      <c r="C145" t="s">
+        <v>309</v>
+      </c>
+      <c r="D145" t="s">
+        <v>309</v>
+      </c>
+      <c r="E145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" t="s">
+        <v>309</v>
+      </c>
+      <c r="E146" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" t="s">
+        <v>309</v>
+      </c>
+      <c r="D147" t="s">
+        <v>309</v>
+      </c>
+      <c r="F147" t="s">
+        <v>309</v>
+      </c>
+      <c r="H147" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" t="s">
+        <v>309</v>
+      </c>
+      <c r="F148" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>36</v>
+      </c>
+      <c r="B149" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+      <c r="B150" t="s">
+        <v>309</v>
+      </c>
+      <c r="C150" t="s">
+        <v>309</v>
+      </c>
+      <c r="D150" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>256</v>
+      </c>
+      <c r="B151" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153" t="s">
+        <v>309</v>
+      </c>
+      <c r="D153" t="s">
+        <v>309</v>
+      </c>
+      <c r="E153" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>250</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" t="s">
+        <v>309</v>
+      </c>
+      <c r="E154" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" t="s">
+        <v>309</v>
+      </c>
+      <c r="D155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s">
+        <v>309</v>
+      </c>
+      <c r="D156" t="s">
+        <v>309</v>
+      </c>
+      <c r="E156" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157" t="s">
+        <v>309</v>
+      </c>
+      <c r="E157" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" t="s">
+        <v>309</v>
+      </c>
+      <c r="D158" t="s">
+        <v>309</v>
+      </c>
+      <c r="E158" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" t="s">
+        <v>309</v>
+      </c>
+      <c r="C159" t="s">
+        <v>309</v>
+      </c>
+      <c r="D159" t="s">
+        <v>309</v>
+      </c>
+      <c r="F159" t="s">
+        <v>309</v>
+      </c>
+      <c r="H159" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>309</v>
+      </c>
+      <c r="C160" t="s">
+        <v>309</v>
+      </c>
+      <c r="D160" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>268</v>
+      </c>
+      <c r="C161" t="s">
+        <v>309</v>
+      </c>
+      <c r="D161" t="s">
+        <v>309</v>
+      </c>
+      <c r="E161" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>309</v>
+      </c>
+      <c r="C162" t="s">
+        <v>309</v>
+      </c>
+      <c r="D162" t="s">
+        <v>309</v>
+      </c>
+      <c r="E162" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" t="s">
+        <v>309</v>
+      </c>
+      <c r="D163" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" t="s">
+        <v>309</v>
+      </c>
+      <c r="D164" t="s">
+        <v>309</v>
+      </c>
+      <c r="H164" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" t="s">
-        <v>309</v>
-      </c>
-      <c r="H109" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>69</v>
-      </c>
-      <c r="B110" t="s">
-        <v>309</v>
-      </c>
-      <c r="C110" t="s">
-        <v>309</v>
-      </c>
-      <c r="D110" t="s">
-        <v>309</v>
-      </c>
-      <c r="E110" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" t="s">
-        <v>309</v>
-      </c>
-      <c r="D111" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>205</v>
-      </c>
-      <c r="B112" t="s">
-        <v>309</v>
-      </c>
-      <c r="C112" t="s">
-        <v>309</v>
-      </c>
-      <c r="D112" t="s">
-        <v>309</v>
-      </c>
-      <c r="E112" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>235</v>
-      </c>
-      <c r="B113" t="s">
-        <v>309</v>
-      </c>
-      <c r="C113" t="s">
-        <v>309</v>
-      </c>
-      <c r="D113" t="s">
-        <v>309</v>
-      </c>
-      <c r="E113" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>206</v>
-      </c>
-      <c r="C114" t="s">
-        <v>309</v>
-      </c>
-      <c r="E114" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>215</v>
-      </c>
-      <c r="B115" t="s">
-        <v>309</v>
-      </c>
-      <c r="C115" t="s">
-        <v>309</v>
-      </c>
-      <c r="D115" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>29</v>
-      </c>
-      <c r="B116" t="s">
-        <v>309</v>
-      </c>
-      <c r="C116" t="s">
-        <v>309</v>
-      </c>
-      <c r="D116" t="s">
-        <v>309</v>
-      </c>
-      <c r="E116" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" t="s">
-        <v>309</v>
-      </c>
-      <c r="D117" t="s">
-        <v>309</v>
-      </c>
-      <c r="E117" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>238</v>
-      </c>
-      <c r="B118" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" t="s">
-        <v>309</v>
-      </c>
-      <c r="D118" t="s">
-        <v>309</v>
-      </c>
-      <c r="E118" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>181</v>
-      </c>
-      <c r="C119" t="s">
-        <v>309</v>
-      </c>
-      <c r="D119" t="s">
-        <v>309</v>
-      </c>
-      <c r="E119" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>241</v>
-      </c>
-      <c r="B120" t="s">
-        <v>309</v>
-      </c>
-      <c r="C120" t="s">
-        <v>309</v>
-      </c>
-      <c r="D120" t="s">
-        <v>309</v>
-      </c>
-      <c r="E120" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B121" t="s">
-        <v>309</v>
-      </c>
-      <c r="C121" t="s">
-        <v>309</v>
-      </c>
-      <c r="D121" t="s">
-        <v>309</v>
-      </c>
-      <c r="E121" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>221</v>
-      </c>
-      <c r="C122" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" t="s">
-        <v>309</v>
-      </c>
-      <c r="E122" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>211</v>
-      </c>
-      <c r="B123" t="s">
-        <v>309</v>
-      </c>
-      <c r="C123" t="s">
-        <v>309</v>
-      </c>
-      <c r="D123" t="s">
-        <v>309</v>
-      </c>
-      <c r="E123" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>189</v>
-      </c>
-      <c r="B124" t="s">
-        <v>309</v>
-      </c>
-      <c r="C124" t="s">
-        <v>309</v>
-      </c>
-      <c r="D124" t="s">
-        <v>309</v>
-      </c>
-      <c r="E124" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>255</v>
-      </c>
-      <c r="B125" t="s">
-        <v>309</v>
-      </c>
-      <c r="C125" t="s">
-        <v>309</v>
-      </c>
-      <c r="D125" t="s">
-        <v>309</v>
-      </c>
-      <c r="E125" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>218</v>
-      </c>
-      <c r="B126" t="s">
-        <v>309</v>
-      </c>
-      <c r="C126" t="s">
-        <v>309</v>
-      </c>
-      <c r="D126" t="s">
-        <v>309</v>
-      </c>
-      <c r="E126" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>186</v>
-      </c>
-      <c r="C127" t="s">
-        <v>309</v>
-      </c>
-      <c r="D127" t="s">
-        <v>309</v>
-      </c>
-      <c r="E127" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>191</v>
-      </c>
-      <c r="B128" t="s">
-        <v>309</v>
-      </c>
-      <c r="C128" t="s">
-        <v>309</v>
-      </c>
-      <c r="D128" t="s">
-        <v>309</v>
-      </c>
-      <c r="E128" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>108</v>
-      </c>
-      <c r="B129" t="s">
-        <v>309</v>
-      </c>
-      <c r="C129" t="s">
-        <v>309</v>
-      </c>
-      <c r="D129" t="s">
-        <v>309</v>
-      </c>
-      <c r="F129" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>248</v>
-      </c>
-      <c r="B130" t="s">
-        <v>309</v>
-      </c>
-      <c r="C130" t="s">
-        <v>309</v>
-      </c>
-      <c r="D130" t="s">
-        <v>309</v>
-      </c>
-      <c r="E130" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>159</v>
-      </c>
-      <c r="B131" t="s">
-        <v>309</v>
-      </c>
-      <c r="C131" t="s">
-        <v>309</v>
-      </c>
-      <c r="D131" t="s">
-        <v>309</v>
-      </c>
-      <c r="E131" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>91</v>
-      </c>
-      <c r="B132" t="s">
-        <v>309</v>
-      </c>
-      <c r="C132" t="s">
-        <v>309</v>
-      </c>
-      <c r="D132" t="s">
-        <v>309</v>
-      </c>
-      <c r="F132" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>90</v>
-      </c>
-      <c r="B133" t="s">
-        <v>309</v>
-      </c>
-      <c r="C133" t="s">
-        <v>309</v>
-      </c>
-      <c r="D133" t="s">
-        <v>309</v>
-      </c>
-      <c r="F133" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>70</v>
-      </c>
-      <c r="B134" t="s">
-        <v>309</v>
-      </c>
-      <c r="C134" t="s">
-        <v>309</v>
-      </c>
-      <c r="D134" t="s">
-        <v>309</v>
-      </c>
-      <c r="E134" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>89</v>
-      </c>
-      <c r="B135" t="s">
-        <v>309</v>
-      </c>
-      <c r="C135" t="s">
-        <v>309</v>
-      </c>
-      <c r="D135" t="s">
-        <v>309</v>
-      </c>
-      <c r="F135" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>269</v>
-      </c>
-      <c r="C136" t="s">
-        <v>309</v>
-      </c>
-      <c r="D136" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>160</v>
-      </c>
-      <c r="B137" t="s">
-        <v>309</v>
-      </c>
-      <c r="C137" t="s">
-        <v>309</v>
-      </c>
-      <c r="D137" t="s">
-        <v>309</v>
-      </c>
-      <c r="E137" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>304</v>
-      </c>
-      <c r="B138" t="s">
-        <v>309</v>
-      </c>
-      <c r="C138" t="s">
-        <v>309</v>
-      </c>
-      <c r="D138" t="s">
-        <v>309</v>
-      </c>
-      <c r="F138" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>201</v>
-      </c>
-      <c r="B139" t="s">
-        <v>309</v>
-      </c>
-      <c r="C139" t="s">
-        <v>309</v>
-      </c>
-      <c r="D139" t="s">
-        <v>309</v>
-      </c>
-      <c r="F139" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>237</v>
-      </c>
-      <c r="B140" t="s">
-        <v>309</v>
-      </c>
-      <c r="C140" t="s">
-        <v>309</v>
-      </c>
-      <c r="D140" t="s">
-        <v>309</v>
-      </c>
-      <c r="F140" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>79</v>
-      </c>
-      <c r="B141" t="s">
-        <v>309</v>
-      </c>
-      <c r="C141" t="s">
-        <v>309</v>
-      </c>
-      <c r="D141" t="s">
-        <v>309</v>
-      </c>
-      <c r="F141" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>78</v>
-      </c>
-      <c r="B142" t="s">
-        <v>309</v>
-      </c>
-      <c r="C142" t="s">
-        <v>309</v>
-      </c>
-      <c r="D142" t="s">
-        <v>309</v>
-      </c>
-      <c r="F142" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>307</v>
-      </c>
-      <c r="B143" t="s">
-        <v>309</v>
-      </c>
-      <c r="C143" t="s">
-        <v>309</v>
-      </c>
-      <c r="D143" t="s">
-        <v>309</v>
-      </c>
-      <c r="E143" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>71</v>
-      </c>
-      <c r="B144" t="s">
-        <v>309</v>
-      </c>
-      <c r="C144" t="s">
-        <v>309</v>
-      </c>
-      <c r="D144" t="s">
-        <v>309</v>
-      </c>
-      <c r="E144" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>258</v>
-      </c>
-      <c r="C145" t="s">
-        <v>309</v>
-      </c>
-      <c r="D145" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>257</v>
-      </c>
-      <c r="B146" t="s">
-        <v>309</v>
-      </c>
-      <c r="C146" t="s">
-        <v>309</v>
-      </c>
-      <c r="D146" t="s">
-        <v>309</v>
-      </c>
-      <c r="E146" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>247</v>
-      </c>
-      <c r="B147" t="s">
-        <v>309</v>
-      </c>
-      <c r="C147" t="s">
-        <v>309</v>
-      </c>
-      <c r="D147" t="s">
-        <v>309</v>
-      </c>
-      <c r="E147" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>219</v>
-      </c>
-      <c r="B148" t="s">
-        <v>309</v>
-      </c>
-      <c r="C148" t="s">
-        <v>309</v>
-      </c>
-      <c r="D148" t="s">
-        <v>309</v>
-      </c>
-      <c r="F148" t="s">
-        <v>309</v>
-      </c>
-      <c r="H148" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>77</v>
-      </c>
-      <c r="B149" t="s">
-        <v>309</v>
-      </c>
-      <c r="C149" t="s">
-        <v>309</v>
-      </c>
-      <c r="D149" t="s">
-        <v>309</v>
-      </c>
-      <c r="F149" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" t="s">
-        <v>309</v>
-      </c>
-      <c r="C150" t="s">
-        <v>309</v>
-      </c>
-      <c r="D150" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>228</v>
-      </c>
-      <c r="B151" t="s">
-        <v>309</v>
-      </c>
-      <c r="C151" t="s">
-        <v>309</v>
-      </c>
-      <c r="D151" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>256</v>
-      </c>
-      <c r="B152" t="s">
-        <v>309</v>
-      </c>
-      <c r="C152" t="s">
-        <v>309</v>
-      </c>
-      <c r="D152" t="s">
-        <v>309</v>
-      </c>
-      <c r="E152" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>214</v>
-      </c>
-      <c r="C153" t="s">
-        <v>309</v>
-      </c>
-      <c r="D153" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>130</v>
-      </c>
-      <c r="B154" t="s">
-        <v>309</v>
-      </c>
-      <c r="C154" t="s">
-        <v>309</v>
-      </c>
-      <c r="D154" t="s">
-        <v>309</v>
-      </c>
-      <c r="E154" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>250</v>
-      </c>
-      <c r="B155" t="s">
-        <v>309</v>
-      </c>
-      <c r="C155" t="s">
-        <v>309</v>
-      </c>
-      <c r="D155" t="s">
-        <v>309</v>
-      </c>
-      <c r="E155" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>38</v>
-      </c>
-      <c r="B156" t="s">
-        <v>309</v>
-      </c>
-      <c r="C156" t="s">
-        <v>309</v>
-      </c>
-      <c r="D156" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>147</v>
-      </c>
-      <c r="B157" t="s">
-        <v>309</v>
-      </c>
-      <c r="C157" t="s">
-        <v>309</v>
-      </c>
-      <c r="D157" t="s">
-        <v>309</v>
-      </c>
-      <c r="E157" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>267</v>
-      </c>
-      <c r="B158" t="s">
-        <v>309</v>
-      </c>
-      <c r="C158" t="s">
-        <v>309</v>
-      </c>
-      <c r="D158" t="s">
-        <v>309</v>
-      </c>
-      <c r="E158" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>161</v>
-      </c>
-      <c r="B159" t="s">
-        <v>309</v>
-      </c>
-      <c r="C159" t="s">
-        <v>309</v>
-      </c>
-      <c r="D159" t="s">
-        <v>309</v>
-      </c>
-      <c r="E159" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>282</v>
-      </c>
-      <c r="B160" t="s">
-        <v>309</v>
-      </c>
-      <c r="C160" t="s">
-        <v>309</v>
-      </c>
-      <c r="D160" t="s">
-        <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>309</v>
-      </c>
-      <c r="H160" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>16</v>
-      </c>
-      <c r="B161" t="s">
-        <v>309</v>
-      </c>
-      <c r="C161" t="s">
-        <v>309</v>
-      </c>
-      <c r="D161" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>268</v>
-      </c>
-      <c r="C162" t="s">
-        <v>309</v>
-      </c>
-      <c r="D162" t="s">
-        <v>309</v>
-      </c>
-      <c r="E162" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>309</v>
-      </c>
-      <c r="C163" t="s">
-        <v>309</v>
-      </c>
-      <c r="D163" t="s">
-        <v>309</v>
-      </c>
-      <c r="E163" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>169</v>
-      </c>
-      <c r="C164" t="s">
-        <v>309</v>
-      </c>
-      <c r="D164" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>198</v>
+        <v>262</v>
+      </c>
+      <c r="B165" t="s">
+        <v>309</v>
       </c>
       <c r="C165" t="s">
         <v>309</v>
@@ -13169,151 +13136,148 @@
       <c r="D165" t="s">
         <v>309</v>
       </c>
-      <c r="H165" t="s">
+      <c r="E165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" t="s">
+        <v>309</v>
+      </c>
+      <c r="C166" t="s">
+        <v>309</v>
+      </c>
+      <c r="D166" t="s">
+        <v>309</v>
+      </c>
+      <c r="F166" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>236</v>
+      </c>
+      <c r="B167" t="s">
+        <v>309</v>
+      </c>
+      <c r="C167" t="s">
+        <v>309</v>
+      </c>
+      <c r="D167" t="s">
+        <v>309</v>
+      </c>
+      <c r="F167" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" t="s">
+        <v>309</v>
+      </c>
+      <c r="D168" t="s">
+        <v>309</v>
+      </c>
+      <c r="E168" t="s">
+        <v>309</v>
+      </c>
+      <c r="H168" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>297</v>
+      </c>
+      <c r="B169" t="s">
+        <v>309</v>
+      </c>
+      <c r="C169" t="s">
+        <v>309</v>
+      </c>
+      <c r="D169" t="s">
+        <v>309</v>
+      </c>
+      <c r="E169" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" t="s">
+        <v>309</v>
+      </c>
+      <c r="C170" t="s">
+        <v>309</v>
+      </c>
+      <c r="D170" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" t="s">
+        <v>309</v>
+      </c>
+      <c r="D171" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>113</v>
+      </c>
+      <c r="B172" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" t="s">
+        <v>309</v>
+      </c>
+      <c r="D172" t="s">
+        <v>309</v>
+      </c>
+      <c r="F172" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>138</v>
+      </c>
+      <c r="B173" t="s">
+        <v>309</v>
+      </c>
+      <c r="H173" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+      <c r="C174" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" t="s">
+        <v>309</v>
+      </c>
+      <c r="H174" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>262</v>
-      </c>
-      <c r="B166" t="s">
-        <v>309</v>
-      </c>
-      <c r="C166" t="s">
-        <v>309</v>
-      </c>
-      <c r="D166" t="s">
-        <v>309</v>
-      </c>
-      <c r="E166" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B167" t="s">
-        <v>309</v>
-      </c>
-      <c r="C167" t="s">
-        <v>309</v>
-      </c>
-      <c r="D167" t="s">
-        <v>309</v>
-      </c>
-      <c r="F167" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>236</v>
-      </c>
-      <c r="B168" t="s">
-        <v>309</v>
-      </c>
-      <c r="C168" t="s">
-        <v>309</v>
-      </c>
-      <c r="D168" t="s">
-        <v>309</v>
-      </c>
-      <c r="F168" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>182</v>
-      </c>
-      <c r="B169" t="s">
-        <v>309</v>
-      </c>
-      <c r="D169" t="s">
-        <v>309</v>
-      </c>
-      <c r="E169" t="s">
-        <v>309</v>
-      </c>
-      <c r="H169" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>297</v>
-      </c>
-      <c r="B170" t="s">
-        <v>309</v>
-      </c>
-      <c r="C170" t="s">
-        <v>309</v>
-      </c>
-      <c r="D170" t="s">
-        <v>309</v>
-      </c>
-      <c r="E170" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>175</v>
-      </c>
-      <c r="B171" t="s">
-        <v>309</v>
-      </c>
-      <c r="C171" t="s">
-        <v>309</v>
-      </c>
-      <c r="D171" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>242</v>
-      </c>
-      <c r="C172" t="s">
-        <v>309</v>
-      </c>
-      <c r="D172" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>113</v>
-      </c>
-      <c r="B173" t="s">
-        <v>309</v>
-      </c>
-      <c r="C173" t="s">
-        <v>309</v>
-      </c>
-      <c r="D173" t="s">
-        <v>309</v>
-      </c>
-      <c r="F173" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>138</v>
-      </c>
-      <c r="B174" t="s">
-        <v>309</v>
-      </c>
-      <c r="H174" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C175" t="s">
         <v>309</v>
@@ -13321,181 +13285,184 @@
       <c r="D175" t="s">
         <v>309</v>
       </c>
-      <c r="H175" t="s">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>85</v>
+      </c>
+      <c r="B176" t="s">
+        <v>309</v>
+      </c>
+      <c r="C176" t="s">
+        <v>309</v>
+      </c>
+      <c r="D176" t="s">
+        <v>309</v>
+      </c>
+      <c r="F176" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>84</v>
+      </c>
+      <c r="B177" t="s">
+        <v>309</v>
+      </c>
+      <c r="C177" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" t="s">
+        <v>309</v>
+      </c>
+      <c r="F177" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>292</v>
+      </c>
+      <c r="B178" t="s">
+        <v>309</v>
+      </c>
+      <c r="C178" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" t="s">
+        <v>309</v>
+      </c>
+      <c r="E178" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>309</v>
+      </c>
+      <c r="C179" t="s">
+        <v>309</v>
+      </c>
+      <c r="D179" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>309</v>
+      </c>
+      <c r="C180" t="s">
+        <v>309</v>
+      </c>
+      <c r="D180" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>173</v>
+      </c>
+      <c r="B181" t="s">
+        <v>309</v>
+      </c>
+      <c r="C181" t="s">
+        <v>309</v>
+      </c>
+      <c r="E181" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>227</v>
+      </c>
+      <c r="C182" t="s">
+        <v>309</v>
+      </c>
+      <c r="D182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>83</v>
+      </c>
+      <c r="B183" t="s">
+        <v>309</v>
+      </c>
+      <c r="C183" t="s">
+        <v>309</v>
+      </c>
+      <c r="D183" t="s">
+        <v>309</v>
+      </c>
+      <c r="F183" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>131</v>
+      </c>
+      <c r="B184" t="s">
+        <v>309</v>
+      </c>
+      <c r="C184" t="s">
+        <v>309</v>
+      </c>
+      <c r="D184" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" t="s">
+        <v>309</v>
+      </c>
+      <c r="H185" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>139</v>
+      </c>
+      <c r="B186" t="s">
+        <v>309</v>
+      </c>
+      <c r="H186" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>263</v>
+      </c>
+      <c r="C187" t="s">
+        <v>309</v>
+      </c>
+      <c r="D187" t="s">
+        <v>309</v>
+      </c>
+      <c r="H187" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>210</v>
-      </c>
-      <c r="C176" t="s">
-        <v>309</v>
-      </c>
-      <c r="D176" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>85</v>
-      </c>
-      <c r="B177" t="s">
-        <v>309</v>
-      </c>
-      <c r="C177" t="s">
-        <v>309</v>
-      </c>
-      <c r="D177" t="s">
-        <v>309</v>
-      </c>
-      <c r="F177" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>84</v>
-      </c>
-      <c r="B178" t="s">
-        <v>309</v>
-      </c>
-      <c r="C178" t="s">
-        <v>309</v>
-      </c>
-      <c r="D178" t="s">
-        <v>309</v>
-      </c>
-      <c r="F178" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>292</v>
-      </c>
-      <c r="B179" t="s">
-        <v>309</v>
-      </c>
-      <c r="C179" t="s">
-        <v>309</v>
-      </c>
-      <c r="D179" t="s">
-        <v>309</v>
-      </c>
-      <c r="E179" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>12</v>
-      </c>
-      <c r="B180" t="s">
-        <v>309</v>
-      </c>
-      <c r="C180" t="s">
-        <v>309</v>
-      </c>
-      <c r="D180" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>11</v>
-      </c>
-      <c r="B181" t="s">
-        <v>309</v>
-      </c>
-      <c r="C181" t="s">
-        <v>309</v>
-      </c>
-      <c r="D181" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>173</v>
-      </c>
-      <c r="B182" t="s">
-        <v>309</v>
-      </c>
-      <c r="C182" t="s">
-        <v>309</v>
-      </c>
-      <c r="E182" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>227</v>
-      </c>
-      <c r="C183" t="s">
-        <v>309</v>
-      </c>
-      <c r="D183" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>83</v>
-      </c>
-      <c r="B184" t="s">
-        <v>309</v>
-      </c>
-      <c r="C184" t="s">
-        <v>309</v>
-      </c>
-      <c r="D184" t="s">
-        <v>309</v>
-      </c>
-      <c r="F184" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>131</v>
-      </c>
-      <c r="B185" t="s">
-        <v>309</v>
-      </c>
-      <c r="C185" t="s">
-        <v>309</v>
-      </c>
-      <c r="D185" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>140</v>
-      </c>
-      <c r="B186" t="s">
-        <v>309</v>
-      </c>
-      <c r="H186" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>139</v>
-      </c>
-      <c r="B187" t="s">
-        <v>309</v>
-      </c>
-      <c r="H187" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>263</v>
+        <v>308</v>
+      </c>
+      <c r="B188" t="s">
+        <v>309</v>
       </c>
       <c r="C188" t="s">
         <v>309</v>
@@ -13503,137 +13470,137 @@
       <c r="D188" t="s">
         <v>309</v>
       </c>
-      <c r="H188" t="s">
+      <c r="E188" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>309</v>
+      </c>
+      <c r="C189" t="s">
+        <v>309</v>
+      </c>
+      <c r="D189" t="s">
+        <v>309</v>
+      </c>
+      <c r="E189" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>309</v>
+      </c>
+      <c r="C190" t="s">
+        <v>309</v>
+      </c>
+      <c r="D190" t="s">
+        <v>309</v>
+      </c>
+      <c r="E190" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>135</v>
+      </c>
+      <c r="B191" t="s">
+        <v>309</v>
+      </c>
+      <c r="H191" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192" t="s">
+        <v>309</v>
+      </c>
+      <c r="C192" t="s">
+        <v>309</v>
+      </c>
+      <c r="D192" t="s">
+        <v>309</v>
+      </c>
+      <c r="F192" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" t="s">
+        <v>309</v>
+      </c>
+      <c r="D193" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>82</v>
+      </c>
+      <c r="B194" t="s">
+        <v>309</v>
+      </c>
+      <c r="C194" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" t="s">
+        <v>309</v>
+      </c>
+      <c r="F194" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>125</v>
+      </c>
+      <c r="B195" t="s">
+        <v>309</v>
+      </c>
+      <c r="C195" t="s">
+        <v>309</v>
+      </c>
+      <c r="D195" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>192</v>
+      </c>
+      <c r="C196" t="s">
+        <v>309</v>
+      </c>
+      <c r="D196" t="s">
+        <v>309</v>
+      </c>
+      <c r="H196" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>308</v>
-      </c>
-      <c r="B189" t="s">
-        <v>309</v>
-      </c>
-      <c r="C189" t="s">
-        <v>309</v>
-      </c>
-      <c r="D189" t="s">
-        <v>309</v>
-      </c>
-      <c r="E189" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>199</v>
-      </c>
-      <c r="B190" t="s">
-        <v>309</v>
-      </c>
-      <c r="C190" t="s">
-        <v>309</v>
-      </c>
-      <c r="D190" t="s">
-        <v>309</v>
-      </c>
-      <c r="E190" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>309</v>
-      </c>
-      <c r="C191" t="s">
-        <v>309</v>
-      </c>
-      <c r="D191" t="s">
-        <v>309</v>
-      </c>
-      <c r="E191" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>135</v>
-      </c>
-      <c r="B192" t="s">
-        <v>309</v>
-      </c>
-      <c r="H192" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>76</v>
-      </c>
-      <c r="B193" t="s">
-        <v>309</v>
-      </c>
-      <c r="C193" t="s">
-        <v>309</v>
-      </c>
-      <c r="D193" t="s">
-        <v>309</v>
-      </c>
-      <c r="F193" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>35</v>
-      </c>
-      <c r="B194" t="s">
-        <v>309</v>
-      </c>
-      <c r="C194" t="s">
-        <v>309</v>
-      </c>
-      <c r="D194" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>82</v>
-      </c>
-      <c r="B195" t="s">
-        <v>309</v>
-      </c>
-      <c r="C195" t="s">
-        <v>309</v>
-      </c>
-      <c r="D195" t="s">
-        <v>309</v>
-      </c>
-      <c r="F195" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>125</v>
-      </c>
-      <c r="B196" t="s">
-        <v>309</v>
-      </c>
-      <c r="C196" t="s">
-        <v>309</v>
-      </c>
-      <c r="D196" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>192</v>
+        <v>81</v>
+      </c>
+      <c r="B197" t="s">
+        <v>309</v>
       </c>
       <c r="C197" t="s">
         <v>309</v>
@@ -13641,61 +13608,61 @@
       <c r="D197" t="s">
         <v>309</v>
       </c>
-      <c r="H197" t="s">
+      <c r="F197" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>80</v>
+      </c>
+      <c r="B198" t="s">
+        <v>309</v>
+      </c>
+      <c r="C198" t="s">
+        <v>309</v>
+      </c>
+      <c r="D198" t="s">
+        <v>309</v>
+      </c>
+      <c r="F198" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" t="s">
+        <v>309</v>
+      </c>
+      <c r="C199" t="s">
+        <v>309</v>
+      </c>
+      <c r="D199" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>265</v>
+      </c>
+      <c r="C200" t="s">
+        <v>309</v>
+      </c>
+      <c r="D200" t="s">
+        <v>309</v>
+      </c>
+      <c r="H200" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>81</v>
-      </c>
-      <c r="B198" t="s">
-        <v>309</v>
-      </c>
-      <c r="C198" t="s">
-        <v>309</v>
-      </c>
-      <c r="D198" t="s">
-        <v>309</v>
-      </c>
-      <c r="F198" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>80</v>
-      </c>
-      <c r="B199" t="s">
-        <v>309</v>
-      </c>
-      <c r="C199" t="s">
-        <v>309</v>
-      </c>
-      <c r="D199" t="s">
-        <v>309</v>
-      </c>
-      <c r="F199" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>15</v>
-      </c>
-      <c r="B200" t="s">
-        <v>309</v>
-      </c>
-      <c r="C200" t="s">
-        <v>309</v>
-      </c>
-      <c r="D200" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="B201" t="s">
+        <v>309</v>
       </c>
       <c r="C201" t="s">
         <v>309</v>
@@ -13703,13 +13670,13 @@
       <c r="D201" t="s">
         <v>309</v>
       </c>
-      <c r="H201" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E201" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="B202" t="s">
         <v>309</v>
@@ -13717,70 +13684,44 @@
       <c r="C202" t="s">
         <v>309</v>
       </c>
-      <c r="D202" t="s">
-        <v>309</v>
-      </c>
       <c r="E202" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B203" t="s">
         <v>309</v>
       </c>
-      <c r="C203" t="s">
-        <v>309</v>
-      </c>
-      <c r="E203" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H203" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>136</v>
-      </c>
-      <c r="B204" t="s">
-        <v>309</v>
-      </c>
-      <c r="H204" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
         <v>264</v>
       </c>
-      <c r="C205" t="s">
-        <v>309</v>
-      </c>
-      <c r="D205" t="s">
-        <v>309</v>
-      </c>
-      <c r="E205" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
+      <c r="C204" t="s">
+        <v>309</v>
+      </c>
+      <c r="D204" t="s">
+        <v>309</v>
+      </c>
+      <c r="E204" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H205" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="have the data, just have some q's for JG"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C205">
-    <sortCondition ref="A2:A205"/>
+  <autoFilter ref="A1:H204" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C204">
+    <sortCondition ref="A2:A204"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A206 A256:A1048576">
+  <conditionalFormatting sqref="A255:A1048576 A1:A205">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13789,10 +13730,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB3E67-E1D7-514F-8EDB-F090E7886BBC}">
-  <dimension ref="A3:I18"/>
+  <dimension ref="A3:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13827,10 +13768,10 @@
         <v>337</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -13849,117 +13790,119 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4">
-        <v>152</v>
-      </c>
-      <c r="H4">
-        <v>65</v>
-      </c>
-      <c r="I4">
-        <v>47</v>
+      <c r="G4" s="7">
+        <v>151</v>
+      </c>
+      <c r="H4" s="7">
+        <v>66</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>144</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>184</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>38</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
+      <c r="B6" s="7">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6">
-        <v>190</v>
-      </c>
-      <c r="H6">
-        <v>78</v>
-      </c>
-      <c r="I6">
-        <v>47</v>
+      <c r="G6" s="7">
+        <v>189</v>
+      </c>
+      <c r="H6" s="7">
+        <v>79</v>
+      </c>
+      <c r="I6" s="7">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7">
-        <v>164</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="7">
+        <v>163</v>
+      </c>
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D7">
-        <v>204</v>
+      <c r="D7" s="7">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="6" t="s">
-        <v>349</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA7A01-F2F4-D244-84A2-012FEFD8E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF17219-D615-C642-B88A-039789456CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="28740" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="7820" yWindow="500" windowWidth="20980" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId6"/>
-    <pivotCache cacheId="16" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="385">
   <si>
     <t>Technology</t>
   </si>
@@ -1435,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1445,7 +1445,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4688,7 +4687,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4753,7 +4752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -10544,11 +10543,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H154" sqref="H154"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10595,7 +10595,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10892,11 +10892,20 @@
       <c r="B21" t="s">
         <v>309</v>
       </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" t="s">
+        <v>309</v>
+      </c>
       <c r="H21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -10913,7 +10922,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -10930,7 +10939,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -10944,7 +10953,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -10958,7 +10967,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -10975,7 +10984,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -10992,7 +11001,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -11003,7 +11012,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -11020,7 +11029,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11034,7 +11043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11048,7 +11057,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -11065,7 +11074,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -11082,7 +11091,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -11096,7 +11105,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -11116,7 +11125,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11133,7 +11142,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11147,7 +11156,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11161,7 +11170,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -11172,7 +11181,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11189,7 +11198,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11206,7 +11215,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -11217,7 +11226,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11231,7 +11240,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -11245,7 +11254,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -11259,7 +11268,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -11276,7 +11285,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -11290,7 +11299,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -11307,7 +11316,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -11324,7 +11333,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -11341,7 +11350,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -11358,7 +11367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -11375,7 +11384,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -11389,7 +11398,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>299</v>
       </c>
@@ -11406,7 +11415,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -11417,7 +11426,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -11434,7 +11443,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -11451,7 +11460,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -11465,7 +11474,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -11485,7 +11494,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -11502,7 +11511,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -11516,7 +11525,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>298</v>
       </c>
@@ -11533,7 +11542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -11550,7 +11559,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>154</v>
       </c>
@@ -11567,7 +11576,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -11581,7 +11590,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -11595,7 +11604,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -11609,7 +11618,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -11626,7 +11635,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -11640,7 +11649,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -11654,7 +11663,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -11665,7 +11674,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>320</v>
       </c>
@@ -11676,7 +11685,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -11697,11 +11706,20 @@
       <c r="B74" t="s">
         <v>309</v>
       </c>
+      <c r="C74" t="s">
+        <v>309</v>
+      </c>
+      <c r="D74" t="s">
+        <v>309</v>
+      </c>
+      <c r="E74" t="s">
+        <v>309</v>
+      </c>
       <c r="H74" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -11718,7 +11736,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>208</v>
       </c>
@@ -11732,7 +11750,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -11746,7 +11764,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -11760,7 +11778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -11774,7 +11792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>266</v>
       </c>
@@ -11788,7 +11806,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -11805,7 +11823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -11822,7 +11840,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -11836,7 +11854,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>295</v>
       </c>
@@ -11853,7 +11871,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -11867,7 +11885,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>261</v>
       </c>
@@ -11884,7 +11902,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>293</v>
       </c>
@@ -11901,7 +11919,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -11915,7 +11933,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -11932,7 +11950,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -11949,7 +11967,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -11966,7 +11984,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -11980,7 +11998,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -11997,7 +12015,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>157</v>
       </c>
@@ -12014,7 +12032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -12031,7 +12049,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -12048,7 +12066,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -12059,7 +12077,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -12073,7 +12091,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -12087,7 +12105,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>305</v>
       </c>
@@ -12107,7 +12125,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -12124,7 +12142,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>239</v>
       </c>
@@ -12138,7 +12156,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>288</v>
       </c>
@@ -12152,7 +12170,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>319</v>
       </c>
@@ -12169,7 +12187,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -12186,7 +12204,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -12206,7 +12224,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>240</v>
       </c>
@@ -12230,11 +12248,20 @@
       <c r="B108" t="s">
         <v>309</v>
       </c>
+      <c r="C108" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" t="s">
+        <v>309</v>
+      </c>
+      <c r="E108" t="s">
+        <v>309</v>
+      </c>
       <c r="H108" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -12251,7 +12278,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>193</v>
       </c>
@@ -12262,7 +12289,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>205</v>
       </c>
@@ -12279,7 +12306,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>235</v>
       </c>
@@ -12296,7 +12323,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -12307,7 +12334,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -12321,7 +12348,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -12338,7 +12365,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>252</v>
       </c>
@@ -12352,7 +12379,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>238</v>
       </c>
@@ -12369,7 +12396,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>181</v>
       </c>
@@ -12383,7 +12410,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>241</v>
       </c>
@@ -12400,7 +12427,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -12417,7 +12444,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>221</v>
       </c>
@@ -12431,7 +12458,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>211</v>
       </c>
@@ -12448,7 +12475,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>189</v>
       </c>
@@ -12465,7 +12492,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>255</v>
       </c>
@@ -12482,7 +12509,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -12499,7 +12526,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -12513,7 +12540,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>191</v>
       </c>
@@ -12530,7 +12557,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>108</v>
       </c>
@@ -12547,7 +12574,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>248</v>
       </c>
@@ -12564,7 +12591,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>159</v>
       </c>
@@ -12581,7 +12608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>91</v>
       </c>
@@ -12598,7 +12625,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -12615,7 +12642,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>70</v>
       </c>
@@ -12632,7 +12659,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>89</v>
       </c>
@@ -12649,7 +12676,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -12660,7 +12687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -12677,7 +12704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>304</v>
       </c>
@@ -12694,7 +12721,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -12711,7 +12738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>237</v>
       </c>
@@ -12728,7 +12755,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>79</v>
       </c>
@@ -12745,7 +12772,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>78</v>
       </c>
@@ -12762,7 +12789,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>307</v>
       </c>
@@ -12779,7 +12806,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>71</v>
       </c>
@@ -12796,7 +12823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>258</v>
       </c>
@@ -12807,7 +12834,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>257</v>
       </c>
@@ -12824,7 +12851,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>247</v>
       </c>
@@ -12841,7 +12868,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>219</v>
       </c>
@@ -12861,7 +12888,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>77</v>
       </c>
@@ -12878,7 +12905,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -12892,7 +12919,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>228</v>
       </c>
@@ -12906,7 +12933,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -12923,7 +12950,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>214</v>
       </c>
@@ -12934,7 +12961,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>130</v>
       </c>
@@ -12951,7 +12978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>250</v>
       </c>
@@ -12968,7 +12995,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>38</v>
       </c>
@@ -12982,7 +13009,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>147</v>
       </c>
@@ -12999,7 +13026,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>267</v>
       </c>
@@ -13016,7 +13043,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -13033,7 +13060,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>282</v>
       </c>
@@ -13053,7 +13080,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -13067,7 +13094,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>268</v>
       </c>
@@ -13081,7 +13108,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -13098,7 +13125,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -13109,7 +13136,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>198</v>
       </c>
@@ -13123,7 +13150,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -13140,7 +13167,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>200</v>
       </c>
@@ -13157,7 +13184,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>236</v>
       </c>
@@ -13174,7 +13201,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -13191,7 +13218,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>297</v>
       </c>
@@ -13208,7 +13235,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -13222,7 +13249,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>242</v>
       </c>
@@ -13233,7 +13260,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>113</v>
       </c>
@@ -13261,7 +13288,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>195</v>
       </c>
@@ -13275,7 +13302,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>210</v>
       </c>
@@ -13286,7 +13313,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>85</v>
       </c>
@@ -13303,7 +13330,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>84</v>
       </c>
@@ -13320,7 +13347,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>292</v>
       </c>
@@ -13337,7 +13364,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -13351,7 +13378,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -13365,7 +13392,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>173</v>
       </c>
@@ -13379,7 +13406,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>227</v>
       </c>
@@ -13390,7 +13417,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>83</v>
       </c>
@@ -13407,7 +13434,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>131</v>
       </c>
@@ -13428,6 +13455,15 @@
       <c r="B185" t="s">
         <v>309</v>
       </c>
+      <c r="C185" t="s">
+        <v>309</v>
+      </c>
+      <c r="D185" t="s">
+        <v>309</v>
+      </c>
+      <c r="E185" t="s">
+        <v>309</v>
+      </c>
       <c r="H185" t="s">
         <v>345</v>
       </c>
@@ -13443,7 +13479,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>263</v>
       </c>
@@ -13457,7 +13493,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>308</v>
       </c>
@@ -13474,7 +13510,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>199</v>
       </c>
@@ -13491,7 +13527,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -13519,7 +13555,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>76</v>
       </c>
@@ -13536,7 +13572,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>35</v>
       </c>
@@ -13550,7 +13586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>82</v>
       </c>
@@ -13567,7 +13603,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>125</v>
       </c>
@@ -13581,7 +13617,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -13595,7 +13631,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>81</v>
       </c>
@@ -13612,7 +13648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>80</v>
       </c>
@@ -13629,7 +13665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -13643,7 +13679,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>265</v>
       </c>
@@ -13657,7 +13693,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>253</v>
       </c>
@@ -13674,7 +13710,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>163</v>
       </c>
@@ -13699,7 +13735,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>264</v>
       </c>
@@ -13717,7 +13753,27 @@
       <c r="A255" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H204" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
+  <autoFilter ref="A1:H204" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Mitchell, D18 Output of Synthetic Filaments (in thousand metric tons)"/>
+        <filter val="Mitchell, D3 Output of Crude Petroleum (in millions of metric tons)"/>
+        <filter val="Mitchell, D6 Output of Main Non-Ferrous Metal Ores"/>
+        <filter val="Mitchell, Output of Beer (in thousand hectolitres)"/>
+        <filter val="Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6"/>
+        <filter val="Mitchell, Output of Gold and Silver (in metric tons)"/>
+        <filter val="Mitchell, Output of Refined Copper, Lead, Tin, And Zinc (in thousands of metric tons)"/>
+        <filter val="Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet"/>
+        <filter val="Mitchell, Output of Sulphuric Acid, Hydrochloric Acid, Nitric Acid and Caustic Soda (in thousand metric tons)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C204">
     <sortCondition ref="A2:A204"/>
   </sortState>
@@ -13790,13 +13846,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>151</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <v>66</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <v>46</v>
       </c>
     </row>
@@ -13804,47 +13860,45 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>144</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>184</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>19</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>189</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <v>79</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>46</v>
       </c>
     </row>
@@ -13852,13 +13906,13 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>163</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>203</v>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF17219-D615-C642-B88A-039789456CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84069A9D-2925-BF42-86AD-126FD9728003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="500" windowWidth="20980" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="382">
   <si>
     <t>Technology</t>
   </si>
@@ -1225,9 +1225,6 @@
     <t>&lt;10 years of data</t>
   </si>
   <si>
-    <t>have the data, just have some q's for JG</t>
-  </si>
-  <si>
     <t>Global and/or US data?</t>
   </si>
   <si>
@@ -1237,9 +1234,6 @@
     <t>Count of Global and/or US data?</t>
   </si>
   <si>
-    <t>184 in the database</t>
-  </si>
-  <si>
     <t>40 technologies in the database without meta-characteristics</t>
   </si>
   <si>
@@ -1252,15 +1246,9 @@
     <t>Count of Cost data?</t>
   </si>
   <si>
-    <t>Mitchell, D18 Output of Synthetic Filaments (in thousand metric tons)</t>
-  </si>
-  <si>
     <t>Mitchell, Output of Refined Copper, Lead, Tin, And Zinc (in thousands of metric tons)</t>
   </si>
   <si>
-    <t>Mitchell, Output of Sulphuric Acid, Hydrochloric Acid, Nitric Acid and Caustic Soda (in thousand metric tons)</t>
-  </si>
-  <si>
     <t>Mitchell, Output of Gold and Silver (in metric tons)</t>
   </si>
   <si>
@@ -1354,28 +1342,31 @@
     <t>BP and Wilson</t>
   </si>
   <si>
-    <t>rename as space objects, loading new OWD data set</t>
-  </si>
-  <si>
     <t>203 total unique technologies</t>
   </si>
   <si>
     <t>163 with meta-characteristics</t>
   </si>
   <si>
-    <t>19 technologies with meta-characteristics not in the database</t>
-  </si>
-  <si>
-    <t>189 technologies with global and/or US data</t>
-  </si>
-  <si>
-    <t>79 technologies with country-level data (at least 2 countries)</t>
-  </si>
-  <si>
     <t>46 technologies with cost data</t>
   </si>
   <si>
-    <t>66 technologies with meta data and country-level data</t>
+    <t>11 technologies with meta-characteristics not in the database</t>
+  </si>
+  <si>
+    <t>195 technologies with global and/or US data</t>
+  </si>
+  <si>
+    <t>87 technologies with country-level data (at least 2 countries)</t>
+  </si>
+  <si>
+    <t>74 technologies with meta data and country-level data</t>
+  </si>
+  <si>
+    <t>Space launches</t>
+  </si>
+  <si>
+    <t>193 in the database</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1445,6 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,7 +1552,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45063.486960648152" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45068.688190277775" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E204" sheet="matrix"/>
   </cacheSource>
@@ -1596,7 +1588,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45063.486960648152" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45068.688206018516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F204" sheet="matrix"/>
   </cacheSource>
@@ -1769,9 +1761,9 @@
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cellphones"/>
@@ -2140,9 +2132,9 @@
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
@@ -2378,9 +2370,9 @@
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
@@ -2796,9 +2788,9 @@
     <m/>
   </r>
   <r>
-    <s v="Satellite launches"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="Space launches"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
@@ -2833,9 +2825,9 @@
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Smartphone usage"/>
@@ -2917,16 +2909,16 @@
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tablet"/>
@@ -2959,9 +2951,9 @@
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
@@ -3043,9 +3035,9 @@
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
@@ -3214,9 +3206,9 @@
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
@@ -3638,9 +3630,9 @@
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
@@ -3910,9 +3902,9 @@
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
@@ -4388,9 +4380,9 @@
     <s v="x"/>
   </r>
   <r>
-    <s v="Satellite launches"/>
-    <x v="0"/>
-    <m/>
+    <s v="Space launches"/>
+    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
     <m/>
@@ -4430,9 +4422,9 @@
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
@@ -4526,17 +4518,17 @@
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
@@ -4574,9 +4566,9 @@
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
@@ -4670,9 +4662,9 @@
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
@@ -4687,7 +4679,69 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Global and/or US data?" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Country-level data?" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Cost data?" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4738,68 +4792,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count of Global and/or US data?" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Country-level data?" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Cost data?" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5171,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6524,7 +6516,7 @@
   <dimension ref="A1:O214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6624,7 +6616,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6684,13 +6676,13 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6762,16 +6754,16 @@
         <v>309</v>
       </c>
       <c r="J19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6786,7 +6778,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6834,10 +6826,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N24" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7005,7 +6997,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7158,7 +7150,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7395,10 +7387,10 @@
         <v>313</v>
       </c>
       <c r="M73" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N73" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -7413,10 +7405,10 @@
         <v>313</v>
       </c>
       <c r="M74" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N74" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -7557,7 +7549,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7632,7 +7624,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7800,7 +7792,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7893,7 +7885,7 @@
         <v>314</v>
       </c>
       <c r="M114" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -7971,10 +7963,10 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M121" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8028,10 +8020,10 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M126" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8043,10 +8035,10 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M127" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8061,7 +8053,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8073,10 +8065,10 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M129" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8091,7 +8083,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8106,7 +8098,7 @@
         <v>309</v>
       </c>
       <c r="M131" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8121,7 +8113,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8133,7 +8125,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8148,7 +8140,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8163,7 +8155,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8178,13 +8170,13 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M136" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O136" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8385,7 +8377,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8688,7 +8680,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8699,7 +8691,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8734,7 +8726,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8877,7 +8869,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -8888,7 +8880,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -10547,8 +10539,8 @@
   <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10580,16 +10572,16 @@
         <v>330</v>
       </c>
       <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
-        <v>336</v>
-      </c>
       <c r="F1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
@@ -10643,7 +10635,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10652,9 +10644,6 @@
       </c>
       <c r="D5" t="s">
         <v>309</v>
-      </c>
-      <c r="H5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -10691,7 +10680,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10700,9 +10689,6 @@
       </c>
       <c r="D8" t="s">
         <v>309</v>
-      </c>
-      <c r="H8" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -10744,7 +10730,7 @@
         <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -10871,7 +10857,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10881,11 +10867,8 @@
       <c r="D20" t="s">
         <v>309</v>
       </c>
-      <c r="H20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10900,9 +10883,6 @@
       </c>
       <c r="E21" t="s">
         <v>309</v>
-      </c>
-      <c r="H21" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11043,7 +11023,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11052,9 +11032,6 @@
       </c>
       <c r="D31" t="s">
         <v>309</v>
-      </c>
-      <c r="H31" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11122,7 +11099,7 @@
         <v>309</v>
       </c>
       <c r="H35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11299,7 +11276,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -11311,9 +11288,6 @@
       </c>
       <c r="E48" t="s">
         <v>309</v>
-      </c>
-      <c r="H48" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11491,7 +11465,7 @@
         <v>309</v>
       </c>
       <c r="H59" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11576,7 +11550,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -11586,11 +11560,8 @@
       <c r="D65" t="s">
         <v>309</v>
       </c>
-      <c r="H65" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -11600,11 +11571,8 @@
       <c r="D66" t="s">
         <v>309</v>
       </c>
-      <c r="H66" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -11613,9 +11581,6 @@
       </c>
       <c r="D67" t="s">
         <v>309</v>
-      </c>
-      <c r="H67" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11699,7 +11664,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -11714,9 +11679,6 @@
       </c>
       <c r="E74" t="s">
         <v>309</v>
-      </c>
-      <c r="H74" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11750,7 +11712,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -11760,11 +11722,8 @@
       <c r="D77" t="s">
         <v>309</v>
       </c>
-      <c r="H77" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -11773,9 +11732,6 @@
       </c>
       <c r="D78" t="s">
         <v>309</v>
-      </c>
-      <c r="H78" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12122,7 +12078,7 @@
         <v>309</v>
       </c>
       <c r="H100" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12221,7 +12177,7 @@
         <v>309</v>
       </c>
       <c r="H106" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12241,7 +12197,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>142</v>
       </c>
@@ -12256,9 +12212,6 @@
       </c>
       <c r="E108" t="s">
         <v>309</v>
-      </c>
-      <c r="H108" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12885,7 +12838,7 @@
         <v>309</v>
       </c>
       <c r="H147" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -13077,7 +13030,7 @@
         <v>309</v>
       </c>
       <c r="H159" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -13203,19 +13156,19 @@
     </row>
     <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="B168" t="s">
         <v>309</v>
       </c>
+      <c r="C168" t="s">
+        <v>309</v>
+      </c>
       <c r="D168" t="s">
         <v>309</v>
       </c>
       <c r="E168" t="s">
         <v>309</v>
-      </c>
-      <c r="H168" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -13277,15 +13230,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>138</v>
       </c>
       <c r="B173" t="s">
         <v>309</v>
       </c>
-      <c r="H173" t="s">
-        <v>346</v>
+      <c r="C173" t="s">
+        <v>309</v>
+      </c>
+      <c r="E173" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -13448,7 +13404,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>140</v>
       </c>
@@ -13464,19 +13420,22 @@
       <c r="E185" t="s">
         <v>309</v>
       </c>
-      <c r="H185" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>139</v>
       </c>
       <c r="B186" t="s">
         <v>309</v>
       </c>
-      <c r="H186" t="s">
-        <v>343</v>
+      <c r="C186" t="s">
+        <v>309</v>
+      </c>
+      <c r="D186" t="s">
+        <v>309</v>
+      </c>
+      <c r="E186" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -13544,15 +13503,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>135</v>
       </c>
       <c r="B191" t="s">
         <v>309</v>
       </c>
-      <c r="H191" t="s">
-        <v>344</v>
+      <c r="C191" t="s">
+        <v>309</v>
+      </c>
+      <c r="E191" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -13724,15 +13686,21 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>136</v>
       </c>
       <c r="B203" t="s">
         <v>309</v>
       </c>
-      <c r="H203" t="s">
-        <v>344</v>
+      <c r="C203" t="s">
+        <v>309</v>
+      </c>
+      <c r="D203" t="s">
+        <v>309</v>
+      </c>
+      <c r="E203" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -13756,22 +13724,6 @@
   <autoFilter ref="A1:H204" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
     <filterColumn colId="2">
       <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Mitchell, D18 Output of Synthetic Filaments (in thousand metric tons)"/>
-        <filter val="Mitchell, D3 Output of Crude Petroleum (in millions of metric tons)"/>
-        <filter val="Mitchell, D6 Output of Main Non-Ferrous Metal Ores"/>
-        <filter val="Mitchell, Output of Beer (in thousand hectolitres)"/>
-        <filter val="Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6"/>
-        <filter val="Mitchell, Output of Gold and Silver (in metric tons)"/>
-        <filter val="Mitchell, Output of Refined Copper, Lead, Tin, And Zinc (in thousands of metric tons)"/>
-        <filter val="Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet"/>
-        <filter val="Mitchell, Output of Sulphuric Acid, Hydrochloric Acid, Nitric Acid and Caustic Soda (in thousand metric tons)"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C204">
@@ -13789,7 +13741,7 @@
   <dimension ref="A3:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13821,13 +13773,13 @@
         <v>327</v>
       </c>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" t="s">
         <v>340</v>
-      </c>
-      <c r="I3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -13846,13 +13798,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4">
-        <v>151</v>
-      </c>
-      <c r="H4">
-        <v>66</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="7">
+        <v>157</v>
+      </c>
+      <c r="H4" s="7">
+        <v>74</v>
+      </c>
+      <c r="I4" s="7">
         <v>46</v>
       </c>
     </row>
@@ -13860,45 +13812,47 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5">
-        <v>144</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="7">
+        <v>153</v>
+      </c>
+      <c r="C5" s="7">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>184</v>
+      <c r="D5" s="7">
+        <v>193</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>38</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
+      <c r="B6" s="7">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6">
-        <v>189</v>
-      </c>
-      <c r="H6">
-        <v>79</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="7">
+        <v>195</v>
+      </c>
+      <c r="H6" s="7">
+        <v>87</v>
+      </c>
+      <c r="I6" s="7">
         <v>46</v>
       </c>
     </row>
@@ -13906,57 +13860,57 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>163</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84069A9D-2925-BF42-86AD-126FD9728003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F519EFF1-4503-4B43-8D06-986E1B34CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
-    <pivotCache cacheId="17" r:id="rId7"/>
+    <pivotCache cacheId="20" r:id="rId6"/>
+    <pivotCache cacheId="21" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="383">
   <si>
     <t>Technology</t>
   </si>
@@ -1367,6 +1367,9 @@
   </si>
   <si>
     <t>193 in the database</t>
+  </si>
+  <si>
+    <t>merge w ethyl alcohol</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1436,7 +1439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4679,7 +4681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4741,7 +4743,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -10540,7 +10542,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
+      <selection pane="bottomLeft" activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10680,11 +10682,14 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
       <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
         <v>309</v>
       </c>
       <c r="D8" t="s">
@@ -10857,11 +10862,14 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" t="s">
         <v>309</v>
       </c>
       <c r="D20" t="s">
@@ -11023,11 +11031,14 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="B31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" t="s">
         <v>309</v>
       </c>
       <c r="D31" t="s">
@@ -11289,6 +11300,9 @@
       <c r="E48" t="s">
         <v>309</v>
       </c>
+      <c r="H48" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -11550,33 +11564,42 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
       <c r="B65" t="s">
         <v>309</v>
       </c>
+      <c r="C65" t="s">
+        <v>309</v>
+      </c>
       <c r="D65" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
       <c r="B66" t="s">
         <v>309</v>
       </c>
+      <c r="C66" t="s">
+        <v>309</v>
+      </c>
       <c r="D66" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
       <c r="B67" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" t="s">
         <v>309</v>
       </c>
       <c r="D67" t="s">
@@ -11712,22 +11735,28 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
       <c r="B77" t="s">
         <v>309</v>
       </c>
+      <c r="C77" t="s">
+        <v>309</v>
+      </c>
       <c r="D77" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>120</v>
       </c>
       <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
         <v>309</v>
       </c>
       <c r="D78" t="s">
@@ -13798,13 +13827,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>157</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <v>74</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <v>46</v>
       </c>
     </row>
@@ -13812,47 +13841,45 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>153</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>193</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>195</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <v>87</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>46</v>
       </c>
     </row>
@@ -13860,13 +13887,13 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>163</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>203</v>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F519EFF1-4503-4B43-8D06-986E1B34CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F72099-2C1E-5843-8DAE-B48CBDCF56D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21940" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
     <sheet name="pivot" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$H$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$H$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$214</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId6"/>
-    <pivotCache cacheId="21" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,19 +53,31 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5E6233A5-463E-2742-B542-E6CE94AD76D6}</author>
+    <author>tc={815F6A2E-847A-9F43-A758-8A1C3F308170}</author>
+    <author>tc={08ACF5D2-6623-F14F-9D0C-8AE8439D2CC3}</author>
     <author>tc={E5BD1964-981C-F640-AE19-8E04B76173C2}</author>
+    <author>tc={67B67B36-AD44-9A40-989A-11AC987E1F8C}</author>
     <author>tc={022D28A5-C668-AA46-BD2B-C648063EF5B6}</author>
     <author>tc={50B8E796-C419-6849-BAF0-939F592D9A87}</author>
     <author>tc={14D22BD7-4898-BD4C-8943-EBB9CDDC9368}</author>
     <author>tc={18FB2530-F9F5-BA46-B3CC-6850F6DCCD35}</author>
     <author>tc={860873BF-2826-8E49-9306-49F75C18740A}</author>
+    <author>tc={2CECDAE0-6158-5C4B-888E-E9BB7CB975A1}</author>
     <author>tc={DECA13F4-49BB-504C-B597-AF54CA005960}</author>
     <author>tc={F266A775-B3D0-0A41-B5EB-29ABAED1FA3D}</author>
     <author>tc={87184B9F-3D50-EB42-9B47-DA4AA3936C3F}</author>
+    <author>tc={CA93DA44-6363-E547-B183-B1379CEBC6E1}</author>
+    <author>tc={1C9A6B7F-0FD0-A747-ADD8-899E8A2CED52}</author>
+    <author>tc={74423052-4488-154C-A453-2E8EB46D64BD}</author>
+    <author>tc={8A08E2F4-4411-654D-8C92-BBDC7A05E30A}</author>
+    <author>tc={C1BA8ED3-DD1B-364C-9BD8-BED16405F5E2}</author>
+    <author>tc={4B1AA4C6-4595-D640-B555-D3392DB18C71}</author>
+    <author>tc={8E761566-C86A-2D45-A528-BD6F45B05DB4}</author>
     <author>tc={FDADCA51-0E1C-FC44-8C03-443001F60400}</author>
     <author>tc={CC299B05-B5D1-3A40-8868-CB337F133C0D}</author>
     <author>tc={287908FC-2F48-AE48-8BDE-6D437125295A}</author>
     <author>tc={5EE1E82A-7DF0-5847-989B-FF4E7D288EEB}</author>
+    <author>tc={3AFAB7C4-95AD-8744-B431-D1925A33984F}</author>
     <author>tc={C0D61A5B-298C-B340-A69F-6D086F18627A}</author>
     <author>tc={C2D96083-F121-6A47-B8D4-CDEF9A63F7D4}</author>
     <author>tc={F39A1BB5-38A0-7948-829C-F30EC141AB56}</author>
@@ -80,7 +92,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J20" authorId="1" shapeId="0" xr:uid="{E5BD1964-981C-F640-AE19-8E04B76173C2}">
+    <comment ref="J13" authorId="1" shapeId="0" xr:uid="{815F6A2E-847A-9F43-A758-8A1C3F308170}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +100,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J39" authorId="2" shapeId="0" xr:uid="{022D28A5-C668-AA46-BD2B-C648063EF5B6}">
+    <comment ref="J19" authorId="2" shapeId="0" xr:uid="{08ACF5D2-6623-F14F-9D0C-8AE8439D2CC3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +108,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J44" authorId="3" shapeId="0" xr:uid="{50B8E796-C419-6849-BAF0-939F592D9A87}">
+    <comment ref="J20" authorId="3" shapeId="0" xr:uid="{E5BD1964-981C-F640-AE19-8E04B76173C2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +116,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J47" authorId="4" shapeId="0" xr:uid="{14D22BD7-4898-BD4C-8943-EBB9CDDC9368}">
+    <comment ref="J24" authorId="4" shapeId="0" xr:uid="{67B67B36-AD44-9A40-989A-11AC987E1F8C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -112,7 +124,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J53" authorId="5" shapeId="0" xr:uid="{18FB2530-F9F5-BA46-B3CC-6850F6DCCD35}">
+    <comment ref="J39" authorId="5" shapeId="0" xr:uid="{022D28A5-C668-AA46-BD2B-C648063EF5B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +132,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J71" authorId="6" shapeId="0" xr:uid="{860873BF-2826-8E49-9306-49F75C18740A}">
+    <comment ref="J44" authorId="6" shapeId="0" xr:uid="{50B8E796-C419-6849-BAF0-939F592D9A87}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +140,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J81" authorId="7" shapeId="0" xr:uid="{DECA13F4-49BB-504C-B597-AF54CA005960}">
+    <comment ref="J47" authorId="7" shapeId="0" xr:uid="{14D22BD7-4898-BD4C-8943-EBB9CDDC9368}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +148,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J84" authorId="8" shapeId="0" xr:uid="{F266A775-B3D0-0A41-B5EB-29ABAED1FA3D}">
+    <comment ref="J53" authorId="8" shapeId="0" xr:uid="{18FB2530-F9F5-BA46-B3CC-6850F6DCCD35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +156,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J92" authorId="9" shapeId="0" xr:uid="{87184B9F-3D50-EB42-9B47-DA4AA3936C3F}">
+    <comment ref="J71" authorId="9" shapeId="0" xr:uid="{860873BF-2826-8E49-9306-49F75C18740A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +164,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J153" authorId="10" shapeId="0" xr:uid="{FDADCA51-0E1C-FC44-8C03-443001F60400}">
+    <comment ref="J73" authorId="10" shapeId="0" xr:uid="{2CECDAE0-6158-5C4B-888E-E9BB7CB975A1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +172,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J169" authorId="11" shapeId="0" xr:uid="{CC299B05-B5D1-3A40-8868-CB337F133C0D}">
+    <comment ref="J81" authorId="11" shapeId="0" xr:uid="{DECA13F4-49BB-504C-B597-AF54CA005960}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +180,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J187" authorId="12" shapeId="0" xr:uid="{287908FC-2F48-AE48-8BDE-6D437125295A}">
+    <comment ref="J84" authorId="12" shapeId="0" xr:uid="{F266A775-B3D0-0A41-B5EB-29ABAED1FA3D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +188,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J188" authorId="13" shapeId="0" xr:uid="{5EE1E82A-7DF0-5847-989B-FF4E7D288EEB}">
+    <comment ref="J92" authorId="13" shapeId="0" xr:uid="{87184B9F-3D50-EB42-9B47-DA4AA3936C3F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +196,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J206" authorId="14" shapeId="0" xr:uid="{C0D61A5B-298C-B340-A69F-6D086F18627A}">
+    <comment ref="J106" authorId="14" shapeId="0" xr:uid="{CA93DA44-6363-E547-B183-B1379CEBC6E1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +204,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J207" authorId="15" shapeId="0" xr:uid="{C2D96083-F121-6A47-B8D4-CDEF9A63F7D4}">
+    <comment ref="J114" authorId="15" shapeId="0" xr:uid="{1C9A6B7F-0FD0-A747-ADD8-899E8A2CED52}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +212,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J211" authorId="16" shapeId="0" xr:uid="{F39A1BB5-38A0-7948-829C-F30EC141AB56}">
+    <comment ref="J125" authorId="16" shapeId="0" xr:uid="{74423052-4488-154C-A453-2E8EB46D64BD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +220,103 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="J212" authorId="17" shapeId="0" xr:uid="{59FFEE9A-BE1E-3E4E-8A93-DC0A3E497054}">
+    <comment ref="J127" authorId="17" shapeId="0" xr:uid="{8A08E2F4-4411-654D-8C92-BBDC7A05E30A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J129" authorId="18" shapeId="0" xr:uid="{C1BA8ED3-DD1B-364C-9BD8-BED16405F5E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J131" authorId="19" shapeId="0" xr:uid="{4B1AA4C6-4595-D640-B555-D3392DB18C71}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J136" authorId="20" shapeId="0" xr:uid="{8E761566-C86A-2D45-A528-BD6F45B05DB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J153" authorId="21" shapeId="0" xr:uid="{FDADCA51-0E1C-FC44-8C03-443001F60400}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J169" authorId="22" shapeId="0" xr:uid="{CC299B05-B5D1-3A40-8868-CB337F133C0D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J187" authorId="23" shapeId="0" xr:uid="{287908FC-2F48-AE48-8BDE-6D437125295A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J188" authorId="24" shapeId="0" xr:uid="{5EE1E82A-7DF0-5847-989B-FF4E7D288EEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J192" authorId="25" shapeId="0" xr:uid="{3AFAB7C4-95AD-8744-B431-D1925A33984F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J206" authorId="26" shapeId="0" xr:uid="{C0D61A5B-298C-B340-A69F-6D086F18627A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J207" authorId="27" shapeId="0" xr:uid="{C2D96083-F121-6A47-B8D4-CDEF9A63F7D4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J211" authorId="28" shapeId="0" xr:uid="{F39A1BB5-38A0-7948-829C-F30EC141AB56}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Done</t>
+      </text>
+    </comment>
+    <comment ref="J212" authorId="29" shapeId="0" xr:uid="{59FFEE9A-BE1E-3E4E-8A93-DC0A3E497054}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -221,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="378">
   <si>
     <t>Technology</t>
   </si>
@@ -1276,24 +1384,6 @@
     <t>do the same deal for cars</t>
   </si>
   <si>
-    <t>keep, rename</t>
-  </si>
-  <si>
-    <t>maybe not?? Bc it goes back to 1882</t>
-  </si>
-  <si>
-    <t>maybe not bc it goes back to 1965 - how does it differ from renewable hydro, mixed hydro?</t>
-  </si>
-  <si>
-    <t>keep, rename as natural gas power</t>
-  </si>
-  <si>
-    <t>drop; BP has better data - maybe not? Ask greg?</t>
-  </si>
-  <si>
-    <t>drop; BP has better data - ask greg if we want to keep both?</t>
-  </si>
-  <si>
     <t>Span of years</t>
   </si>
   <si>
@@ -1342,41 +1432,44 @@
     <t>BP and Wilson</t>
   </si>
   <si>
-    <t>203 total unique technologies</t>
-  </si>
-  <si>
-    <t>163 with meta-characteristics</t>
-  </si>
-  <si>
     <t>46 technologies with cost data</t>
   </si>
   <si>
-    <t>11 technologies with meta-characteristics not in the database</t>
-  </si>
-  <si>
-    <t>195 technologies with global and/or US data</t>
-  </si>
-  <si>
-    <t>87 technologies with country-level data (at least 2 countries)</t>
-  </si>
-  <si>
-    <t>74 technologies with meta data and country-level data</t>
-  </si>
-  <si>
     <t>Space launches</t>
   </si>
   <si>
-    <t>193 in the database</t>
-  </si>
-  <si>
-    <t>merge w ethyl alcohol</t>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>202 total unique technologies</t>
+  </si>
+  <si>
+    <t>162 with meta-characteristics</t>
+  </si>
+  <si>
+    <t>202 in the database</t>
+  </si>
+  <si>
+    <t>1 technologies with meta-characteristics not in the database</t>
+  </si>
+  <si>
+    <t>194 technologies with global and/or US data</t>
+  </si>
+  <si>
+    <t>86 technologies with country-level data (at least 2 countries)</t>
+  </si>
+  <si>
+    <t>73 technologies with meta data and country-level data</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1401,6 +1494,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1429,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1439,6 +1538,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,9 +1655,45 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45068.688190277775" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45069.713902777781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E204" sheet="matrix"/>
+    <worksheetSource ref="A1:F203" sheet="matrix"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Technology Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Has meta characteristics?" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="x"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="In the database?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Global and/or US data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Country-level data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cost data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45069.747171875002" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E203" sheet="matrix"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Technology Name" numFmtId="0">
@@ -1589,3161 +1726,3048 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45068.688206018516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F204" sheet="matrix"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Technology Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Has meta characteristics?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="In the database?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Global and/or US data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Country-level data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Cost data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="203">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <m/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
-  </r>
-  <r>
-    <s v="Ethanol"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="203">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="1"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="Ethanol"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count of Global and/or US data?" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Country-level data?" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Cost data?" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4794,6 +4818,68 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Global and/or US data?" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Country-level data?" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Cost data?" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5107,7 +5193,16 @@
   <threadedComment ref="J8" dT="2023-05-16T21:23:43.06" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{5E6233A5-463E-2742-B542-E6CE94AD76D6}">
     <text>Done</text>
   </threadedComment>
+  <threadedComment ref="J13" dT="2023-05-23T22:15:15.52" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{815F6A2E-847A-9F43-A758-8A1C3F308170}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J19" dT="2023-05-23T22:13:31.65" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{08ACF5D2-6623-F14F-9D0C-8AE8439D2CC3}">
+    <text>Done</text>
+  </threadedComment>
   <threadedComment ref="J20" dT="2023-05-16T21:23:35.84" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{E5BD1964-981C-F640-AE19-8E04B76173C2}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J24" dT="2023-05-23T22:01:10.48" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{67B67B36-AD44-9A40-989A-11AC987E1F8C}">
     <text>Done</text>
   </threadedComment>
   <threadedComment ref="J39" dT="2023-05-16T21:27:28.27" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{022D28A5-C668-AA46-BD2B-C648063EF5B6}">
@@ -5125,6 +5220,9 @@
   <threadedComment ref="J71" dT="2023-05-16T21:23:18.54" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{860873BF-2826-8E49-9306-49F75C18740A}">
     <text>Done</text>
   </threadedComment>
+  <threadedComment ref="J73" dT="2023-05-23T22:00:57.51" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{2CECDAE0-6158-5C4B-888E-E9BB7CB975A1}">
+    <text>Done</text>
+  </threadedComment>
   <threadedComment ref="J81" dT="2023-05-16T20:58:35.11" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{DECA13F4-49BB-504C-B597-AF54CA005960}">
     <text>Done</text>
   </threadedComment>
@@ -5132,6 +5230,27 @@
     <text>Done</text>
   </threadedComment>
   <threadedComment ref="J92" dT="2023-05-16T20:54:41.43" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{87184B9F-3D50-EB42-9B47-DA4AA3936C3F}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J106" dT="2023-05-23T22:00:50.63" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{CA93DA44-6363-E547-B183-B1379CEBC6E1}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J114" dT="2023-05-23T22:00:45.90" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{1C9A6B7F-0FD0-A747-ADD8-899E8A2CED52}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J125" dT="2023-05-23T22:09:12.87" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{74423052-4488-154C-A453-2E8EB46D64BD}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J127" dT="2023-05-23T22:09:22.32" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{8A08E2F4-4411-654D-8C92-BBDC7A05E30A}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J129" dT="2023-05-23T22:09:39.48" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{C1BA8ED3-DD1B-364C-9BD8-BED16405F5E2}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J131" dT="2023-05-23T22:09:32.00" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{4B1AA4C6-4595-D640-B555-D3392DB18C71}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J136" dT="2023-05-23T22:13:17.77" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{8E761566-C86A-2D45-A528-BD6F45B05DB4}">
     <text>Done</text>
   </threadedComment>
   <threadedComment ref="J153" dT="2023-05-16T21:41:31.70" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{FDADCA51-0E1C-FC44-8C03-443001F60400}">
@@ -5144,6 +5263,9 @@
     <text>Done</text>
   </threadedComment>
   <threadedComment ref="J188" dT="2023-05-16T21:46:55.20" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{5EE1E82A-7DF0-5847-989B-FF4E7D288EEB}">
+    <text>Done</text>
+  </threadedComment>
+  <threadedComment ref="J192" dT="2023-05-23T22:00:30.80" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{3AFAB7C4-95AD-8744-B431-D1925A33984F}">
     <text>Done</text>
   </threadedComment>
   <threadedComment ref="J206" dT="2023-05-16T21:22:48.37" personId="{9205D114-041E-5046-B2A5-86E302B2B0FB}" id="{C0D61A5B-298C-B340-A69F-6D086F18627A}">
@@ -5165,8 +5287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6517,8 +6639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670A17DD-9AA6-1F49-9391-E946B7A2F272}">
   <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6618,7 +6740,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6677,14 +6799,14 @@
       <c r="G13" t="s">
         <v>272</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="8" t="s">
         <v>349</v>
       </c>
       <c r="M13" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6755,17 +6877,17 @@
       <c r="I19" t="s">
         <v>309</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="8" t="s">
         <v>350</v>
       </c>
       <c r="M19" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="N19" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6780,7 +6902,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6828,10 +6950,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="N24" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -6999,7 +7121,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7152,7 +7274,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7284,7 +7406,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -7296,7 +7418,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>283</v>
       </c>
@@ -7308,7 +7430,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -7320,7 +7442,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>303</v>
       </c>
@@ -7332,7 +7454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>236</v>
       </c>
@@ -7344,7 +7466,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -7356,7 +7478,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -7368,7 +7490,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -7377,7 +7499,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -7386,16 +7508,13 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="M73" t="s">
-        <v>369</v>
-      </c>
-      <c r="N73" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -7403,17 +7522,8 @@
       <c r="G74" t="s">
         <v>271</v>
       </c>
-      <c r="J74" t="s">
-        <v>313</v>
-      </c>
-      <c r="M74" t="s">
-        <v>367</v>
-      </c>
-      <c r="N74" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>282</v>
       </c>
@@ -7425,7 +7535,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -7434,7 +7544,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -7443,7 +7553,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -7455,7 +7565,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -7467,7 +7577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -7551,7 +7661,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7626,7 +7736,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7794,7 +7904,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7884,10 +7994,10 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="M114" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -7964,11 +8074,11 @@
       <c r="G121" t="s">
         <v>273</v>
       </c>
-      <c r="J121" t="s">
-        <v>351</v>
+      <c r="J121" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="M121" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8012,6 +8122,9 @@
       <c r="G125" t="s">
         <v>221</v>
       </c>
+      <c r="J125" s="8" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
@@ -8021,11 +8134,11 @@
       <c r="G126" t="s">
         <v>249</v>
       </c>
-      <c r="J126" t="s">
-        <v>354</v>
+      <c r="J126" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="M126" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8036,11 +8149,11 @@
       <c r="G127" t="s">
         <v>230</v>
       </c>
-      <c r="J127" t="s">
-        <v>355</v>
+      <c r="J127" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="M127" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8055,7 +8168,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8066,11 +8179,11 @@
       <c r="G129" t="s">
         <v>166</v>
       </c>
-      <c r="J129" t="s">
-        <v>356</v>
+      <c r="J129" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="M129" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8085,7 +8198,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8099,8 +8212,11 @@
       <c r="I131" t="s">
         <v>309</v>
       </c>
+      <c r="J131" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="M131" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8115,7 +8231,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8127,7 +8243,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8142,7 +8258,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8157,7 +8273,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8171,14 +8287,14 @@
       <c r="I136" t="s">
         <v>309</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="8" t="s">
         <v>348</v>
       </c>
       <c r="M136" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O136" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8379,7 +8495,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8682,7 +8798,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8693,7 +8809,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8728,7 +8844,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8871,7 +8987,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -8882,7 +8998,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -10538,11 +10654,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H255"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C220" sqref="C220"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10583,13 +10699,13 @@
         <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10606,7 +10722,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10648,7 +10764,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10665,7 +10781,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10682,7 +10798,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10707,7 +10823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10721,7 +10837,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -10738,7 +10854,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10755,7 +10871,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10769,7 +10885,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10797,7 +10913,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10814,7 +10930,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10828,7 +10944,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10845,7 +10961,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10862,7 +10978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10876,7 +10992,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -10893,7 +11009,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -10910,7 +11026,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -10941,7 +11057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -10955,7 +11071,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -10972,7 +11088,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -11017,7 +11133,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11031,7 +11147,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11045,7 +11161,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -11062,7 +11178,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -11093,7 +11209,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -11113,7 +11229,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11130,7 +11246,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11144,7 +11260,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11169,7 +11285,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11186,7 +11302,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11214,7 +11330,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11289,24 +11405,24 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
         <v>309</v>
       </c>
+      <c r="C48" t="s">
+        <v>309</v>
+      </c>
       <c r="D48" t="s">
         <v>309</v>
       </c>
-      <c r="E48" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
         <v>309</v>
@@ -11321,9 +11437,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
         <v>309</v>
@@ -11338,9 +11454,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
         <v>309</v>
@@ -11355,9 +11471,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
         <v>309</v>
@@ -11368,13 +11484,10 @@
       <c r="D52" t="s">
         <v>309</v>
       </c>
-      <c r="F52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="B53" t="s">
         <v>309</v>
@@ -11383,15 +11496,15 @@
         <v>309</v>
       </c>
       <c r="D53" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B54" t="s">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
         <v>309</v>
@@ -11399,13 +11512,13 @@
       <c r="D54" t="s">
         <v>309</v>
       </c>
-      <c r="E54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>294</v>
+      </c>
+      <c r="B55" t="s">
+        <v>309</v>
       </c>
       <c r="C55" t="s">
         <v>309</v>
@@ -11413,10 +11526,13 @@
       <c r="D55" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>309</v>
@@ -11427,13 +11543,13 @@
       <c r="D56" t="s">
         <v>309</v>
       </c>
-      <c r="E56" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
         <v>309</v>
@@ -11444,13 +11560,10 @@
       <c r="D57" t="s">
         <v>309</v>
       </c>
-      <c r="F57" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
         <v>309</v>
@@ -11461,10 +11574,16 @@
       <c r="D58" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>309</v>
+      </c>
+      <c r="H58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
         <v>309</v>
@@ -11475,16 +11594,13 @@
       <c r="D59" t="s">
         <v>309</v>
       </c>
-      <c r="F59" t="s">
-        <v>309</v>
-      </c>
-      <c r="H59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>309</v>
@@ -11495,13 +11611,10 @@
       <c r="D60" t="s">
         <v>309</v>
       </c>
-      <c r="E60" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s">
         <v>309</v>
@@ -11512,10 +11625,13 @@
       <c r="D61" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
         <v>309</v>
@@ -11530,9 +11646,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
         <v>309</v>
@@ -11547,9 +11663,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
         <v>309</v>
@@ -11560,13 +11676,10 @@
       <c r="D64" t="s">
         <v>309</v>
       </c>
-      <c r="E64" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>309</v>
@@ -11578,9 +11691,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
         <v>309</v>
@@ -11592,9 +11705,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
         <v>309</v>
@@ -11605,10 +11718,13 @@
       <c r="D67" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="B68" t="s">
         <v>309</v>
@@ -11619,13 +11735,10 @@
       <c r="D68" t="s">
         <v>309</v>
       </c>
-      <c r="E68" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="B69" t="s">
         <v>309</v>
@@ -11639,10 +11752,7 @@
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C70" t="s">
         <v>309</v>
@@ -11653,7 +11763,7 @@
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C71" t="s">
         <v>309</v>
@@ -11664,7 +11774,7 @@
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
         <v>309</v>
@@ -11672,10 +11782,16 @@
       <c r="D72" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>309</v>
       </c>
       <c r="C73" t="s">
         <v>309</v>
@@ -11683,13 +11799,13 @@
       <c r="D73" t="s">
         <v>309</v>
       </c>
-      <c r="H73" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>309</v>
@@ -11700,44 +11816,41 @@
       <c r="D74" t="s">
         <v>309</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
         <v>309</v>
       </c>
-      <c r="D75" t="s">
-        <v>309</v>
-      </c>
-      <c r="F75" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>309</v>
+      </c>
+      <c r="H75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
       </c>
       <c r="C76" t="s">
         <v>309</v>
       </c>
-      <c r="E76" t="s">
-        <v>309</v>
-      </c>
-      <c r="H76" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
         <v>309</v>
@@ -11749,9 +11862,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
         <v>309</v>
@@ -11763,9 +11876,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
         <v>309</v>
@@ -11777,9 +11890,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
         <v>309</v>
@@ -11790,10 +11903,13 @@
       <c r="D80" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
         <v>309</v>
@@ -11808,9 +11924,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
         <v>309</v>
@@ -11821,13 +11937,10 @@
       <c r="D82" t="s">
         <v>309</v>
       </c>
-      <c r="E82" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s">
         <v>309</v>
@@ -11838,10 +11951,13 @@
       <c r="D83" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>17</v>
       </c>
       <c r="B84" t="s">
         <v>309</v>
@@ -11852,13 +11968,10 @@
       <c r="D84" t="s">
         <v>309</v>
       </c>
-      <c r="E84" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="B85" t="s">
         <v>309</v>
@@ -11869,10 +11982,13 @@
       <c r="D85" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s">
         <v>309</v>
@@ -11887,9 +12003,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
         <v>309</v>
@@ -11900,13 +12016,10 @@
       <c r="D87" t="s">
         <v>309</v>
       </c>
-      <c r="E87" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
         <v>309</v>
@@ -11917,10 +12030,13 @@
       <c r="D88" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="B89" t="s">
         <v>309</v>
@@ -11935,9 +12051,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
         <v>309</v>
@@ -11948,13 +12064,13 @@
       <c r="D90" t="s">
         <v>309</v>
       </c>
-      <c r="E90" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
         <v>309</v>
@@ -11965,13 +12081,10 @@
       <c r="D91" t="s">
         <v>309</v>
       </c>
-      <c r="F91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
         <v>309</v>
@@ -11982,10 +12095,13 @@
       <c r="D92" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
         <v>309</v>
@@ -11996,13 +12112,13 @@
       <c r="D93" t="s">
         <v>309</v>
       </c>
-      <c r="F93" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
         <v>309</v>
@@ -12017,9 +12133,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>309</v>
@@ -12030,16 +12146,13 @@
       <c r="D95" t="s">
         <v>309</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
         <v>309</v>
@@ -12047,13 +12160,13 @@
       <c r="D96" t="s">
         <v>309</v>
       </c>
-      <c r="F96" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>34</v>
+      </c>
+      <c r="B97" t="s">
+        <v>309</v>
       </c>
       <c r="C97" t="s">
         <v>309</v>
@@ -12062,9 +12175,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
         <v>309</v>
@@ -12076,9 +12189,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="B99" t="s">
         <v>309</v>
@@ -12089,10 +12202,16 @@
       <c r="D99" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>309</v>
+      </c>
+      <c r="H99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
         <v>309</v>
@@ -12106,13 +12225,10 @@
       <c r="F100" t="s">
         <v>309</v>
       </c>
-      <c r="H100" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
         <v>309</v>
@@ -12123,13 +12239,10 @@
       <c r="D101" t="s">
         <v>309</v>
       </c>
-      <c r="F101" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
         <v>309</v>
@@ -12141,9 +12254,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="B103" t="s">
         <v>309</v>
@@ -12154,10 +12267,13 @@
       <c r="D103" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
         <v>309</v>
@@ -12168,13 +12284,13 @@
       <c r="D104" t="s">
         <v>309</v>
       </c>
-      <c r="E104" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B105" t="s">
         <v>309</v>
@@ -12187,14 +12303,14 @@
       </c>
       <c r="F105" t="s">
         <v>309</v>
+      </c>
+      <c r="H105" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>212</v>
-      </c>
-      <c r="B106" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
         <v>309</v>
@@ -12202,16 +12318,19 @@
       <c r="D106" t="s">
         <v>309</v>
       </c>
-      <c r="F106" t="s">
+      <c r="E106" t="s">
         <v>309</v>
       </c>
       <c r="H106" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>142</v>
+      </c>
+      <c r="B107" t="s">
+        <v>309</v>
       </c>
       <c r="C107" t="s">
         <v>309</v>
@@ -12222,13 +12341,10 @@
       <c r="E107" t="s">
         <v>309</v>
       </c>
-      <c r="H107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B108" t="s">
         <v>309</v>
@@ -12245,10 +12361,7 @@
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>69</v>
-      </c>
-      <c r="B109" t="s">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="C109" t="s">
         <v>309</v>
@@ -12256,13 +12369,13 @@
       <c r="D109" t="s">
         <v>309</v>
       </c>
-      <c r="E109" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>205</v>
+      </c>
+      <c r="B110" t="s">
+        <v>309</v>
       </c>
       <c r="C110" t="s">
         <v>309</v>
@@ -12270,10 +12383,13 @@
       <c r="D110" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="B111" t="s">
         <v>309</v>
@@ -12290,35 +12406,32 @@
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>235</v>
-      </c>
-      <c r="B112" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="C112" t="s">
         <v>309</v>
       </c>
-      <c r="D112" t="s">
-        <v>309</v>
-      </c>
       <c r="E112" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
+        <v>309</v>
       </c>
       <c r="C113" t="s">
         <v>309</v>
       </c>
-      <c r="E113" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
         <v>309</v>
@@ -12327,15 +12440,15 @@
         <v>309</v>
       </c>
       <c r="D114" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
         <v>309</v>
@@ -12347,9 +12460,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>309</v>
       </c>
       <c r="C116" t="s">
         <v>309</v>
@@ -12363,10 +12479,7 @@
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>238</v>
-      </c>
-      <c r="B117" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
         <v>309</v>
@@ -12378,9 +12491,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>241</v>
+      </c>
+      <c r="B118" t="s">
+        <v>309</v>
       </c>
       <c r="C118" t="s">
         <v>309</v>
@@ -12392,9 +12508,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s">
         <v>309</v>
@@ -12411,10 +12527,7 @@
     </row>
     <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>149</v>
-      </c>
-      <c r="B120" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C120" t="s">
         <v>309</v>
@@ -12426,9 +12539,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="B121" t="s">
+        <v>309</v>
       </c>
       <c r="C121" t="s">
         <v>309</v>
@@ -12440,9 +12556,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
         <v>309</v>
@@ -12457,9 +12573,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="B123" t="s">
         <v>309</v>
@@ -12474,9 +12590,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B124" t="s">
         <v>309</v>
@@ -12493,10 +12609,7 @@
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>218</v>
-      </c>
-      <c r="B125" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="C125" t="s">
         <v>309</v>
@@ -12508,9 +12621,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="B126" t="s">
+        <v>309</v>
       </c>
       <c r="C126" t="s">
         <v>309</v>
@@ -12522,9 +12638,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="B127" t="s">
         <v>309</v>
@@ -12535,13 +12651,13 @@
       <c r="D127" t="s">
         <v>309</v>
       </c>
-      <c r="E127" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="B128" t="s">
         <v>309</v>
@@ -12552,13 +12668,13 @@
       <c r="D128" t="s">
         <v>309</v>
       </c>
-      <c r="F128" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
         <v>309</v>
@@ -12573,9 +12689,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B130" t="s">
         <v>309</v>
@@ -12586,13 +12702,13 @@
       <c r="D130" t="s">
         <v>309</v>
       </c>
-      <c r="E130" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B131" t="s">
         <v>309</v>
@@ -12607,9 +12723,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
         <v>309</v>
@@ -12620,13 +12736,13 @@
       <c r="D132" t="s">
         <v>309</v>
       </c>
-      <c r="F132" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E132" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B133" t="s">
         <v>309</v>
@@ -12637,16 +12753,13 @@
       <c r="D133" t="s">
         <v>309</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>89</v>
-      </c>
-      <c r="B134" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C134" t="s">
         <v>309</v>
@@ -12654,13 +12767,13 @@
       <c r="D134" t="s">
         <v>309</v>
       </c>
-      <c r="F134" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>160</v>
+      </c>
+      <c r="B135" t="s">
+        <v>309</v>
       </c>
       <c r="C135" t="s">
         <v>309</v>
@@ -12668,10 +12781,13 @@
       <c r="D135" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E135" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B136" t="s">
         <v>309</v>
@@ -12682,13 +12798,13 @@
       <c r="D136" t="s">
         <v>309</v>
       </c>
-      <c r="E136" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
         <v>309</v>
@@ -12703,9 +12819,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B138" t="s">
         <v>309</v>
@@ -12720,9 +12836,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
         <v>309</v>
@@ -12737,9 +12853,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B140" t="s">
         <v>309</v>
@@ -12754,9 +12870,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="B141" t="s">
         <v>309</v>
@@ -12767,13 +12883,13 @@
       <c r="D141" t="s">
         <v>309</v>
       </c>
-      <c r="F141" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E141" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="B142" t="s">
         <v>309</v>
@@ -12790,10 +12906,7 @@
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>71</v>
-      </c>
-      <c r="B143" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C143" t="s">
         <v>309</v>
@@ -12801,13 +12914,13 @@
       <c r="D143" t="s">
         <v>309</v>
       </c>
-      <c r="E143" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="B144" t="s">
+        <v>309</v>
       </c>
       <c r="C144" t="s">
         <v>309</v>
@@ -12815,10 +12928,13 @@
       <c r="D144" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E144" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B145" t="s">
         <v>309</v>
@@ -12833,9 +12949,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="B146" t="s">
         <v>309</v>
@@ -12846,13 +12962,16 @@
       <c r="D146" t="s">
         <v>309</v>
       </c>
-      <c r="E146" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>309</v>
+      </c>
+      <c r="H146" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="B147" t="s">
         <v>309</v>
@@ -12866,13 +12985,10 @@
       <c r="F147" t="s">
         <v>309</v>
       </c>
-      <c r="H147" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B148" t="s">
         <v>309</v>
@@ -12883,13 +12999,10 @@
       <c r="D148" t="s">
         <v>309</v>
       </c>
-      <c r="F148" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="B149" t="s">
         <v>309</v>
@@ -12901,9 +13014,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
         <v>309</v>
@@ -12912,15 +13025,15 @@
         <v>309</v>
       </c>
       <c r="D150" t="s">
+        <v>309</v>
+      </c>
+      <c r="E150" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>256</v>
-      </c>
-      <c r="B151" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="C151" t="s">
         <v>309</v>
@@ -12928,13 +13041,13 @@
       <c r="D151" t="s">
         <v>309</v>
       </c>
-      <c r="E151" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>130</v>
+      </c>
+      <c r="B152" t="s">
+        <v>309</v>
       </c>
       <c r="C152" t="s">
         <v>309</v>
@@ -12942,10 +13055,13 @@
       <c r="D152" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E152" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="B153" t="s">
         <v>309</v>
@@ -12960,9 +13076,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
         <v>309</v>
@@ -12973,13 +13089,10 @@
       <c r="D154" t="s">
         <v>309</v>
       </c>
-      <c r="E154" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="B155" t="s">
         <v>309</v>
@@ -12990,10 +13103,13 @@
       <c r="D155" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="B156" t="s">
         <v>309</v>
@@ -13008,9 +13124,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
         <v>309</v>
@@ -13025,9 +13141,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="B158" t="s">
         <v>309</v>
@@ -13038,13 +13154,16 @@
       <c r="D158" t="s">
         <v>309</v>
       </c>
-      <c r="E158" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>309</v>
+      </c>
+      <c r="H158" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
         <v>309</v>
@@ -13054,20 +13173,11 @@
       </c>
       <c r="D159" t="s">
         <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>309</v>
-      </c>
-      <c r="H159" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="C160" t="s">
         <v>309</v>
@@ -13075,10 +13185,16 @@
       <c r="D160" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>268</v>
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>309</v>
       </c>
       <c r="C161" t="s">
         <v>309</v>
@@ -13092,24 +13208,18 @@
     </row>
     <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="C162" t="s">
         <v>309</v>
       </c>
       <c r="D162" t="s">
-        <v>309</v>
-      </c>
-      <c r="E162" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C163" t="s">
         <v>309</v>
@@ -13117,10 +13227,16 @@
       <c r="D163" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H163" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>198</v>
+        <v>262</v>
+      </c>
+      <c r="B164" t="s">
+        <v>309</v>
       </c>
       <c r="C164" t="s">
         <v>309</v>
@@ -13128,13 +13244,13 @@
       <c r="D164" t="s">
         <v>309</v>
       </c>
-      <c r="H164" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E164" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="B165" t="s">
         <v>309</v>
@@ -13145,13 +13261,13 @@
       <c r="D165" t="s">
         <v>309</v>
       </c>
-      <c r="E165" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
         <v>309</v>
@@ -13166,9 +13282,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="B167" t="s">
         <v>309</v>
@@ -13179,13 +13295,13 @@
       <c r="D167" t="s">
         <v>309</v>
       </c>
-      <c r="F167" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="B168" t="s">
         <v>309</v>
@@ -13200,9 +13316,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
         <v>309</v>
@@ -13211,18 +13327,12 @@
         <v>309</v>
       </c>
       <c r="D169" t="s">
-        <v>309</v>
-      </c>
-      <c r="E169" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>175</v>
-      </c>
-      <c r="B170" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="C170" t="s">
         <v>309</v>
@@ -13231,9 +13341,12 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>242</v>
+        <v>113</v>
+      </c>
+      <c r="B171" t="s">
+        <v>309</v>
       </c>
       <c r="C171" t="s">
         <v>309</v>
@@ -13241,10 +13354,13 @@
       <c r="D171" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B172" t="s">
         <v>309</v>
@@ -13252,30 +13368,27 @@
       <c r="C172" t="s">
         <v>309</v>
       </c>
-      <c r="D172" t="s">
-        <v>309</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="E172" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>138</v>
-      </c>
-      <c r="B173" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="C173" t="s">
         <v>309</v>
       </c>
-      <c r="E173" t="s">
-        <v>309</v>
+      <c r="D173" t="s">
+        <v>309</v>
+      </c>
+      <c r="H173" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C174" t="s">
         <v>309</v>
@@ -13283,13 +13396,13 @@
       <c r="D174" t="s">
         <v>309</v>
       </c>
-      <c r="H174" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>85</v>
+      </c>
+      <c r="B175" t="s">
+        <v>309</v>
       </c>
       <c r="C175" t="s">
         <v>309</v>
@@ -13297,10 +13410,13 @@
       <c r="D175" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B176" t="s">
         <v>309</v>
@@ -13315,9 +13431,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="B177" t="s">
         <v>309</v>
@@ -13328,13 +13444,13 @@
       <c r="D177" t="s">
         <v>309</v>
       </c>
-      <c r="F177" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E177" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
         <v>309</v>
@@ -13345,13 +13461,10 @@
       <c r="D178" t="s">
         <v>309</v>
       </c>
-      <c r="E178" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
         <v>309</v>
@@ -13363,9 +13476,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="B180" t="s">
         <v>309</v>
@@ -13373,27 +13486,27 @@
       <c r="C180" t="s">
         <v>309</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>173</v>
-      </c>
-      <c r="B181" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="C181" t="s">
         <v>309</v>
       </c>
-      <c r="E181" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>227</v>
+        <v>83</v>
+      </c>
+      <c r="B182" t="s">
+        <v>309</v>
       </c>
       <c r="C182" t="s">
         <v>309</v>
@@ -13401,10 +13514,13 @@
       <c r="D182" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="B183" t="s">
         <v>309</v>
@@ -13415,13 +13531,10 @@
       <c r="D183" t="s">
         <v>309</v>
       </c>
-      <c r="F183" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B184" t="s">
         <v>309</v>
@@ -13432,10 +13545,13 @@
       <c r="D184" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E184" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B185" t="s">
         <v>309</v>
@@ -13452,10 +13568,7 @@
     </row>
     <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>139</v>
-      </c>
-      <c r="B186" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="C186" t="s">
         <v>309</v>
@@ -13463,13 +13576,16 @@
       <c r="D186" t="s">
         <v>309</v>
       </c>
-      <c r="E186" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H186" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>263</v>
+        <v>308</v>
+      </c>
+      <c r="B187" t="s">
+        <v>309</v>
       </c>
       <c r="C187" t="s">
         <v>309</v>
@@ -13477,13 +13593,13 @@
       <c r="D187" t="s">
         <v>309</v>
       </c>
-      <c r="H187" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E187" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="B188" t="s">
         <v>309</v>
@@ -13498,9 +13614,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
         <v>309</v>
@@ -13515,9 +13631,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B190" t="s">
         <v>309</v>
@@ -13525,16 +13641,13 @@
       <c r="C190" t="s">
         <v>309</v>
       </c>
-      <c r="D190" t="s">
-        <v>309</v>
-      </c>
       <c r="E190" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B191" t="s">
         <v>309</v>
@@ -13542,13 +13655,16 @@
       <c r="C191" t="s">
         <v>309</v>
       </c>
-      <c r="E191" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>309</v>
+      </c>
+      <c r="F191" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B192" t="s">
         <v>309</v>
@@ -13559,13 +13675,10 @@
       <c r="D192" t="s">
         <v>309</v>
       </c>
-      <c r="F192" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B193" t="s">
         <v>309</v>
@@ -13576,10 +13689,13 @@
       <c r="D193" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B194" t="s">
         <v>309</v>
@@ -13588,18 +13704,12 @@
         <v>309</v>
       </c>
       <c r="D194" t="s">
-        <v>309</v>
-      </c>
-      <c r="F194" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>125</v>
-      </c>
-      <c r="B195" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="C195" t="s">
         <v>309</v>
@@ -13607,10 +13717,16 @@
       <c r="D195" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H195" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>81</v>
+      </c>
+      <c r="B196" t="s">
+        <v>309</v>
       </c>
       <c r="C196" t="s">
         <v>309</v>
@@ -13618,13 +13734,13 @@
       <c r="D196" t="s">
         <v>309</v>
       </c>
-      <c r="H196" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B197" t="s">
         <v>309</v>
@@ -13639,9 +13755,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
         <v>309</v>
@@ -13650,18 +13766,12 @@
         <v>309</v>
       </c>
       <c r="D198" t="s">
-        <v>309</v>
-      </c>
-      <c r="F198" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>15</v>
-      </c>
-      <c r="B199" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="C199" t="s">
         <v>309</v>
@@ -13669,10 +13779,16 @@
       <c r="D199" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H199" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>265</v>
+        <v>253</v>
+      </c>
+      <c r="B200" t="s">
+        <v>309</v>
       </c>
       <c r="C200" t="s">
         <v>309</v>
@@ -13680,13 +13796,13 @@
       <c r="D200" t="s">
         <v>309</v>
       </c>
-      <c r="H200" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E200" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="B201" t="s">
         <v>309</v>
@@ -13694,21 +13810,21 @@
       <c r="C201" t="s">
         <v>309</v>
       </c>
-      <c r="D201" t="s">
-        <v>309</v>
-      </c>
       <c r="E201" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B202" t="s">
         <v>309</v>
       </c>
       <c r="C202" t="s">
+        <v>309</v>
+      </c>
+      <c r="D202" t="s">
         <v>309</v>
       </c>
       <c r="E202" t="s">
@@ -13717,10 +13833,7 @@
     </row>
     <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>136</v>
-      </c>
-      <c r="B203" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C203" t="s">
         <v>309</v>
@@ -13732,33 +13845,21 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>264</v>
-      </c>
-      <c r="C204" t="s">
-        <v>309</v>
-      </c>
-      <c r="D204" t="s">
-        <v>309</v>
-      </c>
-      <c r="E204" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
+    <row r="254" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H204" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
+  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C204">
-    <sortCondition ref="A2:A204"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C203">
+    <sortCondition ref="A2:A203"/>
   </sortState>
-  <conditionalFormatting sqref="A255:A1048576 A1:A205">
+  <conditionalFormatting sqref="A254:A1048576 A1:A204">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13770,7 +13871,7 @@
   <dimension ref="A3:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13827,13 +13928,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4">
-        <v>157</v>
-      </c>
-      <c r="H4">
-        <v>74</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="7">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7">
+        <v>73</v>
+      </c>
+      <c r="I4" s="7">
         <v>46</v>
       </c>
     </row>
@@ -13841,45 +13942,47 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5">
-        <v>153</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="7">
+        <v>161</v>
+      </c>
+      <c r="C5" s="7">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>193</v>
+      <c r="D5" s="7">
+        <v>201</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>38</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6">
-        <v>195</v>
-      </c>
-      <c r="H6">
-        <v>87</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="7">
+        <v>194</v>
+      </c>
+      <c r="H6" s="7">
+        <v>86</v>
+      </c>
+      <c r="I6" s="7">
         <v>46</v>
       </c>
     </row>
@@ -13887,34 +13990,34 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7">
-        <v>163</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="7">
+        <v>162</v>
+      </c>
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D7">
-        <v>203</v>
+      <c r="D7" s="7">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -13922,22 +14025,22 @@
         <v>337</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F72099-2C1E-5843-8DAE-B48CBDCF56D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F16D1-2CFA-4F43-8F1C-79B80DDF39DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21940" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId6"/>
-    <pivotCache cacheId="19" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="382">
   <si>
     <t>Technology</t>
   </si>
@@ -1357,18 +1357,12 @@
     <t>Mitchell, Output of Refined Copper, Lead, Tin, And Zinc (in thousands of metric tons)</t>
   </si>
   <si>
-    <t>Mitchell, Output of Gold and Silver (in metric tons)</t>
-  </si>
-  <si>
     <t>Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet</t>
   </si>
   <si>
     <t>Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6</t>
   </si>
   <si>
-    <t>Mitchell, D6 Output of Main Non-Ferrous Metal Ores</t>
-  </si>
-  <si>
     <t>Mitchell, D3 Output of Crude Petroleum (in millions of metric tons)</t>
   </si>
   <si>
@@ -1463,13 +1457,31 @@
   </si>
   <si>
     <t>drop</t>
+  </si>
+  <si>
+    <t>this is all copper, primary and secondary (in some places it's broken out but it's aggregated in other places) - we also already have copper mining and refining</t>
+  </si>
+  <si>
+    <t>USGS, ~70 countries, incl. world, 1990-2011</t>
+  </si>
+  <si>
+    <t>USGS, ~60 countries, incl. world, 1990-2011</t>
+  </si>
+  <si>
+    <t>USGS, US and world, 1900-2018</t>
+  </si>
+  <si>
+    <t>Mitchell, 1913-2008, ~30 countries</t>
+  </si>
+  <si>
+    <t>F7/F8: Postal and Telegraph Traffic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1494,12 +1506,6 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1528,7 +1534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1538,7 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4767,7 +4772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4832,7 +4837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6740,7 +6745,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6799,14 +6804,14 @@
       <c r="G13" t="s">
         <v>272</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>349</v>
+      <c r="J13" t="s">
+        <v>347</v>
       </c>
       <c r="M13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6877,17 +6882,17 @@
       <c r="I19" t="s">
         <v>309</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>350</v>
+      <c r="J19" t="s">
+        <v>348</v>
       </c>
       <c r="M19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6902,7 +6907,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6950,10 +6955,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7121,7 +7126,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7274,7 +7279,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7508,10 +7513,10 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M73" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -7661,7 +7666,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7736,7 +7741,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7904,7 +7909,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7994,10 +7999,10 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M114" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8074,11 +8079,11 @@
       <c r="G121" t="s">
         <v>273</v>
       </c>
-      <c r="J121" s="8" t="s">
-        <v>377</v>
+      <c r="J121" t="s">
+        <v>375</v>
       </c>
       <c r="M121" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8122,8 +8127,8 @@
       <c r="G125" t="s">
         <v>221</v>
       </c>
-      <c r="J125" s="8" t="s">
-        <v>369</v>
+      <c r="J125" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8134,11 +8139,11 @@
       <c r="G126" t="s">
         <v>249</v>
       </c>
-      <c r="J126" s="8" t="s">
-        <v>369</v>
+      <c r="J126" t="s">
+        <v>367</v>
       </c>
       <c r="M126" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8149,11 +8154,11 @@
       <c r="G127" t="s">
         <v>230</v>
       </c>
-      <c r="J127" s="8" t="s">
-        <v>369</v>
+      <c r="J127" t="s">
+        <v>367</v>
       </c>
       <c r="M127" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8168,7 +8173,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8179,11 +8184,11 @@
       <c r="G129" t="s">
         <v>166</v>
       </c>
-      <c r="J129" s="8" t="s">
-        <v>369</v>
+      <c r="J129" t="s">
+        <v>367</v>
       </c>
       <c r="M129" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8198,7 +8203,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8212,11 +8217,11 @@
       <c r="I131" t="s">
         <v>309</v>
       </c>
-      <c r="J131" s="8" t="s">
-        <v>369</v>
+      <c r="J131" t="s">
+        <v>367</v>
       </c>
       <c r="M131" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8231,7 +8236,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8243,7 +8248,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8258,7 +8263,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8273,7 +8278,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8287,14 +8292,14 @@
       <c r="I136" t="s">
         <v>309</v>
       </c>
-      <c r="J136" s="8" t="s">
-        <v>348</v>
+      <c r="J136" t="s">
+        <v>346</v>
       </c>
       <c r="M136" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O136" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8495,7 +8500,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8798,7 +8803,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8809,7 +8814,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8844,7 +8849,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8987,7 +8992,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -8998,7 +9003,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -10654,11 +10659,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10699,13 +10704,13 @@
         <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10722,7 +10727,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10753,7 +10758,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10764,7 +10769,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10781,7 +10786,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10798,7 +10803,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10851,10 +10856,10 @@
         <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10871,7 +10876,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10885,7 +10890,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10913,7 +10918,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10930,7 +10935,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10944,7 +10949,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10961,7 +10966,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10978,7 +10983,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10992,7 +10997,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -11009,7 +11014,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -11026,7 +11031,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -11057,7 +11062,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -11088,7 +11093,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -11133,7 +11138,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11147,7 +11152,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11161,7 +11166,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -11177,8 +11182,11 @@
       <c r="E32" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -11193,6 +11201,9 @@
       </c>
       <c r="E33" t="s">
         <v>309</v>
+      </c>
+      <c r="H33" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11226,10 +11237,10 @@
         <v>309</v>
       </c>
       <c r="H35" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11246,7 +11257,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11260,7 +11271,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11285,7 +11296,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11302,7 +11313,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11330,7 +11341,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11403,7 +11414,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -11420,7 +11431,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -11437,7 +11448,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -11454,7 +11465,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -11471,7 +11482,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -11485,7 +11496,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>299</v>
       </c>
@@ -11502,7 +11513,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -11513,7 +11524,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>294</v>
       </c>
@@ -11530,7 +11541,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -11547,7 +11558,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -11561,7 +11572,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>207</v>
       </c>
@@ -11574,14 +11585,14 @@
       <c r="D58" t="s">
         <v>309</v>
       </c>
+      <c r="E58" t="s">
+        <v>309</v>
+      </c>
       <c r="F58" t="s">
         <v>309</v>
       </c>
-      <c r="H58" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -11598,7 +11609,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -11612,7 +11623,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -11629,7 +11640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -11646,7 +11657,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -11663,7 +11674,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -11677,7 +11688,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -11691,7 +11702,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -11705,7 +11716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -11722,7 +11733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -11736,7 +11747,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -11786,7 +11797,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -11803,7 +11814,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -11834,7 +11845,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -11848,7 +11859,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -11862,7 +11873,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -11876,7 +11887,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -11890,7 +11901,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -11907,7 +11918,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>251</v>
       </c>
@@ -11924,7 +11935,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -11938,7 +11949,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>295</v>
       </c>
@@ -11955,7 +11966,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -11969,7 +11980,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -11986,7 +11997,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -12003,7 +12014,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -12017,7 +12028,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>145</v>
       </c>
@@ -12034,7 +12045,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -12051,7 +12062,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -12068,7 +12079,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -12082,7 +12093,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -12099,7 +12110,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -12116,7 +12127,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -12133,7 +12144,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -12161,7 +12172,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -12175,7 +12186,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -12206,10 +12217,10 @@
         <v>309</v>
       </c>
       <c r="H99" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -12226,7 +12237,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -12240,7 +12251,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -12254,7 +12265,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>319</v>
       </c>
@@ -12271,7 +12282,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -12288,7 +12299,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>212</v>
       </c>
@@ -12301,11 +12312,11 @@
       <c r="D105" t="s">
         <v>309</v>
       </c>
+      <c r="E105" t="s">
+        <v>309</v>
+      </c>
       <c r="F105" t="s">
         <v>309</v>
-      </c>
-      <c r="H105" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12325,7 +12336,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -12342,7 +12353,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -12370,7 +12381,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -12387,7 +12398,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -12415,7 +12426,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -12429,7 +12440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -12460,7 +12471,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -12491,7 +12502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -12508,7 +12519,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -12539,7 +12550,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -12556,7 +12567,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>189</v>
       </c>
@@ -12573,7 +12584,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>255</v>
       </c>
@@ -12590,7 +12601,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -12621,7 +12632,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>191</v>
       </c>
@@ -12638,7 +12649,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -12655,7 +12666,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -12672,7 +12683,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>159</v>
       </c>
@@ -12689,7 +12700,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>91</v>
       </c>
@@ -12706,7 +12717,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -12723,7 +12734,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>70</v>
       </c>
@@ -12740,7 +12751,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12757,7 +12768,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -12768,7 +12779,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -12785,7 +12796,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -12802,7 +12813,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -12819,7 +12830,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -12836,7 +12847,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -12853,7 +12864,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -12870,7 +12881,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>307</v>
       </c>
@@ -12886,8 +12897,11 @@
       <c r="E141" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H141" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -12904,7 +12918,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -12915,7 +12929,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>257</v>
       </c>
@@ -12932,7 +12946,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>247</v>
       </c>
@@ -12949,7 +12963,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -12968,8 +12982,17 @@
       <c r="H146" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J146" t="s">
+        <v>376</v>
+      </c>
+      <c r="K146" t="s">
+        <v>379</v>
+      </c>
+      <c r="L146" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -12986,7 +13009,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -13000,7 +13023,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>228</v>
       </c>
@@ -13014,7 +13037,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>256</v>
       </c>
@@ -13031,7 +13054,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>214</v>
       </c>
@@ -13042,7 +13065,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>130</v>
       </c>
@@ -13059,7 +13082,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>250</v>
       </c>
@@ -13076,7 +13099,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -13090,7 +13113,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -13107,7 +13130,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>267</v>
       </c>
@@ -13124,7 +13147,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -13141,7 +13164,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>282</v>
       </c>
@@ -13158,10 +13181,10 @@
         <v>309</v>
       </c>
       <c r="H158" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -13175,7 +13198,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>268</v>
       </c>
@@ -13189,7 +13212,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -13231,7 +13254,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -13248,7 +13271,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -13265,7 +13288,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>236</v>
       </c>
@@ -13282,9 +13305,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B167" t="s">
         <v>309</v>
@@ -13299,7 +13322,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>297</v>
       </c>
@@ -13316,7 +13339,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -13341,7 +13364,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -13358,7 +13381,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -13397,7 +13420,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>85</v>
       </c>
@@ -13414,7 +13437,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -13431,7 +13454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>292</v>
       </c>
@@ -13448,7 +13471,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -13462,7 +13485,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -13476,7 +13499,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -13501,7 +13524,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -13518,7 +13541,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>131</v>
       </c>
@@ -13532,7 +13555,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>140</v>
       </c>
@@ -13549,7 +13572,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -13580,7 +13603,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>308</v>
       </c>
@@ -13596,8 +13619,11 @@
       <c r="E187" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H187" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -13614,7 +13640,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -13631,7 +13657,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>135</v>
       </c>
@@ -13645,7 +13671,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>76</v>
       </c>
@@ -13662,7 +13688,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -13676,7 +13702,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>82</v>
       </c>
@@ -13693,7 +13719,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>125</v>
       </c>
@@ -13721,7 +13747,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>81</v>
       </c>
@@ -13738,7 +13764,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -13755,7 +13781,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -13783,7 +13809,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -13800,7 +13826,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -13814,7 +13840,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>136</v>
       </c>
@@ -13854,6 +13880,17 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Mitchell, D3 Output of Crude Petroleum (in millions of metric tons)"/>
+        <filter val="Mitchell, Output of Beer (in thousand hectolitres)"/>
+        <filter val="Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6"/>
+        <filter val="Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C203">
@@ -13928,13 +13965,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>156</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <v>73</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <v>46</v>
       </c>
     </row>
@@ -13942,47 +13979,45 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>161</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>201</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>194</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <v>86</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>46</v>
       </c>
     </row>
@@ -13990,34 +14025,34 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>162</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -14025,22 +14060,22 @@
         <v>337</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F16D1-2CFA-4F43-8F1C-79B80DDF39DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C374F6-BE20-DB43-81E3-2DBE336D18E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="4" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1544,7 +1544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,7 +1660,43 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45069.713902777781" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45076.288363657404" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E203" sheet="matrix"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Technology Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Has meta characteristics?" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="x"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="In the database?" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="x"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Global and/or US data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Country-level data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45076.288391898146" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F203" sheet="matrix"/>
   </cacheSource>
@@ -1695,1659 +1731,1421 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45069.747171875002" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E203" sheet="matrix"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Technology Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Has meta characteristics?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="In the database?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Global and/or US data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Country-level data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="1"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3357,1422 +3155,1624 @@
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <m/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4837,7 +4837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -10658,12 +10658,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10710,7 +10709,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10803,7 +10802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -10828,7 +10827,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10859,7 +10858,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10918,7 +10917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10935,7 +10934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10949,7 +10948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10983,7 +10982,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10997,7 +10996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -11031,7 +11030,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -11110,7 +11109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -11121,7 +11120,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11152,7 +11151,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -11186,7 +11185,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11271,7 +11270,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -11383,7 +11382,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -11400,7 +11399,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -11431,7 +11430,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -11465,7 +11464,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -11482,7 +11481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>299</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>294</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -11558,7 +11557,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>207</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -11623,7 +11622,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -11640,7 +11639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -11657,7 +11656,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -11688,7 +11687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -11747,7 +11746,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -11761,7 +11760,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -11772,7 +11771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>320</v>
       </c>
@@ -11783,7 +11782,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -11845,7 +11844,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -11859,7 +11858,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>251</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>295</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -11997,7 +11996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>145</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -12062,7 +12061,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -12079,7 +12078,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -12237,7 +12236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -12251,7 +12250,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>319</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>212</v>
       </c>
@@ -12319,7 +12318,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -12336,7 +12335,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -12370,7 +12369,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -12440,7 +12439,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -12457,7 +12456,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -12471,7 +12470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -12519,7 +12518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>221</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -12567,7 +12566,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>189</v>
       </c>
@@ -12584,7 +12583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>255</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>191</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -12666,7 +12665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -12683,7 +12682,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>159</v>
       </c>
@@ -12700,7 +12699,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>91</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>70</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12768,7 +12767,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -12830,7 +12829,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -12847,7 +12846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -12864,7 +12863,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -12881,7 +12880,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>307</v>
       </c>
@@ -12897,11 +12896,11 @@
       <c r="E141" t="s">
         <v>309</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H141" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>257</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>247</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -12992,7 +12991,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -13009,7 +13008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -13023,7 +13022,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>228</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>256</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>214</v>
       </c>
@@ -13065,7 +13064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>130</v>
       </c>
@@ -13082,7 +13081,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>250</v>
       </c>
@@ -13099,7 +13098,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>267</v>
       </c>
@@ -13147,7 +13146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>268</v>
       </c>
@@ -13212,7 +13211,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -13229,7 +13228,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -13240,7 +13239,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -13271,7 +13270,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -13288,7 +13287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>236</v>
       </c>
@@ -13305,7 +13304,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>366</v>
       </c>
@@ -13322,7 +13321,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>297</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -13353,7 +13352,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>242</v>
       </c>
@@ -13364,7 +13363,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -13381,7 +13380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
@@ -13409,7 +13408,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>210</v>
       </c>
@@ -13420,7 +13419,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>85</v>
       </c>
@@ -13437,7 +13436,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>292</v>
       </c>
@@ -13471,7 +13470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -13485,7 +13484,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -13499,7 +13498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -13513,7 +13512,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>227</v>
       </c>
@@ -13524,7 +13523,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -13541,7 +13540,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>131</v>
       </c>
@@ -13555,7 +13554,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>140</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>263</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>308</v>
       </c>
@@ -13619,11 +13618,11 @@
       <c r="E187" t="s">
         <v>309</v>
       </c>
-      <c r="H187" s="7" t="s">
+      <c r="H187" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>135</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>76</v>
       </c>
@@ -13688,7 +13687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -13702,7 +13701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>82</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>125</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>81</v>
       </c>
@@ -13764,7 +13763,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -13781,7 +13780,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -13826,7 +13825,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>136</v>
       </c>
@@ -13857,7 +13856,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>264</v>
       </c>
@@ -13875,24 +13874,7 @@
       <c r="A254" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Mitchell, D3 Output of Crude Petroleum (in millions of metric tons)"/>
-        <filter val="Mitchell, Output of Beer (in thousand hectolitres)"/>
-        <filter val="Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6"/>
-        <filter val="Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C203">
     <sortCondition ref="A2:A203"/>
   </sortState>
@@ -13907,8 +13889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB3E67-E1D7-514F-8EDB-F090E7886BBC}">
   <dimension ref="A3:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13965,13 +13947,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>156</v>
       </c>
-      <c r="H4">
-        <v>73</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="7">
+        <v>75</v>
+      </c>
+      <c r="I4" s="7">
         <v>46</v>
       </c>
     </row>
@@ -13979,45 +13961,47 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>161</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>201</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>38</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>194</v>
       </c>
-      <c r="H6">
-        <v>86</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="7">
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
         <v>46</v>
       </c>
     </row>
@@ -14025,13 +14009,13 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>162</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>202</v>
       </c>
     </row>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C374F6-BE20-DB43-81E3-2DBE336D18E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF674AA-4FEF-534A-90DA-247E5F4FE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="4" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
-    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="380">
   <si>
     <t>Technology</t>
   </si>
@@ -1363,9 +1363,6 @@
     <t>Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6</t>
   </si>
   <si>
-    <t>Mitchell, D3 Output of Crude Petroleum (in millions of metric tons)</t>
-  </si>
-  <si>
     <t>Mitchell, Output of Beer (in thousand hectolitres)</t>
   </si>
   <si>
@@ -1472,16 +1469,13 @@
   </si>
   <si>
     <t>Mitchell, 1913-2008, ~30 countries</t>
-  </si>
-  <si>
-    <t>F7/F8: Postal and Telegraph Traffic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1507,6 +1501,13 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1531,10 +1532,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1544,10 +1546,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DC060572-EEDC-7845-BC09-2CD37D395C96}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -4772,7 +4774,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4837,7 +4839,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -5292,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6745,7 +6747,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6805,13 +6807,13 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M13" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" t="s">
         <v>359</v>
-      </c>
-      <c r="N13" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6883,16 +6885,16 @@
         <v>309</v>
       </c>
       <c r="J19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N19" t="s">
+        <v>354</v>
+      </c>
+      <c r="O19" t="s">
         <v>355</v>
-      </c>
-      <c r="O19" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6907,7 +6909,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6955,10 +6957,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7126,7 +7128,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7279,7 +7281,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7513,10 +7515,10 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -7666,7 +7668,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7741,7 +7743,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7909,7 +7911,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7999,10 +8001,10 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M114" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8080,10 +8082,10 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M121" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8128,7 +8130,7 @@
         <v>221</v>
       </c>
       <c r="J125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8140,10 +8142,10 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M126" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8155,10 +8157,10 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8173,7 +8175,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8185,10 +8187,10 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8203,7 +8205,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8218,10 +8220,10 @@
         <v>309</v>
       </c>
       <c r="J131" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8236,7 +8238,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8248,7 +8250,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8263,7 +8265,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8278,7 +8280,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8293,13 +8295,13 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O136" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8500,7 +8502,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8803,7 +8805,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8814,7 +8816,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8849,7 +8851,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8992,7 +8994,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -9003,7 +9005,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -10658,11 +10660,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10703,13 +10706,13 @@
         <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10726,7 +10729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10816,7 +10819,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -10827,7 +10830,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10855,10 +10858,10 @@
         <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10889,7 +10892,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10917,7 +10920,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10934,7 +10937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10982,7 +10985,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -11013,7 +11016,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -11109,7 +11112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -11137,7 +11140,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11151,7 +11154,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -11182,10 +11185,10 @@
         <v>309</v>
       </c>
       <c r="H32" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -11202,10 +11205,10 @@
         <v>309</v>
       </c>
       <c r="H33" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -11232,14 +11235,14 @@
       <c r="D35" t="s">
         <v>309</v>
       </c>
+      <c r="E35" t="s">
+        <v>309</v>
+      </c>
       <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="H35" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -11340,7 +11343,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11354,7 +11357,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -11368,7 +11371,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -11382,7 +11385,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -11430,7 +11433,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -11447,7 +11450,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -11464,7 +11467,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>299</v>
       </c>
@@ -11512,7 +11515,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -11523,7 +11526,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>294</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>207</v>
       </c>
@@ -11591,7 +11594,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -11608,7 +11611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -11639,7 +11642,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -11656,7 +11659,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -11732,7 +11735,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -11760,7 +11763,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>320</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -11813,7 +11816,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -11830,7 +11833,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -11858,7 +11861,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -11872,7 +11875,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -11886,7 +11889,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -11900,7 +11903,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -11917,7 +11920,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>251</v>
       </c>
@@ -11934,7 +11937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>295</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -11996,7 +11999,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -12013,7 +12016,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>145</v>
       </c>
@@ -12044,7 +12047,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -12078,7 +12081,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -12092,7 +12095,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -12109,7 +12112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -12126,7 +12129,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -12160,7 +12163,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -12171,7 +12174,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -12219,7 +12222,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -12236,7 +12239,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -12250,7 +12253,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -12264,7 +12267,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>319</v>
       </c>
@@ -12281,7 +12284,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -12298,7 +12301,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>212</v>
       </c>
@@ -12318,7 +12321,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -12352,7 +12355,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -12369,7 +12372,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -12380,7 +12383,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -12397,7 +12400,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -12414,7 +12417,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -12425,7 +12428,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -12439,7 +12442,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -12456,7 +12459,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -12470,7 +12473,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -12487,7 +12490,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -12501,7 +12504,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -12518,7 +12521,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -12535,7 +12538,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>221</v>
       </c>
@@ -12549,7 +12552,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -12566,7 +12569,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>189</v>
       </c>
@@ -12583,7 +12586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>255</v>
       </c>
@@ -12600,7 +12603,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -12631,7 +12634,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>191</v>
       </c>
@@ -12648,7 +12651,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -12682,7 +12685,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>159</v>
       </c>
@@ -12699,7 +12702,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>91</v>
       </c>
@@ -12716,7 +12719,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -12733,7 +12736,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>70</v>
       </c>
@@ -12750,7 +12753,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12767,7 +12770,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -12778,7 +12781,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -12795,7 +12798,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -12829,7 +12832,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -12846,7 +12849,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -12880,7 +12883,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>307</v>
       </c>
@@ -12896,11 +12899,8 @@
       <c r="E141" t="s">
         <v>309</v>
       </c>
-      <c r="H141" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>257</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>247</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -12982,16 +12982,16 @@
         <v>341</v>
       </c>
       <c r="J146" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K146" t="s">
+        <v>378</v>
+      </c>
+      <c r="L146" t="s">
         <v>379</v>
       </c>
-      <c r="L146" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>228</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>256</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>214</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>130</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>250</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>267</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>268</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>236</v>
       </c>
@@ -13304,9 +13304,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B167" t="s">
         <v>309</v>
@@ -13321,7 +13321,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>297</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>242</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>210</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>85</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>292</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>227</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>131</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>140</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>263</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>308</v>
       </c>
@@ -13618,11 +13618,8 @@
       <c r="E187" t="s">
         <v>309</v>
       </c>
-      <c r="H187" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -13639,7 +13636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -13656,7 +13653,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>135</v>
       </c>
@@ -13670,7 +13667,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>76</v>
       </c>
@@ -13687,7 +13684,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -13701,7 +13698,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>82</v>
       </c>
@@ -13718,7 +13715,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>125</v>
       </c>
@@ -13732,7 +13729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -13746,7 +13743,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>81</v>
       </c>
@@ -13763,7 +13760,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -13780,7 +13777,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -13794,7 +13791,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -13808,7 +13805,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -13825,7 +13822,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -13839,7 +13836,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>136</v>
       </c>
@@ -13856,7 +13853,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>264</v>
       </c>
@@ -13874,7 +13871,15 @@
       <c r="A254" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
+  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Mitchell, Output of Beer (in thousand hectolitres)"/>
+        <filter val="Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6"/>
+        <filter val="Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C203">
     <sortCondition ref="A2:A203"/>
   </sortState>
@@ -13889,7 +13894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB3E67-E1D7-514F-8EDB-F090E7886BBC}">
   <dimension ref="A3:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -13947,13 +13952,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>156</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4">
         <v>75</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4">
         <v>46</v>
       </c>
     </row>
@@ -13961,47 +13966,45 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>161</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>201</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>38</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>194</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6">
         <v>88</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6">
         <v>46</v>
       </c>
     </row>
@@ -14009,34 +14012,34 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>162</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -14044,22 +14047,22 @@
         <v>337</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF674AA-4FEF-534A-90DA-247E5F4FE7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B599B31-7B9C-084E-AA28-6AB1AA9140E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="379">
   <si>
     <t>Technology</t>
   </si>
@@ -1361,9 +1361,6 @@
   </si>
   <si>
     <t>Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6</t>
-  </si>
-  <si>
-    <t>Mitchell, Output of Beer (in thousand hectolitres)</t>
   </si>
   <si>
     <t>keep just the MW metric, drop the rest - rename</t>
@@ -4774,7 +4771,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4839,7 +4836,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -5294,7 +5291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163808A-6731-504D-8760-AE9B724CCDBA}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -6747,7 +6744,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6807,13 +6804,13 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M13" t="s">
+        <v>357</v>
+      </c>
+      <c r="N13" t="s">
         <v>358</v>
-      </c>
-      <c r="N13" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6885,16 +6882,16 @@
         <v>309</v>
       </c>
       <c r="J19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N19" t="s">
+        <v>353</v>
+      </c>
+      <c r="O19" t="s">
         <v>354</v>
-      </c>
-      <c r="O19" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6909,7 +6906,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6957,10 +6954,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7128,7 +7125,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7281,7 +7278,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7515,10 +7512,10 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M73" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -7668,7 +7665,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7743,7 +7740,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7911,7 +7908,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -8001,10 +7998,10 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8082,10 +8079,10 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M121" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8130,7 +8127,7 @@
         <v>221</v>
       </c>
       <c r="J125" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8142,10 +8139,10 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M126" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8157,10 +8154,10 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M127" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8175,7 +8172,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8187,10 +8184,10 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M129" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8205,7 +8202,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8220,10 +8217,10 @@
         <v>309</v>
       </c>
       <c r="J131" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M131" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8238,7 +8235,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8250,7 +8247,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8265,7 +8262,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8280,7 +8277,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8295,13 +8292,13 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M136" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O136" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8502,7 +8499,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8805,7 +8802,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8816,7 +8813,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8851,7 +8848,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8994,7 +8991,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -9005,7 +9002,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -10663,9 +10660,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10706,7 +10703,7 @@
         <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
@@ -10854,11 +10851,14 @@
       <c r="C11" t="s">
         <v>309</v>
       </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>309</v>
+      </c>
       <c r="F11" t="s">
         <v>309</v>
-      </c>
-      <c r="H11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11185,7 +11185,7 @@
         <v>309</v>
       </c>
       <c r="H32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -11205,7 +11205,7 @@
         <v>309</v>
       </c>
       <c r="H33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -12982,13 +12982,13 @@
         <v>341</v>
       </c>
       <c r="J146" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K146" t="s">
+        <v>377</v>
+      </c>
+      <c r="L146" t="s">
         <v>378</v>
-      </c>
-      <c r="L146" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
@@ -13306,7 +13306,7 @@
     </row>
     <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B167" t="s">
         <v>309</v>
@@ -14024,22 +14024,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -14047,22 +14047,22 @@
         <v>337</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B599B31-7B9C-084E-AA28-6AB1AA9140E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0CEEF-9110-AC4E-9A57-00AFC613D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="15" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="378">
   <si>
     <t>Technology</t>
   </si>
@@ -1360,9 +1360,6 @@
     <t>Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet</t>
   </si>
   <si>
-    <t>Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6</t>
-  </si>
-  <si>
     <t>keep just the MW metric, drop the rest - rename</t>
   </si>
   <si>
@@ -1441,15 +1438,6 @@
     <t>1 technologies with meta-characteristics not in the database</t>
   </si>
   <si>
-    <t>194 technologies with global and/or US data</t>
-  </si>
-  <si>
-    <t>86 technologies with country-level data (at least 2 countries)</t>
-  </si>
-  <si>
-    <t>73 technologies with meta data and country-level data</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -1466,6 +1454,15 @@
   </si>
   <si>
     <t>Mitchell, 1913-2008, ~30 countries</t>
+  </si>
+  <si>
+    <t>195 technologies with global and/or US data</t>
+  </si>
+  <si>
+    <t>91 technologies with country-level data (at least 2 countries)</t>
+  </si>
+  <si>
+    <t>78 technologies with meta data and country-level data</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1543,6 +1540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1659,7 +1657,43 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45076.288363657404" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45083.627366782406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F203" sheet="matrix"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Technology Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Has meta characteristics?" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="x"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="In the database?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Global and/or US data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Country-level data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Cost data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45083.627392013892" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E203" sheet="matrix"/>
   </cacheSource>
@@ -1694,1457 +1728,1623 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45076.288391898146" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F203" sheet="matrix"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Technology Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Has meta characteristics?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="In the database?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Global and/or US data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Country-level data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Cost data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3154,1624 +3354,1422 @@
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="1"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4836,7 +4834,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6744,7 +6742,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6804,13 +6802,13 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M13" t="s">
+        <v>356</v>
+      </c>
+      <c r="N13" t="s">
         <v>357</v>
-      </c>
-      <c r="N13" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6882,16 +6880,16 @@
         <v>309</v>
       </c>
       <c r="J19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N19" t="s">
+        <v>352</v>
+      </c>
+      <c r="O19" t="s">
         <v>353</v>
-      </c>
-      <c r="O19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6906,7 +6904,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6954,10 +6952,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7125,7 +7123,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7278,7 +7276,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7512,10 +7510,10 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -7665,7 +7663,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7740,7 +7738,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7908,7 +7906,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7998,10 +7996,10 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8079,10 +8077,10 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M121" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8127,7 +8125,7 @@
         <v>221</v>
       </c>
       <c r="J125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8139,10 +8137,10 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M126" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8154,10 +8152,10 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M127" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8172,7 +8170,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8184,10 +8182,10 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M129" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8202,7 +8200,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8217,10 +8215,10 @@
         <v>309</v>
       </c>
       <c r="J131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8235,7 +8233,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8247,7 +8245,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8262,7 +8260,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8277,7 +8275,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8292,13 +8290,13 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M136" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O136" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8499,7 +8497,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8802,7 +8800,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8813,7 +8811,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8848,7 +8846,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8991,7 +8989,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -9002,7 +9000,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -10657,12 +10655,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10703,13 +10700,13 @@
         <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10726,7 +10723,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10743,7 +10740,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10757,7 +10754,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10768,7 +10765,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10785,7 +10782,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -10802,7 +10799,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10816,7 +10813,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -10827,7 +10824,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -10861,7 +10858,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10878,7 +10875,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10892,7 +10889,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10909,7 +10906,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10920,7 +10917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -10937,7 +10934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10951,7 +10948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10968,7 +10965,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -10985,7 +10982,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -10999,7 +10996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -11016,7 +11013,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -11033,7 +11030,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -11050,7 +11047,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -11064,7 +11061,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -11078,7 +11075,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -11095,7 +11092,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -11112,7 +11109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -11123,7 +11120,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -11140,7 +11137,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11154,7 +11151,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11168,7 +11165,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -11185,10 +11182,10 @@
         <v>309</v>
       </c>
       <c r="H32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -11205,10 +11202,10 @@
         <v>309</v>
       </c>
       <c r="H33" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -11222,7 +11219,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -11242,7 +11239,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11259,7 +11256,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11273,7 +11270,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11287,7 +11284,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -11298,7 +11295,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -11315,7 +11312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11332,7 +11329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -11343,7 +11340,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11357,7 +11354,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -11371,7 +11368,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -11385,7 +11382,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -11402,7 +11399,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -11416,7 +11413,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -11433,7 +11430,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -11450,7 +11447,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -11467,7 +11464,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -11484,7 +11481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -11498,7 +11495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>299</v>
       </c>
@@ -11515,7 +11512,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -11526,7 +11523,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>294</v>
       </c>
@@ -11543,7 +11540,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -11560,7 +11557,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -11574,7 +11571,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>207</v>
       </c>
@@ -11594,7 +11591,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -11611,7 +11608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -11625,7 +11622,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -11642,7 +11639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -11659,7 +11656,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -11676,7 +11673,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -11690,7 +11687,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -11704,7 +11701,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -11718,7 +11715,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -11735,7 +11732,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -11749,7 +11746,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -11763,7 +11760,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -11774,7 +11771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>320</v>
       </c>
@@ -11785,7 +11782,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -11799,7 +11796,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -11816,7 +11813,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -11833,7 +11830,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -11847,7 +11844,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -11861,7 +11858,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -11875,7 +11872,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -11889,7 +11886,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -11903,7 +11900,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -11920,7 +11917,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>251</v>
       </c>
@@ -11937,7 +11934,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -11951,7 +11948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>295</v>
       </c>
@@ -11968,7 +11965,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -11982,7 +11979,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>261</v>
       </c>
@@ -11999,7 +11996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -12016,7 +12013,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -12030,7 +12027,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>145</v>
       </c>
@@ -12047,7 +12044,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>296</v>
       </c>
@@ -12064,7 +12061,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -12081,7 +12078,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -12095,7 +12092,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -12112,7 +12109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -12129,7 +12126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -12146,7 +12143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -12163,7 +12160,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -12174,7 +12171,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -12188,7 +12185,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -12215,14 +12212,14 @@
       <c r="D99" t="s">
         <v>309</v>
       </c>
+      <c r="E99" t="s">
+        <v>309</v>
+      </c>
       <c r="F99" t="s">
         <v>309</v>
       </c>
-      <c r="H99" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -12239,7 +12236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -12253,7 +12250,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -12267,7 +12264,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>319</v>
       </c>
@@ -12284,7 +12281,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -12301,7 +12298,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>212</v>
       </c>
@@ -12321,7 +12318,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -12338,7 +12335,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -12372,7 +12369,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -12383,7 +12380,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>205</v>
       </c>
@@ -12400,7 +12397,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>235</v>
       </c>
@@ -12417,7 +12414,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -12428,7 +12425,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -12442,7 +12439,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -12459,7 +12456,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -12473,7 +12470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -12490,7 +12487,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -12504,7 +12501,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>241</v>
       </c>
@@ -12521,7 +12518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -12538,7 +12535,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>221</v>
       </c>
@@ -12552,7 +12549,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>211</v>
       </c>
@@ -12569,7 +12566,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>189</v>
       </c>
@@ -12586,7 +12583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>255</v>
       </c>
@@ -12603,7 +12600,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -12620,7 +12617,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -12634,7 +12631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>191</v>
       </c>
@@ -12651,7 +12648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -12668,7 +12665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -12685,7 +12682,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>159</v>
       </c>
@@ -12702,7 +12699,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>91</v>
       </c>
@@ -12719,7 +12716,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -12736,7 +12733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>70</v>
       </c>
@@ -12753,7 +12750,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12770,7 +12767,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -12781,7 +12778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -12798,7 +12795,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -12815,7 +12812,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -12832,7 +12829,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -12849,7 +12846,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -12866,7 +12863,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -12883,7 +12880,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>307</v>
       </c>
@@ -12900,7 +12897,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -12917,7 +12914,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -12928,7 +12925,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>257</v>
       </c>
@@ -12945,7 +12942,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>247</v>
       </c>
@@ -12962,7 +12959,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -12982,16 +12979,16 @@
         <v>341</v>
       </c>
       <c r="J146" t="s">
+        <v>370</v>
+      </c>
+      <c r="K146" t="s">
+        <v>373</v>
+      </c>
+      <c r="L146" t="s">
         <v>374</v>
       </c>
-      <c r="K146" t="s">
-        <v>377</v>
-      </c>
-      <c r="L146" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -13008,7 +13005,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -13022,7 +13019,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>228</v>
       </c>
@@ -13036,7 +13033,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>256</v>
       </c>
@@ -13053,7 +13050,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>214</v>
       </c>
@@ -13064,7 +13061,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>130</v>
       </c>
@@ -13081,7 +13078,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>250</v>
       </c>
@@ -13098,7 +13095,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -13112,7 +13109,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>147</v>
       </c>
@@ -13129,7 +13126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>267</v>
       </c>
@@ -13146,7 +13143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -13183,7 +13180,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -13197,7 +13194,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>268</v>
       </c>
@@ -13211,7 +13208,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -13228,7 +13225,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -13239,7 +13236,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -13253,7 +13250,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>262</v>
       </c>
@@ -13270,7 +13267,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -13287,7 +13284,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>236</v>
       </c>
@@ -13304,9 +13301,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B167" t="s">
         <v>309</v>
@@ -13321,7 +13318,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>297</v>
       </c>
@@ -13338,7 +13335,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -13352,7 +13349,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>242</v>
       </c>
@@ -13363,7 +13360,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -13380,7 +13377,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -13394,7 +13391,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
@@ -13408,7 +13405,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>210</v>
       </c>
@@ -13419,7 +13416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>85</v>
       </c>
@@ -13436,7 +13433,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -13453,7 +13450,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>292</v>
       </c>
@@ -13470,7 +13467,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -13484,7 +13481,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -13498,7 +13495,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -13512,7 +13509,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>227</v>
       </c>
@@ -13523,7 +13520,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -13540,7 +13537,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>131</v>
       </c>
@@ -13554,7 +13551,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>140</v>
       </c>
@@ -13571,7 +13568,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -13588,7 +13585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>263</v>
       </c>
@@ -13602,7 +13599,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>308</v>
       </c>
@@ -13619,7 +13616,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -13636,7 +13633,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -13653,7 +13650,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>135</v>
       </c>
@@ -13667,7 +13664,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>76</v>
       </c>
@@ -13684,7 +13681,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -13698,7 +13695,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>82</v>
       </c>
@@ -13715,7 +13712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>125</v>
       </c>
@@ -13729,7 +13726,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -13743,7 +13740,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>81</v>
       </c>
@@ -13760,7 +13757,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -13777,7 +13774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -13791,7 +13788,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -13805,7 +13802,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -13822,7 +13819,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -13836,7 +13833,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>136</v>
       </c>
@@ -13853,7 +13850,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>264</v>
       </c>
@@ -13871,15 +13868,7 @@
       <c r="A254" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Mitchell, Output of Beer (in thousand hectolitres)"/>
-        <filter val="Mitchell, Output of Cow’s Milk (in thousands of metric tons), C13, C11, C6"/>
-        <filter val="Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C203">
     <sortCondition ref="A2:A203"/>
   </sortState>
@@ -13895,7 +13884,7 @@
   <dimension ref="A3:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13952,13 +13941,13 @@
       <c r="F4" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G4">
-        <v>156</v>
-      </c>
-      <c r="H4">
-        <v>75</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="7">
+        <v>157</v>
+      </c>
+      <c r="H4" s="7">
+        <v>78</v>
+      </c>
+      <c r="I4" s="7">
         <v>46</v>
       </c>
     </row>
@@ -13966,45 +13955,47 @@
       <c r="A5" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>161</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>201</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>38</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G6">
-        <v>194</v>
-      </c>
-      <c r="H6">
-        <v>88</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="7">
+        <v>195</v>
+      </c>
+      <c r="H6" s="7">
+        <v>91</v>
+      </c>
+      <c r="I6" s="7">
         <v>46</v>
       </c>
     </row>
@@ -14012,34 +14003,34 @@
       <c r="A7" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>162</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -14047,22 +14038,22 @@
         <v>337</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0CEEF-9110-AC4E-9A57-00AFC613D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC098A0-40AA-404A-91FF-6DBFC3733135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="4" xr2:uid="{FA617CA6-1502-A84A-8407-E69872130D09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="matrix" sheetId="4" r:id="rId4"/>
-    <sheet name="pivot" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId5"/>
+    <sheet name="pivot" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$H$203</definedName>
@@ -27,8 +28,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId6"/>
-    <pivotCache cacheId="15" r:id="rId7"/>
+    <pivotCache cacheId="21" r:id="rId7"/>
+    <pivotCache cacheId="24" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -329,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="377">
   <si>
     <t>Technology</t>
   </si>
@@ -1357,9 +1358,6 @@
     <t>Mitchell, Output of Refined Copper, Lead, Tin, And Zinc (in thousands of metric tons)</t>
   </si>
   <si>
-    <t>Mitchell, Output of Sugar (in thousands of metric tons) -- seems like only a couple countries with cane sugar, others are beet</t>
-  </si>
-  <si>
     <t>keep just the MW metric, drop the rest - rename</t>
   </si>
   <si>
@@ -1462,7 +1460,7 @@
     <t>91 technologies with country-level data (at least 2 countries)</t>
   </si>
   <si>
-    <t>78 technologies with meta data and country-level data</t>
+    <t>79 technologies with meta data and country-level data</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1544,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DC060572-EEDC-7845-BC09-2CD37D395C96}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1657,7 +1675,43 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45083.627366782406" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45083.731778472225" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E203" sheet="matrix"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Technology Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Has meta characteristics?" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="x"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="In the database?" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="x"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Global and/or US data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Country-level data?" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45083.731798032408" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{63638B02-B97D-5F42-B14C-44BDCF18F408}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F203" sheet="matrix"/>
   </cacheSource>
@@ -1692,1659 +1746,1421 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45083.627392013892" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{DCEC5491-34A1-E343-A4CC-01E368588938}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E203" sheet="matrix"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Technology Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Has meta characteristics?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="In the database?" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="x"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Global and/or US data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Country-level data?" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="1"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
+    <x v="0"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <s v="x"/>
-    <m/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-    <m/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3354,1422 +3170,1686 @@
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Amazon Prime users"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
-    <x v="1"/>
-    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Aniline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Aquaculture production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ASHP Shipment Capacity"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Automatic transmission"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="BCG Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Beer production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Benzene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cable TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Cadmium Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Canals"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Capture fisheries production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cellphones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cement production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Central heating"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="CFLs"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Coal Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Colour TV"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Compressed air energy storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Computing Growth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Copper Mining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Copper Refining"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crop harvester"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Crude Oil"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Desalination capacity"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Dishwashers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Disk brakes"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ebook reader"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Bicycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electric Range"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Electricity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Electronic ignition"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="FCC-Refineries"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flow battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Flush toilet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Flywheel battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Freezer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Gold production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Graphite Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Herbicide-resistant cotton"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-resistant soybeans"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Herbicide-tolerant corn"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="High-speed rail"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home air conditioning"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Home computers"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Household Internet access"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Hydrogen storage"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Insect-resistant corn"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Insect-resistant cotton"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Internet Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Iron ore"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Latent heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Laundry Dryers"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lead mine production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Liquefied natural gas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Lithium Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Methanol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Microcomputer"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Microwaves"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Milk production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motorcycles"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Natural Gas Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nickel production"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
     <s v="x"/>
     <s v="x"/>
   </r>
   <r>
     <s v="Nickel-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Nuclear Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Nuclear weapons"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Off-Grid Onshore Wind Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil pipeline"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Oil Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Biogas"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Geothermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Liquid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Marine Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Mixed Hydro Plants"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Offshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Onshore Wind Energy"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Renewable Hydropower"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Photovoltaic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solar Thermal Energy"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="On-Grid Solid Biofuels"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Paraxylene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Passenger cars"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phenol"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Podcasting"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="POL3 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene HD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyethylene LD"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Postal Traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Potash Fertilizer"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Power steering"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Primary aluminum production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Primary copper production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Processor Performance"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Public roads"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Pumped hydro storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Radial tires"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Radio"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Railroad"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Random Access Memory"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Raw steel production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Refined Cane Sugar Production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Refrigerators"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Renewable Power"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="RTGS adoption"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Running water"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Salt production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Space launches"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Sensible heat storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Shale production"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shipping container port infrastructure"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Silver"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Smartphone usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Social media usage"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sodium"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam Locomotives"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Steam ships"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Stove"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Styrene"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Submarine cables"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tablet"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Telegraph traffic"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Telephones"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Television"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Tin"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Urea"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vacuums"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Videocassette recorder"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <m/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Washing Machines"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Water Heater"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
     <m/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="YFV Vaccine"/>
     <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="x"/>
+    <s v="x"/>
+    <m/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
     <x v="1"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Global and/or US data?" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Country-level data?" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Cost data?" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B802AA7-9A8D-F047-B7DB-04CB2FBFC8DC}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -4820,68 +4900,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26699BBF-0091-2C4E-9CAE-472DA577007C}" name="PivotTable6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F3:I6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count of Global and/or US data?" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Country-level data?" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Cost data?" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6619,19 +6637,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6742,7 +6760,7 @@
         <v>312</v>
       </c>
       <c r="N8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -6802,13 +6820,13 @@
         <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M13" t="s">
+        <v>355</v>
+      </c>
+      <c r="N13" t="s">
         <v>356</v>
-      </c>
-      <c r="N13" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -6880,16 +6898,16 @@
         <v>309</v>
       </c>
       <c r="J19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N19" t="s">
+        <v>351</v>
+      </c>
+      <c r="O19" t="s">
         <v>352</v>
-      </c>
-      <c r="O19" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6904,7 +6922,7 @@
         <v>312</v>
       </c>
       <c r="N20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -6952,10 +6970,10 @@
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7123,7 +7141,7 @@
         <v>316</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7276,7 +7294,7 @@
         <v>165</v>
       </c>
       <c r="J53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -7510,10 +7528,10 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -7663,7 +7681,7 @@
         <v>309</v>
       </c>
       <c r="N86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7738,7 +7756,7 @@
         <v>309</v>
       </c>
       <c r="J92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -7906,7 +7924,7 @@
         <v>314</v>
       </c>
       <c r="M106" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -7996,10 +8014,10 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -8077,10 +8095,10 @@
         <v>273</v>
       </c>
       <c r="J121" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M121" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -8125,7 +8143,7 @@
         <v>221</v>
       </c>
       <c r="J125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -8137,10 +8155,10 @@
         <v>249</v>
       </c>
       <c r="J126" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -8152,10 +8170,10 @@
         <v>230</v>
       </c>
       <c r="J127" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M127" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -8170,7 +8188,7 @@
         <v>309</v>
       </c>
       <c r="M128" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
@@ -8182,10 +8200,10 @@
         <v>166</v>
       </c>
       <c r="J129" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M129" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
@@ -8200,7 +8218,7 @@
         <v>309</v>
       </c>
       <c r="M130" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
@@ -8215,10 +8233,10 @@
         <v>309</v>
       </c>
       <c r="J131" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M131" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
@@ -8233,7 +8251,7 @@
         <v>309</v>
       </c>
       <c r="M132" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
@@ -8245,7 +8263,7 @@
         <v>186</v>
       </c>
       <c r="M133" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
@@ -8260,7 +8278,7 @@
         <v>309</v>
       </c>
       <c r="M134" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
@@ -8275,7 +8293,7 @@
         <v>309</v>
       </c>
       <c r="M135" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
@@ -8290,13 +8308,13 @@
         <v>309</v>
       </c>
       <c r="J136" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M136" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O136" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -8497,7 +8515,7 @@
         <v>321</v>
       </c>
       <c r="M153" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8800,7 +8818,7 @@
         <v>313</v>
       </c>
       <c r="M187" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="7:13" x14ac:dyDescent="0.2">
@@ -8811,7 +8829,7 @@
         <v>313</v>
       </c>
       <c r="M188" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="7:13" x14ac:dyDescent="0.2">
@@ -8846,7 +8864,7 @@
         <v>312</v>
       </c>
       <c r="M192" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.2">
@@ -8989,7 +9007,7 @@
         <v>313</v>
       </c>
       <c r="M211" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.2">
@@ -9000,7 +9018,7 @@
         <v>313</v>
       </c>
       <c r="M212" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.2">
@@ -9021,13 +9039,13 @@
     <sortCondition ref="G2:G214"/>
   </sortState>
   <conditionalFormatting sqref="A1:H1048576 Q1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 H224:H1048576 G223:G1048576 A2:F1048576 Q1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 H216:H1048576 G215:G1048576 A2:F1048576 Q1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10655,11 +10673,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H158" sqref="H158"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10700,13 +10719,13 @@
         <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -10723,7 +10742,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10740,7 +10759,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -10754,7 +10773,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10765,7 +10784,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10799,7 +10818,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10813,7 +10832,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -10858,7 +10877,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -10875,7 +10894,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10889,7 +10908,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -10906,7 +10925,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10934,7 +10953,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -10948,7 +10967,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -10982,7 +11001,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -11030,7 +11049,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -11047,7 +11066,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -11061,7 +11080,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -11109,7 +11128,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -11137,7 +11156,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -11151,7 +11170,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11182,7 +11201,7 @@
         <v>309</v>
       </c>
       <c r="H32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -11202,7 +11221,7 @@
         <v>309</v>
       </c>
       <c r="H33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -11239,7 +11258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -11256,7 +11275,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -11270,7 +11289,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -11284,7 +11303,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -11329,7 +11348,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>275</v>
       </c>
@@ -11340,7 +11359,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -11354,7 +11373,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -11399,7 +11418,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -11413,7 +11432,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -11430,7 +11449,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -11447,7 +11466,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -11464,7 +11483,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -11481,7 +11500,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -11512,7 +11531,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -11540,7 +11559,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -11557,7 +11576,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -11608,7 +11627,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -11673,7 +11692,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -11687,7 +11706,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -11701,7 +11720,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -11732,7 +11751,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -11746,7 +11765,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -11760,7 +11779,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -11771,7 +11790,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>320</v>
       </c>
@@ -11782,7 +11801,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -11813,7 +11832,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -11844,7 +11863,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -11858,7 +11877,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -11872,7 +11891,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -11886,7 +11905,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -11934,7 +11953,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -11965,7 +11984,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -12013,7 +12032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -12061,7 +12080,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -12078,7 +12097,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -12092,7 +12111,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -12143,7 +12162,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -12160,7 +12179,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -12171,7 +12190,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -12185,7 +12204,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -12219,7 +12238,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -12236,7 +12255,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -12250,7 +12269,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>288</v>
       </c>
@@ -12281,7 +12300,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -12369,7 +12388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -12425,7 +12444,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -12648,7 +12667,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -12699,7 +12718,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>91</v>
       </c>
@@ -12716,7 +12735,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -12750,7 +12769,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12767,7 +12786,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>269</v>
       </c>
@@ -12795,7 +12814,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -12812,7 +12831,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>201</v>
       </c>
@@ -12829,7 +12848,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -12846,7 +12865,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>79</v>
       </c>
@@ -12863,7 +12882,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -12914,7 +12933,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>258</v>
       </c>
@@ -12959,7 +12978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -12979,16 +12998,16 @@
         <v>341</v>
       </c>
       <c r="J146" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K146" t="s">
+        <v>372</v>
+      </c>
+      <c r="L146" t="s">
         <v>373</v>
       </c>
-      <c r="L146" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -13005,7 +13024,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -13019,7 +13038,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>228</v>
       </c>
@@ -13050,7 +13069,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>214</v>
       </c>
@@ -13095,7 +13114,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>38</v>
       </c>
@@ -13173,14 +13192,14 @@
       <c r="D158" t="s">
         <v>309</v>
       </c>
+      <c r="E158" t="s">
+        <v>309</v>
+      </c>
       <c r="F158" t="s">
         <v>309</v>
       </c>
-      <c r="H158" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -13225,7 +13244,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -13236,7 +13255,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -13267,7 +13286,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>200</v>
       </c>
@@ -13284,7 +13303,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>236</v>
       </c>
@@ -13303,7 +13322,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B167" t="s">
         <v>309</v>
@@ -13335,7 +13354,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -13349,7 +13368,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>242</v>
       </c>
@@ -13360,7 +13379,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>113</v>
       </c>
@@ -13391,7 +13410,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>195</v>
       </c>
@@ -13405,7 +13424,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>210</v>
       </c>
@@ -13416,7 +13435,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>85</v>
       </c>
@@ -13433,7 +13452,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>84</v>
       </c>
@@ -13467,7 +13486,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -13481,7 +13500,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -13509,7 +13528,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>227</v>
       </c>
@@ -13520,7 +13539,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>83</v>
       </c>
@@ -13537,7 +13556,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>131</v>
       </c>
@@ -13585,7 +13604,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>263</v>
       </c>
@@ -13664,7 +13683,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>76</v>
       </c>
@@ -13681,7 +13700,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>35</v>
       </c>
@@ -13695,7 +13714,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>82</v>
       </c>
@@ -13712,7 +13731,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>125</v>
       </c>
@@ -13726,7 +13745,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -13740,7 +13759,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>81</v>
       </c>
@@ -13757,7 +13776,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -13774,7 +13793,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -13788,7 +13807,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -13868,18 +13887,873 @@
       <c r="A254" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}"/>
+  <autoFilter ref="A1:H203" xr:uid="{96A75832-70FD-FD48-87D4-CBCEFE033164}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C203">
     <sortCondition ref="A2:A203"/>
   </sortState>
   <conditionalFormatting sqref="A254:A1048576 A1:A204">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9330F5F-BD1B-4342-BC3A-05C35F4BE9C9}">
+  <dimension ref="A1:D92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D92" sqref="D1:D92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT(CHAR(34),A1,CHAR(34),",")</f>
+        <v>"Aquaculture production",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">_xlfn.CONCAT(CHAR(34),A2,CHAR(34),",")</f>
+        <v>"BCG Vaccine",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>"Beer production",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cadmium Refining",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Capture fisheries production",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Caustic Soda",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cellphones",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Coal Production",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cobalt Mine Production",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Compressed air energy storage",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Copper Mining",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Copper Refining",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Crop harvester",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Crude Oil",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>"DTP1 Vaccine",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>"DTP3 Vaccine",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Electricity",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Electro-chemical capacitor",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Flow battery storage",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Flywheel battery storage",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gold production",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Graphite Mine Production",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>"Heat thermal battery storage",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>"HEPB3 Vaccine",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>"HEPBB Vaccine",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>"HIB3 Vaccine",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hydrochloric Acid",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hydrogen storage",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>"IPV1 Vaccine",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Iron ore",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>"Latent heat storage",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lead mine production",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lead-acid battery storage",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lithium Mine Production",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lithium-ion battery storage",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>"MCV1 Vaccine",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>"MCV2 Vaccine",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>"Milk production",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>"Natural Gas Production",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nickel production",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nickel-based battery",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nitric Acid",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nitrogen Fertilizer",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nuclear Energy",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nuclear weapons",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>"Off-Grid Onshore Wind Energy",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>"Oil Production",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>"Oil Refining Capacity",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Biogas",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Geothermal Energy",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Liquid Biofuels",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Marine Energy",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Mixed Hydro Plants",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Offshore Wind Energy",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Onshore Wind Energy",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Renewable Hydropower",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Solar Photovoltaic",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Solar Thermal Energy",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>"On-Grid Solid Biofuels",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>"Passenger cars",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>"PCV3 Vaccine",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>"Phosphate Fertilizer",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>"POL3 Vaccine",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>"Postal Traffic",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>"Potash Fertilizer",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D91" si="1">_xlfn.CONCAT(CHAR(34),A66,CHAR(34),",")</f>
+        <v>"Primary aluminum production",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>"Primary bauxite production",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>"Pumped hydro storage",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>"Radio",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>"Railroad",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>"Rare Earth Mine Production",</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>"Raw steel production",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>"RCV1 Vaccine",</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>"Refined Cane Sugar Production",</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>"Renewable Power",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>"ROTAC Vaccine",</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>"Salt production",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>362</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>"Space launches",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sensible heat storage",</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>"Silver",</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sodium-based battery storage",</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>"Steam ships",</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sulphuric Acid",</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>"Synthetic Filaments",</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>"Telegraph traffic",</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>"Telephones",</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>"Television",</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>"Tin",</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>253</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>"Wet flue gas desulfurization systems",</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>"YFV Vaccine",</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>"Zinc",</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" ref="D66:D92" si="2">_xlfn.CONCAT(CHAR(34),A92,CHAR(34))</f>
+        <v>"Zinc-based battery"</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A93:A110">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A92">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BB3E67-E1D7-514F-8EDB-F090E7886BBC}">
   <dimension ref="A3:I17"/>
   <sheetViews>
@@ -13945,7 +14819,7 @@
         <v>157</v>
       </c>
       <c r="H4" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="7">
         <v>46</v>
@@ -13993,7 +14867,7 @@
         <v>195</v>
       </c>
       <c r="H6" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" s="7">
         <v>46</v>
@@ -14015,22 +14889,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -14038,22 +14912,22 @@
         <v>337</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F15" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F16" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB2F5BF-A74E-594F-A2A8-B7B01C7B95DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618B9905-9B45-6D4E-B66C-82E769941201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId6"/>
+    <pivotCache cacheId="30" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="482">
   <si>
     <t>Refineries</t>
   </si>
@@ -1473,13 +1473,25 @@
     <t>92 have country-level data</t>
   </si>
   <si>
-    <t>57 have cost data</t>
-  </si>
-  <si>
     <t>203 unique technologies</t>
   </si>
   <si>
     <t>197 have global/US data</t>
+  </si>
+  <si>
+    <t>Also data from Nemet</t>
+  </si>
+  <si>
+    <t>maybe this goes separately as just the price of copper (not specifically primary copper?)</t>
+  </si>
+  <si>
+    <t>USGS cost data</t>
+  </si>
+  <si>
+    <t>69 have cost data</t>
+  </si>
+  <si>
+    <t>FAOSTAT</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1583,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="30">
     <dxf>
       <border>
         <left style="thin">
@@ -1593,308 +1605,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2292,6 +2002,176 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2306,7 +2186,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45089.926770601851" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{8FDF530D-170D-D944-8E51-A09DA6EC40D3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45090.018774884258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{8FDF530D-170D-D944-8E51-A09DA6EC40D3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J204" sheet="matrix"/>
   </cacheSource>
@@ -2570,7 +2450,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Canals"/>
@@ -2594,7 +2474,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Caprolactam"/>
@@ -3122,7 +3002,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Ground Source Heat Pumps"/>
@@ -3182,7 +3062,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Herbicide-Tolerant Cotton"/>
@@ -3194,7 +3074,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Herbicide-Tolerant Soybeans"/>
@@ -3206,7 +3086,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="HIB3 Vaccine"/>
@@ -3422,7 +3302,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Jet Aircraft"/>
@@ -3470,7 +3350,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lead-acid battery storage"/>
@@ -3674,7 +3554,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Motor Gasoline"/>
@@ -4082,7 +3962,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary bauxite production"/>
@@ -4094,7 +3974,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Primary copper production"/>
@@ -4214,7 +4094,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Raw steel production"/>
@@ -4226,7 +4106,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="RCV1 Vaccine"/>
@@ -4310,7 +4190,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Sand and gravel production (construction)"/>
@@ -4382,7 +4262,7 @@
     <x v="0"/>
     <m/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Smartphone usage"/>
@@ -4646,7 +4526,7 @@
     <x v="0"/>
     <m/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Titanium Sponge"/>
@@ -4790,7 +4670,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Zinc-based battery"/>
@@ -4808,7 +4688,154 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A17:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has cost data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="23">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -4865,153 +4892,6 @@
     <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Count of Has cost data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A17:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="13">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has cost data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="35">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7699,22 +7579,22 @@
     <sortCondition ref="F2:F204"/>
   </sortState>
   <conditionalFormatting sqref="F206:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7800,8 +7680,8 @@
   <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8374,6 +8254,12 @@
       <c r="I18" t="s">
         <v>289</v>
       </c>
+      <c r="J18" t="s">
+        <v>289</v>
+      </c>
+      <c r="K18" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -8435,6 +8321,12 @@
       <c r="I20" t="s">
         <v>289</v>
       </c>
+      <c r="J20" t="s">
+        <v>289</v>
+      </c>
+      <c r="K20" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -9440,6 +9332,9 @@
       <c r="J53" t="s">
         <v>289</v>
       </c>
+      <c r="K53" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -9786,6 +9681,12 @@
       <c r="I64" t="s">
         <v>289</v>
       </c>
+      <c r="J64" t="s">
+        <v>289</v>
+      </c>
+      <c r="K64" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -9940,6 +9841,12 @@
       <c r="H69" t="s">
         <v>289</v>
       </c>
+      <c r="J69" t="s">
+        <v>289</v>
+      </c>
+      <c r="K69" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -9969,6 +9876,12 @@
       <c r="H70" t="s">
         <v>289</v>
       </c>
+      <c r="J70" t="s">
+        <v>289</v>
+      </c>
+      <c r="K70" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -9998,6 +9911,12 @@
       <c r="H71" t="s">
         <v>289</v>
       </c>
+      <c r="J71" t="s">
+        <v>289</v>
+      </c>
+      <c r="K71" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -10532,6 +10451,12 @@
       <c r="I89" t="s">
         <v>289</v>
       </c>
+      <c r="J89" t="s">
+        <v>289</v>
+      </c>
+      <c r="K89" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -10654,6 +10579,12 @@
       <c r="I93" t="s">
         <v>289</v>
       </c>
+      <c r="J93" t="s">
+        <v>289</v>
+      </c>
+      <c r="K93" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -11195,6 +11126,12 @@
       <c r="I110" t="s">
         <v>289</v>
       </c>
+      <c r="J110" t="s">
+        <v>289</v>
+      </c>
+      <c r="K110" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -11769,7 +11706,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -11801,7 +11738,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>192</v>
       </c>
@@ -11833,7 +11770,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -11865,7 +11802,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -11897,7 +11834,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -11929,7 +11866,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>69</v>
       </c>
@@ -11961,7 +11898,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -11993,7 +11930,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -12019,7 +11956,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
@@ -12051,7 +11988,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -12083,7 +12020,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -12115,7 +12052,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>77</v>
       </c>
@@ -12147,7 +12084,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>256</v>
       </c>
@@ -12179,7 +12116,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -12211,7 +12148,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>186</v>
       </c>
@@ -12237,7 +12174,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -12268,8 +12205,14 @@
       <c r="I144" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J144" t="s">
+        <v>289</v>
+      </c>
+      <c r="K144" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -12300,8 +12243,14 @@
       <c r="I145" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J145" t="s">
+        <v>289</v>
+      </c>
+      <c r="K145" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>242</v>
       </c>
@@ -12332,8 +12281,11 @@
       <c r="J146" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -12365,7 +12317,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -12394,7 +12346,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>211</v>
       </c>
@@ -12423,7 +12375,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>190</v>
       </c>
@@ -12455,7 +12407,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -12481,7 +12433,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>129</v>
       </c>
@@ -12513,7 +12465,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -12545,7 +12497,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -12574,7 +12526,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -12605,8 +12557,14 @@
       <c r="I155" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J155" t="s">
+        <v>289</v>
+      </c>
+      <c r="K155" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -12637,8 +12595,14 @@
       <c r="I156" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J156" t="s">
+        <v>289</v>
+      </c>
+      <c r="K156" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -12670,7 +12634,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -12699,7 +12663,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>228</v>
       </c>
@@ -12728,7 +12692,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -12843,6 +12807,12 @@
       <c r="I163" t="s">
         <v>289</v>
       </c>
+      <c r="J163" t="s">
+        <v>289</v>
+      </c>
+      <c r="K163" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -13029,6 +12999,12 @@
       <c r="I169" t="s">
         <v>289</v>
       </c>
+      <c r="J169" t="s">
+        <v>289</v>
+      </c>
+      <c r="K169" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -13703,6 +13679,12 @@
       <c r="I191" t="s">
         <v>289</v>
       </c>
+      <c r="J191" t="s">
+        <v>289</v>
+      </c>
+      <c r="K191" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -13720,7 +13702,7 @@
         <v>1968</v>
       </c>
       <c r="E192">
-        <f t="shared" ref="E192:E255" si="11">D192-C192</f>
+        <f t="shared" ref="E192:E204" si="11">D192-C192</f>
         <v>18</v>
       </c>
       <c r="F192" t="s">
@@ -13736,7 +13718,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>34</v>
       </c>
@@ -13765,7 +13747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -13797,7 +13779,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>124</v>
       </c>
@@ -13826,7 +13808,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>189</v>
       </c>
@@ -13852,7 +13834,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -13884,7 +13866,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -13916,7 +13898,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -13945,7 +13927,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>238</v>
       </c>
@@ -13971,7 +13953,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>173</v>
       </c>
@@ -14003,7 +13985,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>162</v>
       </c>
@@ -14032,7 +14014,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>135</v>
       </c>
@@ -14063,8 +14045,14 @@
       <c r="I203" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J203" t="s">
+        <v>289</v>
+      </c>
+      <c r="K203" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -14123,14 +14111,14 @@
   <dimension ref="A3:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A17" sqref="A17:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -14230,7 +14218,7 @@
         <v>78</v>
       </c>
       <c r="E4" s="9">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -14264,12 +14252,12 @@
         <v>92</v>
       </c>
       <c r="E6" s="9">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -14279,7 +14267,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -14294,7 +14282,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -14327,30 +14315,30 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B19" s="10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C19" s="10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D19" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B20" s="10">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C20" s="10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -14361,7 +14349,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D21" s="10">
         <v>21</v>
@@ -14467,7 +14455,7 @@
         <v>203</v>
       </c>
       <c r="C30" s="10">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D30" s="10">
         <v>92</v>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42783E46-61C0-3643-965E-B349F074CCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD871FC2-2DF7-EC43-9EB3-628C9F803EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
+    <workbookView xWindow="4700" yWindow="500" windowWidth="24100" windowHeight="16160" activeTab="3" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="jenna list of tech" sheetId="2" r:id="rId1"/>
@@ -1804,12 +1804,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1839,7 +1845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1853,41 +1859,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="52">
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5090,26 +5073,26 @@
     <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="54">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="49">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -7888,22 +7871,22 @@
     <sortCondition ref="F2:F204"/>
   </sortState>
   <conditionalFormatting sqref="F206:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="47" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="46" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576">
-    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7986,11 +7969,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8043,7 +8027,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -8078,7 +8062,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -8113,7 +8097,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -8145,7 +8129,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -8183,7 +8167,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -8247,7 +8231,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8282,7 +8266,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -8317,14 +8301,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>179</v>
       </c>
       <c r="B10" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D10" t="str">
@@ -8346,14 +8330,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D11" t="str">
@@ -8378,7 +8362,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -8413,7 +8397,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8448,14 +8432,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D14" t="str">
@@ -8480,14 +8464,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D15" t="str">
@@ -8518,7 +8502,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -8553,7 +8537,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -8582,7 +8566,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8620,14 +8604,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>493</v>
       </c>
       <c r="D19" t="str">
@@ -8652,7 +8636,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -8690,7 +8674,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -8728,7 +8712,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -8763,14 +8747,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D23" t="str">
@@ -8795,7 +8779,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -8865,7 +8849,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -8903,7 +8887,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -8932,14 +8916,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D28" t="str">
@@ -9002,7 +8986,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -9043,7 +9027,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -9072,14 +9056,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>466</v>
       </c>
       <c r="B32" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D32" t="str">
@@ -9139,14 +9123,14 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>308</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D34" t="str">
@@ -9174,14 +9158,14 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>306</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D35" t="str">
@@ -9209,7 +9193,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -9244,7 +9228,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -9311,14 +9295,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>306</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>483</v>
       </c>
       <c r="D39" t="str">
@@ -9349,7 +9333,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -9384,14 +9368,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
       <c r="B41" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>495</v>
       </c>
       <c r="D41" t="str">
@@ -9416,7 +9400,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -9477,14 +9461,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>305</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D44" t="str">
@@ -9512,14 +9496,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>305</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D45" t="str">
@@ -9547,14 +9531,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>252</v>
       </c>
       <c r="B46" t="s">
         <v>308</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D46" t="str">
@@ -9576,14 +9560,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>258</v>
       </c>
       <c r="B47" t="s">
         <v>310</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D47" t="str">
@@ -9608,7 +9592,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>210</v>
       </c>
@@ -9637,7 +9621,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>216</v>
       </c>
@@ -9669,14 +9653,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>253</v>
       </c>
       <c r="B50" t="s">
         <v>312</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D50" t="str">
@@ -9701,14 +9685,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>261</v>
       </c>
       <c r="B51" t="s">
         <v>310</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D51" t="str">
@@ -9730,7 +9714,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -9765,7 +9749,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -9803,7 +9787,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -9841,7 +9825,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -9876,14 +9860,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>237</v>
       </c>
       <c r="B56" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D56" t="str">
@@ -9943,7 +9927,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -9972,14 +9956,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>223</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D59" t="str">
@@ -10007,7 +9991,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -10042,7 +10026,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -10077,14 +10061,14 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>306</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D62" t="str">
@@ -10112,7 +10096,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -10150,7 +10134,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>147</v>
       </c>
@@ -10188,7 +10172,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -10220,14 +10204,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>222</v>
       </c>
       <c r="B66" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D66" t="str">
@@ -10255,14 +10239,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
       <c r="B67" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D67" t="str">
@@ -10290,14 +10274,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>153</v>
       </c>
       <c r="B68" t="s">
         <v>305</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D68" t="str">
@@ -10325,14 +10309,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
       <c r="B69" t="s">
         <v>305</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>490</v>
       </c>
       <c r="D69" t="str">
@@ -10360,14 +10344,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>198</v>
       </c>
       <c r="B70" t="s">
         <v>305</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>490</v>
       </c>
       <c r="D70" t="str">
@@ -10395,14 +10379,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>219</v>
       </c>
       <c r="B71" t="s">
         <v>305</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>490</v>
       </c>
       <c r="D71" t="str">
@@ -10430,14 +10414,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>154</v>
       </c>
       <c r="B72" t="s">
         <v>305</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D72" t="str">
@@ -10465,7 +10449,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>469</v>
       </c>
@@ -10503,14 +10487,14 @@
         <v>456</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>226</v>
       </c>
       <c r="B74" t="s">
         <v>307</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>493</v>
       </c>
       <c r="D74" t="str">
@@ -10535,7 +10519,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -10567,7 +10551,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>262</v>
       </c>
@@ -10596,7 +10580,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>247</v>
       </c>
@@ -10625,7 +10609,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>249</v>
       </c>
@@ -10654,7 +10638,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -10689,7 +10673,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -10727,7 +10711,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -10762,14 +10746,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>168</v>
       </c>
       <c r="B82" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D82" t="str">
@@ -10794,14 +10778,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>217</v>
       </c>
       <c r="B83" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>490</v>
       </c>
       <c r="D83" t="str">
@@ -10829,14 +10813,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>204</v>
       </c>
       <c r="B84" t="s">
         <v>305</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>490</v>
       </c>
       <c r="D84" t="str">
@@ -10864,14 +10848,14 @@
         <v>478</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
       <c r="B85" t="s">
         <v>308</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D85" t="str">
@@ -10896,14 +10880,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>203</v>
       </c>
       <c r="B86" t="s">
         <v>308</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D86" t="str">
@@ -10928,14 +10912,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>155</v>
       </c>
       <c r="B87" t="s">
         <v>305</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D87" t="str">
@@ -10963,7 +10947,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>224</v>
       </c>
@@ -10992,7 +10976,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -11030,14 +11014,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90" t="s">
         <v>310</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D90" t="str">
@@ -11062,14 +11046,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>243</v>
       </c>
       <c r="B91" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D91" t="str">
@@ -11097,14 +11081,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
       <c r="B92" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D92" t="str">
@@ -11129,7 +11113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -11167,14 +11151,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>171</v>
       </c>
       <c r="B94" t="s">
         <v>312</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D94" t="str">
@@ -11202,14 +11186,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>264</v>
       </c>
       <c r="B95" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>483</v>
       </c>
       <c r="D95" t="str">
@@ -11237,14 +11221,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>26</v>
       </c>
       <c r="B96" t="s">
         <v>306</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D96" t="str">
@@ -11272,7 +11256,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -11310,14 +11294,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>263</v>
       </c>
       <c r="B98" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D98" t="str">
@@ -11348,7 +11332,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>470</v>
       </c>
@@ -11383,7 +11367,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -11418,14 +11402,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>38</v>
       </c>
       <c r="B101" t="s">
         <v>308</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D101" t="str">
@@ -11453,7 +11437,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -11491,14 +11475,14 @@
         <v>477</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>245</v>
       </c>
       <c r="B103" t="s">
         <v>306</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D103" t="str">
@@ -11526,14 +11510,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>156</v>
       </c>
       <c r="B104" t="s">
         <v>305</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D104" t="str">
@@ -11564,14 +11548,14 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>157</v>
       </c>
       <c r="B105" t="s">
         <v>305</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D105" t="str">
@@ -11602,7 +11586,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -11637,7 +11621,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -11666,14 +11650,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>33</v>
       </c>
       <c r="B108" t="s">
         <v>308</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D108" t="str">
@@ -11698,7 +11682,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -11730,7 +11714,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -11768,7 +11752,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -11803,14 +11787,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>209</v>
       </c>
       <c r="B112" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D112" t="str">
@@ -11835,14 +11819,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>240</v>
       </c>
       <c r="B113" t="s">
         <v>307</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>493</v>
       </c>
       <c r="D113" t="str">
@@ -11867,14 +11851,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>467</v>
       </c>
       <c r="B114" t="s">
         <v>306</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D114" t="str">
@@ -11899,7 +11883,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -11934,7 +11918,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -11969,7 +11953,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>194</v>
       </c>
@@ -12039,7 +12023,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -12115,14 +12099,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>170</v>
       </c>
       <c r="B121" t="s">
         <v>306</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>488</v>
       </c>
       <c r="D121" t="str">
@@ -12214,14 +12198,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>472</v>
       </c>
       <c r="B124" t="s">
         <v>306</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D124" t="str">
@@ -12252,14 +12236,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>234</v>
       </c>
       <c r="B125" t="s">
         <v>307</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="10" t="s">
         <v>493</v>
       </c>
       <c r="D125" t="str">
@@ -12284,7 +12268,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -12319,7 +12303,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -12354,14 +12338,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>473</v>
       </c>
       <c r="B128" t="s">
         <v>306</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D128" t="str">
@@ -12395,7 +12379,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -12465,14 +12449,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>158</v>
       </c>
       <c r="B131" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D131" t="str">
@@ -12500,7 +12484,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -12535,7 +12519,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12570,14 +12554,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>69</v>
       </c>
       <c r="B134" t="s">
         <v>305</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="10" t="s">
         <v>483</v>
       </c>
       <c r="D134" t="str">
@@ -12605,7 +12589,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12640,14 +12624,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>229</v>
       </c>
       <c r="B136" t="s">
         <v>308</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D136" t="str">
@@ -12669,14 +12653,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137" t="s">
         <v>305</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D137" t="str">
@@ -12704,7 +12688,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -12742,7 +12726,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -12780,7 +12764,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>77</v>
       </c>
@@ -12853,14 +12837,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>70</v>
       </c>
       <c r="B142" t="s">
         <v>305</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="10" t="s">
         <v>483</v>
       </c>
       <c r="D142" t="str">
@@ -12888,14 +12872,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>186</v>
       </c>
       <c r="B143" t="s">
         <v>310</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D143" t="str">
@@ -12920,7 +12904,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -12958,7 +12942,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -12996,7 +12980,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>242</v>
       </c>
@@ -13031,7 +13015,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -13098,14 +13082,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>211</v>
       </c>
       <c r="B149" t="s">
         <v>307</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>493</v>
       </c>
       <c r="D149" t="str">
@@ -13133,14 +13117,14 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>190</v>
       </c>
       <c r="B150" t="s">
         <v>312</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D150" t="str">
@@ -13168,14 +13152,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>266</v>
       </c>
       <c r="B151" t="s">
         <v>310</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="10" t="s">
         <v>485</v>
       </c>
       <c r="D151" t="str">
@@ -13232,14 +13216,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>187</v>
       </c>
       <c r="B153" t="s">
         <v>307</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="10" t="s">
         <v>497</v>
       </c>
       <c r="D153" t="str">
@@ -13267,14 +13251,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>37</v>
       </c>
       <c r="B154" t="s">
         <v>308</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D154" t="str">
@@ -13299,7 +13283,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -13337,7 +13321,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -13375,14 +13359,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>160</v>
       </c>
       <c r="B157" t="s">
         <v>305</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D157" t="str">
@@ -13413,14 +13397,14 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>15</v>
       </c>
       <c r="B158" t="s">
         <v>311</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D158" t="str">
@@ -13445,7 +13429,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>228</v>
       </c>
@@ -13477,14 +13461,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>161</v>
       </c>
       <c r="B160" t="s">
         <v>305</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D160" t="str">
@@ -13541,7 +13525,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>225</v>
       </c>
@@ -13573,7 +13557,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -13611,7 +13595,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>195</v>
       </c>
@@ -13646,7 +13630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>235</v>
       </c>
@@ -13681,14 +13665,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
       <c r="B166" t="s">
         <v>312</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D166" t="str">
@@ -13716,7 +13700,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -13748,14 +13732,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>112</v>
       </c>
       <c r="B168" t="s">
         <v>305</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="10" t="s">
         <v>492</v>
       </c>
       <c r="D168" t="str">
@@ -13783,7 +13767,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>137</v>
       </c>
@@ -13818,14 +13802,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>239</v>
       </c>
       <c r="B170" t="s">
         <v>308</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D170" t="str">
@@ -13847,14 +13831,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>181</v>
       </c>
       <c r="B171" t="s">
         <v>308</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D171" t="str">
@@ -13876,7 +13860,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -13911,7 +13895,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>83</v>
       </c>
@@ -13946,14 +13930,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>227</v>
       </c>
       <c r="B174" t="s">
         <v>312</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D174" t="str">
@@ -13981,14 +13965,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>200</v>
       </c>
       <c r="B175" t="s">
         <v>306</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D175" t="str">
@@ -14019,14 +14003,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>230</v>
       </c>
       <c r="B176" t="s">
         <v>306</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D176" t="str">
@@ -14054,14 +14038,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
       <c r="B177" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D177" t="str">
@@ -14127,14 +14111,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
       <c r="B179" t="s">
         <v>306</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D179" t="str">
@@ -14159,14 +14143,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>10</v>
       </c>
       <c r="B180" t="s">
         <v>310</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D180" t="str">
@@ -14191,7 +14175,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>212</v>
       </c>
@@ -14223,7 +14207,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>236</v>
       </c>
@@ -14252,7 +14236,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>82</v>
       </c>
@@ -14290,14 +14274,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>165</v>
       </c>
       <c r="B184" t="s">
         <v>304</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="10" t="s">
         <v>497</v>
       </c>
       <c r="D184" t="str">
@@ -14322,7 +14306,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -14357,7 +14341,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -14392,14 +14376,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>197</v>
       </c>
       <c r="B187" t="s">
         <v>308</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D187" t="str">
@@ -14526,7 +14510,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>134</v>
       </c>
@@ -14561,7 +14545,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>75</v>
       </c>
@@ -14599,14 +14583,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>34</v>
       </c>
       <c r="B193" t="s">
         <v>308</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="10" t="s">
         <v>489</v>
       </c>
       <c r="D193" t="str">
@@ -14631,7 +14615,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -14669,7 +14653,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>124</v>
       </c>
@@ -14701,7 +14685,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>189</v>
       </c>
@@ -14733,7 +14717,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -14768,7 +14752,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -14803,14 +14787,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>14</v>
       </c>
       <c r="B199" t="s">
         <v>311</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D199" t="str">
@@ -14835,7 +14819,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>238</v>
       </c>
@@ -14902,14 +14886,14 @@
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>162</v>
       </c>
       <c r="B202" t="s">
         <v>305</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="10" t="s">
         <v>486</v>
       </c>
       <c r="D202" t="str">
@@ -14934,7 +14918,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>135</v>
       </c>
@@ -14972,14 +14956,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>207</v>
       </c>
       <c r="B204" t="s">
         <v>312</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" s="10" t="s">
         <v>487</v>
       </c>
       <c r="D204" t="str">
@@ -15006,12 +14990,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L204" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
       <sortCondition ref="A1:A204"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
-    <sortCondition sortBy="cellColor" ref="C2:C204" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="C2:C204" dxfId="2"/>
     <sortCondition ref="C2:C204"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD871FC2-2DF7-EC43-9EB3-628C9F803EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D41FC-5C4C-B447-B496-5BB743BDFE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="500" windowWidth="24100" windowHeight="16160" activeTab="3" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="jenna list of tech" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,221 +45,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={44F53BCD-FB0D-1D46-90EA-017399562B63}</author>
-    <author>tc={EEAE6AD9-48F3-E64F-9497-356B39CFBC54}</author>
-    <author>tc={BAE00B67-3324-0A41-8D91-14E807C587F9}</author>
-    <author>tc={F803F0D7-CDB1-AC46-9122-4E8BD6B6470B}</author>
-    <author>tc={E5F4C393-D5B8-BD42-9CC4-D6D1FA9200FB}</author>
-    <author>tc={8148279C-A286-BE4F-844D-E4573A33A5B2}</author>
-    <author>tc={BA60CCE1-6740-1D4E-AAE1-30F7D7935181}</author>
-    <author>tc={B83051F1-D450-8A4A-A0B7-6C51981192FA}</author>
-    <author>tc={6E9CBB2C-FA3C-AD48-B28E-53213BC3294B}</author>
-    <author>tc={079A18BB-CE5D-9244-81A2-305950E3AA8F}</author>
-    <author>tc={1FBA6548-167B-9645-A600-5FB5C5BB3423}</author>
-    <author>tc={51A33BCC-AE6D-5543-AE86-BA44D99C8570}</author>
-    <author>tc={34D19D33-5F18-D240-9A64-333A352E9124}</author>
-    <author>tc={280CF4B2-C9C1-7845-AF9F-AB6FDA823326}</author>
-    <author>tc={E8184F72-4E89-6C40-AE92-B4EE53622750}</author>
-    <author>tc={8C1A4524-8467-C546-8E2C-471282E63D19}</author>
-    <author>tc={2DEC653A-83D3-BE46-AC13-E222FE0E8AB5}</author>
-    <author>tc={43EB55CF-EEBB-1641-98E5-F9F92BF7FCBB}</author>
-    <author>tc={E7C6D1C3-4005-4E45-93CA-E28CCDED554A}</author>
-    <author>tc={07EB0552-DD23-2048-91A3-644DE7B7BC9C}</author>
-    <author>tc={DD7065B1-4583-864B-9355-2D4B1D25EFE9}</author>
-    <author>tc={21CD93AE-4A0F-AF42-BAA7-1F57723FE3AB}</author>
-  </authors>
-  <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{44F53BCD-FB0D-1D46-90EA-017399562B63}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Confirm metric with JG</t>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="1" shapeId="0" xr:uid="{EEAE6AD9-48F3-E64F-9497-356B39CFBC54}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Data are not cumulative number but annual number in use - do we want to convert to cumulative number?
-Reply:
-    We also have the Wilson world number of cumulative capacity in MW - do we want to keep that?</t>
-      </text>
-    </comment>
-    <comment ref="A29" authorId="2" shapeId="0" xr:uid="{BAE00B67-3324-0A41-8D91-14E807C587F9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This data is not installed capacity from IRENA but million tonnes of annual production from BP
-Reply:
-    I think it’s implying like mining rather than coal powered electricity</t>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="3" shapeId="0" xr:uid="{F803F0D7-CDB1-AC46-9122-4E8BD6B6470B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Confirm on DOE storage technologies keep cumulative rated power and drop cumulative rated capacity?</t>
-      </text>
-    </comment>
-    <comment ref="A38" authorId="4" shapeId="0" xr:uid="{E5F4C393-D5B8-BD42-9CC4-D6D1FA9200FB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Data are not cumulative number but annual number in use - do we want to convert to cumulative number?</t>
-      </text>
-    </comment>
-    <comment ref="A43" authorId="5" shapeId="0" xr:uid="{8148279C-A286-BE4F-844D-E4573A33A5B2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    JG has as share of pop - confirm this should be share of market</t>
-      </text>
-    </comment>
-    <comment ref="A57" authorId="6" shapeId="0" xr:uid="{BA60CCE1-6740-1D4E-AAE1-30F7D7935181}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Wilson uses “average capacity of unit additions” for US data and “net total capacity” for World data - unsure what to do with that since they’re not the same (didn’t want to standardize to CTC without checking first)</t>
-      </text>
-    </comment>
-    <comment ref="A118" authorId="7" shapeId="0" xr:uid="{B83051F1-D450-8A4A-A0B7-6C51981192FA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    JG has this as annual production - should it be CTC?</t>
-      </text>
-    </comment>
-    <comment ref="A120" authorId="8" shapeId="0" xr:uid="{6E9CBB2C-FA3C-AD48-B28E-53213BC3294B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check with JG on fertilizers - right now data are the production numbers NOT the agricultural use numbers (FAOSTAT has both) - keep or swap?</t>
-      </text>
-    </comment>
-    <comment ref="A122" authorId="9" shapeId="0" xr:uid="{079A18BB-CE5D-9244-81A2-305950E3AA8F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I believe this is annual production in TWh not installed capacity (also from BP) - BP data specifies gross generation not installed capacity</t>
-      </text>
-    </comment>
-    <comment ref="A123" authorId="10" shapeId="0" xr:uid="{1FBA6548-167B-9645-A600-5FB5C5BB3423}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Right now it’s just number of weapons (not cumulative), reflecting disarmament - do we want to make it cumulative?</t>
-      </text>
-    </comment>
-    <comment ref="A130" authorId="11" shapeId="0" xr:uid="{51A33BCC-AE6D-5543-AE86-BA44D99C8570}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Same issue as cells</t>
-      </text>
-    </comment>
-    <comment ref="A141" authorId="12" shapeId="0" xr:uid="{34D19D33-5F18-D240-9A64-333A352E9124}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Data is total annual number not cumulative, do we want to change that?</t>
-      </text>
-    </comment>
-    <comment ref="A148" authorId="13" shapeId="0" xr:uid="{280CF4B2-C9C1-7845-AF9F-AB6FDA823326}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Confirm w JG computing power v capacity?</t>
-      </text>
-    </comment>
-    <comment ref="A152" authorId="14" shapeId="0" xr:uid="{E8184F72-4E89-6C40-AE92-B4EE53622750}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Data not cumulative but can be if needed</t>
-      </text>
-    </comment>
-    <comment ref="A161" authorId="15" shapeId="0" xr:uid="{8C1A4524-8467-C546-8E2C-471282E63D19}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Real-time gross settlement (change name)</t>
-      </text>
-    </comment>
-    <comment ref="C161" authorId="16" shapeId="0" xr:uid="{2DEC653A-83D3-BE46-AC13-E222FE0E8AB5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Share of banks?</t>
-      </text>
-    </comment>
-    <comment ref="A178" authorId="17" shapeId="0" xr:uid="{43EB55CF-EEBB-1641-98E5-F9F92BF7FCBB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Confirm w JG that the data should be recalculated to reflect cumulative number and change metric to cumulative launches</t>
-      </text>
-    </comment>
-    <comment ref="A188" authorId="18" shapeId="0" xr:uid="{E7C6D1C3-4005-4E45-93CA-E28CCDED554A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Same as mail</t>
-      </text>
-    </comment>
-    <comment ref="A189" authorId="19" shapeId="0" xr:uid="{07EB0552-DD23-2048-91A3-644DE7B7BC9C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Not cumulative but can be if needed</t>
-      </text>
-    </comment>
-    <comment ref="A190" authorId="20" shapeId="0" xr:uid="{DD7065B1-4583-864B-9355-2D4B1D25EFE9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Same as radio</t>
-      </text>
-    </comment>
-    <comment ref="A201" authorId="21" shapeId="0" xr:uid="{21CD93AE-4A0F-AF42-BAA7-1F57723FE3AB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Fig. 8. International diffusion of wet FGD systems, by cumulative capacity (GWe). Source: Adapted from IEA Coal Data.
-Reply:
-    Leave as CTC?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="503">
   <si>
     <t>Refineries</t>
   </si>
@@ -1762,13 +1549,19 @@
   </si>
   <si>
     <t>Cumulative Total Capacity, Total Number</t>
+  </si>
+  <si>
+    <t>Real-time gross settlement adoption</t>
+  </si>
+  <si>
+    <t>Cumulative Rated Power, Cumulative Rated Capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1797,25 +1590,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1845,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1859,333 +1640,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2378,6 +1838,14 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2392,9 +1860,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="ARIANA LUCILLE HAMMERSMITH" id="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" userId="S::ahammersmith@wisc.edu::025745d9-d622-4a49-b6c4-60a802a56fda" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4900,77 +4366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has global/US data" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has cost data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -5073,26 +4469,26 @@
     <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="51">
+    <format dxfId="11">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="9">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -5104,6 +4500,76 @@
       </pivotArea>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has global/US data" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has cost data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5411,86 +4877,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C7" dT="2023-06-18T20:17:58.32" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{44F53BCD-FB0D-1D46-90EA-017399562B63}">
-    <text>Confirm metric with JG</text>
-  </threadedComment>
-  <threadedComment ref="A25" dT="2023-06-18T22:18:36.17" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{EEAE6AD9-48F3-E64F-9497-356B39CFBC54}">
-    <text>Data are not cumulative number but annual number in use - do we want to convert to cumulative number?</text>
-  </threadedComment>
-  <threadedComment ref="A25" dT="2023-06-18T22:18:51.94" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{174F3280-4EDC-D940-8D74-49B2C671578A}" parentId="{EEAE6AD9-48F3-E64F-9497-356B39CFBC54}">
-    <text>We also have the Wilson world number of cumulative capacity in MW - do we want to keep that?</text>
-  </threadedComment>
-  <threadedComment ref="A29" dT="2023-06-18T22:09:04.71" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{BAE00B67-3324-0A41-8D91-14E807C587F9}">
-    <text>This data is not installed capacity from IRENA but million tonnes of annual production from BP</text>
-  </threadedComment>
-  <threadedComment ref="A29" dT="2023-06-18T22:10:05.36" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{4771A7DC-EA73-8B43-8918-8A3C97574ECB}" parentId="{BAE00B67-3324-0A41-8D91-14E807C587F9}">
-    <text>I think it’s implying like mining rather than coal powered electricity</text>
-  </threadedComment>
-  <threadedComment ref="A33" dT="2023-06-18T20:39:27.24" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{F803F0D7-CDB1-AC46-9122-4E8BD6B6470B}">
-    <text>Confirm on DOE storage technologies keep cumulative rated power and drop cumulative rated capacity?</text>
-  </threadedComment>
-  <threadedComment ref="A38" dT="2023-06-18T22:16:37.41" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{E5F4C393-D5B8-BD42-9CC4-D6D1FA9200FB}">
-    <text>Data are not cumulative number but annual number in use - do we want to convert to cumulative number?</text>
-  </threadedComment>
-  <threadedComment ref="A43" dT="2023-06-18T20:41:51.97" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{8148279C-A286-BE4F-844D-E4573A33A5B2}">
-    <text>JG has as share of pop - confirm this should be share of market</text>
-  </threadedComment>
-  <threadedComment ref="A57" dT="2023-06-18T21:40:44.68" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{BA60CCE1-6740-1D4E-AAE1-30F7D7935181}">
-    <text>Wilson uses “average capacity of unit additions” for US data and “net total capacity” for World data - unsure what to do with that since they’re not the same (didn’t want to standardize to CTC without checking first)</text>
-  </threadedComment>
-  <threadedComment ref="A118" dT="2023-06-18T20:41:05.53" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{B83051F1-D450-8A4A-A0B7-6C51981192FA}">
-    <text>JG has this as annual production - should it be CTC?</text>
-  </threadedComment>
-  <threadedComment ref="A120" dT="2023-06-18T21:12:25.40" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{6E9CBB2C-FA3C-AD48-B28E-53213BC3294B}">
-    <text>Check with JG on fertilizers - right now data are the production numbers NOT the agricultural use numbers (FAOSTAT has both) - keep or swap?</text>
-  </threadedComment>
-  <threadedComment ref="A122" dT="2023-06-18T22:14:19.90" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{079A18BB-CE5D-9244-81A2-305950E3AA8F}">
-    <text>I believe this is annual production in TWh not installed capacity (also from BP) - BP data specifies gross generation not installed capacity</text>
-  </threadedComment>
-  <threadedComment ref="A123" dT="2023-06-18T21:28:50.59" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{1FBA6548-167B-9645-A600-5FB5C5BB3423}">
-    <text>Right now it’s just number of weapons (not cumulative), reflecting disarmament - do we want to make it cumulative?</text>
-  </threadedComment>
-  <threadedComment ref="A130" dT="2023-06-18T22:22:00.04" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{51A33BCC-AE6D-5543-AE86-BA44D99C8570}">
-    <text>Same issue as cells</text>
-  </threadedComment>
-  <threadedComment ref="A141" dT="2023-06-18T22:27:56.23" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{34D19D33-5F18-D240-9A64-333A352E9124}">
-    <text>Data is total annual number not cumulative, do we want to change that?</text>
-  </threadedComment>
-  <threadedComment ref="A148" dT="2023-06-18T20:58:16.13" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{280CF4B2-C9C1-7845-AF9F-AB6FDA823326}">
-    <text>Confirm w JG computing power v capacity?</text>
-  </threadedComment>
-  <threadedComment ref="A152" dT="2023-06-18T22:37:59.74" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{E8184F72-4E89-6C40-AE92-B4EE53622750}">
-    <text>Data not cumulative but can be if needed</text>
-  </threadedComment>
-  <threadedComment ref="A161" dT="2023-06-18T20:15:01.49" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{8C1A4524-8467-C546-8E2C-471282E63D19}">
-    <text>Real-time gross settlement (change name)</text>
-  </threadedComment>
-  <threadedComment ref="C161" dT="2023-06-18T20:27:43.70" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{2DEC653A-83D3-BE46-AC13-E222FE0E8AB5}">
-    <text>Share of banks?</text>
-  </threadedComment>
-  <threadedComment ref="A178" dT="2023-06-18T20:37:40.42" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{43EB55CF-EEBB-1641-98E5-F9F92BF7FCBB}">
-    <text>Confirm w JG that the data should be recalculated to reflect cumulative number and change metric to cumulative launches</text>
-  </threadedComment>
-  <threadedComment ref="A188" dT="2023-06-18T22:29:11.91" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{E7C6D1C3-4005-4E45-93CA-E28CCDED554A}">
-    <text>Same as mail</text>
-  </threadedComment>
-  <threadedComment ref="A189" dT="2023-06-18T22:29:59.73" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{07EB0552-DD23-2048-91A3-644DE7B7BC9C}">
-    <text>Not cumulative but can be if needed</text>
-  </threadedComment>
-  <threadedComment ref="A190" dT="2023-06-18T22:38:42.62" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{DD7065B1-4583-864B-9355-2D4B1D25EFE9}">
-    <text>Same as radio</text>
-  </threadedComment>
-  <threadedComment ref="A201" dT="2023-06-18T21:24:42.68" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{21CD93AE-4A0F-AF42-BAA7-1F57723FE3AB}">
-    <text>Fig. 8. International diffusion of wet FGD systems, by cumulative capacity (GWe). Source: Adapted from IEA Coal Data.</text>
-  </threadedComment>
-  <threadedComment ref="A201" dT="2023-06-18T21:24:48.43" personId="{A163957F-9E8C-004B-8DE8-9F6BE399A4B5}" id="{052ABCBD-6998-CB40-A703-753D3C239E84}" parentId="{21CD93AE-4A0F-AF42-BAA7-1F57723FE3AB}">
-    <text>Leave as CTC?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A940D3-9849-F741-902E-617E714FB215}">
   <dimension ref="A1:A166"/>
@@ -7870,23 +7256,21 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F204">
     <sortCondition ref="F2:F204"/>
   </sortState>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F205:F1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F206:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F205:F1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7968,8 +7352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -8027,7 +7410,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -8038,15 +7421,15 @@
         <v>483</v>
       </c>
       <c r="D2" t="str">
-        <f>LEFT(G2,4)</f>
+        <f t="shared" ref="D2:D65" si="0">LEFT(G2,4)</f>
         <v>1960</v>
       </c>
       <c r="E2" t="str">
-        <f>RIGHT(G2,4)</f>
+        <f t="shared" ref="E2:E65" si="1">RIGHT(G2,4)</f>
         <v>1972</v>
       </c>
       <c r="F2">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F65" si="2">E2-D2</f>
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -8062,7 +7445,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -8073,15 +7456,15 @@
         <v>483</v>
       </c>
       <c r="D3" t="str">
-        <f>LEFT(G3,4)</f>
+        <f t="shared" si="0"/>
         <v>1959</v>
       </c>
       <c r="E3" t="str">
-        <f>RIGHT(G3,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F3">
-        <f>E3-D3</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G3" t="s">
@@ -8097,7 +7480,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -8108,15 +7491,15 @@
         <v>483</v>
       </c>
       <c r="D4" t="str">
-        <f>LEFT(G4,4)</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="E4" t="str">
-        <f>RIGHT(G4,4)</f>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="F4">
-        <f>E4-D4</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="G4" t="s">
@@ -8129,7 +7512,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -8140,15 +7523,15 @@
         <v>483</v>
       </c>
       <c r="D5" t="str">
-        <f>LEFT(G5,4)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="E5" t="str">
-        <f>RIGHT(G5,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F5">
-        <f>E5-D5</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="G5" t="s">
@@ -8167,7 +7550,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -8178,15 +7561,15 @@
         <v>484</v>
       </c>
       <c r="D6" t="str">
-        <f>LEFT(G6,4)</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="E6" t="str">
-        <f>RIGHT(G6,4)</f>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="F6">
-        <f>E6-D6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G6" t="s">
@@ -8203,19 +7586,19 @@
       <c r="B7" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>483</v>
       </c>
       <c r="D7" t="str">
-        <f>LEFT(G7,4)</f>
+        <f t="shared" si="0"/>
         <v>1905</v>
       </c>
       <c r="E7" t="str">
-        <f>RIGHT(G7,4)</f>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="F7">
-        <f>E7-D7</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="G7" t="s">
@@ -8231,7 +7614,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -8242,15 +7625,15 @@
         <v>483</v>
       </c>
       <c r="D8" t="str">
-        <f>LEFT(G8,4)</f>
+        <f t="shared" si="0"/>
         <v>1961</v>
       </c>
       <c r="E8" t="str">
-        <f>RIGHT(G8,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F8">
-        <f>E8-D8</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G8" t="s">
@@ -8266,7 +7649,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -8277,15 +7660,15 @@
         <v>483</v>
       </c>
       <c r="D9" t="str">
-        <f>LEFT(G9,4)</f>
+        <f t="shared" si="0"/>
         <v>1960</v>
       </c>
       <c r="E9" t="str">
-        <f>RIGHT(G9,4)</f>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="F9">
-        <f>E9-D9</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="G9" t="s">
@@ -8301,26 +7684,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>179</v>
       </c>
       <c r="B10" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" t="s">
         <v>485</v>
       </c>
       <c r="D10" t="str">
-        <f>LEFT(G10,4)</f>
+        <f t="shared" si="0"/>
         <v>1910</v>
       </c>
       <c r="E10" t="str">
-        <f>RIGHT(G10,4)</f>
+        <f t="shared" si="1"/>
         <v>1984</v>
       </c>
       <c r="F10">
-        <f>E10-D10</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="G10" t="s">
@@ -8330,26 +7713,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>149</v>
       </c>
       <c r="B11" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" t="s">
         <v>486</v>
       </c>
       <c r="D11" t="str">
-        <f>LEFT(G11,4)</f>
+        <f t="shared" si="0"/>
         <v>1980</v>
       </c>
       <c r="E11" t="str">
-        <f>RIGHT(G11,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F11">
-        <f>E11-D11</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="G11" t="s">
@@ -8362,7 +7745,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -8373,15 +7756,15 @@
         <v>483</v>
       </c>
       <c r="D12" t="str">
-        <f>LEFT(G12,4)</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="E12" t="str">
-        <f>RIGHT(G12,4)</f>
+        <f t="shared" si="1"/>
         <v>2007</v>
       </c>
       <c r="F12">
-        <f>E12-D12</f>
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
       <c r="G12" t="s">
@@ -8397,7 +7780,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -8408,15 +7791,15 @@
         <v>483</v>
       </c>
       <c r="D13" t="str">
-        <f>LEFT(G13,4)</f>
+        <f t="shared" si="0"/>
         <v>1952</v>
       </c>
       <c r="E13" t="str">
-        <f>RIGHT(G13,4)</f>
+        <f t="shared" si="1"/>
         <v>1968</v>
       </c>
       <c r="F13">
-        <f>E13-D13</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G13" t="s">
@@ -8432,26 +7815,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" t="s">
         <v>487</v>
       </c>
       <c r="D14" t="str">
-        <f>LEFT(G14,4)</f>
+        <f t="shared" si="0"/>
         <v>1861</v>
       </c>
       <c r="E14" t="str">
-        <f>RIGHT(G14,4)</f>
+        <f t="shared" si="1"/>
         <v>2007</v>
       </c>
       <c r="F14">
-        <f>E14-D14</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="G14" t="s">
@@ -8464,26 +7847,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" t="s">
         <v>491</v>
       </c>
       <c r="D15" t="str">
-        <f>LEFT(G15,4)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="E15" t="str">
-        <f>RIGHT(G15,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F15">
-        <f>E15-D15</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G15" t="s">
@@ -8502,7 +7885,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -8513,15 +7896,15 @@
         <v>483</v>
       </c>
       <c r="D16" t="str">
-        <f>LEFT(G16,4)</f>
+        <f t="shared" si="0"/>
         <v>1959</v>
       </c>
       <c r="E16" t="str">
-        <f>RIGHT(G16,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F16">
-        <f>E16-D16</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G16" t="s">
@@ -8537,7 +7920,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -8548,15 +7931,15 @@
         <v>484</v>
       </c>
       <c r="D17" t="str">
-        <f>LEFT(G17,4)</f>
+        <f t="shared" si="0"/>
         <v>1968</v>
       </c>
       <c r="E17" t="str">
-        <f>RIGHT(G17,4)</f>
+        <f t="shared" si="1"/>
         <v>1997</v>
       </c>
       <c r="F17">
-        <f>E17-D17</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="G17" t="s">
@@ -8566,7 +7949,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8577,15 +7960,15 @@
         <v>483</v>
       </c>
       <c r="D18" t="str">
-        <f>LEFT(G18,4)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="E18" t="str">
-        <f>RIGHT(G18,4)</f>
+        <f t="shared" si="1"/>
         <v>2012</v>
       </c>
       <c r="F18">
-        <f>E18-D18</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G18" t="s">
@@ -8604,26 +7987,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" t="s">
         <v>493</v>
       </c>
       <c r="D19" t="str">
-        <f>LEFT(G19,4)</f>
+        <f t="shared" si="0"/>
         <v>1794</v>
       </c>
       <c r="E19" t="str">
-        <f>RIGHT(G19,4)</f>
+        <f t="shared" si="1"/>
         <v>1861</v>
       </c>
       <c r="F19">
-        <f>E19-D19</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="G19" t="s">
@@ -8636,7 +8019,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -8647,15 +8030,15 @@
         <v>483</v>
       </c>
       <c r="D20" t="str">
-        <f>LEFT(G20,4)</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="E20" t="str">
-        <f>RIGHT(G20,4)</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
       <c r="F20">
-        <f>E20-D20</f>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="G20" t="s">
@@ -8674,7 +8057,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -8685,15 +8068,15 @@
         <v>483</v>
       </c>
       <c r="D21" t="str">
-        <f>LEFT(G21,4)</f>
+        <f t="shared" si="0"/>
         <v>1962</v>
       </c>
       <c r="E21" t="str">
-        <f>RIGHT(G21,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F21">
-        <f>E21-D21</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G21" t="s">
@@ -8712,7 +8095,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -8723,15 +8106,15 @@
         <v>483</v>
       </c>
       <c r="D22" t="str">
-        <f>LEFT(G22,4)</f>
+        <f t="shared" si="0"/>
         <v>1960</v>
       </c>
       <c r="E22" t="str">
-        <f>RIGHT(G22,4)</f>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="F22">
-        <f>E22-D22</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="G22" t="s">
@@ -8747,26 +8130,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>306</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>494</v>
       </c>
       <c r="D23" t="str">
-        <f>LEFT(G23,4)</f>
+        <f t="shared" si="0"/>
         <v>1971</v>
       </c>
       <c r="E23" t="str">
-        <f>RIGHT(G23,4)</f>
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="F23">
-        <f>E23-D23</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="G23" t="s">
@@ -8779,7 +8162,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -8790,15 +8173,15 @@
         <v>483</v>
       </c>
       <c r="D24" t="str">
-        <f>LEFT(G24,4)</f>
+        <f t="shared" si="0"/>
         <v>1899</v>
       </c>
       <c r="E24" t="str">
-        <f>RIGHT(G24,4)</f>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="F24">
-        <f>E24-D24</f>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="G24" t="s">
@@ -8821,19 +8204,19 @@
       <c r="B25" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" t="s">
         <v>500</v>
       </c>
       <c r="D25" t="str">
-        <f>LEFT(G25,4)</f>
+        <f t="shared" si="0"/>
         <v>1975</v>
       </c>
       <c r="E25" t="str">
-        <f>RIGHT(G25,4)</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
       <c r="F25">
-        <f>E25-D25</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="G25" t="s">
@@ -8849,7 +8232,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -8860,15 +8243,15 @@
         <v>483</v>
       </c>
       <c r="D26" t="str">
-        <f>LEFT(G26,4)</f>
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="E26" t="str">
-        <f>RIGHT(G26,4)</f>
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="F26">
-        <f>E26-D26</f>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="G26" t="s">
@@ -8887,7 +8270,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -8898,15 +8281,15 @@
         <v>484</v>
       </c>
       <c r="D27" t="str">
-        <f>LEFT(G27,4)</f>
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="E27" t="str">
-        <f>RIGHT(G27,4)</f>
+        <f t="shared" si="1"/>
         <v>1970</v>
       </c>
       <c r="F27">
-        <f>E27-D27</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="G27" t="s">
@@ -8916,26 +8299,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>306</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
         <v>487</v>
       </c>
       <c r="D28" t="str">
-        <f>LEFT(G28,4)</f>
+        <f t="shared" si="0"/>
         <v>1908</v>
       </c>
       <c r="E28" t="str">
-        <f>RIGHT(G28,4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="F28">
-        <f>E28-D28</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="G28" t="s">
@@ -8958,19 +8341,19 @@
       <c r="B29" t="s">
         <v>306</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" t="s">
         <v>483</v>
       </c>
       <c r="D29" t="str">
-        <f>LEFT(G29,4)</f>
+        <f t="shared" si="0"/>
         <v>1981</v>
       </c>
       <c r="E29" t="str">
-        <f>RIGHT(G29,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F29">
-        <f>E29-D29</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G29" t="s">
@@ -8986,7 +8369,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -8997,15 +8380,15 @@
         <v>483</v>
       </c>
       <c r="D30" t="str">
-        <f>LEFT(G30,4)</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="E30" t="str">
-        <f>RIGHT(G30,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F30">
-        <f>E30-D30</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G30" t="s">
@@ -9027,7 +8410,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -9038,15 +8421,15 @@
         <v>484</v>
       </c>
       <c r="D31" t="str">
-        <f>LEFT(G31,4)</f>
+        <f t="shared" si="0"/>
         <v>1966</v>
       </c>
       <c r="E31" t="str">
-        <f>RIGHT(G31,4)</f>
+        <f t="shared" si="1"/>
         <v>2005</v>
       </c>
       <c r="F31">
-        <f>E31-D31</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="G31" t="s">
@@ -9056,26 +8439,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>466</v>
       </c>
       <c r="B32" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s">
         <v>487</v>
       </c>
       <c r="D32" t="str">
-        <f>LEFT(G32,4)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="E32" t="str">
-        <f>RIGHT(G32,4)</f>
+        <f t="shared" si="1"/>
         <v>2003</v>
       </c>
       <c r="F32">
-        <f>E32-D32</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G32" t="s">
@@ -9096,18 +8479,18 @@
         <v>312</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D33" t="str">
-        <f>LEFT(G33,4)</f>
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="E33" t="str">
-        <f>RIGHT(G33,4)</f>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="F33">
-        <f>E33-D33</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="G33" t="s">
@@ -9123,26 +8506,26 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>308</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" t="s">
         <v>489</v>
       </c>
       <c r="D34" t="str">
-        <f>LEFT(G34,4)</f>
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="E34" t="str">
-        <f>RIGHT(G34,4)</f>
+        <f t="shared" si="1"/>
         <v>1998</v>
       </c>
       <c r="F34">
-        <f>E34-D34</f>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="G34" t="s">
@@ -9158,26 +8541,26 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>306</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" t="s">
         <v>494</v>
       </c>
       <c r="D35" t="str">
-        <f>LEFT(G35,4)</f>
+        <f t="shared" si="0"/>
         <v>1985</v>
       </c>
       <c r="E35" t="str">
-        <f>RIGHT(G35,4)</f>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="F35">
-        <f>E35-D35</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="G35" t="s">
@@ -9193,7 +8576,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -9204,15 +8587,15 @@
         <v>483</v>
       </c>
       <c r="D36" t="str">
-        <f>LEFT(G36,4)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="E36" t="str">
-        <f>RIGHT(G36,4)</f>
+        <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="F36">
-        <f>E36-D36</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G36" t="s">
@@ -9228,7 +8611,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -9239,15 +8622,15 @@
         <v>483</v>
       </c>
       <c r="D37" t="str">
-        <f>LEFT(G37,4)</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="E37" t="str">
-        <f>RIGHT(G37,4)</f>
+        <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="F37">
-        <f>E37-D37</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G37" t="s">
@@ -9270,19 +8653,19 @@
       <c r="B38" t="s">
         <v>305</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" t="s">
         <v>492</v>
       </c>
       <c r="D38" t="str">
-        <f>LEFT(G38,4)</f>
+        <f t="shared" si="0"/>
         <v>1961</v>
       </c>
       <c r="E38" t="str">
-        <f>RIGHT(G38,4)</f>
+        <f t="shared" si="1"/>
         <v>2001</v>
       </c>
       <c r="F38">
-        <f>E38-D38</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G38" t="s">
@@ -9295,26 +8678,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>306</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" t="s">
         <v>483</v>
       </c>
       <c r="D39" t="str">
-        <f>LEFT(G39,4)</f>
+        <f t="shared" si="0"/>
         <v>1860</v>
       </c>
       <c r="E39" t="str">
-        <f>RIGHT(G39,4)</f>
+        <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="F39">
-        <f>E39-D39</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="G39" t="s">
@@ -9333,7 +8716,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -9344,15 +8727,15 @@
         <v>483</v>
       </c>
       <c r="D40" t="str">
-        <f>LEFT(G40,4)</f>
+        <f t="shared" si="0"/>
         <v>1956</v>
       </c>
       <c r="E40" t="str">
-        <f>RIGHT(G40,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F40">
-        <f>E40-D40</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G40" t="s">
@@ -9368,26 +8751,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
       <c r="B41" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" t="s">
         <v>495</v>
       </c>
       <c r="D41" t="str">
-        <f>LEFT(G41,4)</f>
+        <f t="shared" si="0"/>
         <v>1960</v>
       </c>
       <c r="E41" t="str">
-        <f>RIGHT(G41,4)</f>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="F41">
-        <f>E41-D41</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="G41" t="s">
@@ -9400,7 +8783,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -9411,15 +8794,15 @@
         <v>484</v>
       </c>
       <c r="D42" t="str">
-        <f>LEFT(G42,4)</f>
+        <f t="shared" si="0"/>
         <v>1922</v>
       </c>
       <c r="E42" t="str">
-        <f>RIGHT(G42,4)</f>
+        <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="F42">
-        <f>E42-D42</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="G42" t="s">
@@ -9439,19 +8822,19 @@
       <c r="B43" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" t="s">
         <v>485</v>
       </c>
       <c r="D43" t="str">
-        <f>LEFT(G43,4)</f>
+        <f t="shared" si="0"/>
         <v>1966</v>
       </c>
       <c r="E43" t="str">
-        <f>RIGHT(G43,4)</f>
+        <f t="shared" si="1"/>
         <v>1984</v>
       </c>
       <c r="F43">
-        <f>E43-D43</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G43" t="s">
@@ -9461,26 +8844,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>305</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" t="s">
         <v>486</v>
       </c>
       <c r="D44" t="str">
-        <f>LEFT(G44,4)</f>
+        <f t="shared" si="0"/>
         <v>1980</v>
       </c>
       <c r="E44" t="str">
-        <f>RIGHT(G44,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F44">
-        <f>E44-D44</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="G44" t="s">
@@ -9496,26 +8879,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>305</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" t="s">
         <v>486</v>
       </c>
       <c r="D45" t="str">
-        <f>LEFT(G45,4)</f>
+        <f t="shared" si="0"/>
         <v>1980</v>
       </c>
       <c r="E45" t="str">
-        <f>RIGHT(G45,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F45">
-        <f>E45-D45</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="G45" t="s">
@@ -9531,26 +8914,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>252</v>
       </c>
       <c r="B46" t="s">
         <v>308</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" t="s">
         <v>486</v>
       </c>
       <c r="D46" t="str">
-        <f>LEFT(G46,4)</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="E46" t="str">
-        <f>RIGHT(G46,4)</f>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="F46">
-        <f>E46-D46</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G46" t="s">
@@ -9560,26 +8943,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>258</v>
       </c>
       <c r="B47" t="s">
         <v>310</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" t="s">
         <v>487</v>
       </c>
       <c r="D47" t="str">
-        <f>LEFT(G47,4)</f>
+        <f t="shared" si="0"/>
         <v>1997</v>
       </c>
       <c r="E47" t="str">
-        <f>RIGHT(G47,4)</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
       <c r="F47">
-        <f>E47-D47</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G47" t="s">
@@ -9592,7 +8975,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>210</v>
       </c>
@@ -9603,15 +8986,15 @@
         <v>484</v>
       </c>
       <c r="D48" t="str">
-        <f>LEFT(G48,4)</f>
+        <f t="shared" si="0"/>
         <v>1933</v>
       </c>
       <c r="E48" t="str">
-        <f>RIGHT(G48,4)</f>
+        <f t="shared" si="1"/>
         <v>1986</v>
       </c>
       <c r="F48">
-        <f>E48-D48</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="G48" t="s">
@@ -9621,7 +9004,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>216</v>
       </c>
@@ -9632,15 +9015,15 @@
         <v>483</v>
       </c>
       <c r="D49" t="str">
-        <f>LEFT(G49,4)</f>
+        <f t="shared" si="0"/>
         <v>1985</v>
       </c>
       <c r="E49" t="str">
-        <f>RIGHT(G49,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F49">
-        <f>E49-D49</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="G49" t="s">
@@ -9653,26 +9036,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>253</v>
       </c>
       <c r="B50" t="s">
         <v>312</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>487</v>
+      <c r="C50" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D50" t="str">
-        <f>LEFT(G50,4)</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="E50" t="str">
-        <f>RIGHT(G50,4)</f>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="F50">
-        <f>E50-D50</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G50" t="s">
@@ -9685,26 +9068,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>261</v>
       </c>
       <c r="B51" t="s">
         <v>310</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" t="s">
         <v>485</v>
       </c>
       <c r="D51" t="str">
-        <f>LEFT(G51,4)</f>
+        <f t="shared" si="0"/>
         <v>1962</v>
       </c>
       <c r="E51" t="str">
-        <f>RIGHT(G51,4)</f>
+        <f t="shared" si="1"/>
         <v>1984</v>
       </c>
       <c r="F51">
-        <f>E51-D51</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G51" t="s">
@@ -9714,7 +9097,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -9725,15 +9108,15 @@
         <v>483</v>
       </c>
       <c r="D52" t="str">
-        <f>LEFT(G52,4)</f>
+        <f t="shared" si="0"/>
         <v>1955</v>
       </c>
       <c r="E52" t="str">
-        <f>RIGHT(G52,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F52">
-        <f>E52-D52</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="G52" t="s">
@@ -9749,7 +9132,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -9760,15 +9143,15 @@
         <v>483</v>
       </c>
       <c r="D53" t="str">
-        <f>LEFT(G53,4)</f>
+        <f t="shared" si="0"/>
         <v>1958</v>
       </c>
       <c r="E53" t="str">
-        <f>RIGHT(G53,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F53">
-        <f>E53-D53</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G53" t="s">
@@ -9787,7 +9170,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -9798,15 +9181,15 @@
         <v>483</v>
       </c>
       <c r="D54" t="str">
-        <f>LEFT(G54,4)</f>
+        <f t="shared" si="0"/>
         <v>1953</v>
       </c>
       <c r="E54" t="str">
-        <f>RIGHT(G54,4)</f>
+        <f t="shared" si="1"/>
         <v>1968</v>
       </c>
       <c r="F54">
-        <f>E54-D54</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G54" t="s">
@@ -9825,7 +9208,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -9836,15 +9219,15 @@
         <v>483</v>
       </c>
       <c r="D55" t="str">
-        <f>LEFT(G55,4)</f>
+        <f t="shared" si="0"/>
         <v>1960</v>
       </c>
       <c r="E55" t="str">
-        <f>RIGHT(G55,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F55">
-        <f>E55-D55</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G55" t="s">
@@ -9860,26 +9243,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>237</v>
       </c>
       <c r="B56" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>487</v>
+      <c r="C56" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D56" t="str">
-        <f>LEFT(G56,4)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="E56" t="str">
-        <f>RIGHT(G56,4)</f>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="F56">
-        <f>E56-D56</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G56" t="s">
@@ -9902,19 +9285,19 @@
       <c r="B57" t="s">
         <v>306</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" t="s">
         <v>499</v>
       </c>
       <c r="D57" t="str">
-        <f>LEFT(G57,4)</f>
+        <f t="shared" si="0"/>
         <v>1940</v>
       </c>
       <c r="E57" t="str">
-        <f>RIGHT(G57,4)</f>
+        <f t="shared" si="1"/>
         <v>2007</v>
       </c>
       <c r="F57">
-        <f>E57-D57</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="G57" t="s">
@@ -9927,7 +9310,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -9938,15 +9321,15 @@
         <v>484</v>
       </c>
       <c r="D58" t="str">
-        <f>LEFT(G58,4)</f>
+        <f t="shared" si="0"/>
         <v>1860</v>
       </c>
       <c r="E58" t="str">
-        <f>RIGHT(G58,4)</f>
+        <f t="shared" si="1"/>
         <v>1989</v>
       </c>
       <c r="F58">
-        <f>E58-D58</f>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="G58" t="s">
@@ -9956,26 +9339,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>223</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>487</v>
+      <c r="C59" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D59" t="str">
-        <f>LEFT(G59,4)</f>
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="E59" t="str">
-        <f>RIGHT(G59,4)</f>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="F59">
-        <f>E59-D59</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G59" t="s">
@@ -9991,7 +9374,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -10002,15 +9385,15 @@
         <v>483</v>
       </c>
       <c r="D60" t="str">
-        <f>LEFT(G60,4)</f>
+        <f t="shared" si="0"/>
         <v>1962</v>
       </c>
       <c r="E60" t="str">
-        <f>RIGHT(G60,4)</f>
+        <f t="shared" si="1"/>
         <v>1972</v>
       </c>
       <c r="F60">
-        <f>E60-D60</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G60" t="s">
@@ -10026,7 +9409,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -10037,15 +9420,15 @@
         <v>484</v>
       </c>
       <c r="D61" t="str">
-        <f>LEFT(G61,4)</f>
+        <f t="shared" si="0"/>
         <v>1950</v>
       </c>
       <c r="E61" t="str">
-        <f>RIGHT(G61,4)</f>
+        <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="F61">
-        <f>E61-D61</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="G61" t="s">
@@ -10061,26 +9444,26 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>215</v>
       </c>
       <c r="B62" t="s">
         <v>306</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" t="s">
         <v>491</v>
       </c>
       <c r="D62" t="str">
-        <f>LEFT(G62,4)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="E62" t="str">
-        <f>RIGHT(G62,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F62">
-        <f>E62-D62</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G62" t="s">
@@ -10096,7 +9479,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -10107,15 +9490,15 @@
         <v>483</v>
       </c>
       <c r="D63" t="str">
-        <f>LEFT(G63,4)</f>
+        <f t="shared" si="0"/>
         <v>1851</v>
       </c>
       <c r="E63" t="str">
-        <f>RIGHT(G63,4)</f>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="F63">
-        <f>E63-D63</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="G63" t="s">
@@ -10134,7 +9517,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>147</v>
       </c>
@@ -10145,15 +9528,15 @@
         <v>483</v>
       </c>
       <c r="D64" t="str">
-        <f>LEFT(G64,4)</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="E64" t="str">
-        <f>RIGHT(G64,4)</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="F64">
-        <f>E64-D64</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G64" t="s">
@@ -10172,7 +9555,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -10183,15 +9566,15 @@
         <v>487</v>
       </c>
       <c r="D65" t="str">
-        <f>LEFT(G65,4)</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="E65" t="str">
-        <f>RIGHT(G65,4)</f>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="F65">
-        <f>E65-D65</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G65" t="s">
@@ -10204,26 +9587,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>222</v>
       </c>
       <c r="B66" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>487</v>
+      <c r="C66" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D66" t="str">
-        <f>LEFT(G66,4)</f>
+        <f t="shared" ref="D66:D129" si="3">LEFT(G66,4)</f>
         <v>2007</v>
       </c>
       <c r="E66" t="str">
-        <f>RIGHT(G66,4)</f>
+        <f t="shared" ref="E66:E129" si="4">RIGHT(G66,4)</f>
         <v>2017</v>
       </c>
       <c r="F66">
-        <f>E66-D66</f>
+        <f t="shared" ref="F66:F129" si="5">E66-D66</f>
         <v>10</v>
       </c>
       <c r="G66" t="s">
@@ -10239,26 +9622,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
       <c r="B67" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" t="s">
         <v>486</v>
       </c>
       <c r="D67" t="str">
-        <f>LEFT(G67,4)</f>
+        <f t="shared" si="3"/>
         <v>1989</v>
       </c>
       <c r="E67" t="str">
-        <f>RIGHT(G67,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F67">
-        <f>E67-D67</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="G67" t="s">
@@ -10274,26 +9657,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>153</v>
       </c>
       <c r="B68" t="s">
         <v>305</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" t="s">
         <v>486</v>
       </c>
       <c r="D68" t="str">
-        <f>LEFT(G68,4)</f>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="E68" t="str">
-        <f>RIGHT(G68,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F68">
-        <f>E68-D68</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G68" t="s">
@@ -10309,26 +9692,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
       <c r="B69" t="s">
         <v>305</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" t="s">
         <v>490</v>
       </c>
       <c r="D69" t="str">
-        <f>LEFT(G69,4)</f>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="E69" t="str">
-        <f>RIGHT(G69,4)</f>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="F69">
-        <f>E69-D69</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G69" t="s">
@@ -10344,26 +9727,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>198</v>
       </c>
       <c r="B70" t="s">
         <v>305</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" t="s">
         <v>490</v>
       </c>
       <c r="D70" t="str">
-        <f>LEFT(G70,4)</f>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="E70" t="str">
-        <f>RIGHT(G70,4)</f>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="F70">
-        <f>E70-D70</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G70" t="s">
@@ -10379,26 +9762,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>219</v>
       </c>
       <c r="B71" t="s">
         <v>305</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" t="s">
         <v>490</v>
       </c>
       <c r="D71" t="str">
-        <f>LEFT(G71,4)</f>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="E71" t="str">
-        <f>RIGHT(G71,4)</f>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="F71">
-        <f>E71-D71</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G71" t="s">
@@ -10414,26 +9797,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>154</v>
       </c>
       <c r="B72" t="s">
         <v>305</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" t="s">
         <v>486</v>
       </c>
       <c r="D72" t="str">
-        <f>LEFT(G72,4)</f>
+        <f t="shared" si="3"/>
         <v>1991</v>
       </c>
       <c r="E72" t="str">
-        <f>RIGHT(G72,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F72">
-        <f>E72-D72</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="G72" t="s">
@@ -10449,7 +9832,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>469</v>
       </c>
@@ -10460,15 +9843,15 @@
         <v>483</v>
       </c>
       <c r="D73" t="str">
-        <f>LEFT(G73,4)</f>
+        <f t="shared" si="3"/>
         <v>1958</v>
       </c>
       <c r="E73" t="str">
-        <f>RIGHT(G73,4)</f>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="F73">
-        <f>E73-D73</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="G73" t="s">
@@ -10487,26 +9870,26 @@
         <v>456</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>226</v>
       </c>
       <c r="B74" t="s">
         <v>307</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" t="s">
         <v>493</v>
       </c>
       <c r="D74" t="str">
-        <f>LEFT(G74,4)</f>
+        <f t="shared" si="3"/>
         <v>1964</v>
       </c>
       <c r="E74" t="str">
-        <f>RIGHT(G74,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F74">
-        <f>E74-D74</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="G74" t="s">
@@ -10519,7 +9902,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -10530,15 +9913,15 @@
         <v>484</v>
       </c>
       <c r="D75" t="str">
-        <f>LEFT(G75,4)</f>
+        <f t="shared" si="3"/>
         <v>1957</v>
       </c>
       <c r="E75" t="str">
-        <f>RIGHT(G75,4)</f>
+        <f t="shared" si="4"/>
         <v>2011</v>
       </c>
       <c r="F75">
-        <f>E75-D75</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="G75" t="s">
@@ -10551,7 +9934,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>262</v>
       </c>
@@ -10562,15 +9945,15 @@
         <v>484</v>
       </c>
       <c r="D76" t="str">
-        <f>LEFT(G76,4)</f>
+        <f t="shared" si="3"/>
         <v>1992</v>
       </c>
       <c r="E76" t="str">
-        <f>RIGHT(G76,4)</f>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="F76">
-        <f>E76-D76</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="G76" t="s">
@@ -10580,7 +9963,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>247</v>
       </c>
@@ -10591,15 +9974,15 @@
         <v>484</v>
       </c>
       <c r="D77" t="str">
-        <f>LEFT(G77,4)</f>
+        <f t="shared" si="3"/>
         <v>1993</v>
       </c>
       <c r="E77" t="str">
-        <f>RIGHT(G77,4)</f>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="F77">
-        <f>E77-D77</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="G77" t="s">
@@ -10609,7 +9992,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>249</v>
       </c>
@@ -10620,15 +10003,15 @@
         <v>484</v>
       </c>
       <c r="D78" t="str">
-        <f>LEFT(G78,4)</f>
+        <f t="shared" si="3"/>
         <v>2013</v>
       </c>
       <c r="E78" t="str">
-        <f>RIGHT(G78,4)</f>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="F78">
-        <f>E78-D78</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G78" t="s">
@@ -10638,7 +10021,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -10649,15 +10032,15 @@
         <v>483</v>
       </c>
       <c r="D79" t="str">
-        <f>LEFT(G79,4)</f>
+        <f t="shared" si="3"/>
         <v>1929</v>
       </c>
       <c r="E79" t="str">
-        <f>RIGHT(G79,4)</f>
+        <f t="shared" si="4"/>
         <v>2003</v>
       </c>
       <c r="F79">
-        <f>E79-D79</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="G79" t="s">
@@ -10673,7 +10056,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -10684,15 +10067,15 @@
         <v>483</v>
       </c>
       <c r="D80" t="str">
-        <f>LEFT(G80,4)</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="E80" t="str">
-        <f>RIGHT(G80,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F80">
-        <f>E80-D80</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="G80" t="s">
@@ -10711,7 +10094,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -10722,15 +10105,15 @@
         <v>483</v>
       </c>
       <c r="D81" t="str">
-        <f>LEFT(G81,4)</f>
+        <f t="shared" si="3"/>
         <v>1962</v>
       </c>
       <c r="E81" t="str">
-        <f>RIGHT(G81,4)</f>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="F81">
-        <f>E81-D81</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G81" t="s">
@@ -10746,26 +10129,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>168</v>
       </c>
       <c r="B82" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>487</v>
+      <c r="C82" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D82" t="str">
-        <f>LEFT(G82,4)</f>
+        <f t="shared" si="3"/>
         <v>2012</v>
       </c>
       <c r="E82" t="str">
-        <f>RIGHT(G82,4)</f>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="F82">
-        <f>E82-D82</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G82" t="s">
@@ -10778,26 +10161,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>217</v>
       </c>
       <c r="B83" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" t="s">
         <v>490</v>
       </c>
       <c r="D83" t="str">
-        <f>LEFT(G83,4)</f>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="E83" t="str">
-        <f>RIGHT(G83,4)</f>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="F83">
-        <f>E83-D83</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G83" t="s">
@@ -10813,26 +10196,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>204</v>
       </c>
       <c r="B84" t="s">
         <v>305</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" t="s">
         <v>490</v>
       </c>
       <c r="D84" t="str">
-        <f>LEFT(G84,4)</f>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="E84" t="str">
-        <f>RIGHT(G84,4)</f>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="F84">
-        <f>E84-D84</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G84" t="s">
@@ -10848,26 +10231,26 @@
         <v>478</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
       <c r="B85" t="s">
         <v>308</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" t="s">
         <v>489</v>
       </c>
       <c r="D85" t="str">
-        <f>LEFT(G85,4)</f>
+        <f t="shared" si="3"/>
         <v>1968</v>
       </c>
       <c r="E85" t="str">
-        <f>RIGHT(G85,4)</f>
+        <f t="shared" si="4"/>
         <v>2004</v>
       </c>
       <c r="F85">
-        <f>E85-D85</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="G85" t="s">
@@ -10880,26 +10263,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>203</v>
       </c>
       <c r="B86" t="s">
         <v>308</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" t="s">
         <v>489</v>
       </c>
       <c r="D86" t="str">
-        <f>LEFT(G86,4)</f>
+        <f t="shared" si="3"/>
         <v>1984</v>
       </c>
       <c r="E86" t="str">
-        <f>RIGHT(G86,4)</f>
+        <f t="shared" si="4"/>
         <v>2014</v>
       </c>
       <c r="F86">
-        <f>E86-D86</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="G86" t="s">
@@ -10912,26 +10295,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>155</v>
       </c>
       <c r="B87" t="s">
         <v>305</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" t="s">
         <v>486</v>
       </c>
       <c r="D87" t="str">
-        <f>LEFT(G87,4)</f>
+        <f t="shared" si="3"/>
         <v>2015</v>
       </c>
       <c r="E87" t="str">
-        <f>RIGHT(G87,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F87">
-        <f>E87-D87</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G87" t="s">
@@ -10947,7 +10330,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>224</v>
       </c>
@@ -10958,15 +10341,15 @@
         <v>484</v>
       </c>
       <c r="D88" t="str">
-        <f>LEFT(G88,4)</f>
+        <f t="shared" si="3"/>
         <v>1933</v>
       </c>
       <c r="E88" t="str">
-        <f>RIGHT(G88,4)</f>
+        <f t="shared" si="4"/>
         <v>1970</v>
       </c>
       <c r="F88">
-        <f>E88-D88</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="G88" t="s">
@@ -10976,7 +10359,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -10987,15 +10370,15 @@
         <v>483</v>
       </c>
       <c r="D89" t="str">
-        <f>LEFT(G89,4)</f>
+        <f t="shared" si="3"/>
         <v>1990</v>
       </c>
       <c r="E89" t="str">
-        <f>RIGHT(G89,4)</f>
+        <f t="shared" si="4"/>
         <v>2011</v>
       </c>
       <c r="F89">
-        <f>E89-D89</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G89" t="s">
@@ -11014,26 +10397,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90" t="s">
         <v>310</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" t="s">
         <v>487</v>
       </c>
       <c r="D90" t="str">
-        <f>LEFT(G90,4)</f>
+        <f t="shared" si="3"/>
         <v>1958</v>
       </c>
       <c r="E90" t="str">
-        <f>RIGHT(G90,4)</f>
+        <f t="shared" si="4"/>
         <v>2007</v>
       </c>
       <c r="F90">
-        <f>E90-D90</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="G90" t="s">
@@ -11046,26 +10429,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>243</v>
       </c>
       <c r="B91" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>487</v>
+      <c r="C91" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D91" t="str">
-        <f>LEFT(G91,4)</f>
+        <f t="shared" si="3"/>
         <v>1991</v>
       </c>
       <c r="E91" t="str">
-        <f>RIGHT(G91,4)</f>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="F91">
-        <f>E91-D91</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G91" t="s">
@@ -11081,26 +10464,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
       <c r="B92" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" t="s">
         <v>487</v>
       </c>
       <c r="D92" t="str">
-        <f>LEFT(G92,4)</f>
+        <f t="shared" si="3"/>
         <v>1920</v>
       </c>
       <c r="E92" t="str">
-        <f>RIGHT(G92,4)</f>
+        <f t="shared" si="4"/>
         <v>2006</v>
       </c>
       <c r="F92">
-        <f>E92-D92</f>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="G92" t="s">
@@ -11113,7 +10496,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -11124,15 +10507,15 @@
         <v>483</v>
       </c>
       <c r="D93" t="str">
-        <f>LEFT(G93,4)</f>
+        <f t="shared" si="3"/>
         <v>1990</v>
       </c>
       <c r="E93" t="str">
-        <f>RIGHT(G93,4)</f>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="F93">
-        <f>E93-D93</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="G93" t="s">
@@ -11151,26 +10534,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>171</v>
       </c>
       <c r="B94" t="s">
         <v>312</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>487</v>
+      <c r="C94" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D94" t="str">
-        <f>LEFT(G94,4)</f>
+        <f t="shared" si="3"/>
         <v>1987</v>
       </c>
       <c r="E94" t="str">
-        <f>RIGHT(G94,4)</f>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="F94">
-        <f>E94-D94</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="G94" t="s">
@@ -11186,26 +10569,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>264</v>
       </c>
       <c r="B95" t="s">
         <v>306</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" t="s">
         <v>483</v>
       </c>
       <c r="D95" t="str">
-        <f>LEFT(G95,4)</f>
+        <f t="shared" si="3"/>
         <v>1985</v>
       </c>
       <c r="E95" t="str">
-        <f>RIGHT(G95,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F95">
-        <f>E95-D95</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="G95" t="s">
@@ -11221,26 +10604,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>26</v>
       </c>
       <c r="B96" t="s">
         <v>306</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" t="s">
         <v>491</v>
       </c>
       <c r="D96" t="str">
-        <f>LEFT(G96,4)</f>
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
       <c r="E96" t="str">
-        <f>RIGHT(G96,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F96">
-        <f>E96-D96</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="G96" t="s">
@@ -11256,7 +10639,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -11267,15 +10650,15 @@
         <v>483</v>
       </c>
       <c r="D97" t="str">
-        <f>LEFT(G97,4)</f>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="E97" t="str">
-        <f>RIGHT(G97,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F97">
-        <f>E97-D97</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G97" t="s">
@@ -11294,26 +10677,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>263</v>
       </c>
       <c r="B98" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>487</v>
+      <c r="C98" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D98" t="str">
-        <f>LEFT(G98,4)</f>
+        <f t="shared" si="3"/>
         <v>2008</v>
       </c>
       <c r="E98" t="str">
-        <f>RIGHT(G98,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F98">
-        <f>E98-D98</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="G98" t="s">
@@ -11332,7 +10715,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>470</v>
       </c>
@@ -11343,15 +10726,15 @@
         <v>483</v>
       </c>
       <c r="D99" t="str">
-        <f>LEFT(G99,4)</f>
+        <f t="shared" si="3"/>
         <v>1958</v>
       </c>
       <c r="E99" t="str">
-        <f>RIGHT(G99,4)</f>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="F99">
-        <f>E99-D99</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="G99" t="s">
@@ -11367,7 +10750,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -11378,15 +10761,15 @@
         <v>483</v>
       </c>
       <c r="D100" t="str">
-        <f>LEFT(G100,4)</f>
+        <f t="shared" si="3"/>
         <v>1954</v>
       </c>
       <c r="E100" t="str">
-        <f>RIGHT(G100,4)</f>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="F100">
-        <f>E100-D100</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="G100" t="s">
@@ -11402,26 +10785,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>38</v>
       </c>
       <c r="B101" t="s">
         <v>308</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" t="s">
         <v>489</v>
       </c>
       <c r="D101" t="str">
-        <f>LEFT(G101,4)</f>
+        <f t="shared" si="3"/>
         <v>1952</v>
       </c>
       <c r="E101" t="str">
-        <f>RIGHT(G101,4)</f>
+        <f t="shared" si="4"/>
         <v>2004</v>
       </c>
       <c r="F101">
-        <f>E101-D101</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="G101" t="s">
@@ -11437,7 +10820,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -11448,15 +10831,15 @@
         <v>483</v>
       </c>
       <c r="D102" t="str">
-        <f>LEFT(G102,4)</f>
+        <f t="shared" si="3"/>
         <v>1959</v>
       </c>
       <c r="E102" t="str">
-        <f>RIGHT(G102,4)</f>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="F102">
-        <f>E102-D102</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="G102" t="s">
@@ -11475,26 +10858,26 @@
         <v>477</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>245</v>
       </c>
       <c r="B103" t="s">
         <v>306</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" t="s">
         <v>491</v>
       </c>
       <c r="D103" t="str">
-        <f>LEFT(G103,4)</f>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="E103" t="str">
-        <f>RIGHT(G103,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F103">
-        <f>E103-D103</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G103" t="s">
@@ -11510,26 +10893,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>156</v>
       </c>
       <c r="B104" t="s">
         <v>305</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" t="s">
         <v>486</v>
       </c>
       <c r="D104" t="str">
-        <f>LEFT(G104,4)</f>
+        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
       <c r="E104" t="str">
-        <f>RIGHT(G104,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F104">
-        <f>E104-D104</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="G104" t="s">
@@ -11548,26 +10931,26 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>157</v>
       </c>
       <c r="B105" t="s">
         <v>305</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" t="s">
         <v>486</v>
       </c>
       <c r="D105" t="str">
-        <f>LEFT(G105,4)</f>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="E105" t="str">
-        <f>RIGHT(G105,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F105">
-        <f>E105-D105</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G105" t="s">
@@ -11586,7 +10969,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -11597,15 +10980,15 @@
         <v>483</v>
       </c>
       <c r="D106" t="str">
-        <f>LEFT(G106,4)</f>
+        <f t="shared" si="3"/>
         <v>1957</v>
       </c>
       <c r="E106" t="str">
-        <f>RIGHT(G106,4)</f>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="F106">
-        <f>E106-D106</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="G106" t="s">
@@ -11621,7 +11004,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -11632,15 +11015,15 @@
         <v>484</v>
       </c>
       <c r="D107" t="str">
-        <f>LEFT(G107,4)</f>
+        <f t="shared" si="3"/>
         <v>1984</v>
       </c>
       <c r="E107" t="str">
-        <f>RIGHT(G107,4)</f>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="F107">
-        <f>E107-D107</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="G107" t="s">
@@ -11650,26 +11033,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>33</v>
       </c>
       <c r="B108" t="s">
         <v>308</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" t="s">
         <v>489</v>
       </c>
       <c r="D108" t="str">
-        <f>LEFT(G108,4)</f>
+        <f t="shared" si="3"/>
         <v>1976</v>
       </c>
       <c r="E108" t="str">
-        <f>RIGHT(G108,4)</f>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="F108">
-        <f>E108-D108</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="G108" t="s">
@@ -11682,7 +11065,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -11693,15 +11076,15 @@
         <v>484</v>
       </c>
       <c r="D109" t="str">
-        <f>LEFT(G109,4)</f>
+        <f t="shared" si="3"/>
         <v>1975</v>
       </c>
       <c r="E109" t="str">
-        <f>RIGHT(G109,4)</f>
+        <f t="shared" si="4"/>
         <v>2017</v>
       </c>
       <c r="F109">
-        <f>E109-D109</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="G109" t="s">
@@ -11714,7 +11097,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -11725,15 +11108,15 @@
         <v>483</v>
       </c>
       <c r="D110" t="str">
-        <f>LEFT(G110,4)</f>
+        <f t="shared" si="3"/>
         <v>1889</v>
       </c>
       <c r="E110" t="str">
-        <f>RIGHT(G110,4)</f>
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
       <c r="F110">
-        <f>E110-D110</f>
+        <f t="shared" si="5"/>
         <v>121</v>
       </c>
       <c r="G110" t="s">
@@ -11752,7 +11135,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -11763,15 +11146,15 @@
         <v>483</v>
       </c>
       <c r="D111" t="str">
-        <f>LEFT(G111,4)</f>
+        <f t="shared" si="3"/>
         <v>1946</v>
       </c>
       <c r="E111" t="str">
-        <f>RIGHT(G111,4)</f>
+        <f t="shared" si="4"/>
         <v>1968</v>
       </c>
       <c r="F111">
-        <f>E111-D111</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="G111" t="s">
@@ -11787,26 +11170,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>209</v>
       </c>
       <c r="B112" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" t="s">
         <v>487</v>
       </c>
       <c r="D112" t="str">
-        <f>LEFT(G112,4)</f>
+        <f t="shared" si="3"/>
         <v>1900</v>
       </c>
       <c r="E112" t="str">
-        <f>RIGHT(G112,4)</f>
+        <f t="shared" si="4"/>
         <v>2008</v>
       </c>
       <c r="F112">
-        <f>E112-D112</f>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="G112" t="s">
@@ -11819,26 +11202,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>240</v>
       </c>
       <c r="B113" t="s">
         <v>307</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" t="s">
         <v>493</v>
       </c>
       <c r="D113" t="str">
-        <f>LEFT(G113,4)</f>
+        <f t="shared" si="3"/>
         <v>1960</v>
       </c>
       <c r="E113" t="str">
-        <f>RIGHT(G113,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F113">
-        <f>E113-D113</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="G113" t="s">
@@ -11851,26 +11234,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>467</v>
       </c>
       <c r="B114" t="s">
         <v>306</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" t="s">
         <v>487</v>
       </c>
       <c r="D114" t="str">
-        <f>LEFT(G114,4)</f>
+        <f t="shared" si="3"/>
         <v>1903</v>
       </c>
       <c r="E114" t="str">
-        <f>RIGHT(G114,4)</f>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="F114">
-        <f>E114-D114</f>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="G114" t="s">
@@ -11883,7 +11266,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -11894,15 +11277,15 @@
         <v>483</v>
       </c>
       <c r="D115" t="str">
-        <f>LEFT(G115,4)</f>
+        <f t="shared" si="3"/>
         <v>1970</v>
       </c>
       <c r="E115" t="str">
-        <f>RIGHT(G115,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F115">
-        <f>E115-D115</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="G115" t="s">
@@ -11918,7 +11301,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -11929,15 +11312,15 @@
         <v>483</v>
       </c>
       <c r="D116" t="str">
-        <f>LEFT(G116,4)</f>
+        <f t="shared" si="3"/>
         <v>1960</v>
       </c>
       <c r="E116" t="str">
-        <f>RIGHT(G116,4)</f>
+        <f t="shared" si="4"/>
         <v>1972</v>
       </c>
       <c r="F116">
-        <f>E116-D116</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G116" t="s">
@@ -11953,7 +11336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>194</v>
       </c>
@@ -11964,15 +11347,15 @@
         <v>483</v>
       </c>
       <c r="D117" t="str">
-        <f>LEFT(G117,4)</f>
+        <f t="shared" si="3"/>
         <v>1889</v>
       </c>
       <c r="E117" t="str">
-        <f>RIGHT(G117,4)</f>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="F117">
-        <f>E117-D117</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="G117" t="s">
@@ -11999,18 +11382,18 @@
         <v>312</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="D118" t="str">
-        <f>LEFT(G118,4)</f>
+        <f t="shared" si="3"/>
         <v>2003</v>
       </c>
       <c r="E118" t="str">
-        <f>RIGHT(G118,4)</f>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="F118">
-        <f>E118-D118</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G118" t="s">
@@ -12023,7 +11406,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -12034,15 +11417,15 @@
         <v>483</v>
       </c>
       <c r="D119" t="str">
-        <f>LEFT(G119,4)</f>
+        <f t="shared" si="3"/>
         <v>1929</v>
       </c>
       <c r="E119" t="str">
-        <f>RIGHT(G119,4)</f>
+        <f t="shared" si="4"/>
         <v>2003</v>
       </c>
       <c r="F119">
-        <f>E119-D119</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="G119" t="s">
@@ -12068,19 +11451,19 @@
       <c r="B120" t="s">
         <v>305</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" t="s">
         <v>483</v>
       </c>
       <c r="D120" t="str">
-        <f>LEFT(G120,4)</f>
+        <f t="shared" si="3"/>
         <v>1961</v>
       </c>
       <c r="E120" t="str">
-        <f>RIGHT(G120,4)</f>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="F120">
-        <f>E120-D120</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="G120" t="s">
@@ -12099,26 +11482,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>170</v>
       </c>
       <c r="B121" t="s">
         <v>306</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" t="s">
         <v>488</v>
       </c>
       <c r="D121" t="str">
-        <f>LEFT(G121,4)</f>
+        <f t="shared" si="3"/>
         <v>1990</v>
       </c>
       <c r="E121" t="str">
-        <f>RIGHT(G121,4)</f>
+        <f t="shared" si="4"/>
         <v>2005</v>
       </c>
       <c r="F121">
-        <f>E121-D121</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="G121" t="s">
@@ -12135,19 +11518,19 @@
       <c r="B122" t="s">
         <v>306</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" t="s">
         <v>483</v>
       </c>
       <c r="D122" t="str">
-        <f>LEFT(G122,4)</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="E122" t="str">
-        <f>RIGHT(G122,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F122">
-        <f>E122-D122</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="G122" t="s">
@@ -12170,19 +11553,19 @@
       <c r="B123" t="s">
         <v>313</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" t="s">
         <v>496</v>
       </c>
       <c r="D123" t="str">
-        <f>LEFT(G123,4)</f>
+        <f t="shared" si="3"/>
         <v>1945</v>
       </c>
       <c r="E123" t="str">
-        <f>RIGHT(G123,4)</f>
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
       <c r="F123">
-        <f>E123-D123</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="G123" t="s">
@@ -12198,26 +11581,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>472</v>
       </c>
       <c r="B124" t="s">
         <v>306</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" t="s">
         <v>491</v>
       </c>
       <c r="D124" t="str">
-        <f>LEFT(G124,4)</f>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="E124" t="str">
-        <f>RIGHT(G124,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F124">
-        <f>E124-D124</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G124" t="s">
@@ -12236,26 +11619,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>234</v>
       </c>
       <c r="B125" t="s">
         <v>307</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" t="s">
         <v>493</v>
       </c>
       <c r="D125" t="str">
-        <f>LEFT(G125,4)</f>
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
       <c r="E125" t="str">
-        <f>RIGHT(G125,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F125">
-        <f>E125-D125</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="G125" t="s">
@@ -12268,7 +11651,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -12279,15 +11662,15 @@
         <v>483</v>
       </c>
       <c r="D126" t="str">
-        <f>LEFT(G126,4)</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="E126" t="str">
-        <f>RIGHT(G126,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F126">
-        <f>E126-D126</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="G126" t="s">
@@ -12303,7 +11686,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -12314,15 +11697,15 @@
         <v>487</v>
       </c>
       <c r="D127" t="str">
-        <f>LEFT(G127,4)</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="E127" t="str">
-        <f>RIGHT(G127,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F127">
-        <f>E127-D127</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="G127" t="s">
@@ -12338,26 +11721,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>473</v>
       </c>
       <c r="B128" t="s">
         <v>306</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" t="s">
         <v>491</v>
       </c>
       <c r="D128" t="str">
-        <f>LEFT(G128,4)</f>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="E128" t="str">
-        <f>RIGHT(G128,4)</f>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F128">
-        <f>E128-D128</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G128" t="s">
@@ -12379,7 +11762,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -12390,15 +11773,15 @@
         <v>483</v>
       </c>
       <c r="D129" t="str">
-        <f>LEFT(G129,4)</f>
+        <f t="shared" si="3"/>
         <v>1957</v>
       </c>
       <c r="E129" t="str">
-        <f>RIGHT(G129,4)</f>
+        <f t="shared" si="4"/>
         <v>1968</v>
       </c>
       <c r="F129">
-        <f>E129-D129</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="G129" t="s">
@@ -12421,19 +11804,19 @@
       <c r="B130" t="s">
         <v>310</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" t="s">
         <v>500</v>
       </c>
       <c r="D130" t="str">
-        <f>LEFT(G130,4)</f>
+        <f t="shared" ref="D130:D193" si="6">LEFT(G130,4)</f>
         <v>1895</v>
       </c>
       <c r="E130" t="str">
-        <f>RIGHT(G130,4)</f>
+        <f t="shared" ref="E130:E193" si="7">RIGHT(G130,4)</f>
         <v>2005</v>
       </c>
       <c r="F130">
-        <f>E130-D130</f>
+        <f t="shared" ref="F130:F193" si="8">E130-D130</f>
         <v>110</v>
       </c>
       <c r="G130" t="s">
@@ -12449,26 +11832,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>158</v>
       </c>
       <c r="B131" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" t="s">
         <v>486</v>
       </c>
       <c r="D131" t="str">
-        <f>LEFT(G131,4)</f>
+        <f t="shared" si="6"/>
         <v>2008</v>
       </c>
       <c r="E131" t="str">
-        <f>RIGHT(G131,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F131">
-        <f>E131-D131</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="G131" t="s">
@@ -12484,7 +11867,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -12495,15 +11878,15 @@
         <v>483</v>
       </c>
       <c r="D132" t="str">
-        <f>LEFT(G132,4)</f>
+        <f t="shared" si="6"/>
         <v>1952</v>
       </c>
       <c r="E132" t="str">
-        <f>RIGHT(G132,4)</f>
+        <f t="shared" si="7"/>
         <v>1972</v>
       </c>
       <c r="F132">
-        <f>E132-D132</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G132" t="s">
@@ -12519,7 +11902,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12530,15 +11913,15 @@
         <v>483</v>
       </c>
       <c r="D133" t="str">
-        <f>LEFT(G133,4)</f>
+        <f t="shared" si="6"/>
         <v>1959</v>
       </c>
       <c r="E133" t="str">
-        <f>RIGHT(G133,4)</f>
+        <f t="shared" si="7"/>
         <v>1972</v>
       </c>
       <c r="F133">
-        <f>E133-D133</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="G133" t="s">
@@ -12554,26 +11937,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>69</v>
       </c>
       <c r="B134" t="s">
         <v>305</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" t="s">
         <v>483</v>
       </c>
       <c r="D134" t="str">
-        <f>LEFT(G134,4)</f>
+        <f t="shared" si="6"/>
         <v>1961</v>
       </c>
       <c r="E134" t="str">
-        <f>RIGHT(G134,4)</f>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="F134">
-        <f>E134-D134</f>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="G134" t="s">
@@ -12589,7 +11972,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12600,15 +11983,15 @@
         <v>483</v>
       </c>
       <c r="D135" t="str">
-        <f>LEFT(G135,4)</f>
+        <f t="shared" si="6"/>
         <v>1955</v>
       </c>
       <c r="E135" t="str">
-        <f>RIGHT(G135,4)</f>
+        <f t="shared" si="7"/>
         <v>1972</v>
       </c>
       <c r="F135">
-        <f>E135-D135</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="G135" t="s">
@@ -12624,26 +12007,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>229</v>
       </c>
       <c r="B136" t="s">
         <v>308</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" t="s">
         <v>486</v>
       </c>
       <c r="D136" t="str">
-        <f>LEFT(G136,4)</f>
+        <f t="shared" si="6"/>
         <v>2006</v>
       </c>
       <c r="E136" t="str">
-        <f>RIGHT(G136,4)</f>
+        <f t="shared" si="7"/>
         <v>2015</v>
       </c>
       <c r="F136">
-        <f>E136-D136</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G136" t="s">
@@ -12653,26 +12036,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
       <c r="B137" t="s">
         <v>305</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" t="s">
         <v>486</v>
       </c>
       <c r="D137" t="str">
-        <f>LEFT(G137,4)</f>
+        <f t="shared" si="6"/>
         <v>1980</v>
       </c>
       <c r="E137" t="str">
-        <f>RIGHT(G137,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F137">
-        <f>E137-D137</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="G137" t="s">
@@ -12688,7 +12071,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -12699,15 +12082,15 @@
         <v>483</v>
       </c>
       <c r="D138" t="str">
-        <f>LEFT(G138,4)</f>
+        <f t="shared" si="6"/>
         <v>1960</v>
       </c>
       <c r="E138" t="str">
-        <f>RIGHT(G138,4)</f>
+        <f t="shared" si="7"/>
         <v>1972</v>
       </c>
       <c r="F138">
-        <f>E138-D138</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G138" t="s">
@@ -12726,7 +12109,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -12737,15 +12120,15 @@
         <v>483</v>
       </c>
       <c r="D139" t="str">
-        <f>LEFT(G139,4)</f>
+        <f t="shared" si="6"/>
         <v>1943</v>
       </c>
       <c r="E139" t="str">
-        <f>RIGHT(G139,4)</f>
+        <f t="shared" si="7"/>
         <v>1968</v>
       </c>
       <c r="F139">
-        <f>E139-D139</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G139" t="s">
@@ -12764,7 +12147,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>77</v>
       </c>
@@ -12775,15 +12158,15 @@
         <v>483</v>
       </c>
       <c r="D140" t="str">
-        <f>LEFT(G140,4)</f>
+        <f t="shared" si="6"/>
         <v>1946</v>
       </c>
       <c r="E140" t="str">
-        <f>RIGHT(G140,4)</f>
+        <f t="shared" si="7"/>
         <v>1968</v>
       </c>
       <c r="F140">
-        <f>E140-D140</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G140" t="s">
@@ -12809,19 +12192,19 @@
       <c r="B141" t="s">
         <v>307</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" t="s">
         <v>492</v>
       </c>
       <c r="D141" t="str">
-        <f>LEFT(G141,4)</f>
+        <f t="shared" si="6"/>
         <v>1830</v>
       </c>
       <c r="E141" t="str">
-        <f>RIGHT(G141,4)</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="F141">
-        <f>E141-D141</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="G141" t="s">
@@ -12837,26 +12220,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>70</v>
       </c>
       <c r="B142" t="s">
         <v>305</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" t="s">
         <v>483</v>
       </c>
       <c r="D142" t="str">
-        <f>LEFT(G142,4)</f>
+        <f t="shared" si="6"/>
         <v>1961</v>
       </c>
       <c r="E142" t="str">
-        <f>RIGHT(G142,4)</f>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="F142">
-        <f>E142-D142</f>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="G142" t="s">
@@ -12872,26 +12255,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>186</v>
       </c>
       <c r="B143" t="s">
         <v>310</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" t="s">
         <v>485</v>
       </c>
       <c r="D143" t="str">
-        <f>LEFT(G143,4)</f>
+        <f t="shared" si="6"/>
         <v>1951</v>
       </c>
       <c r="E143" t="str">
-        <f>RIGHT(G143,4)</f>
+        <f t="shared" si="7"/>
         <v>1984</v>
       </c>
       <c r="F143">
-        <f>E143-D143</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="G143" t="s">
@@ -12904,7 +12287,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -12915,15 +12298,15 @@
         <v>483</v>
       </c>
       <c r="D144" t="str">
-        <f>LEFT(G144,4)</f>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="E144" t="str">
-        <f>RIGHT(G144,4)</f>
+        <f t="shared" si="7"/>
         <v>2012</v>
       </c>
       <c r="F144">
-        <f>E144-D144</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G144" t="s">
@@ -12942,7 +12325,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -12953,15 +12336,15 @@
         <v>483</v>
       </c>
       <c r="D145" t="str">
-        <f>LEFT(G145,4)</f>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="E145" t="str">
-        <f>RIGHT(G145,4)</f>
+        <f t="shared" si="7"/>
         <v>2012</v>
       </c>
       <c r="F145">
-        <f>E145-D145</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G145" t="s">
@@ -12980,7 +12363,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>242</v>
       </c>
@@ -12991,15 +12374,15 @@
         <v>483</v>
       </c>
       <c r="D146" t="str">
-        <f>LEFT(G146,4)</f>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="E146" t="str">
-        <f>RIGHT(G146,4)</f>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="F146">
-        <f>E146-D146</f>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
       <c r="G146" t="s">
@@ -13015,7 +12398,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -13026,15 +12409,15 @@
         <v>483</v>
       </c>
       <c r="D147" t="str">
-        <f>LEFT(G147,4)</f>
+        <f t="shared" si="6"/>
         <v>1929</v>
       </c>
       <c r="E147" t="str">
-        <f>RIGHT(G147,4)</f>
+        <f t="shared" si="7"/>
         <v>1968</v>
       </c>
       <c r="F147">
-        <f>E147-D147</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="G147" t="s">
@@ -13057,19 +12440,19 @@
       <c r="B148" t="s">
         <v>308</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" t="s">
         <v>489</v>
       </c>
       <c r="D148" t="str">
-        <f>LEFT(G148,4)</f>
+        <f t="shared" si="6"/>
         <v>1971</v>
       </c>
       <c r="E148" t="str">
-        <f>RIGHT(G148,4)</f>
+        <f t="shared" si="7"/>
         <v>2002</v>
       </c>
       <c r="F148">
-        <f>E148-D148</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="G148" t="s">
@@ -13082,26 +12465,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>211</v>
       </c>
       <c r="B149" t="s">
         <v>307</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" t="s">
         <v>493</v>
       </c>
       <c r="D149" t="str">
-        <f>LEFT(G149,4)</f>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="E149" t="str">
-        <f>RIGHT(G149,4)</f>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="F149">
-        <f>E149-D149</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="G149" t="s">
@@ -13117,26 +12500,26 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>190</v>
       </c>
       <c r="B150" t="s">
         <v>312</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>487</v>
+      <c r="C150" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D150" t="str">
-        <f>LEFT(G150,4)</f>
+        <f t="shared" si="6"/>
         <v>1944</v>
       </c>
       <c r="E150" t="str">
-        <f>RIGHT(G150,4)</f>
+        <f t="shared" si="7"/>
         <v>2020</v>
       </c>
       <c r="F150">
-        <f>E150-D150</f>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="G150" t="s">
@@ -13152,26 +12535,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>266</v>
       </c>
       <c r="B151" t="s">
         <v>310</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" t="s">
         <v>485</v>
       </c>
       <c r="D151" t="str">
-        <f>LEFT(G151,4)</f>
+        <f t="shared" si="6"/>
         <v>1972</v>
       </c>
       <c r="E151" t="str">
-        <f>RIGHT(G151,4)</f>
+        <f t="shared" si="7"/>
         <v>1984</v>
       </c>
       <c r="F151">
-        <f>E151-D151</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G151" t="s">
@@ -13188,19 +12571,19 @@
       <c r="B152" t="s">
         <v>311</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" t="s">
         <v>492</v>
       </c>
       <c r="D152" t="str">
-        <f>LEFT(G152,4)</f>
+        <f t="shared" si="6"/>
         <v>1815</v>
       </c>
       <c r="E152" t="str">
-        <f>RIGHT(G152,4)</f>
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
       <c r="F152">
-        <f>E152-D152</f>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="G152" t="s">
@@ -13216,26 +12599,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>187</v>
       </c>
       <c r="B153" t="s">
         <v>307</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" t="s">
         <v>497</v>
       </c>
       <c r="D153" t="str">
-        <f>LEFT(G153,4)</f>
+        <f t="shared" si="6"/>
         <v>1825</v>
       </c>
       <c r="E153" t="str">
-        <f>RIGHT(G153,4)</f>
+        <f t="shared" si="7"/>
         <v>2004</v>
       </c>
       <c r="F153">
-        <f>E153-D153</f>
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
       <c r="G153" t="s">
@@ -13251,26 +12634,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>37</v>
       </c>
       <c r="B154" t="s">
         <v>308</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" t="s">
         <v>489</v>
       </c>
       <c r="D154" t="str">
-        <f>LEFT(G154,4)</f>
+        <f t="shared" si="6"/>
         <v>1949</v>
       </c>
       <c r="E154" t="str">
-        <f>RIGHT(G154,4)</f>
+        <f t="shared" si="7"/>
         <v>2004</v>
       </c>
       <c r="F154">
-        <f>E154-D154</f>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="G154" t="s">
@@ -13283,7 +12666,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -13294,15 +12677,15 @@
         <v>483</v>
       </c>
       <c r="D155" t="str">
-        <f>LEFT(G155,4)</f>
+        <f t="shared" si="6"/>
         <v>1995</v>
       </c>
       <c r="E155" t="str">
-        <f>RIGHT(G155,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F155">
-        <f>E155-D155</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="G155" t="s">
@@ -13321,7 +12704,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -13332,15 +12715,15 @@
         <v>483</v>
       </c>
       <c r="D156" t="str">
-        <f>LEFT(G156,4)</f>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="E156" t="str">
-        <f>RIGHT(G156,4)</f>
+        <f t="shared" si="7"/>
         <v>2011</v>
       </c>
       <c r="F156">
-        <f>E156-D156</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="G156" t="s">
@@ -13359,26 +12742,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>160</v>
       </c>
       <c r="B157" t="s">
         <v>305</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" t="s">
         <v>486</v>
       </c>
       <c r="D157" t="str">
-        <f>LEFT(G157,4)</f>
+        <f t="shared" si="6"/>
         <v>1980</v>
       </c>
       <c r="E157" t="str">
-        <f>RIGHT(G157,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F157">
-        <f>E157-D157</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="G157" t="s">
@@ -13397,97 +12780,91 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>501</v>
+      </c>
+      <c r="B158" t="s">
+        <v>308</v>
+      </c>
+      <c r="C158" t="s">
+        <v>485</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="6"/>
+        <v>1970</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="7"/>
+        <v>2005</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="G158" t="s">
+        <v>422</v>
+      </c>
+      <c r="I158" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>15</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>311</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C159" t="s">
         <v>487</v>
       </c>
-      <c r="D158" t="str">
-        <f>LEFT(G158,4)</f>
+      <c r="D159" t="str">
+        <f t="shared" si="6"/>
         <v>1918</v>
       </c>
-      <c r="E158" t="str">
-        <f>RIGHT(G158,4)</f>
+      <c r="E159" t="str">
+        <f t="shared" si="7"/>
         <v>2009</v>
       </c>
-      <c r="F158">
-        <f>E158-D158</f>
+      <c r="F159">
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G159" t="s">
         <v>427</v>
       </c>
-      <c r="H158" t="s">
-        <v>289</v>
-      </c>
-      <c r="I158" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="H159" t="s">
+        <v>289</v>
+      </c>
+      <c r="I159" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>228</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>306</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>483</v>
       </c>
-      <c r="D159" t="str">
-        <f>LEFT(G159,4)</f>
+      <c r="D160" t="str">
+        <f t="shared" si="6"/>
         <v>1965</v>
       </c>
-      <c r="E159" t="str">
-        <f>RIGHT(G159,4)</f>
+      <c r="E160" t="str">
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
-      <c r="F159">
-        <f>E159-D159</f>
+      <c r="F160">
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G160" t="s">
         <v>380</v>
-      </c>
-      <c r="I159" t="s">
-        <v>289</v>
-      </c>
-      <c r="J159" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" t="s">
-        <v>305</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="D160" t="str">
-        <f>LEFT(G160,4)</f>
-        <v>2006</v>
-      </c>
-      <c r="E160" t="str">
-        <f>RIGHT(G160,4)</f>
-        <v>2021</v>
-      </c>
-      <c r="F160">
-        <f>E160-D160</f>
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
-        <v>421</v>
-      </c>
-      <c r="H160" t="s">
-        <v>289</v>
       </c>
       <c r="I160" t="s">
         <v>289</v>
@@ -13498,34 +12875,40 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>484</v>
+        <v>305</v>
+      </c>
+      <c r="C161" t="s">
+        <v>486</v>
       </c>
       <c r="D161" t="str">
-        <f>LEFT(G161,4)</f>
-        <v>1970</v>
+        <f t="shared" si="6"/>
+        <v>2006</v>
       </c>
       <c r="E161" t="str">
-        <f>RIGHT(G161,4)</f>
-        <v>2005</v>
+        <f t="shared" si="7"/>
+        <v>2021</v>
       </c>
       <c r="F161">
-        <f>E161-D161</f>
-        <v>35</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="H161" t="s">
+        <v>289</v>
       </c>
       <c r="I161" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J161" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>225</v>
       </c>
@@ -13536,15 +12919,15 @@
         <v>484</v>
       </c>
       <c r="D162" t="str">
-        <f>LEFT(G162,4)</f>
+        <f t="shared" si="6"/>
         <v>1890</v>
       </c>
       <c r="E162" t="str">
-        <f>RIGHT(G162,4)</f>
+        <f t="shared" si="7"/>
         <v>1989</v>
       </c>
       <c r="F162">
-        <f>E162-D162</f>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="G162" t="s">
@@ -13557,7 +12940,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -13568,15 +12951,15 @@
         <v>483</v>
       </c>
       <c r="D163" t="str">
-        <f>LEFT(G163,4)</f>
+        <f t="shared" si="6"/>
         <v>1990</v>
       </c>
       <c r="E163" t="str">
-        <f>RIGHT(G163,4)</f>
+        <f t="shared" si="7"/>
         <v>2012</v>
       </c>
       <c r="F163">
-        <f>E163-D163</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="G163" t="s">
@@ -13595,7 +12978,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>195</v>
       </c>
@@ -13606,15 +12989,15 @@
         <v>483</v>
       </c>
       <c r="D164" t="str">
-        <f>LEFT(G164,4)</f>
+        <f t="shared" si="6"/>
         <v>1902</v>
       </c>
       <c r="E164" t="str">
-        <f>RIGHT(G164,4)</f>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="F164">
-        <f>E164-D164</f>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
       <c r="G164" t="s">
@@ -13630,7 +13013,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>235</v>
       </c>
@@ -13641,15 +13024,15 @@
         <v>483</v>
       </c>
       <c r="D165" t="str">
-        <f>LEFT(G165,4)</f>
+        <f t="shared" si="6"/>
         <v>1902</v>
       </c>
       <c r="E165" t="str">
-        <f>RIGHT(G165,4)</f>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="F165">
-        <f>E165-D165</f>
+        <f t="shared" si="8"/>
         <v>117</v>
       </c>
       <c r="G165" t="s">
@@ -13665,26 +13048,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
       <c r="B166" t="s">
         <v>312</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>487</v>
+      <c r="C166" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D166" t="str">
-        <f>LEFT(G166,4)</f>
+        <f t="shared" si="6"/>
         <v>1982</v>
       </c>
       <c r="E166" t="str">
-        <f>RIGHT(G166,4)</f>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="F166">
-        <f>E166-D166</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="G166" t="s">
@@ -13700,7 +13083,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -13711,15 +13094,15 @@
         <v>483</v>
       </c>
       <c r="D167" t="str">
-        <f>LEFT(G167,4)</f>
+        <f t="shared" si="6"/>
         <v>2007</v>
       </c>
       <c r="E167" t="str">
-        <f>RIGHT(G167,4)</f>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="F167">
-        <f>E167-D167</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G167" t="s">
@@ -13732,26 +13115,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>112</v>
       </c>
       <c r="B168" t="s">
         <v>305</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" t="s">
         <v>492</v>
       </c>
       <c r="D168" t="str">
-        <f>LEFT(G168,4)</f>
+        <f t="shared" si="6"/>
         <v>2001</v>
       </c>
       <c r="E168" t="str">
-        <f>RIGHT(G168,4)</f>
+        <f t="shared" si="7"/>
         <v>2009</v>
       </c>
       <c r="F168">
-        <f>E168-D168</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G168" t="s">
@@ -13767,7 +13150,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>137</v>
       </c>
@@ -13778,15 +13161,15 @@
         <v>483</v>
       </c>
       <c r="D169" t="str">
-        <f>LEFT(G169,4)</f>
+        <f t="shared" si="6"/>
         <v>1874</v>
       </c>
       <c r="E169" t="str">
-        <f>RIGHT(G169,4)</f>
+        <f t="shared" si="7"/>
         <v>2008</v>
       </c>
       <c r="F169">
-        <f>E169-D169</f>
+        <f t="shared" si="8"/>
         <v>134</v>
       </c>
       <c r="G169" t="s">
@@ -13802,26 +13185,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>239</v>
       </c>
       <c r="B170" t="s">
         <v>308</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" t="s">
         <v>486</v>
       </c>
       <c r="D170" t="str">
-        <f>LEFT(G170,4)</f>
+        <f t="shared" si="6"/>
         <v>2011</v>
       </c>
       <c r="E170" t="str">
-        <f>RIGHT(G170,4)</f>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="F170">
-        <f>E170-D170</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G170" t="s">
@@ -13831,26 +13214,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>181</v>
       </c>
       <c r="B171" t="s">
         <v>308</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" t="s">
         <v>486</v>
       </c>
       <c r="D171" t="str">
-        <f>LEFT(G171,4)</f>
+        <f t="shared" si="6"/>
         <v>2005</v>
       </c>
       <c r="E171" t="str">
-        <f>RIGHT(G171,4)</f>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="F171">
-        <f>E171-D171</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="G171" t="s">
@@ -13860,7 +13243,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -13871,15 +13254,15 @@
         <v>483</v>
       </c>
       <c r="D172" t="str">
-        <f>LEFT(G172,4)</f>
+        <f t="shared" si="6"/>
         <v>1957</v>
       </c>
       <c r="E172" t="str">
-        <f>RIGHT(G172,4)</f>
+        <f t="shared" si="7"/>
         <v>1972</v>
       </c>
       <c r="F172">
-        <f>E172-D172</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G172" t="s">
@@ -13895,7 +13278,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>83</v>
       </c>
@@ -13906,15 +13289,15 @@
         <v>483</v>
       </c>
       <c r="D173" t="str">
-        <f>LEFT(G173,4)</f>
+        <f t="shared" si="6"/>
         <v>1958</v>
       </c>
       <c r="E173" t="str">
-        <f>RIGHT(G173,4)</f>
+        <f t="shared" si="7"/>
         <v>1972</v>
       </c>
       <c r="F173">
-        <f>E173-D173</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="G173" t="s">
@@ -13930,26 +13313,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>227</v>
       </c>
       <c r="B174" t="s">
         <v>312</v>
       </c>
-      <c r="C174" s="10" t="s">
-        <v>487</v>
+      <c r="C174" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D174" t="str">
-        <f>LEFT(G174,4)</f>
+        <f t="shared" si="6"/>
         <v>1999</v>
       </c>
       <c r="E174" t="str">
-        <f>RIGHT(G174,4)</f>
+        <f t="shared" si="7"/>
         <v>2019</v>
       </c>
       <c r="F174">
-        <f>E174-D174</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G174" t="s">
@@ -13965,26 +13348,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>200</v>
       </c>
       <c r="B175" t="s">
         <v>306</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" t="s">
         <v>491</v>
       </c>
       <c r="D175" t="str">
-        <f>LEFT(G175,4)</f>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="E175" t="str">
-        <f>RIGHT(G175,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F175">
-        <f>E175-D175</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="G175" t="s">
@@ -14003,26 +13386,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>230</v>
       </c>
       <c r="B176" t="s">
         <v>306</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" t="s">
         <v>491</v>
       </c>
       <c r="D176" t="str">
-        <f>LEFT(G176,4)</f>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="E176" t="str">
-        <f>RIGHT(G176,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F176">
-        <f>E176-D176</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="G176" t="s">
@@ -14038,26 +13421,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
       <c r="B177" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" t="s">
         <v>491</v>
       </c>
       <c r="D177" t="str">
-        <f>LEFT(G177,4)</f>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="E177" t="str">
-        <f>RIGHT(G177,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F177">
-        <f>E177-D177</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="G177" t="s">
@@ -14083,19 +13466,19 @@
       <c r="B178" t="s">
         <v>313</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" t="s">
         <v>498</v>
       </c>
       <c r="D178" t="str">
-        <f>LEFT(G178,4)</f>
+        <f t="shared" si="6"/>
         <v>1957</v>
       </c>
       <c r="E178" t="str">
-        <f>RIGHT(G178,4)</f>
+        <f t="shared" si="7"/>
         <v>2022</v>
       </c>
       <c r="F178">
-        <f>E178-D178</f>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="G178" t="s">
@@ -14111,26 +13494,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
       <c r="B179" t="s">
         <v>306</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" t="s">
         <v>487</v>
       </c>
       <c r="D179" t="str">
-        <f>LEFT(G179,4)</f>
+        <f t="shared" si="6"/>
         <v>1710</v>
       </c>
       <c r="E179" t="str">
-        <f>RIGHT(G179,4)</f>
+        <f t="shared" si="7"/>
         <v>1920</v>
       </c>
       <c r="F179">
-        <f>E179-D179</f>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="G179" t="s">
@@ -14143,26 +13526,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>10</v>
       </c>
       <c r="B180" t="s">
         <v>310</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" t="s">
         <v>487</v>
       </c>
       <c r="D180" t="str">
-        <f>LEFT(G180,4)</f>
+        <f t="shared" si="6"/>
         <v>1830</v>
       </c>
       <c r="E180" t="str">
-        <f>RIGHT(G180,4)</f>
+        <f t="shared" si="7"/>
         <v>1940</v>
       </c>
       <c r="F180">
-        <f>E180-D180</f>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="G180" t="s">
@@ -14175,7 +13558,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>212</v>
       </c>
@@ -14186,15 +13569,15 @@
         <v>487</v>
       </c>
       <c r="D181" t="str">
-        <f>LEFT(G181,4)</f>
+        <f t="shared" si="6"/>
         <v>1814</v>
       </c>
       <c r="E181" t="str">
-        <f>RIGHT(G181,4)</f>
+        <f t="shared" si="7"/>
         <v>1998</v>
       </c>
       <c r="F181">
-        <f>E181-D181</f>
+        <f t="shared" si="8"/>
         <v>184</v>
       </c>
       <c r="G181" t="s">
@@ -14207,7 +13590,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>236</v>
       </c>
@@ -14218,15 +13601,15 @@
         <v>484</v>
       </c>
       <c r="D182" t="str">
-        <f>LEFT(G182,4)</f>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="E182" t="str">
-        <f>RIGHT(G182,4)</f>
+        <f t="shared" si="7"/>
         <v>2011</v>
       </c>
       <c r="F182">
-        <f>E182-D182</f>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="G182" t="s">
@@ -14236,7 +13619,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>82</v>
       </c>
@@ -14247,15 +13630,15 @@
         <v>483</v>
       </c>
       <c r="D183" t="str">
-        <f>LEFT(G183,4)</f>
+        <f t="shared" si="6"/>
         <v>1958</v>
       </c>
       <c r="E183" t="str">
-        <f>RIGHT(G183,4)</f>
+        <f t="shared" si="7"/>
         <v>1972</v>
       </c>
       <c r="F183">
-        <f>E183-D183</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="G183" t="s">
@@ -14274,26 +13657,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>165</v>
       </c>
       <c r="B184" t="s">
         <v>304</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" t="s">
         <v>497</v>
       </c>
       <c r="D184" t="str">
-        <f>LEFT(G184,4)</f>
+        <f t="shared" si="6"/>
         <v>1989</v>
       </c>
       <c r="E184" t="str">
-        <f>RIGHT(G184,4)</f>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="F184">
-        <f>E184-D184</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="G184" t="s">
@@ -14306,7 +13689,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -14317,15 +13700,15 @@
         <v>483</v>
       </c>
       <c r="D185" t="str">
-        <f>LEFT(G185,4)</f>
+        <f t="shared" si="6"/>
         <v>1860</v>
       </c>
       <c r="E185" t="str">
-        <f>RIGHT(G185,4)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="F185">
-        <f>E185-D185</f>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="G185" t="s">
@@ -14341,7 +13724,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -14352,15 +13735,15 @@
         <v>483</v>
       </c>
       <c r="D186" t="str">
-        <f>LEFT(G186,4)</f>
+        <f t="shared" si="6"/>
         <v>1910</v>
       </c>
       <c r="E186" t="str">
-        <f>RIGHT(G186,4)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="F186">
-        <f>E186-D186</f>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="G186" t="s">
@@ -14376,26 +13759,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>197</v>
       </c>
       <c r="B187" t="s">
         <v>308</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" t="s">
         <v>486</v>
       </c>
       <c r="D187" t="str">
-        <f>LEFT(G187,4)</f>
+        <f t="shared" si="6"/>
         <v>2010</v>
       </c>
       <c r="E187" t="str">
-        <f>RIGHT(G187,4)</f>
+        <f t="shared" si="7"/>
         <v>2017</v>
       </c>
       <c r="F187">
-        <f>E187-D187</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G187" t="s">
@@ -14412,19 +13795,19 @@
       <c r="B188" t="s">
         <v>307</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" t="s">
         <v>492</v>
       </c>
       <c r="D188" t="str">
-        <f>LEFT(G188,4)</f>
+        <f t="shared" si="6"/>
         <v>1830</v>
       </c>
       <c r="E188" t="str">
-        <f>RIGHT(G188,4)</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="F188">
-        <f>E188-D188</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="G188" t="s">
@@ -14447,19 +13830,19 @@
       <c r="B189" t="s">
         <v>311</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" t="s">
         <v>492</v>
       </c>
       <c r="D189" t="str">
-        <f>LEFT(G189,4)</f>
+        <f t="shared" si="6"/>
         <v>1876</v>
       </c>
       <c r="E189" t="str">
-        <f>RIGHT(G189,4)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="F189">
-        <f>E189-D189</f>
+        <f t="shared" si="8"/>
         <v>127</v>
       </c>
       <c r="G189" t="s">
@@ -14482,19 +13865,19 @@
       <c r="B190" t="s">
         <v>311</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" t="s">
         <v>492</v>
       </c>
       <c r="D190" t="str">
-        <f>LEFT(G190,4)</f>
+        <f t="shared" si="6"/>
         <v>1946</v>
       </c>
       <c r="E190" t="str">
-        <f>RIGHT(G190,4)</f>
+        <f t="shared" si="7"/>
         <v>2018</v>
       </c>
       <c r="F190">
-        <f>E190-D190</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="G190" t="s">
@@ -14510,7 +13893,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>134</v>
       </c>
@@ -14521,15 +13904,15 @@
         <v>483</v>
       </c>
       <c r="D191" t="str">
-        <f>LEFT(G191,4)</f>
+        <f t="shared" si="6"/>
         <v>1910</v>
       </c>
       <c r="E191" t="str">
-        <f>RIGHT(G191,4)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="F191">
-        <f>E191-D191</f>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="G191" t="s">
@@ -14545,7 +13928,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>75</v>
       </c>
@@ -14556,15 +13939,15 @@
         <v>483</v>
       </c>
       <c r="D192" t="str">
-        <f>LEFT(G192,4)</f>
+        <f t="shared" si="6"/>
         <v>1950</v>
       </c>
       <c r="E192" t="str">
-        <f>RIGHT(G192,4)</f>
+        <f t="shared" si="7"/>
         <v>1968</v>
       </c>
       <c r="F192">
-        <f>E192-D192</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G192" t="s">
@@ -14583,26 +13966,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>34</v>
       </c>
       <c r="B193" t="s">
         <v>308</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" t="s">
         <v>489</v>
       </c>
       <c r="D193" t="str">
-        <f>LEFT(G193,4)</f>
+        <f t="shared" si="6"/>
         <v>1971</v>
       </c>
       <c r="E193" t="str">
-        <f>RIGHT(G193,4)</f>
+        <f t="shared" si="7"/>
         <v>2003</v>
       </c>
       <c r="F193">
-        <f>E193-D193</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="G193" t="s">
@@ -14615,7 +13998,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -14626,15 +14009,15 @@
         <v>483</v>
       </c>
       <c r="D194" t="str">
-        <f>LEFT(G194,4)</f>
+        <f t="shared" ref="D194:D204" si="9">LEFT(G194,4)</f>
         <v>1961</v>
       </c>
       <c r="E194" t="str">
-        <f>RIGHT(G194,4)</f>
+        <f t="shared" ref="E194:E204" si="10">RIGHT(G194,4)</f>
         <v>1972</v>
       </c>
       <c r="F194">
-        <f>E194-D194</f>
+        <f t="shared" ref="F194:F257" si="11">E194-D194</f>
         <v>11</v>
       </c>
       <c r="G194" t="s">
@@ -14653,7 +14036,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>124</v>
       </c>
@@ -14664,15 +14047,15 @@
         <v>484</v>
       </c>
       <c r="D195" t="str">
-        <f>LEFT(G195,4)</f>
+        <f t="shared" si="9"/>
         <v>1922</v>
       </c>
       <c r="E195" t="str">
-        <f>RIGHT(G195,4)</f>
+        <f t="shared" si="10"/>
         <v>1978</v>
       </c>
       <c r="F195">
-        <f>E195-D195</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="G195" t="s">
@@ -14685,7 +14068,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>189</v>
       </c>
@@ -14696,15 +14079,15 @@
         <v>484</v>
       </c>
       <c r="D196" t="str">
-        <f>LEFT(G196,4)</f>
+        <f t="shared" si="9"/>
         <v>1992</v>
       </c>
       <c r="E196" t="str">
-        <f>RIGHT(G196,4)</f>
+        <f t="shared" si="10"/>
         <v>2011</v>
       </c>
       <c r="F196">
-        <f>E196-D196</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="G196" t="s">
@@ -14717,7 +14100,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -14728,15 +14111,15 @@
         <v>483</v>
       </c>
       <c r="D197" t="str">
-        <f>LEFT(G197,4)</f>
+        <f t="shared" si="9"/>
         <v>1960</v>
       </c>
       <c r="E197" t="str">
-        <f>RIGHT(G197,4)</f>
+        <f t="shared" si="10"/>
         <v>1972</v>
       </c>
       <c r="F197">
-        <f>E197-D197</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="G197" t="s">
@@ -14752,7 +14135,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -14763,15 +14146,15 @@
         <v>483</v>
       </c>
       <c r="D198" t="str">
-        <f>LEFT(G198,4)</f>
+        <f t="shared" si="9"/>
         <v>1962</v>
       </c>
       <c r="E198" t="str">
-        <f>RIGHT(G198,4)</f>
+        <f t="shared" si="10"/>
         <v>1972</v>
       </c>
       <c r="F198">
-        <f>E198-D198</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="G198" t="s">
@@ -14787,26 +14170,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>14</v>
       </c>
       <c r="B199" t="s">
         <v>311</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" t="s">
         <v>487</v>
       </c>
       <c r="D199" t="str">
-        <f>LEFT(G199,4)</f>
+        <f t="shared" si="9"/>
         <v>1920</v>
       </c>
       <c r="E199" t="str">
-        <f>RIGHT(G199,4)</f>
+        <f t="shared" si="10"/>
         <v>2008</v>
       </c>
       <c r="F199">
-        <f>E199-D199</f>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="G199" t="s">
@@ -14819,7 +14202,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>238</v>
       </c>
@@ -14830,15 +14213,15 @@
         <v>484</v>
       </c>
       <c r="D200" t="str">
-        <f>LEFT(G200,4)</f>
+        <f t="shared" si="9"/>
         <v>1933</v>
       </c>
       <c r="E200" t="str">
-        <f>RIGHT(G200,4)</f>
+        <f t="shared" si="10"/>
         <v>1986</v>
       </c>
       <c r="F200">
-        <f>E200-D200</f>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="G200" t="s">
@@ -14855,19 +14238,19 @@
       <c r="B201" t="s">
         <v>306</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" t="s">
         <v>487</v>
       </c>
       <c r="D201" t="str">
-        <f>LEFT(G201,4)</f>
+        <f t="shared" si="9"/>
         <v>1972</v>
       </c>
       <c r="E201" t="str">
-        <f>RIGHT(G201,4)</f>
+        <f t="shared" si="10"/>
         <v>1999</v>
       </c>
       <c r="F201">
-        <f>E201-D201</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="G201" t="s">
@@ -14886,26 +14269,26 @@
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>162</v>
       </c>
       <c r="B202" t="s">
         <v>305</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" t="s">
         <v>486</v>
       </c>
       <c r="D202" t="str">
-        <f>LEFT(G202,4)</f>
+        <f t="shared" si="9"/>
         <v>1997</v>
       </c>
       <c r="E202" t="str">
-        <f>RIGHT(G202,4)</f>
+        <f t="shared" si="10"/>
         <v>2021</v>
       </c>
       <c r="F202">
-        <f>E202-D202</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="G202" t="s">
@@ -14918,7 +14301,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>135</v>
       </c>
@@ -14929,15 +14312,15 @@
         <v>483</v>
       </c>
       <c r="D203" t="str">
-        <f>LEFT(G203,4)</f>
+        <f t="shared" si="9"/>
         <v>1860</v>
       </c>
       <c r="E203" t="str">
-        <f>RIGHT(G203,4)</f>
+        <f t="shared" si="10"/>
         <v>2008</v>
       </c>
       <c r="F203">
-        <f>E203-D203</f>
+        <f t="shared" si="11"/>
         <v>148</v>
       </c>
       <c r="G203" t="s">
@@ -14956,26 +14339,26 @@
         <v>289</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>207</v>
       </c>
       <c r="B204" t="s">
         <v>312</v>
       </c>
-      <c r="C204" s="10" t="s">
-        <v>487</v>
+      <c r="C204" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="D204" t="str">
-        <f>LEFT(G204,4)</f>
+        <f t="shared" si="9"/>
         <v>2013</v>
       </c>
       <c r="E204" t="str">
-        <f>RIGHT(G204,4)</f>
+        <f t="shared" si="10"/>
         <v>2020</v>
       </c>
       <c r="F204">
-        <f>E204-D204</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G204" t="s">
@@ -14990,19 +14373,15 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L204" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
-    <filterColumn colId="2">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
       <sortCondition ref="A1:A204"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
-    <sortCondition sortBy="cellColor" ref="C2:C204" dxfId="2"/>
+    <sortCondition sortBy="cellColor" ref="C2:C204" dxfId="12"/>
     <sortCondition ref="C2:C204"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D41FC-5C4C-B447-B496-5BB743BDFE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADA9BB5-1B2A-2842-B024-C319C2D948C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
   </bookViews>
@@ -20,11 +20,11 @@
     <sheet name="pivot" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$L$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">matrix!$A$1:$M$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="504">
   <si>
     <t>Refineries</t>
   </si>
@@ -1555,6 +1555,9 @@
   </si>
   <si>
     <t>Cumulative Rated Power, Cumulative Rated Capacity</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1640,7 +1643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1859,16 +1861,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45090.018774884258" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{8FDF530D-170D-D944-8E51-A09DA6EC40D3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45098.839033101853" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{8FDF530D-170D-D944-8E51-A09DA6EC40D3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K204" sheet="matrix"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name="Technology Name" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -1887,6 +1885,9 @@
         <s v="Storage technology"/>
         <s v="Space and defense"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="Metric" numFmtId="0">
+      <sharedItems/>
     </cacheField>
     <cacheField name="First year of data" numFmtId="0">
       <sharedItems/>
@@ -1929,6 +1930,7 @@
   <r>
     <s v="Acrylic Fiber"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1960"/>
     <s v="1972"/>
     <n v="12"/>
@@ -1941,6 +1943,7 @@
   <r>
     <s v="Acrylonitrile"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1959"/>
     <s v="1972"/>
     <n v="13"/>
@@ -1953,6 +1956,7 @@
   <r>
     <s v="Air-Source Heat Pumps"/>
     <x v="1"/>
+    <s v="Annual Production"/>
     <s v="2003"/>
     <s v="2022"/>
     <n v="19"/>
@@ -1965,6 +1969,7 @@
   <r>
     <s v="All Biofuels"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2021"/>
     <n v="31"/>
@@ -1977,6 +1982,7 @@
   <r>
     <s v="Amazon Prime users"/>
     <x v="3"/>
+    <s v="Share of Households"/>
     <s v="2014"/>
     <s v="2018"/>
     <n v="4"/>
@@ -1989,6 +1995,7 @@
   <r>
     <s v="Ammonia Synthesis"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1905"/>
     <s v="2022"/>
     <n v="117"/>
@@ -2001,6 +2008,7 @@
   <r>
     <s v="Aniline"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1961"/>
     <s v="1972"/>
     <n v="11"/>
@@ -2013,6 +2021,7 @@
   <r>
     <s v="Aquaculture production"/>
     <x v="4"/>
+    <s v="Annual Production"/>
     <s v="1960"/>
     <s v="2020"/>
     <n v="60"/>
@@ -2025,6 +2034,7 @@
   <r>
     <s v="Automatic transmission"/>
     <x v="5"/>
+    <s v="Share of Market"/>
     <s v="1910"/>
     <s v="1984"/>
     <n v="74"/>
@@ -2037,6 +2047,7 @@
   <r>
     <s v="BCG Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1980"/>
     <s v="2021"/>
     <n v="41"/>
@@ -2049,6 +2060,7 @@
   <r>
     <s v="Beer Production"/>
     <x v="6"/>
+    <s v="Annual Production"/>
     <s v="1750"/>
     <s v="2007"/>
     <n v="257"/>
@@ -2061,6 +2073,7 @@
   <r>
     <s v="Benzene"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1952"/>
     <s v="1968"/>
     <n v="16"/>
@@ -2073,6 +2086,7 @@
   <r>
     <s v="Bicycles"/>
     <x v="5"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1861"/>
     <s v="2007"/>
     <n v="146"/>
@@ -2085,6 +2099,7 @@
   <r>
     <s v="Biogas"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -2097,6 +2112,7 @@
   <r>
     <s v="Bisphenol A"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1959"/>
     <s v="1972"/>
     <n v="13"/>
@@ -2109,6 +2125,7 @@
   <r>
     <s v="Cable TV"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1968"/>
     <s v="1997"/>
     <n v="29"/>
@@ -2121,6 +2138,7 @@
   <r>
     <s v="Cadmium Refining"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2012"/>
     <n v="22"/>
@@ -2133,6 +2151,7 @@
   <r>
     <s v="Canals"/>
     <x v="9"/>
+    <s v="Total Length"/>
     <s v="1794"/>
     <s v="1861"/>
     <n v="67"/>
@@ -2145,6 +2164,7 @@
   <r>
     <s v="Cane Sugar Production"/>
     <x v="6"/>
+    <s v="Annual Production"/>
     <s v="1750"/>
     <s v="2010"/>
     <n v="260"/>
@@ -2157,6 +2177,7 @@
   <r>
     <s v="Caprolactam"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1962"/>
     <s v="1972"/>
     <n v="10"/>
@@ -2169,6 +2190,7 @@
   <r>
     <s v="Capture fisheries production"/>
     <x v="4"/>
+    <s v="Annual Production"/>
     <s v="1960"/>
     <s v="2020"/>
     <n v="60"/>
@@ -2181,6 +2203,7 @@
   <r>
     <s v="Carbon Capture &amp; Sequestration"/>
     <x v="2"/>
+    <s v="Installed Capacity"/>
     <s v="1971"/>
     <s v="2019"/>
     <n v="48"/>
@@ -2193,6 +2216,7 @@
   <r>
     <s v="Caustic Soda"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1899"/>
     <s v="2008"/>
     <n v="109"/>
@@ -2205,6 +2229,7 @@
   <r>
     <s v="Cellphones"/>
     <x v="7"/>
+    <s v="Cumulative Total Capacity, Total Number"/>
     <s v="1975"/>
     <s v="2010"/>
     <n v="35"/>
@@ -2217,6 +2242,7 @@
   <r>
     <s v="Cement production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1900"/>
     <s v="2019"/>
     <n v="119"/>
@@ -2229,6 +2255,7 @@
   <r>
     <s v="Central heating"/>
     <x v="1"/>
+    <s v="Share of Households"/>
     <s v="1900"/>
     <s v="1970"/>
     <n v="70"/>
@@ -2241,6 +2268,7 @@
   <r>
     <s v="Coal Power"/>
     <x v="2"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1908"/>
     <s v="2000"/>
     <n v="92"/>
@@ -2253,6 +2281,7 @@
   <r>
     <s v="Coal Production"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1981"/>
     <s v="2021"/>
     <n v="40"/>
@@ -2265,6 +2294,7 @@
   <r>
     <s v="Cobalt Mine Production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1995"/>
     <s v="2021"/>
     <n v="26"/>
@@ -2277,6 +2307,7 @@
   <r>
     <s v="Colour TV"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1966"/>
     <s v="2005"/>
     <n v="39"/>
@@ -2289,6 +2320,7 @@
   <r>
     <s v="Compact fluorescent light bulbs"/>
     <x v="1"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1990"/>
     <s v="2003"/>
     <n v="13"/>
@@ -2301,6 +2333,7 @@
   <r>
     <s v="Compressed air energy storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="1991"/>
     <s v="2020"/>
     <n v="29"/>
@@ -2313,6 +2346,7 @@
   <r>
     <s v="Computing Growth"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1900"/>
     <s v="1998"/>
     <n v="98"/>
@@ -2325,6 +2359,7 @@
   <r>
     <s v="Concentrated Solar Power"/>
     <x v="2"/>
+    <s v="Installed Capacity"/>
     <s v="1985"/>
     <s v="2022"/>
     <n v="37"/>
@@ -2337,6 +2372,7 @@
   <r>
     <s v="Copper Mining"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2011"/>
     <n v="21"/>
@@ -2349,6 +2385,7 @@
   <r>
     <s v="Copper Refining"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2011"/>
     <n v="21"/>
@@ -2361,6 +2398,7 @@
   <r>
     <s v="Crop harvester"/>
     <x v="6"/>
+    <s v="Total Number"/>
     <s v="1961"/>
     <s v="2001"/>
     <n v="40"/>
@@ -2373,6 +2411,7 @@
   <r>
     <s v="Crude Oil"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1860"/>
     <s v="2008"/>
     <n v="148"/>
@@ -2385,6 +2424,7 @@
   <r>
     <s v="Cyclohexane"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1956"/>
     <s v="1972"/>
     <n v="16"/>
@@ -2397,6 +2437,7 @@
   <r>
     <s v="Desalination capacity"/>
     <x v="4"/>
+    <s v="Total Capacity"/>
     <s v="1960"/>
     <s v="2020"/>
     <n v="60"/>
@@ -2409,6 +2450,7 @@
   <r>
     <s v="Dishwashers"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1922"/>
     <s v="2011"/>
     <n v="89"/>
@@ -2421,6 +2463,7 @@
   <r>
     <s v="Disk brakes"/>
     <x v="5"/>
+    <s v="Share of Market"/>
     <s v="1966"/>
     <s v="1984"/>
     <n v="18"/>
@@ -2433,6 +2476,7 @@
   <r>
     <s v="DTP1 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1980"/>
     <s v="2021"/>
     <n v="41"/>
@@ -2445,6 +2489,7 @@
   <r>
     <s v="DTP3 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1980"/>
     <s v="2021"/>
     <n v="41"/>
@@ -2457,6 +2502,7 @@
   <r>
     <s v="Ebook reader"/>
     <x v="3"/>
+    <s v="Share of Population"/>
     <s v="2009"/>
     <s v="2018"/>
     <n v="9"/>
@@ -2469,6 +2515,7 @@
   <r>
     <s v="Electric Bicycles"/>
     <x v="5"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1997"/>
     <s v="2010"/>
     <n v="13"/>
@@ -2481,6 +2528,7 @@
   <r>
     <s v="Electric Range"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1933"/>
     <s v="1986"/>
     <n v="53"/>
@@ -2493,6 +2541,7 @@
   <r>
     <s v="Electricity"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1985"/>
     <s v="2021"/>
     <n v="36"/>
@@ -2505,6 +2554,7 @@
   <r>
     <s v="Electro-chemical capacitor"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2012"/>
     <s v="2016"/>
     <n v="4"/>
@@ -2517,6 +2567,7 @@
   <r>
     <s v="Electronic ignition"/>
     <x v="5"/>
+    <s v="Share of Market"/>
     <s v="1962"/>
     <s v="1984"/>
     <n v="22"/>
@@ -2529,6 +2580,7 @@
   <r>
     <s v="Ethanolamine"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1955"/>
     <s v="1972"/>
     <n v="17"/>
@@ -2541,6 +2593,7 @@
   <r>
     <s v="Ethyl Alcohol"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1958"/>
     <s v="1972"/>
     <n v="14"/>
@@ -2553,6 +2606,7 @@
   <r>
     <s v="Ethylene"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1953"/>
     <s v="1968"/>
     <n v="15"/>
@@ -2565,6 +2619,7 @@
   <r>
     <s v="Ethylene Glycol"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1960"/>
     <s v="1972"/>
     <n v="12"/>
@@ -2577,6 +2632,7 @@
   <r>
     <s v="Flow battery storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2000"/>
     <s v="2018"/>
     <n v="18"/>
@@ -2589,6 +2645,7 @@
   <r>
     <s v="Fluid Catalytic Cracking Refineries"/>
     <x v="2"/>
+    <s v="Average Capacity of Unit Additions, Net Total Capacity"/>
     <s v="1940"/>
     <s v="2007"/>
     <n v="67"/>
@@ -2601,6 +2658,7 @@
   <r>
     <s v="Flush toilet"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1860"/>
     <s v="1989"/>
     <n v="129"/>
@@ -2613,6 +2671,7 @@
   <r>
     <s v="Flywheel battery storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2006"/>
     <s v="2020"/>
     <n v="14"/>
@@ -2625,6 +2684,7 @@
   <r>
     <s v="Formaldehyde"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1962"/>
     <s v="1972"/>
     <n v="10"/>
@@ -2637,6 +2697,7 @@
   <r>
     <s v="Freezer"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1950"/>
     <s v="2011"/>
     <n v="61"/>
@@ -2649,6 +2710,7 @@
   <r>
     <s v="Geothermal Energy"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -2661,6 +2723,7 @@
   <r>
     <s v="Gold production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1851"/>
     <s v="2018"/>
     <n v="167"/>
@@ -2673,6 +2736,7 @@
   <r>
     <s v="Graphite Mine Production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1995"/>
     <s v="2021"/>
     <n v="26"/>
@@ -2685,6 +2749,7 @@
   <r>
     <s v="Ground Source Heat Pumps"/>
     <x v="1"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1995"/>
     <s v="2020"/>
     <n v="25"/>
@@ -2697,6 +2762,7 @@
   <r>
     <s v="Heat thermal battery storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2007"/>
     <s v="2017"/>
     <n v="10"/>
@@ -2709,6 +2775,7 @@
   <r>
     <s v="HEPB3 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1989"/>
     <s v="2021"/>
     <n v="32"/>
@@ -2721,6 +2788,7 @@
   <r>
     <s v="HEPBB Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -2733,6 +2801,7 @@
   <r>
     <s v="Herbicide-Tolerant Corn"/>
     <x v="6"/>
+    <s v="Share of Acreage"/>
     <s v="1996"/>
     <s v="2022"/>
     <n v="26"/>
@@ -2745,6 +2814,7 @@
   <r>
     <s v="Herbicide-Tolerant Cotton"/>
     <x v="6"/>
+    <s v="Share of Acreage"/>
     <s v="1996"/>
     <s v="2022"/>
     <n v="26"/>
@@ -2757,6 +2827,7 @@
   <r>
     <s v="Herbicide-Tolerant Soybeans"/>
     <x v="6"/>
+    <s v="Share of Acreage"/>
     <s v="1996"/>
     <s v="2022"/>
     <n v="26"/>
@@ -2769,6 +2840,7 @@
   <r>
     <s v="HIB3 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1991"/>
     <s v="2021"/>
     <n v="30"/>
@@ -2781,6 +2853,7 @@
   <r>
     <s v="High-Density Polyethylene"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1958"/>
     <s v="1972"/>
     <n v="14"/>
@@ -2793,6 +2866,7 @@
   <r>
     <s v="High-speed rail"/>
     <x v="9"/>
+    <s v="Total Length"/>
     <s v="1964"/>
     <s v="2021"/>
     <n v="57"/>
@@ -2805,6 +2879,7 @@
   <r>
     <s v="Home air conditioning"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1957"/>
     <s v="2011"/>
     <n v="54"/>
@@ -2817,6 +2892,7 @@
   <r>
     <s v="Home computers"/>
     <x v="3"/>
+    <s v="Share of Households"/>
     <s v="1992"/>
     <s v="2016"/>
     <n v="24"/>
@@ -2829,6 +2905,7 @@
   <r>
     <s v="Household Internet access"/>
     <x v="3"/>
+    <s v="Share of Households"/>
     <s v="1993"/>
     <s v="2016"/>
     <n v="23"/>
@@ -2841,6 +2918,7 @@
   <r>
     <s v="Households with only mobile phones (no landlines)"/>
     <x v="3"/>
+    <s v="Share of Households"/>
     <s v="2013"/>
     <s v="2018"/>
     <n v="5"/>
@@ -2853,6 +2931,7 @@
   <r>
     <s v="Hydrochloric Acid"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1929"/>
     <s v="2003"/>
     <n v="74"/>
@@ -2865,6 +2944,7 @@
   <r>
     <s v="Hydroelectricity"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1965"/>
     <s v="2021"/>
     <n v="56"/>
@@ -2877,6 +2957,7 @@
   <r>
     <s v="Hydrofluoric Acid"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1962"/>
     <s v="1972"/>
     <n v="10"/>
@@ -2889,6 +2970,7 @@
   <r>
     <s v="Hydrogen storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2012"/>
     <s v="2017"/>
     <n v="5"/>
@@ -2901,6 +2983,7 @@
   <r>
     <s v="Insect-Resistant Corn"/>
     <x v="6"/>
+    <s v="Share of Acreage"/>
     <s v="1996"/>
     <s v="2022"/>
     <n v="26"/>
@@ -2913,6 +2996,7 @@
   <r>
     <s v="Insect-Resistant Cotton"/>
     <x v="6"/>
+    <s v="Share of Acreage"/>
     <s v="1996"/>
     <s v="2022"/>
     <n v="26"/>
@@ -2925,6 +3009,7 @@
   <r>
     <s v="Internet Backbone Bandwidth"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1968"/>
     <s v="2004"/>
     <n v="36"/>
@@ -2937,6 +3022,7 @@
   <r>
     <s v="Internet Traffic"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1984"/>
     <s v="2014"/>
     <n v="30"/>
@@ -2949,6 +3035,7 @@
   <r>
     <s v="IPV1 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="2015"/>
     <s v="2021"/>
     <n v="6"/>
@@ -2961,6 +3048,7 @@
   <r>
     <s v="Iron"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1933"/>
     <s v="1970"/>
     <n v="37"/>
@@ -2973,6 +3061,7 @@
   <r>
     <s v="Iron ore"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2011"/>
     <n v="21"/>
@@ -2985,6 +3074,7 @@
   <r>
     <s v="Jet Aircraft"/>
     <x v="5"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1958"/>
     <s v="2007"/>
     <n v="49"/>
@@ -2997,6 +3087,7 @@
   <r>
     <s v="Latent heat storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="1991"/>
     <s v="2017"/>
     <n v="26"/>
@@ -3009,6 +3100,7 @@
   <r>
     <s v="Laundry Dryers"/>
     <x v="7"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1920"/>
     <s v="2006"/>
     <n v="86"/>
@@ -3021,6 +3113,7 @@
   <r>
     <s v="Lead mine production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2012"/>
     <n v="22"/>
@@ -3033,6 +3126,7 @@
   <r>
     <s v="Lead-acid battery storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="1987"/>
     <s v="2020"/>
     <n v="33"/>
@@ -3045,6 +3139,7 @@
   <r>
     <s v="Liquefied natural gas"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1985"/>
     <s v="2021"/>
     <n v="36"/>
@@ -3057,6 +3152,7 @@
   <r>
     <s v="Liquid Biofuels"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2001"/>
     <s v="2021"/>
     <n v="20"/>
@@ -3069,6 +3165,7 @@
   <r>
     <s v="Lithium Mine Production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1995"/>
     <s v="2021"/>
     <n v="26"/>
@@ -3081,6 +3178,7 @@
   <r>
     <s v="Lithium-ion battery storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2008"/>
     <s v="2021"/>
     <n v="13"/>
@@ -3093,6 +3191,7 @@
   <r>
     <s v="Low-Density Polyethylene"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1958"/>
     <s v="1972"/>
     <n v="14"/>
@@ -3105,6 +3204,7 @@
   <r>
     <s v="Magnesium"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1954"/>
     <s v="1972"/>
     <n v="18"/>
@@ -3117,6 +3217,7 @@
   <r>
     <s v="Magnetic Data Storage"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1952"/>
     <s v="2004"/>
     <n v="52"/>
@@ -3129,6 +3230,7 @@
   <r>
     <s v="Maleic Anhydride"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1959"/>
     <s v="1972"/>
     <n v="13"/>
@@ -3141,6 +3243,7 @@
   <r>
     <s v="Marine Energy"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -3153,6 +3256,7 @@
   <r>
     <s v="MCV1 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1980"/>
     <s v="2021"/>
     <n v="41"/>
@@ -3165,6 +3269,7 @@
   <r>
     <s v="MCV2 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -3177,6 +3282,7 @@
   <r>
     <s v="Methanol"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1957"/>
     <s v="1972"/>
     <n v="15"/>
@@ -3189,6 +3295,7 @@
   <r>
     <s v="Microcomputers"/>
     <x v="3"/>
+    <s v="Share of Households"/>
     <s v="1984"/>
     <s v="2016"/>
     <n v="32"/>
@@ -3201,6 +3308,7 @@
   <r>
     <s v="Microprocessor Clock Speed"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1976"/>
     <s v="2016"/>
     <n v="40"/>
@@ -3213,6 +3321,7 @@
   <r>
     <s v="Microwaves"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1975"/>
     <s v="2017"/>
     <n v="42"/>
@@ -3225,6 +3334,7 @@
   <r>
     <s v="Milk production"/>
     <x v="6"/>
+    <s v="Annual Production"/>
     <s v="1889"/>
     <s v="2010"/>
     <n v="121"/>
@@ -3237,6 +3347,7 @@
   <r>
     <s v="Motor Gasoline"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1946"/>
     <s v="1968"/>
     <n v="22"/>
@@ -3249,6 +3360,7 @@
   <r>
     <s v="Motorcycles"/>
     <x v="5"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1900"/>
     <s v="2008"/>
     <n v="108"/>
@@ -3261,6 +3373,7 @@
   <r>
     <s v="Natural gas pipeline"/>
     <x v="9"/>
+    <s v="Total Length"/>
     <s v="1960"/>
     <s v="2021"/>
     <n v="61"/>
@@ -3273,6 +3386,7 @@
   <r>
     <s v="Natural Gas Power"/>
     <x v="2"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1903"/>
     <s v="2000"/>
     <n v="97"/>
@@ -3285,6 +3399,7 @@
   <r>
     <s v="Natural Gas Production"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1970"/>
     <s v="2021"/>
     <n v="51"/>
@@ -3297,6 +3412,7 @@
   <r>
     <s v="Neoprene Rubber"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1960"/>
     <s v="1972"/>
     <n v="12"/>
@@ -3309,6 +3425,7 @@
   <r>
     <s v="Nickel production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1889"/>
     <s v="2018"/>
     <n v="129"/>
@@ -3321,6 +3438,7 @@
   <r>
     <s v="Nickel-based battery"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2003"/>
     <s v="2015"/>
     <n v="12"/>
@@ -3333,6 +3451,7 @@
   <r>
     <s v="Nitric Acid"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1929"/>
     <s v="2003"/>
     <n v="74"/>
@@ -3345,6 +3464,7 @@
   <r>
     <s v="Nitrogen Fertilizer"/>
     <x v="6"/>
+    <s v="Annual Production"/>
     <s v="1961"/>
     <s v="2020"/>
     <n v="59"/>
@@ -3357,6 +3477,7 @@
   <r>
     <s v="Nox pollution controls (boilers)"/>
     <x v="2"/>
+    <s v="Share of Boilers"/>
     <s v="1990"/>
     <s v="2005"/>
     <n v="15"/>
@@ -3369,6 +3490,7 @@
   <r>
     <s v="Nuclear Energy"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1965"/>
     <s v="2021"/>
     <n v="56"/>
@@ -3381,6 +3503,7 @@
   <r>
     <s v="Nuclear weapons"/>
     <x v="11"/>
+    <s v="Number of Weapons"/>
     <s v="1945"/>
     <s v="2010"/>
     <n v="65"/>
@@ -3391,8 +3514,22 @@
     <m/>
   </r>
   <r>
+    <s v="Offshore Wind Energy"/>
+    <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
+    <s v="2000"/>
+    <s v="2021"/>
+    <n v="21"/>
+    <s v="2000-2021"/>
+    <x v="0"/>
+    <s v="x"/>
+    <s v="x"/>
+    <s v="x"/>
+  </r>
+  <r>
     <s v="Oil pipeline"/>
     <x v="9"/>
+    <s v="Total Length"/>
     <s v="2001"/>
     <s v="2021"/>
     <n v="20"/>
@@ -3405,6 +3542,7 @@
   <r>
     <s v="Oil Production"/>
     <x v="9"/>
+    <s v="Annual Production"/>
     <s v="1965"/>
     <s v="2021"/>
     <n v="56"/>
@@ -3417,6 +3555,7 @@
   <r>
     <s v="Oil Refining Capacity"/>
     <x v="2"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1965"/>
     <s v="2021"/>
     <n v="56"/>
@@ -3427,8 +3566,9 @@
     <m/>
   </r>
   <r>
-    <s v="Offshore Wind Energy"/>
+    <s v="Onshore Wind Energy"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -3439,20 +3579,9 @@
     <s v="x"/>
   </r>
   <r>
-    <s v="Onshore Wind Energy"/>
-    <x v="2"/>
-    <s v="2000"/>
-    <s v="2021"/>
-    <n v="21"/>
-    <s v="2000-2021"/>
-    <x v="0"/>
-    <s v="x"/>
-    <s v="x"/>
-    <s v="x"/>
-  </r>
-  <r>
     <s v="Paraxylene"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1957"/>
     <s v="1968"/>
     <n v="11"/>
@@ -3465,6 +3594,7 @@
   <r>
     <s v="Passenger Cars"/>
     <x v="5"/>
+    <s v="Cumulative Total Capacity, Total Number"/>
     <s v="1895"/>
     <s v="2005"/>
     <n v="110"/>
@@ -3477,6 +3607,7 @@
   <r>
     <s v="PCV3 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="2008"/>
     <s v="2021"/>
     <n v="13"/>
@@ -3489,6 +3620,7 @@
   <r>
     <s v="Pentaerythritol"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1952"/>
     <s v="1972"/>
     <n v="20"/>
@@ -3501,6 +3633,7 @@
   <r>
     <s v="Phenol"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1959"/>
     <s v="1972"/>
     <n v="13"/>
@@ -3513,6 +3646,7 @@
   <r>
     <s v="Phosphate Fertilizer"/>
     <x v="6"/>
+    <s v="Annual Production"/>
     <s v="1961"/>
     <s v="2020"/>
     <n v="59"/>
@@ -3525,6 +3659,7 @@
   <r>
     <s v="Phthalic Anhydride"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1955"/>
     <s v="1972"/>
     <n v="17"/>
@@ -3537,6 +3672,7 @@
   <r>
     <s v="Podcasting"/>
     <x v="3"/>
+    <s v="Share of Population"/>
     <s v="2006"/>
     <s v="2015"/>
     <n v="9"/>
@@ -3549,6 +3685,7 @@
   <r>
     <s v="POL3 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1980"/>
     <s v="2021"/>
     <n v="41"/>
@@ -3561,6 +3698,7 @@
   <r>
     <s v="Polyester Fiber"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1960"/>
     <s v="1972"/>
     <n v="12"/>
@@ -3573,6 +3711,7 @@
   <r>
     <s v="Polystyrene"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1943"/>
     <s v="1968"/>
     <n v="25"/>
@@ -3585,6 +3724,7 @@
   <r>
     <s v="Polyvinylchloride"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1946"/>
     <s v="1968"/>
     <n v="22"/>
@@ -3597,6 +3737,7 @@
   <r>
     <s v="Postal Traffic"/>
     <x v="9"/>
+    <s v="Total Number"/>
     <s v="1830"/>
     <s v="2000"/>
     <n v="170"/>
@@ -3609,6 +3750,7 @@
   <r>
     <s v="Potash Fertilizer"/>
     <x v="6"/>
+    <s v="Annual Production"/>
     <s v="1961"/>
     <s v="2020"/>
     <n v="59"/>
@@ -3621,6 +3763,7 @@
   <r>
     <s v="Power steering"/>
     <x v="5"/>
+    <s v="Share of Market"/>
     <s v="1951"/>
     <s v="1984"/>
     <n v="33"/>
@@ -3633,6 +3776,7 @@
   <r>
     <s v="Primary aluminum production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2012"/>
     <n v="22"/>
@@ -3645,6 +3789,7 @@
   <r>
     <s v="Primary bauxite production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2012"/>
     <n v="22"/>
@@ -3657,6 +3802,7 @@
   <r>
     <s v="Primary copper production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1900"/>
     <s v="2018"/>
     <n v="118"/>
@@ -3669,6 +3815,7 @@
   <r>
     <s v="Primary Magnesium"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1929"/>
     <s v="1968"/>
     <n v="39"/>
@@ -3681,6 +3828,7 @@
   <r>
     <s v="Processor Performance"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1971"/>
     <s v="2002"/>
     <n v="31"/>
@@ -3693,6 +3841,7 @@
   <r>
     <s v="Public roads"/>
     <x v="9"/>
+    <s v="Total Length"/>
     <s v="1900"/>
     <s v="2020"/>
     <n v="120"/>
@@ -3705,6 +3854,7 @@
   <r>
     <s v="Pumped hydro storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="1944"/>
     <s v="2020"/>
     <n v="76"/>
@@ -3717,6 +3867,7 @@
   <r>
     <s v="Radial tires"/>
     <x v="5"/>
+    <s v="Share of Market"/>
     <s v="1972"/>
     <s v="1984"/>
     <n v="12"/>
@@ -3729,6 +3880,7 @@
   <r>
     <s v="Radio"/>
     <x v="7"/>
+    <s v="Total Number"/>
     <s v="1815"/>
     <s v="2005"/>
     <n v="190"/>
@@ -3741,6 +3893,7 @@
   <r>
     <s v="Railroad"/>
     <x v="9"/>
+    <s v="Cumulative Length"/>
     <s v="1825"/>
     <s v="2004"/>
     <n v="179"/>
@@ -3753,6 +3906,7 @@
   <r>
     <s v="Random Access Memory"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1949"/>
     <s v="2004"/>
     <n v="55"/>
@@ -3765,6 +3919,7 @@
   <r>
     <s v="Rare Earth Mine Production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1995"/>
     <s v="2021"/>
     <n v="26"/>
@@ -3777,6 +3932,7 @@
   <r>
     <s v="Raw steel production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2011"/>
     <n v="21"/>
@@ -3789,6 +3945,7 @@
   <r>
     <s v="RCV1 Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1980"/>
     <s v="2021"/>
     <n v="41"/>
@@ -3799,8 +3956,22 @@
     <m/>
   </r>
   <r>
+    <s v="Real-time gross settlement adoption"/>
+    <x v="3"/>
+    <s v="Share of Market"/>
+    <s v="1970"/>
+    <s v="2005"/>
+    <n v="35"/>
+    <s v="1970-2005"/>
+    <x v="1"/>
+    <s v="x"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <s v="Refrigerators"/>
     <x v="7"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1918"/>
     <s v="2009"/>
     <n v="91"/>
@@ -3813,6 +3984,7 @@
   <r>
     <s v="Renewable Power"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="1965"/>
     <s v="2021"/>
     <n v="56"/>
@@ -3825,6 +3997,7 @@
   <r>
     <s v="ROTAC Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="2006"/>
     <s v="2021"/>
     <n v="15"/>
@@ -3835,20 +4008,9 @@
     <m/>
   </r>
   <r>
-    <s v="RTGS adoption"/>
-    <x v="3"/>
-    <s v="1970"/>
-    <s v="2005"/>
-    <n v="35"/>
-    <s v="1970-2005"/>
-    <x v="1"/>
-    <s v="x"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <s v="Running water"/>
     <x v="9"/>
+    <s v="Share of Households"/>
     <s v="1890"/>
     <s v="1989"/>
     <n v="99"/>
@@ -3861,6 +4023,7 @@
   <r>
     <s v="Salt production"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1990"/>
     <s v="2012"/>
     <n v="22"/>
@@ -3873,6 +4036,7 @@
   <r>
     <s v="Sand and gravel production (construction)"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1902"/>
     <s v="2019"/>
     <n v="117"/>
@@ -3885,6 +4049,7 @@
   <r>
     <s v="Sand and gravel production (industrial)"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1902"/>
     <s v="2019"/>
     <n v="117"/>
@@ -3897,6 +4062,7 @@
   <r>
     <s v="Sensible heat storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="1982"/>
     <s v="2018"/>
     <n v="36"/>
@@ -3909,6 +4075,7 @@
   <r>
     <s v="Shale production"/>
     <x v="2"/>
+    <s v="Annual Production"/>
     <s v="2007"/>
     <s v="2019"/>
     <n v="12"/>
@@ -3921,6 +4088,7 @@
   <r>
     <s v="Shotgun Sanger DNA Sequencing"/>
     <x v="6"/>
+    <s v="Total Number"/>
     <s v="2001"/>
     <s v="2009"/>
     <n v="8"/>
@@ -3933,6 +4101,7 @@
   <r>
     <s v="Silver"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1874"/>
     <s v="2008"/>
     <n v="134"/>
@@ -3945,6 +4114,7 @@
   <r>
     <s v="Smartphone usage"/>
     <x v="3"/>
+    <s v="Share of Population"/>
     <s v="2011"/>
     <s v="2019"/>
     <n v="8"/>
@@ -3957,6 +4127,7 @@
   <r>
     <s v="Social media usage"/>
     <x v="3"/>
+    <s v="Share of Population"/>
     <s v="2005"/>
     <s v="2019"/>
     <n v="14"/>
@@ -3969,6 +4140,7 @@
   <r>
     <s v="Sodium"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1957"/>
     <s v="1972"/>
     <n v="15"/>
@@ -3981,6 +4153,7 @@
   <r>
     <s v="Sodium Chlorate"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1958"/>
     <s v="1972"/>
     <n v="14"/>
@@ -3993,6 +4166,7 @@
   <r>
     <s v="Sodium-based battery storage"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="1999"/>
     <s v="2019"/>
     <n v="20"/>
@@ -4005,6 +4179,7 @@
   <r>
     <s v="Solar Photovoltaic"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -4017,6 +4192,7 @@
   <r>
     <s v="Solar Thermal Energy"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -4029,6 +4205,7 @@
   <r>
     <s v="Solid Biofuels"/>
     <x v="2"/>
+    <s v="Installed Electricity Capacity"/>
     <s v="2000"/>
     <s v="2021"/>
     <n v="21"/>
@@ -4041,6 +4218,7 @@
   <r>
     <s v="Space Launches"/>
     <x v="11"/>
+    <s v="Yearly Launches"/>
     <s v="1957"/>
     <s v="2022"/>
     <n v="65"/>
@@ -4053,6 +4231,7 @@
   <r>
     <s v="Stationary Steam Engines"/>
     <x v="2"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1710"/>
     <s v="1920"/>
     <n v="210"/>
@@ -4065,6 +4244,7 @@
   <r>
     <s v="Steam Locomotives"/>
     <x v="5"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1830"/>
     <s v="1940"/>
     <n v="110"/>
@@ -4077,6 +4257,7 @@
   <r>
     <s v="Steam ships"/>
     <x v="5"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1814"/>
     <s v="1998"/>
     <n v="184"/>
@@ -4089,6 +4270,7 @@
   <r>
     <s v="Stove"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1900"/>
     <s v="2011"/>
     <n v="111"/>
@@ -4101,6 +4283,7 @@
   <r>
     <s v="Styrene"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1958"/>
     <s v="1972"/>
     <n v="14"/>
@@ -4113,6 +4296,7 @@
   <r>
     <s v="Submarine Cables"/>
     <x v="4"/>
+    <s v="Cumulative Length"/>
     <s v="1989"/>
     <s v="2021"/>
     <n v="32"/>
@@ -4125,6 +4309,7 @@
   <r>
     <s v="Sulphuric Acid"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1860"/>
     <s v="2003"/>
     <n v="143"/>
@@ -4137,6 +4322,7 @@
   <r>
     <s v="Synthetic Filaments"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1910"/>
     <s v="2003"/>
     <n v="93"/>
@@ -4149,6 +4335,7 @@
   <r>
     <s v="Tablet"/>
     <x v="3"/>
+    <s v="Share of Population"/>
     <s v="2010"/>
     <s v="2017"/>
     <n v="7"/>
@@ -4161,6 +4348,7 @@
   <r>
     <s v="Telegraph Traffic"/>
     <x v="9"/>
+    <s v="Total Number"/>
     <s v="1830"/>
     <s v="2000"/>
     <n v="170"/>
@@ -4173,6 +4361,7 @@
   <r>
     <s v="Telephones"/>
     <x v="7"/>
+    <s v="Total Number"/>
     <s v="1876"/>
     <s v="2003"/>
     <n v="127"/>
@@ -4185,6 +4374,7 @@
   <r>
     <s v="Television"/>
     <x v="7"/>
+    <s v="Total Number"/>
     <s v="1946"/>
     <s v="2018"/>
     <n v="72"/>
@@ -4197,6 +4387,7 @@
   <r>
     <s v="Tin"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1910"/>
     <s v="2003"/>
     <n v="93"/>
@@ -4209,6 +4400,7 @@
   <r>
     <s v="Titanium Sponge"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1950"/>
     <s v="1968"/>
     <n v="18"/>
@@ -4221,6 +4413,7 @@
   <r>
     <s v="Transistors per Microprocessor"/>
     <x v="3"/>
+    <s v="Computing Capacity"/>
     <s v="1971"/>
     <s v="2003"/>
     <n v="32"/>
@@ -4233,6 +4426,7 @@
   <r>
     <s v="Urea"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1961"/>
     <s v="1972"/>
     <n v="11"/>
@@ -4245,6 +4439,7 @@
   <r>
     <s v="Vacuums"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1922"/>
     <s v="1978"/>
     <n v="56"/>
@@ -4257,6 +4452,7 @@
   <r>
     <s v="Videocassette recorder"/>
     <x v="3"/>
+    <s v="Share of Households"/>
     <s v="1992"/>
     <s v="2011"/>
     <n v="19"/>
@@ -4269,6 +4465,7 @@
   <r>
     <s v="Vinyl Acetate"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1960"/>
     <s v="1972"/>
     <n v="12"/>
@@ -4281,6 +4478,7 @@
   <r>
     <s v="Vinyl Chloride"/>
     <x v="0"/>
+    <s v="Annual Production"/>
     <s v="1962"/>
     <s v="1972"/>
     <n v="10"/>
@@ -4293,6 +4491,7 @@
   <r>
     <s v="Washing Machines"/>
     <x v="7"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1920"/>
     <s v="2008"/>
     <n v="88"/>
@@ -4305,6 +4504,7 @@
   <r>
     <s v="Water Heater"/>
     <x v="7"/>
+    <s v="Share of Households"/>
     <s v="1933"/>
     <s v="1986"/>
     <n v="53"/>
@@ -4317,6 +4517,7 @@
   <r>
     <s v="Wet flue gas desulfurization systems"/>
     <x v="2"/>
+    <s v="Cumulative Total Capacity"/>
     <s v="1972"/>
     <s v="1999"/>
     <n v="27"/>
@@ -4329,6 +4530,7 @@
   <r>
     <s v="YFV Vaccine"/>
     <x v="6"/>
+    <s v="Share of Population"/>
     <s v="1997"/>
     <s v="2021"/>
     <n v="24"/>
@@ -4341,6 +4543,7 @@
   <r>
     <s v="Zinc"/>
     <x v="8"/>
+    <s v="Annual Production"/>
     <s v="1860"/>
     <s v="2008"/>
     <n v="148"/>
@@ -4353,6 +4556,7 @@
   <r>
     <s v="Zinc-based battery"/>
     <x v="10"/>
+    <s v="Cumulative Rated Power, Cumulative Rated Capacity"/>
     <s v="2013"/>
     <s v="2020"/>
     <n v="7"/>
@@ -4366,9 +4570,80 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has global/US data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has country-level data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has cost data" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A17:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
+  <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="13">
@@ -4396,6 +4671,7 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4465,8 +4741,8 @@
   </colItems>
   <dataFields count="3">
     <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has cost data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has cost data" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has country-level data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
     <format dxfId="11">
@@ -4500,76 +4776,6 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has global/US data" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has country-level data" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has cost data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7353,11 +7559,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7372,7 +7578,7 @@
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -7410,7 +7616,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -7445,7 +7651,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -7480,7 +7686,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -7512,7 +7718,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -7549,8 +7755,11 @@
       <c r="L5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -7579,7 +7788,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -7614,7 +7823,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7649,7 +7858,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -7684,7 +7893,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -7713,7 +7922,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -7745,7 +7954,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -7780,7 +7989,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -7815,7 +8024,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7847,7 +8056,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -7884,8 +8093,11 @@
       <c r="K15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -7920,7 +8132,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -7949,7 +8161,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7986,8 +8198,11 @@
       <c r="K18" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -8019,7 +8234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -8056,8 +8271,11 @@
       <c r="K20" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -8095,7 +8313,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -8130,7 +8348,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8162,7 +8380,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -8197,7 +8415,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>246</v>
       </c>
@@ -8232,7 +8450,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -8270,7 +8488,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -8299,7 +8517,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -8334,7 +8552,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>265</v>
       </c>
@@ -8368,8 +8586,11 @@
       <c r="K29" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -8409,8 +8630,11 @@
       <c r="L30" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -8439,7 +8663,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>466</v>
       </c>
@@ -8471,14 +8695,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>254</v>
       </c>
       <c r="B33" t="s">
         <v>312</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" t="s">
         <v>502</v>
       </c>
       <c r="D33" t="str">
@@ -8506,7 +8730,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -8541,7 +8765,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -8575,8 +8799,11 @@
       <c r="K35" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -8611,7 +8838,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8646,7 +8873,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -8678,7 +8905,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -8716,7 +8943,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -8751,7 +8978,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -8783,7 +9010,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -8815,7 +9042,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -8844,7 +9071,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -8879,7 +9106,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -8914,7 +9141,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>252</v>
       </c>
@@ -8943,7 +9170,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>258</v>
       </c>
@@ -8975,7 +9202,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>210</v>
       </c>
@@ -9004,7 +9231,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>216</v>
       </c>
@@ -9036,14 +9263,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>253</v>
       </c>
       <c r="B50" t="s">
         <v>312</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" t="s">
         <v>502</v>
       </c>
       <c r="D50" t="str">
@@ -9068,7 +9295,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>261</v>
       </c>
@@ -9097,7 +9324,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -9132,7 +9359,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -9170,7 +9397,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -9208,7 +9435,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -9243,14 +9470,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>237</v>
       </c>
       <c r="B56" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" t="s">
         <v>502</v>
       </c>
       <c r="D56" t="str">
@@ -9278,7 +9505,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>468</v>
       </c>
@@ -9310,7 +9537,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -9339,14 +9566,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>223</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" t="s">
         <v>502</v>
       </c>
       <c r="D59" t="str">
@@ -9374,7 +9601,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -9409,7 +9636,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -9444,7 +9671,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -9478,8 +9705,11 @@
       <c r="K62" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -9517,7 +9747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>147</v>
       </c>
@@ -9554,8 +9784,11 @@
       <c r="K64" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -9587,14 +9820,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>222</v>
       </c>
       <c r="B66" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" t="s">
         <v>502</v>
       </c>
       <c r="D66" t="str">
@@ -9622,7 +9855,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -9657,7 +9890,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -9692,7 +9925,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -9726,8 +9959,11 @@
       <c r="K69" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -9761,8 +9997,11 @@
       <c r="K70" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -9796,8 +10035,11 @@
       <c r="K71" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -9832,7 +10074,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>469</v>
       </c>
@@ -9870,7 +10112,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -9902,7 +10144,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -9934,7 +10176,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>262</v>
       </c>
@@ -9963,7 +10205,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>247</v>
       </c>
@@ -9992,7 +10234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>249</v>
       </c>
@@ -10021,7 +10263,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -10056,7 +10298,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -10093,8 +10335,11 @@
       <c r="K80" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -10129,14 +10374,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>168</v>
       </c>
       <c r="B82" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" t="s">
         <v>502</v>
       </c>
       <c r="D82" t="str">
@@ -10161,7 +10406,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>217</v>
       </c>
@@ -10196,7 +10441,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -10231,7 +10476,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -10263,7 +10508,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>203</v>
       </c>
@@ -10295,7 +10540,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -10330,7 +10575,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>224</v>
       </c>
@@ -10359,7 +10604,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -10396,8 +10641,11 @@
       <c r="K89" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -10429,14 +10677,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>243</v>
       </c>
       <c r="B91" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" t="s">
         <v>502</v>
       </c>
       <c r="D91" t="str">
@@ -10464,7 +10712,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -10496,7 +10744,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -10533,15 +10781,18 @@
       <c r="K93" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>171</v>
       </c>
       <c r="B94" t="s">
         <v>312</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" t="s">
         <v>502</v>
       </c>
       <c r="D94" t="str">
@@ -10569,7 +10820,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -10603,8 +10854,11 @@
       <c r="K95" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -10639,7 +10893,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -10676,15 +10930,18 @@
       <c r="K97" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>263</v>
       </c>
       <c r="B98" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" t="s">
         <v>502</v>
       </c>
       <c r="D98" t="str">
@@ -10715,7 +10972,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>470</v>
       </c>
@@ -10750,7 +11007,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -10785,7 +11042,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -10820,7 +11077,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -10858,7 +11115,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>245</v>
       </c>
@@ -10893,7 +11150,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>156</v>
       </c>
@@ -10931,7 +11188,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>157</v>
       </c>
@@ -10969,7 +11226,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -11004,7 +11261,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -11033,7 +11290,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -11065,7 +11322,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -11097,7 +11354,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -11134,8 +11391,11 @@
       <c r="K110" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -11170,7 +11430,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>209</v>
       </c>
@@ -11202,7 +11462,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>240</v>
       </c>
@@ -11234,7 +11494,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>467</v>
       </c>
@@ -11266,7 +11526,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -11300,8 +11560,11 @@
       <c r="K115" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -11336,7 +11599,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>194</v>
       </c>
@@ -11374,14 +11637,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>184</v>
       </c>
       <c r="B118" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" t="s">
         <v>502</v>
       </c>
       <c r="D118" t="str">
@@ -11406,7 +11669,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -11444,7 +11707,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>68</v>
       </c>
@@ -11482,7 +11745,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>170</v>
       </c>
@@ -11511,7 +11774,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -11546,7 +11809,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>233</v>
       </c>
@@ -11581,7 +11844,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>472</v>
       </c>
@@ -11618,8 +11881,11 @@
       <c r="K124" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>234</v>
       </c>
@@ -11651,7 +11917,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -11686,7 +11952,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -11721,7 +11987,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>473</v>
       </c>
@@ -11761,8 +12027,11 @@
       <c r="L128" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -11797,7 +12066,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>192</v>
       </c>
@@ -11832,7 +12101,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -11867,7 +12136,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -11902,7 +12171,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -11937,7 +12206,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>69</v>
       </c>
@@ -11972,7 +12241,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12007,7 +12276,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -12036,7 +12305,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>159</v>
       </c>
@@ -12071,7 +12340,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -12109,7 +12378,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -12147,7 +12416,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>77</v>
       </c>
@@ -12185,7 +12454,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>256</v>
       </c>
@@ -12220,7 +12489,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -12255,7 +12524,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>186</v>
       </c>
@@ -12287,7 +12556,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -12324,8 +12593,11 @@
       <c r="K144" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -12362,8 +12634,11 @@
       <c r="K145" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>242</v>
       </c>
@@ -12398,7 +12673,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -12433,7 +12708,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>35</v>
       </c>
@@ -12465,7 +12740,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>211</v>
       </c>
@@ -12500,14 +12775,14 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>190</v>
       </c>
       <c r="B150" t="s">
         <v>312</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" t="s">
         <v>502</v>
       </c>
       <c r="D150" t="str">
@@ -12535,7 +12810,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>266</v>
       </c>
@@ -12564,7 +12839,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>129</v>
       </c>
@@ -12599,7 +12874,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>187</v>
       </c>
@@ -12634,7 +12909,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -12666,7 +12941,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -12703,8 +12978,11 @@
       <c r="K155" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -12741,8 +13019,11 @@
       <c r="K156" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -12780,7 +13061,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>501</v>
       </c>
@@ -12809,7 +13090,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -12841,7 +13122,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>228</v>
       </c>
@@ -12873,7 +13154,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -12908,7 +13189,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>225</v>
       </c>
@@ -12940,7 +13221,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -12977,8 +13258,11 @@
       <c r="K163" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>195</v>
       </c>
@@ -13013,7 +13297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>235</v>
       </c>
@@ -13048,14 +13332,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
       <c r="B166" t="s">
         <v>312</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" t="s">
         <v>502</v>
       </c>
       <c r="D166" t="str">
@@ -13083,7 +13367,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>188</v>
       </c>
@@ -13115,7 +13399,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>112</v>
       </c>
@@ -13150,7 +13434,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>137</v>
       </c>
@@ -13184,8 +13468,11 @@
       <c r="K169" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>239</v>
       </c>
@@ -13214,7 +13501,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -13243,7 +13530,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -13278,7 +13565,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>83</v>
       </c>
@@ -13313,14 +13600,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>227</v>
       </c>
       <c r="B174" t="s">
         <v>312</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" t="s">
         <v>502</v>
       </c>
       <c r="D174" t="str">
@@ -13348,7 +13635,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -13385,8 +13672,11 @@
       <c r="K175" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>230</v>
       </c>
@@ -13421,7 +13711,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -13458,8 +13748,11 @@
       <c r="K177" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>241</v>
       </c>
@@ -13494,7 +13787,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -13526,7 +13819,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -13558,7 +13851,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>212</v>
       </c>
@@ -13590,7 +13883,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>236</v>
       </c>
@@ -13619,7 +13912,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>82</v>
       </c>
@@ -13657,7 +13950,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>165</v>
       </c>
@@ -13689,7 +13982,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -13724,7 +14017,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>138</v>
       </c>
@@ -13759,7 +14052,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>197</v>
       </c>
@@ -13788,7 +14081,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -13823,7 +14116,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>213</v>
       </c>
@@ -13858,7 +14151,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>255</v>
       </c>
@@ -13893,7 +14186,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>134</v>
       </c>
@@ -13927,8 +14220,11 @@
       <c r="K191" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>75</v>
       </c>
@@ -13966,7 +14262,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>34</v>
       </c>
@@ -13998,7 +14294,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>81</v>
       </c>
@@ -14017,7 +14313,7 @@
         <v>1972</v>
       </c>
       <c r="F194">
-        <f t="shared" ref="F194:F257" si="11">E194-D194</f>
+        <f t="shared" ref="F194:F204" si="11">E194-D194</f>
         <v>11</v>
       </c>
       <c r="G194" t="s">
@@ -14036,7 +14332,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>124</v>
       </c>
@@ -14068,7 +14364,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>189</v>
       </c>
@@ -14100,7 +14396,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>80</v>
       </c>
@@ -14135,7 +14431,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -14170,7 +14466,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -14202,7 +14498,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>238</v>
       </c>
@@ -14231,7 +14527,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>173</v>
       </c>
@@ -14269,7 +14565,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>162</v>
       </c>
@@ -14301,7 +14597,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>135</v>
       </c>
@@ -14338,15 +14634,18 @@
       <c r="K203" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>207</v>
       </c>
       <c r="B204" t="s">
         <v>312</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" t="s">
         <v>502</v>
       </c>
       <c r="D204" t="str">
@@ -14372,11 +14671,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L204" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
-      <sortCondition ref="A1:A204"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M204" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
     <sortCondition sortBy="cellColor" ref="C2:C204" dxfId="12"/>
     <sortCondition ref="C2:C204"/>
@@ -14402,14 +14697,14 @@
   <dimension ref="A3:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>

--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADA9BB5-1B2A-2842-B024-C319C2D948C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D80200-A268-9640-8921-A6B4EC3159E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="3" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22780" windowHeight="16160" activeTab="4" xr2:uid="{29C0CFD9-963C-1C42-8D20-73934BE1E4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="jenna list of tech" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="36" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="502">
   <si>
     <t>Refineries</t>
   </si>
@@ -1422,12 +1422,6 @@
     <t>BP cost data</t>
   </si>
   <si>
-    <t>World Bank cost data</t>
-  </si>
-  <si>
-    <t>Nemet cost data</t>
-  </si>
-  <si>
     <t>IRENA cost data</t>
   </si>
   <si>
@@ -1482,9 +1476,6 @@
     <t>Also data from Nemet</t>
   </si>
   <si>
-    <t>maybe this goes separately as just the price of copper (not specifically primary copper?)</t>
-  </si>
-  <si>
     <t>USGS cost data</t>
   </si>
   <si>
@@ -1558,6 +1549,9 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>UNISD</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1643,11 +1637,1201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="61">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1709,138 +2893,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1862,7 +2914,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45098.839033101853" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{8FDF530D-170D-D944-8E51-A09DA6EC40D3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ariana Hammersmith" refreshedDate="45105.773247453704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{8FDF530D-170D-D944-8E51-A09DA6EC40D3}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K204" sheet="matrix"/>
   </cacheSource>
@@ -2068,7 +3120,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Benzene"/>
@@ -2094,7 +3146,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Biogas"/>
@@ -2224,7 +3276,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Cellphones"/>
@@ -2393,7 +3445,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Crop harvester"/>
@@ -2705,7 +3757,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Geothermal Energy"/>
@@ -3082,7 +4134,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Latent heat storage"/>
@@ -3108,7 +4160,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Lead mine production"/>
@@ -3329,7 +4381,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Milk production"/>
@@ -3368,7 +4420,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Natural gas pipeline"/>
@@ -3472,7 +4524,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Nox pollution controls (boilers)"/>
@@ -3602,7 +4654,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="PCV3 Vaccine"/>
@@ -3758,7 +4810,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Power steering"/>
@@ -3888,7 +4940,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Railroad"/>
@@ -3979,7 +5031,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Renewable Power"/>
@@ -4330,7 +5382,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tablet"/>
@@ -4369,7 +5421,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Television"/>
@@ -4382,7 +5434,7 @@
     <x v="0"/>
     <s v="x"/>
     <s v="x"/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Tin"/>
@@ -4499,7 +5551,7 @@
     <x v="0"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Water Heater"/>
@@ -4512,7 +5564,7 @@
     <x v="1"/>
     <s v="x"/>
     <m/>
-    <m/>
+    <s v="x"/>
   </r>
   <r>
     <s v="Wet flue gas desulfurization systems"/>
@@ -4570,7 +5622,155 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A17:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has cost data" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Has country-level data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="36">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7F4FC0-1210-6E4C-A405-DE4021C75FD7}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -4628,154 +5828,6 @@
     <dataField name="Count of Has country-level data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Count of Has cost data" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16290347-F9F9-2049-99BB-51ED0B880882}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A17:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="13">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Count of Technology Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has cost data" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Has country-level data" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5087,8 +6139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A940D3-9849-F741-902E-617E714FB215}">
   <dimension ref="A1:A166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5930,8 +6982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E42A17-7371-D442-9DED-6A3786D48457}">
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I173" sqref="I173"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5946,7 +6998,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F2" t="s">
         <v>99</v>
@@ -5970,7 +7022,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F5" t="s">
         <v>169</v>
@@ -5994,7 +7046,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F8" t="s">
         <v>105</v>
@@ -6090,7 +7142,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F20" t="s">
         <v>73</v>
@@ -6122,7 +7174,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -6189,7 +7241,7 @@
         <v>187</v>
       </c>
       <c r="F32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6389,7 +7441,7 @@
         <v>273</v>
       </c>
       <c r="F57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6517,7 +7569,7 @@
         <v>71</v>
       </c>
       <c r="F73" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -6626,7 +7678,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F87" t="s">
         <v>155</v>
@@ -6634,7 +7686,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F88" t="s">
         <v>224</v>
@@ -6725,7 +7777,7 @@
         <v>97</v>
       </c>
       <c r="F99" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -6845,7 +7897,7 @@
         <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -6949,7 +8001,7 @@
         <v>213</v>
       </c>
       <c r="F127" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -6957,7 +8009,7 @@
         <v>283</v>
       </c>
       <c r="F128" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -7463,20 +8515,20 @@
     <sortCondition ref="F2:F204"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205:F1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F206:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207:F1048576 A1:XFD1 A2:E1048576 G2:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7559,11 +8611,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364F5A92-371D-444A-BF18-6BCF24281AC0}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7586,16 +8639,16 @@
         <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" t="s">
         <v>461</v>
-      </c>
-      <c r="E1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F1" t="s">
-        <v>463</v>
       </c>
       <c r="G1" t="s">
         <v>301</v>
@@ -7616,7 +8669,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -7624,7 +8677,7 @@
         <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D65" si="0">LEFT(G2,4)</f>
@@ -7651,7 +8704,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -7659,7 +8712,7 @@
         <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -7694,7 +8747,7 @@
         <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -7718,7 +8771,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -7726,7 +8779,7 @@
         <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -7753,10 +8806,10 @@
         <v>289</v>
       </c>
       <c r="L5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -7767,7 +8820,7 @@
         <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -7796,7 +8849,7 @@
         <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -7811,7 +8864,7 @@
         <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H7" t="s">
         <v>289</v>
@@ -7823,7 +8876,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -7831,7 +8884,7 @@
         <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -7866,7 +8919,7 @@
         <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -7901,7 +8954,7 @@
         <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -7930,7 +8983,7 @@
         <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -7962,7 +9015,7 @@
         <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -7988,8 +9041,14 @@
       <c r="J12" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -7997,7 +9056,7 @@
         <v>302</v>
       </c>
       <c r="C13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -8032,7 +9091,7 @@
         <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -8055,8 +9114,14 @@
       <c r="I14" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -8064,7 +9129,7 @@
         <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -8094,10 +9159,10 @@
         <v>289</v>
       </c>
       <c r="M15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>257</v>
       </c>
@@ -8105,7 +9170,7 @@
         <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -8140,7 +9205,7 @@
         <v>311</v>
       </c>
       <c r="C17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -8161,7 +9226,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8169,7 +9234,7 @@
         <v>303</v>
       </c>
       <c r="C18" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -8199,7 +9264,7 @@
         <v>289</v>
       </c>
       <c r="M18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -8210,7 +9275,7 @@
         <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -8234,7 +9299,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -8242,7 +9307,7 @@
         <v>305</v>
       </c>
       <c r="C20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -8272,10 +9337,10 @@
         <v>289</v>
       </c>
       <c r="M20" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -8283,7 +9348,7 @@
         <v>302</v>
       </c>
       <c r="C21" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -8310,7 +9375,7 @@
         <v>289</v>
       </c>
       <c r="L21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -8321,7 +9386,7 @@
         <v>304</v>
       </c>
       <c r="C22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -8356,7 +9421,7 @@
         <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -8388,7 +9453,7 @@
         <v>302</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -8414,6 +9479,12 @@
       <c r="J24" t="s">
         <v>289</v>
       </c>
+      <c r="K24" t="s">
+        <v>289</v>
+      </c>
+      <c r="L24" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -8423,7 +9494,7 @@
         <v>311</v>
       </c>
       <c r="C25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -8450,7 +9521,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>202</v>
       </c>
@@ -8458,7 +9529,7 @@
         <v>303</v>
       </c>
       <c r="C26" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -8485,7 +9556,7 @@
         <v>289</v>
       </c>
       <c r="L26" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -8496,7 +9567,7 @@
         <v>309</v>
       </c>
       <c r="C27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -8525,7 +9596,7 @@
         <v>306</v>
       </c>
       <c r="C28" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -8548,11 +9619,8 @@
       <c r="I28" t="s">
         <v>289</v>
       </c>
-      <c r="L28" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>265</v>
       </c>
@@ -8560,7 +9628,7 @@
         <v>306</v>
       </c>
       <c r="C29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -8587,10 +9655,10 @@
         <v>289</v>
       </c>
       <c r="M29" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -8598,7 +9666,7 @@
         <v>303</v>
       </c>
       <c r="C30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -8628,10 +9696,10 @@
         <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M30" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -8642,7 +9710,7 @@
         <v>311</v>
       </c>
       <c r="C31" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -8665,13 +9733,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B32" t="s">
         <v>309</v>
       </c>
       <c r="C32" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -8703,7 +9771,7 @@
         <v>312</v>
       </c>
       <c r="C33" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -8726,9 +9794,6 @@
       <c r="J33" t="s">
         <v>289</v>
       </c>
-      <c r="L33" t="s">
-        <v>459</v>
-      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -8738,7 +9803,7 @@
         <v>308</v>
       </c>
       <c r="C34" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -8761,11 +9826,8 @@
       <c r="I34" t="s">
         <v>289</v>
       </c>
-      <c r="L34" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -8773,7 +9835,7 @@
         <v>306</v>
       </c>
       <c r="C35" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -8800,7 +9862,7 @@
         <v>289</v>
       </c>
       <c r="M35" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -8811,7 +9873,7 @@
         <v>303</v>
       </c>
       <c r="C36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -8846,7 +9908,7 @@
         <v>303</v>
       </c>
       <c r="C37" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -8872,6 +9934,12 @@
       <c r="J37" t="s">
         <v>289</v>
       </c>
+      <c r="K37" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -8881,7 +9949,7 @@
         <v>305</v>
       </c>
       <c r="C38" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -8905,7 +9973,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -8913,7 +9981,7 @@
         <v>306</v>
       </c>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -8943,7 +10011,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -8951,7 +10019,7 @@
         <v>302</v>
       </c>
       <c r="C40" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -8986,7 +10054,7 @@
         <v>304</v>
       </c>
       <c r="C41" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -9018,7 +10086,7 @@
         <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -9050,7 +10118,7 @@
         <v>310</v>
       </c>
       <c r="C43" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -9079,7 +10147,7 @@
         <v>305</v>
       </c>
       <c r="C44" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -9114,7 +10182,7 @@
         <v>305</v>
       </c>
       <c r="C45" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -9149,7 +10217,7 @@
         <v>308</v>
       </c>
       <c r="C46" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -9178,7 +10246,7 @@
         <v>310</v>
       </c>
       <c r="C47" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -9210,7 +10278,7 @@
         <v>311</v>
       </c>
       <c r="C48" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -9239,7 +10307,7 @@
         <v>306</v>
       </c>
       <c r="C49" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -9271,7 +10339,7 @@
         <v>312</v>
       </c>
       <c r="C50" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -9303,7 +10371,7 @@
         <v>310</v>
       </c>
       <c r="C51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -9324,7 +10392,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -9332,7 +10400,7 @@
         <v>302</v>
       </c>
       <c r="C52" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -9359,7 +10427,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -9367,7 +10435,7 @@
         <v>302</v>
       </c>
       <c r="C53" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -9397,7 +10465,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -9405,7 +10473,7 @@
         <v>302</v>
       </c>
       <c r="C54" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -9435,7 +10503,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -9443,7 +10511,7 @@
         <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -9478,7 +10546,7 @@
         <v>312</v>
       </c>
       <c r="C56" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -9507,13 +10575,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s">
         <v>306</v>
       </c>
       <c r="C57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -9545,7 +10613,7 @@
         <v>311</v>
       </c>
       <c r="C58" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -9574,7 +10642,7 @@
         <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -9601,7 +10669,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -9609,7 +10677,7 @@
         <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -9644,7 +10712,7 @@
         <v>311</v>
       </c>
       <c r="C61" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -9667,11 +10735,14 @@
       <c r="I61" t="s">
         <v>289</v>
       </c>
+      <c r="K61" t="s">
+        <v>289</v>
+      </c>
       <c r="L61" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -9679,7 +10750,7 @@
         <v>306</v>
       </c>
       <c r="C62" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -9706,10 +10777,10 @@
         <v>289</v>
       </c>
       <c r="M62" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -9717,7 +10788,7 @@
         <v>303</v>
       </c>
       <c r="C63" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -9747,7 +10818,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>147</v>
       </c>
@@ -9755,7 +10826,7 @@
         <v>303</v>
       </c>
       <c r="C64" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -9785,7 +10856,7 @@
         <v>289</v>
       </c>
       <c r="M64" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -9796,7 +10867,7 @@
         <v>309</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -9828,7 +10899,7 @@
         <v>312</v>
       </c>
       <c r="C66" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D129" si="3">LEFT(G66,4)</f>
@@ -9863,7 +10934,7 @@
         <v>305</v>
       </c>
       <c r="C67" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="3"/>
@@ -9898,7 +10969,7 @@
         <v>305</v>
       </c>
       <c r="C68" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="3"/>
@@ -9925,7 +10996,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -9933,7 +11004,7 @@
         <v>305</v>
       </c>
       <c r="C69" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="3"/>
@@ -9960,10 +11031,10 @@
         <v>289</v>
       </c>
       <c r="M69" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>198</v>
       </c>
@@ -9971,7 +11042,7 @@
         <v>305</v>
       </c>
       <c r="C70" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="3"/>
@@ -9998,10 +11069,10 @@
         <v>289</v>
       </c>
       <c r="M70" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -10009,7 +11080,7 @@
         <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="3"/>
@@ -10036,7 +11107,7 @@
         <v>289</v>
       </c>
       <c r="M71" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -10047,7 +11118,7 @@
         <v>305</v>
       </c>
       <c r="C72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="3"/>
@@ -10074,15 +11145,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s">
         <v>302</v>
       </c>
       <c r="C73" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="3"/>
@@ -10120,7 +11191,7 @@
         <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="3"/>
@@ -10152,7 +11223,7 @@
         <v>311</v>
       </c>
       <c r="C75" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
@@ -10184,7 +11255,7 @@
         <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
@@ -10213,7 +11284,7 @@
         <v>308</v>
       </c>
       <c r="C77" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="3"/>
@@ -10242,7 +11313,7 @@
         <v>308</v>
       </c>
       <c r="C78" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="3"/>
@@ -10271,7 +11342,7 @@
         <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="3"/>
@@ -10298,7 +11369,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -10306,7 +11377,7 @@
         <v>306</v>
       </c>
       <c r="C80" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="3"/>
@@ -10336,10 +11407,10 @@
         <v>289</v>
       </c>
       <c r="M80" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -10347,7 +11418,7 @@
         <v>302</v>
       </c>
       <c r="C81" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="3"/>
@@ -10382,7 +11453,7 @@
         <v>312</v>
       </c>
       <c r="C82" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="3"/>
@@ -10402,9 +11473,6 @@
       <c r="J82" t="s">
         <v>289</v>
       </c>
-      <c r="L82" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -10414,7 +11482,7 @@
         <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="3"/>
@@ -10437,9 +11505,6 @@
       <c r="I83" t="s">
         <v>289</v>
       </c>
-      <c r="L83" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -10449,7 +11514,7 @@
         <v>305</v>
       </c>
       <c r="C84" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="3"/>
@@ -10472,9 +11537,6 @@
       <c r="I84" t="s">
         <v>289</v>
       </c>
-      <c r="L84" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -10484,7 +11546,7 @@
         <v>308</v>
       </c>
       <c r="C85" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="3"/>
@@ -10516,7 +11578,7 @@
         <v>308</v>
       </c>
       <c r="C86" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="3"/>
@@ -10548,7 +11610,7 @@
         <v>305</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="3"/>
@@ -10583,7 +11645,7 @@
         <v>311</v>
       </c>
       <c r="C88" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="3"/>
@@ -10604,7 +11666,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -10612,7 +11674,7 @@
         <v>303</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="3"/>
@@ -10642,7 +11704,7 @@
         <v>289</v>
       </c>
       <c r="M89" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -10653,7 +11715,7 @@
         <v>310</v>
       </c>
       <c r="C90" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="3"/>
@@ -10676,6 +11738,12 @@
       <c r="I90" t="s">
         <v>289</v>
       </c>
+      <c r="K90" t="s">
+        <v>289</v>
+      </c>
+      <c r="L90" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -10685,7 +11753,7 @@
         <v>312</v>
       </c>
       <c r="C91" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="3"/>
@@ -10720,7 +11788,7 @@
         <v>311</v>
       </c>
       <c r="C92" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="3"/>
@@ -10743,8 +11811,14 @@
       <c r="I92" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>289</v>
+      </c>
+      <c r="L92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -10752,7 +11826,7 @@
         <v>303</v>
       </c>
       <c r="C93" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="3"/>
@@ -10782,7 +11856,7 @@
         <v>289</v>
       </c>
       <c r="M93" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -10793,7 +11867,7 @@
         <v>312</v>
       </c>
       <c r="C94" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="3"/>
@@ -10820,7 +11894,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>264</v>
       </c>
@@ -10828,7 +11902,7 @@
         <v>306</v>
       </c>
       <c r="C95" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="3"/>
@@ -10855,7 +11929,7 @@
         <v>289</v>
       </c>
       <c r="M95" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -10866,7 +11940,7 @@
         <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="3"/>
@@ -10893,7 +11967,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -10901,7 +11975,7 @@
         <v>303</v>
       </c>
       <c r="C97" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="3"/>
@@ -10931,7 +12005,7 @@
         <v>289</v>
       </c>
       <c r="M97" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -10942,7 +12016,7 @@
         <v>312</v>
       </c>
       <c r="C98" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="3"/>
@@ -10968,19 +12042,16 @@
       <c r="J98" t="s">
         <v>289</v>
       </c>
-      <c r="L98" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B99" t="s">
         <v>302</v>
       </c>
       <c r="C99" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="3"/>
@@ -11007,7 +12078,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -11015,7 +12086,7 @@
         <v>302</v>
       </c>
       <c r="C100" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
@@ -11050,7 +12121,7 @@
         <v>308</v>
       </c>
       <c r="C101" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
@@ -11073,11 +12144,8 @@
       <c r="I101" t="s">
         <v>289</v>
       </c>
-      <c r="L101" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -11085,7 +12153,7 @@
         <v>302</v>
       </c>
       <c r="C102" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
@@ -11112,7 +12180,7 @@
         <v>289</v>
       </c>
       <c r="L102" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -11123,7 +12191,7 @@
         <v>306</v>
       </c>
       <c r="C103" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="3"/>
@@ -11158,7 +12226,7 @@
         <v>305</v>
       </c>
       <c r="C104" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
@@ -11184,9 +12252,6 @@
       <c r="J104" t="s">
         <v>289</v>
       </c>
-      <c r="L104" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -11196,7 +12261,7 @@
         <v>305</v>
       </c>
       <c r="C105" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
@@ -11222,11 +12287,8 @@
       <c r="J105" t="s">
         <v>289</v>
       </c>
-      <c r="L105" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -11234,7 +12296,7 @@
         <v>302</v>
       </c>
       <c r="C106" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="3"/>
@@ -11269,7 +12331,7 @@
         <v>308</v>
       </c>
       <c r="C107" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="3"/>
@@ -11298,7 +12360,7 @@
         <v>308</v>
       </c>
       <c r="C108" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="3"/>
@@ -11330,7 +12392,7 @@
         <v>311</v>
       </c>
       <c r="C109" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="3"/>
@@ -11353,8 +12415,14 @@
       <c r="I109" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K109" t="s">
+        <v>289</v>
+      </c>
+      <c r="L109" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>221</v>
       </c>
@@ -11362,7 +12430,7 @@
         <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="3"/>
@@ -11392,10 +12460,10 @@
         <v>289</v>
       </c>
       <c r="M110" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -11403,7 +12471,7 @@
         <v>306</v>
       </c>
       <c r="C111" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="3"/>
@@ -11438,7 +12506,7 @@
         <v>310</v>
       </c>
       <c r="C112" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="3"/>
@@ -11461,6 +12529,12 @@
       <c r="I112" t="s">
         <v>289</v>
       </c>
+      <c r="K112" t="s">
+        <v>289</v>
+      </c>
+      <c r="L112" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -11470,7 +12544,7 @@
         <v>307</v>
       </c>
       <c r="C113" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="3"/>
@@ -11496,13 +12570,13 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B114" t="s">
         <v>306</v>
       </c>
       <c r="C114" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="3"/>
@@ -11526,7 +12600,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -11534,7 +12608,7 @@
         <v>306</v>
       </c>
       <c r="C115" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="3"/>
@@ -11561,10 +12635,10 @@
         <v>289</v>
       </c>
       <c r="M115" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -11572,7 +12646,7 @@
         <v>302</v>
       </c>
       <c r="C116" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="3"/>
@@ -11599,7 +12673,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>194</v>
       </c>
@@ -11607,7 +12681,7 @@
         <v>303</v>
       </c>
       <c r="C117" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="3"/>
@@ -11645,7 +12719,7 @@
         <v>312</v>
       </c>
       <c r="C118" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="3"/>
@@ -11677,7 +12751,7 @@
         <v>302</v>
       </c>
       <c r="C119" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="3"/>
@@ -11703,9 +12777,6 @@
       <c r="J119" t="s">
         <v>289</v>
       </c>
-      <c r="L119" t="s">
-        <v>460</v>
-      </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -11715,7 +12786,7 @@
         <v>305</v>
       </c>
       <c r="C120" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="3"/>
@@ -11741,8 +12812,11 @@
       <c r="J120" t="s">
         <v>289</v>
       </c>
+      <c r="K120" t="s">
+        <v>289</v>
+      </c>
       <c r="L120" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -11753,7 +12827,7 @@
         <v>306</v>
       </c>
       <c r="C121" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="3"/>
@@ -11782,7 +12856,7 @@
         <v>306</v>
       </c>
       <c r="C122" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="3"/>
@@ -11817,7 +12891,7 @@
         <v>313</v>
       </c>
       <c r="C123" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="3"/>
@@ -11844,15 +12918,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B124" t="s">
         <v>306</v>
       </c>
       <c r="C124" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="3"/>
@@ -11882,7 +12956,7 @@
         <v>289</v>
       </c>
       <c r="M124" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -11893,7 +12967,7 @@
         <v>307</v>
       </c>
       <c r="C125" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="3"/>
@@ -11925,7 +12999,7 @@
         <v>307</v>
       </c>
       <c r="C126" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="3"/>
@@ -11960,7 +13034,7 @@
         <v>306</v>
       </c>
       <c r="C127" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="3"/>
@@ -11983,19 +13057,16 @@
       <c r="J127" t="s">
         <v>289</v>
       </c>
-      <c r="L127" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B128" t="s">
         <v>306</v>
       </c>
       <c r="C128" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="3"/>
@@ -12025,13 +13096,13 @@
         <v>289</v>
       </c>
       <c r="L128" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M128" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -12039,7 +13110,7 @@
         <v>302</v>
       </c>
       <c r="C129" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="3"/>
@@ -12074,7 +13145,7 @@
         <v>310</v>
       </c>
       <c r="C130" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:D193" si="6">LEFT(G130,4)</f>
@@ -12100,6 +13171,12 @@
       <c r="J130" t="s">
         <v>289</v>
       </c>
+      <c r="K130" t="s">
+        <v>289</v>
+      </c>
+      <c r="L130" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -12109,7 +13186,7 @@
         <v>305</v>
       </c>
       <c r="C131" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="6"/>
@@ -12136,7 +13213,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -12144,7 +13221,7 @@
         <v>302</v>
       </c>
       <c r="C132" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="6"/>
@@ -12171,7 +13248,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -12179,7 +13256,7 @@
         <v>302</v>
       </c>
       <c r="C133" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="6"/>
@@ -12214,7 +13291,7 @@
         <v>305</v>
       </c>
       <c r="C134" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="6"/>
@@ -12241,7 +13318,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12249,7 +13326,7 @@
         <v>302</v>
       </c>
       <c r="C135" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="6"/>
@@ -12284,7 +13361,7 @@
         <v>308</v>
       </c>
       <c r="C136" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="6"/>
@@ -12313,7 +13390,7 @@
         <v>305</v>
       </c>
       <c r="C137" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="6"/>
@@ -12340,7 +13417,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>199</v>
       </c>
@@ -12348,7 +13425,7 @@
         <v>302</v>
       </c>
       <c r="C138" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="6"/>
@@ -12375,10 +13452,10 @@
         <v>289</v>
       </c>
       <c r="L138" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -12386,7 +13463,7 @@
         <v>302</v>
       </c>
       <c r="C139" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="6"/>
@@ -12413,10 +13490,10 @@
         <v>289</v>
       </c>
       <c r="L139" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>77</v>
       </c>
@@ -12424,7 +13501,7 @@
         <v>302</v>
       </c>
       <c r="C140" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="6"/>
@@ -12451,7 +13528,7 @@
         <v>289</v>
       </c>
       <c r="L140" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -12462,7 +13539,7 @@
         <v>307</v>
       </c>
       <c r="C141" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="6"/>
@@ -12497,7 +13574,7 @@
         <v>305</v>
       </c>
       <c r="C142" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="6"/>
@@ -12523,6 +13600,12 @@
       <c r="J142" t="s">
         <v>289</v>
       </c>
+      <c r="K142" t="s">
+        <v>289</v>
+      </c>
+      <c r="L142" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -12532,7 +13615,7 @@
         <v>310</v>
       </c>
       <c r="C143" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="6"/>
@@ -12552,11 +13635,8 @@
       <c r="I143" t="s">
         <v>289</v>
       </c>
-      <c r="L143" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -12564,7 +13644,7 @@
         <v>303</v>
       </c>
       <c r="C144" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="6"/>
@@ -12594,10 +13674,10 @@
         <v>289</v>
       </c>
       <c r="M144" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -12605,7 +13685,7 @@
         <v>303</v>
       </c>
       <c r="C145" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="6"/>
@@ -12635,10 +13715,10 @@
         <v>289</v>
       </c>
       <c r="M145" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>242</v>
       </c>
@@ -12646,7 +13726,7 @@
         <v>303</v>
       </c>
       <c r="C146" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="6"/>
@@ -12673,7 +13753,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -12681,7 +13761,7 @@
         <v>302</v>
       </c>
       <c r="C147" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="6"/>
@@ -12716,7 +13796,7 @@
         <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="6"/>
@@ -12748,7 +13828,7 @@
         <v>307</v>
       </c>
       <c r="C149" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="6"/>
@@ -12771,9 +13851,6 @@
       <c r="I149" t="s">
         <v>289</v>
       </c>
-      <c r="L149" t="s">
-        <v>460</v>
-      </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -12783,7 +13860,7 @@
         <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="6"/>
@@ -12818,7 +13895,7 @@
         <v>310</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="6"/>
@@ -12847,7 +13924,7 @@
         <v>311</v>
       </c>
       <c r="C152" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="6"/>
@@ -12873,6 +13950,12 @@
       <c r="J152" t="s">
         <v>289</v>
       </c>
+      <c r="K152" t="s">
+        <v>289</v>
+      </c>
+      <c r="L152" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -12882,7 +13965,7 @@
         <v>307</v>
       </c>
       <c r="C153" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="6"/>
@@ -12917,7 +14000,7 @@
         <v>308</v>
       </c>
       <c r="C154" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="6"/>
@@ -12941,7 +14024,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -12949,7 +14032,7 @@
         <v>303</v>
       </c>
       <c r="C155" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="6"/>
@@ -12979,10 +14062,10 @@
         <v>289</v>
       </c>
       <c r="M155" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -12990,7 +14073,7 @@
         <v>303</v>
       </c>
       <c r="C156" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="6"/>
@@ -13020,7 +14103,7 @@
         <v>289</v>
       </c>
       <c r="M156" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -13031,7 +14114,7 @@
         <v>305</v>
       </c>
       <c r="C157" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="6"/>
@@ -13057,19 +14140,16 @@
       <c r="J157" t="s">
         <v>289</v>
       </c>
-      <c r="L157" t="s">
-        <v>457</v>
-      </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B158" t="s">
         <v>308</v>
       </c>
       <c r="C158" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="6"/>
@@ -13098,7 +14178,7 @@
         <v>311</v>
       </c>
       <c r="C159" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="6"/>
@@ -13121,6 +14201,12 @@
       <c r="I159" t="s">
         <v>289</v>
       </c>
+      <c r="K159" t="s">
+        <v>289</v>
+      </c>
+      <c r="L159" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -13130,7 +14216,7 @@
         <v>306</v>
       </c>
       <c r="C160" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="6"/>
@@ -13162,7 +14248,7 @@
         <v>305</v>
       </c>
       <c r="C161" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="6"/>
@@ -13197,7 +14283,7 @@
         <v>307</v>
       </c>
       <c r="C162" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="6"/>
@@ -13217,11 +14303,8 @@
       <c r="I162" t="s">
         <v>289</v>
       </c>
-      <c r="L162" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>250</v>
       </c>
@@ -13229,7 +14312,7 @@
         <v>303</v>
       </c>
       <c r="C163" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="6"/>
@@ -13259,10 +14342,10 @@
         <v>289</v>
       </c>
       <c r="M163" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>195</v>
       </c>
@@ -13270,7 +14353,7 @@
         <v>303</v>
       </c>
       <c r="C164" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="6"/>
@@ -13297,7 +14380,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>235</v>
       </c>
@@ -13305,7 +14388,7 @@
         <v>303</v>
       </c>
       <c r="C165" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="6"/>
@@ -13340,7 +14423,7 @@
         <v>312</v>
       </c>
       <c r="C166" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="6"/>
@@ -13375,7 +14458,7 @@
         <v>306</v>
       </c>
       <c r="C167" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="6"/>
@@ -13399,7 +14482,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>112</v>
       </c>
@@ -13407,7 +14490,7 @@
         <v>305</v>
       </c>
       <c r="C168" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="6"/>
@@ -13434,7 +14517,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>137</v>
       </c>
@@ -13442,7 +14525,7 @@
         <v>303</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="6"/>
@@ -13469,7 +14552,7 @@
         <v>289</v>
       </c>
       <c r="M169" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -13480,7 +14563,7 @@
         <v>308</v>
       </c>
       <c r="C170" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="6"/>
@@ -13509,7 +14592,7 @@
         <v>308</v>
       </c>
       <c r="C171" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="6"/>
@@ -13530,7 +14613,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -13538,7 +14621,7 @@
         <v>302</v>
       </c>
       <c r="C172" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="6"/>
@@ -13565,7 +14648,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>83</v>
       </c>
@@ -13573,7 +14656,7 @@
         <v>302</v>
       </c>
       <c r="C173" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="6"/>
@@ -13608,7 +14691,7 @@
         <v>312</v>
       </c>
       <c r="C174" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="6"/>
@@ -13635,7 +14718,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -13643,7 +14726,7 @@
         <v>306</v>
       </c>
       <c r="C175" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="6"/>
@@ -13673,7 +14756,7 @@
         <v>289</v>
       </c>
       <c r="M175" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
@@ -13684,7 +14767,7 @@
         <v>306</v>
       </c>
       <c r="C176" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="6"/>
@@ -13707,11 +14790,8 @@
       <c r="J176" t="s">
         <v>289</v>
       </c>
-      <c r="L176" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -13719,7 +14799,7 @@
         <v>306</v>
       </c>
       <c r="C177" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="6"/>
@@ -13749,7 +14829,7 @@
         <v>289</v>
       </c>
       <c r="M177" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -13760,7 +14840,7 @@
         <v>313</v>
       </c>
       <c r="C178" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="6"/>
@@ -13795,7 +14875,7 @@
         <v>306</v>
       </c>
       <c r="C179" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="6"/>
@@ -13827,7 +14907,7 @@
         <v>310</v>
       </c>
       <c r="C180" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="6"/>
@@ -13859,7 +14939,7 @@
         <v>310</v>
       </c>
       <c r="C181" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="6"/>
@@ -13891,7 +14971,7 @@
         <v>311</v>
       </c>
       <c r="C182" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="6"/>
@@ -13912,7 +14992,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>82</v>
       </c>
@@ -13920,7 +15000,7 @@
         <v>302</v>
       </c>
       <c r="C183" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="6"/>
@@ -13947,7 +15027,7 @@
         <v>289</v>
       </c>
       <c r="L183" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
@@ -13958,7 +15038,7 @@
         <v>304</v>
       </c>
       <c r="C184" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="6"/>
@@ -13990,7 +15070,7 @@
         <v>302</v>
       </c>
       <c r="C185" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="6"/>
@@ -14025,7 +15105,7 @@
         <v>302</v>
       </c>
       <c r="C186" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="6"/>
@@ -14051,6 +15131,12 @@
       <c r="J186" t="s">
         <v>289</v>
       </c>
+      <c r="K186" t="s">
+        <v>289</v>
+      </c>
+      <c r="L186" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -14060,7 +15146,7 @@
         <v>308</v>
       </c>
       <c r="C187" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="6"/>
@@ -14089,7 +15175,7 @@
         <v>307</v>
       </c>
       <c r="C188" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="6"/>
@@ -14124,7 +15210,7 @@
         <v>311</v>
       </c>
       <c r="C189" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="6"/>
@@ -14150,6 +15236,12 @@
       <c r="J189" t="s">
         <v>289</v>
       </c>
+      <c r="K189" t="s">
+        <v>289</v>
+      </c>
+      <c r="L189" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -14159,7 +15251,7 @@
         <v>311</v>
       </c>
       <c r="C190" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="6"/>
@@ -14185,8 +15277,14 @@
       <c r="J190" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K190" t="s">
+        <v>289</v>
+      </c>
+      <c r="L190" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>134</v>
       </c>
@@ -14194,7 +15292,7 @@
         <v>303</v>
       </c>
       <c r="C191" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="6"/>
@@ -14221,10 +15319,10 @@
         <v>289</v>
       </c>
       <c r="M191" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>75</v>
       </c>
@@ -14232,7 +15330,7 @@
         <v>302</v>
       </c>
       <c r="C192" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="6"/>
@@ -14259,7 +15357,7 @@
         <v>289</v>
       </c>
       <c r="L192" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyD